--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="F-15 Presets " sheetId="17" r:id="rId1"/>
-    <sheet name="Frequencies" sheetId="1" r:id="rId2"/>
-    <sheet name="Aircraft" sheetId="2" r:id="rId3"/>
-    <sheet name="F-16 Presets" sheetId="12" r:id="rId4"/>
-    <sheet name="A10 presets" sheetId="5" r:id="rId5"/>
-    <sheet name="F-14 Presets" sheetId="13" r:id="rId6"/>
-    <sheet name="FA-18 Hornet Presets" sheetId="10" r:id="rId7"/>
-    <sheet name="AH64 Presets" sheetId="16" r:id="rId8"/>
+    <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
+    <sheet name="Aircraft" sheetId="2" r:id="rId2"/>
+    <sheet name="F-16 Presets" sheetId="12" r:id="rId3"/>
+    <sheet name="A10 presets" sheetId="5" r:id="rId4"/>
+    <sheet name="F-14 Presets" sheetId="13" r:id="rId5"/>
+    <sheet name="FA-18 Hornet Presets" sheetId="10" r:id="rId6"/>
+    <sheet name="AH64 Presets" sheetId="16" r:id="rId7"/>
+    <sheet name="OH-58 Presets" sheetId="18" r:id="rId8"/>
+    <sheet name="F-15 Presets " sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="545">
   <si>
     <t>AWACS</t>
   </si>
@@ -707,9 +708,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>GRAY 10</t>
-  </si>
-  <si>
     <t>COMM 1</t>
   </si>
   <si>
@@ -749,72 +747,27 @@
     <t>GREEN 7</t>
   </si>
   <si>
-    <t>GREY 6</t>
-  </si>
-  <si>
     <t>GRAY 2</t>
   </si>
   <si>
-    <t>PINK 9</t>
-  </si>
-  <si>
     <t>GREEN 4</t>
   </si>
   <si>
-    <t>ORANGE 10</t>
-  </si>
-  <si>
-    <t>GREEN 6</t>
-  </si>
-  <si>
     <t>AMBER 2</t>
   </si>
   <si>
-    <t>PINK 1</t>
-  </si>
-  <si>
-    <t>LIME 5</t>
-  </si>
-  <si>
-    <t>GOLD 11</t>
-  </si>
-  <si>
-    <t>LEMON 9</t>
-  </si>
-  <si>
-    <t>RED 11</t>
-  </si>
-  <si>
     <t>JTAC WARRIOR</t>
   </si>
   <si>
     <t>JTAC SPARTAN</t>
   </si>
   <si>
-    <t>OCHRE 8</t>
-  </si>
-  <si>
-    <t>YELLOW 1</t>
-  </si>
-  <si>
     <t>WHITE 11</t>
   </si>
   <si>
-    <t>PINK 11</t>
-  </si>
-  <si>
     <t>CARRIER</t>
   </si>
   <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>MAGIC AI</t>
-  </si>
-  <si>
-    <t>PURPLE 11</t>
-  </si>
-  <si>
     <t>WHITE 9</t>
   </si>
   <si>
@@ -827,9 +780,6 @@
     <t>Internal SEC</t>
   </si>
   <si>
-    <t>118.2</t>
-  </si>
-  <si>
     <t>TWR</t>
   </si>
   <si>
@@ -887,36 +837,12 @@
     <t>Tactical 15</t>
   </si>
   <si>
-    <t>Incirlik</t>
-  </si>
-  <si>
     <t>ATIS</t>
   </si>
   <si>
-    <t>129.2</t>
-  </si>
-  <si>
-    <t>129.6</t>
-  </si>
-  <si>
-    <t>Ramat David</t>
-  </si>
-  <si>
-    <t>118.4</t>
-  </si>
-  <si>
-    <t>GOLD 7</t>
-  </si>
-  <si>
-    <t>ORANGE 2</t>
-  </si>
-  <si>
     <t>VIOLET 1</t>
   </si>
   <si>
-    <t>BLUE 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">AWACS </t>
   </si>
   <si>
@@ -926,60 +852,15 @@
     <t>RED 1</t>
   </si>
   <si>
-    <t>MAROON 1</t>
-  </si>
-  <si>
     <t>VIOLET 7</t>
   </si>
   <si>
     <t>TANKER KC-135 MPRS</t>
   </si>
   <si>
-    <t>VIOLET 11</t>
-  </si>
-  <si>
-    <t>WHITE 7</t>
-  </si>
-  <si>
-    <t>CHERRY 6</t>
-  </si>
-  <si>
     <t>ICLS</t>
   </si>
   <si>
-    <t>AR601 TEXACO</t>
-  </si>
-  <si>
-    <t>AR701 ARCO1</t>
-  </si>
-  <si>
-    <t>AR702 ARCO2</t>
-  </si>
-  <si>
-    <t>AR703 ARCO3</t>
-  </si>
-  <si>
-    <t>WARRIOR PRI</t>
-  </si>
-  <si>
-    <t>SPARTAN PRI</t>
-  </si>
-  <si>
-    <t>HITMAN PRI</t>
-  </si>
-  <si>
-    <t>WARRIOR SEC</t>
-  </si>
-  <si>
-    <t>SPARTAN SEC</t>
-  </si>
-  <si>
-    <t>HITMAN SEC</t>
-  </si>
-  <si>
-    <t>AWACS VHF Back-up</t>
-  </si>
-  <si>
     <t>F-16</t>
   </si>
   <si>
@@ -1115,9 +996,6 @@
     <t>UHF Radio 1</t>
   </si>
   <si>
-    <t>F-15 presets  (OPAR) V1.0</t>
-  </si>
-  <si>
     <t>VR11</t>
   </si>
   <si>
@@ -1773,6 +1651,12 @@
   </si>
   <si>
     <t>MOA FREQS</t>
+  </si>
+  <si>
+    <t>OH-58 presets  (TRMA) V1.0</t>
+  </si>
+  <si>
+    <t>F-15 presets  (TRMA) V1.0</t>
   </si>
 </sst>
 </file>
@@ -2869,195 +2753,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3083,6 +2778,195 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3125,7 +3009,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,846 +3332,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="123" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="129" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130" t="s">
-        <v>362</v>
-      </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="21">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A6" s="20">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="21">
-        <v>3</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A7" s="20">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="21">
-        <v>4</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A8" s="20">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="21">
-        <v>5</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A9" s="20">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="21">
-        <v>6</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A10" s="20">
-        <v>7</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="21">
-        <v>7</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A11" s="20">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="21">
-        <v>8</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A12" s="20">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="21">
-        <v>9</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A13" s="20">
-        <v>10</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="21">
-        <v>10</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A14" s="20">
-        <v>11</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="21">
-        <v>11</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A15" s="20">
-        <v>12</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="21">
-        <v>12</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A16" s="20">
-        <v>13</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="21">
-        <v>13</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A17" s="20">
-        <v>14</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E17" s="21">
-        <v>14</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A18" s="20">
-        <v>15</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="E18" s="21">
-        <v>15</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A19" s="20">
-        <v>16</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="E19" s="21">
-        <v>16</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A20" s="20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="E20" s="21">
-        <v>17</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A21" s="20">
-        <v>18</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="21">
-        <v>18</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A22" s="20">
-        <v>19</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="21">
-        <v>19</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A23" s="20">
-        <v>20</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="E23" s="108">
-        <v>20</v>
-      </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="111"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="110">
-        <v>21</v>
-      </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="109"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="110">
-        <v>22</v>
-      </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="109"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="110">
-        <v>23</v>
-      </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="109"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="110">
-        <v>24</v>
-      </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="109"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="110">
-        <v>25</v>
-      </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="109"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="110">
-        <v>26</v>
-      </c>
-      <c r="F29" s="109"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="109"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="110">
-        <v>27</v>
-      </c>
-      <c r="F30" s="109"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="109"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="110">
-        <v>28</v>
-      </c>
-      <c r="F31" s="109"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="109"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="110">
-        <v>29</v>
-      </c>
-      <c r="F32" s="109"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="109"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="110">
-        <v>30</v>
-      </c>
-      <c r="F33" s="109"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="109"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="110">
-        <v>31</v>
-      </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="110">
-        <v>32</v>
-      </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="109"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="110">
-        <v>33</v>
-      </c>
-      <c r="F36" s="109"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="109"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="110">
-        <v>34</v>
-      </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="109"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="110">
-        <v>35</v>
-      </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="109"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="110">
-        <v>36</v>
-      </c>
-      <c r="F39" s="109"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="109"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="110">
-        <v>37</v>
-      </c>
-      <c r="F40" s="109"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="109"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="110">
-        <v>38</v>
-      </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="109"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="20">
-        <v>39</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="110">
-        <v>40</v>
-      </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="109"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AK53"/>
   <sheetViews>
@@ -4315,44 +3359,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="192"/>
-      <c r="B1" s="192">
+      <c r="A1" s="129"/>
+      <c r="B1" s="129">
         <v>1</v>
       </c>
-      <c r="C1" s="192">
+      <c r="C1" s="129">
         <v>2</v>
       </c>
-      <c r="D1" s="192">
+      <c r="D1" s="129">
         <v>3</v>
       </c>
-      <c r="E1" s="192">
+      <c r="E1" s="129">
         <v>4</v>
       </c>
-      <c r="F1" s="192">
+      <c r="F1" s="129">
         <v>5</v>
       </c>
-      <c r="G1" s="192">
+      <c r="G1" s="129">
         <v>6</v>
       </c>
-      <c r="H1" s="192">
+      <c r="H1" s="129">
         <v>7</v>
       </c>
-      <c r="I1" s="192">
+      <c r="I1" s="129">
         <v>8</v>
       </c>
-      <c r="J1" s="192">
+      <c r="J1" s="129">
         <v>9</v>
       </c>
-      <c r="K1" s="192">
+      <c r="K1" s="129">
         <v>10</v>
       </c>
-      <c r="L1" s="192">
+      <c r="L1" s="129">
         <v>11</v>
       </c>
-      <c r="M1" s="192">
+      <c r="M1" s="129">
         <v>12</v>
       </c>
-      <c r="N1" s="192"/>
+      <c r="N1" s="129"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
@@ -4360,59 +3404,59 @@
       <c r="Z1" s="12"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="192" t="s">
-        <v>427</v>
-      </c>
-      <c r="B2" s="193" t="s">
+      <c r="A2" s="129" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="193" t="s">
+      <c r="D2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="193" t="s">
+      <c r="F2" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="193" t="s">
-        <v>453</v>
-      </c>
-      <c r="I2" s="193" t="s">
+      <c r="H2" s="130" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="193" t="s">
+      <c r="J2" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="193" t="s">
+      <c r="K2" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="193" t="s">
+      <c r="L2" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="193" t="s">
-        <v>454</v>
-      </c>
-      <c r="N2" s="192" t="s">
-        <v>427</v>
+      <c r="M2" s="130" t="s">
+        <v>413</v>
+      </c>
+      <c r="N2" s="129" t="s">
+        <v>386</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="133" t="s">
+      <c r="V2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -4420,58 +3464,58 @@
       <c r="AE2" s="12"/>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="192" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" s="193" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" s="193" t="s">
+      <c r="A3" s="129" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="194" t="s">
+      <c r="E3" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="193" t="s">
+      <c r="G3" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="193" t="s">
+      <c r="I3" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="193" t="s">
-        <v>456</v>
-      </c>
-      <c r="M3" s="193" t="s">
-        <v>457</v>
-      </c>
-      <c r="N3" s="192" t="s">
-        <v>428</v>
-      </c>
-      <c r="O3" s="196"/>
+      <c r="L3" s="130" t="s">
+        <v>415</v>
+      </c>
+      <c r="M3" s="130" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" s="129" t="s">
+        <v>387</v>
+      </c>
+      <c r="O3" s="133"/>
       <c r="P3" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
       <c r="V3" s="122" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="W3" s="115" t="s">
         <v>224</v>
@@ -4492,47 +3536,47 @@
       <c r="AE3" s="37"/>
     </row>
     <row r="4" spans="1:34" ht="15.75">
-      <c r="A4" s="192" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="194" t="s">
+      <c r="A4" s="129" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="131" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="D4" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="194" t="s">
+      <c r="E4" s="131" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="194" t="s">
+      <c r="F4" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="131" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="131" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="130" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="194" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="194" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="194" t="s">
-        <v>208</v>
-      </c>
-      <c r="I4" s="194" t="s">
-        <v>209</v>
-      </c>
-      <c r="J4" s="194" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" s="194" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" s="193" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" s="193" t="s">
-        <v>458</v>
-      </c>
-      <c r="N4" s="192" t="s">
-        <v>429</v>
+      <c r="M4" s="130" t="s">
+        <v>417</v>
+      </c>
+      <c r="N4" s="129" t="s">
+        <v>388</v>
       </c>
       <c r="O4" s="13"/>
       <c r="Q4" s="12"/>
@@ -4546,63 +3590,63 @@
         <v>12</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="133" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
+      <c r="AD4" s="147" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
     </row>
     <row r="5" spans="1:34" ht="15.75">
-      <c r="A5" s="192" t="s">
-        <v>430</v>
-      </c>
-      <c r="B5" s="193" t="s">
+      <c r="A5" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="193" t="s">
+      <c r="C5" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="193" t="s">
+      <c r="E5" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="193" t="s">
-        <v>459</v>
-      </c>
-      <c r="G5" s="193" t="s">
+      <c r="F5" s="130" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="193" t="s">
+      <c r="H5" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="193" t="s">
+      <c r="I5" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="193" t="s">
+      <c r="J5" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="193" t="s">
-        <v>460</v>
-      </c>
-      <c r="L5" s="193" t="s">
+      <c r="K5" s="130" t="s">
+        <v>419</v>
+      </c>
+      <c r="L5" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="193" t="s">
-        <v>461</v>
-      </c>
-      <c r="N5" s="192" t="s">
-        <v>430</v>
+      <c r="M5" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="N5" s="129" t="s">
+        <v>389</v>
       </c>
       <c r="O5" s="13"/>
       <c r="Q5" s="12"/>
@@ -4613,16 +3657,16 @@
         <v>3</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
@@ -4644,41 +3688,41 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75">
-      <c r="A6" s="192" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="194" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="193"/>
-      <c r="D6" s="190" t="s">
-        <v>463</v>
-      </c>
-      <c r="E6" s="194" t="s">
-        <v>464</v>
-      </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194" t="s">
-        <v>465</v>
-      </c>
-      <c r="H6" s="190" t="s">
-        <v>466</v>
-      </c>
-      <c r="I6" s="194" t="s">
-        <v>467</v>
-      </c>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193" t="s">
-        <v>468</v>
-      </c>
-      <c r="N6" s="192" t="s">
-        <v>431</v>
+      <c r="A6" s="129" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="D6" s="127" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131" t="s">
+        <v>424</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>425</v>
+      </c>
+      <c r="I6" s="131" t="s">
+        <v>426</v>
+      </c>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130" t="s">
+        <v>427</v>
+      </c>
+      <c r="N6" s="129" t="s">
+        <v>390</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="2" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="121"/>
@@ -4691,7 +3735,7 @@
         <v>74</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="3"/>
@@ -4699,63 +3743,63 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="AE6" s="190" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE6" s="127" t="s">
         <v>23</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG6" s="190" t="s">
-        <v>473</v>
+        <v>240</v>
+      </c>
+      <c r="AG6" s="127" t="s">
+        <v>432</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.75">
-      <c r="A7" s="192" t="s">
-        <v>432</v>
-      </c>
-      <c r="B7" s="193" t="s">
+      <c r="A7" s="129" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="193" t="s">
-        <v>469</v>
-      </c>
-      <c r="F7" s="193" t="s">
+      <c r="E7" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="193" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="190" t="s">
+      <c r="G7" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="190" t="s">
+      <c r="I7" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="193" t="s">
+      <c r="J7" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="193" t="s">
+      <c r="K7" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="193"/>
-      <c r="N7" s="192" t="s">
-        <v>432</v>
-      </c>
-      <c r="O7" s="197"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="129" t="s">
+        <v>391</v>
+      </c>
+      <c r="O7" s="134"/>
       <c r="P7" s="2" t="s">
         <v>213</v>
       </c>
@@ -4770,7 +3814,7 @@
         <v>20</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
@@ -4778,63 +3822,63 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AE7" s="190" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE7" s="127" t="s">
         <v>114</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AG7" s="190" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG7" s="127" t="s">
         <v>26</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15.75">
-      <c r="A8" s="192" t="s">
-        <v>433</v>
-      </c>
-      <c r="B8" s="195" t="s">
+      <c r="A8" s="129" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="193" t="s">
-        <v>470</v>
-      </c>
-      <c r="D8" s="190" t="s">
+      <c r="C8" s="130" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="193" t="s">
-        <v>471</v>
-      </c>
-      <c r="F8" s="195" t="s">
+      <c r="E8" s="130" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="193" t="s">
+      <c r="G8" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="193" t="s">
+      <c r="H8" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="190" t="s">
+      <c r="I8" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="193" t="s">
+      <c r="J8" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="193" t="s">
+      <c r="K8" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="L8" s="193" t="s">
+      <c r="L8" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="M8" s="193"/>
-      <c r="N8" s="192" t="s">
-        <v>433</v>
-      </c>
-      <c r="O8" s="195"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="129" t="s">
+        <v>392</v>
+      </c>
+      <c r="O8" s="132"/>
       <c r="P8" s="2" t="s">
         <v>214</v>
       </c>
@@ -4849,62 +3893,62 @@
         <v>171</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>543</v>
+        <v>502</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AD8" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE8" s="190" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE8" s="127" t="s">
         <v>97</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="AG8" s="190" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG8" s="127" t="s">
         <v>50</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="15.75">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="129" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="131" t="s">
         <v>434</v>
       </c>
-      <c r="B9" s="190" t="s">
-        <v>472</v>
-      </c>
-      <c r="C9" s="190" t="s">
-        <v>473</v>
-      </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193" t="s">
-        <v>474</v>
-      </c>
-      <c r="F9" s="194" t="s">
-        <v>475</v>
-      </c>
-      <c r="G9" s="194" t="s">
-        <v>476</v>
-      </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194" t="s">
-        <v>477</v>
-      </c>
-      <c r="K9" s="190" t="s">
-        <v>478</v>
-      </c>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="192" t="s">
-        <v>434</v>
-      </c>
-      <c r="O9" s="198"/>
+      <c r="G9" s="131" t="s">
+        <v>435</v>
+      </c>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
+        <v>436</v>
+      </c>
+      <c r="K9" s="127" t="s">
+        <v>437</v>
+      </c>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="129" t="s">
+        <v>393</v>
+      </c>
+      <c r="O9" s="135"/>
       <c r="P9" s="2" t="s">
         <v>215</v>
       </c>
@@ -4919,68 +3963,68 @@
         <v>53</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="3"/>
       <c r="AD9" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AE9" s="190" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE9" s="127" t="s">
         <v>38</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="AG9" s="190" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG9" s="127" t="s">
         <v>106</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="15.75">
-      <c r="A10" s="192" t="s">
-        <v>435</v>
-      </c>
-      <c r="B10" s="193" t="s">
+      <c r="A10" s="129" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="193" t="s">
-        <v>479</v>
-      </c>
-      <c r="D10" s="190" t="s">
+      <c r="C10" s="130" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="193" t="s">
+      <c r="E10" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="190" t="s">
+      <c r="F10" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="193" t="s">
+      <c r="G10" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="193" t="s">
-        <v>480</v>
-      </c>
-      <c r="I10" s="193" t="s">
+      <c r="H10" s="130" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="193" t="s">
+      <c r="J10" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="K10" s="193" t="s">
+      <c r="K10" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="193" t="s">
+      <c r="L10" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="M10" s="193"/>
-      <c r="N10" s="192" t="s">
-        <v>435</v>
-      </c>
-      <c r="O10" s="199"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="129" t="s">
+        <v>394</v>
+      </c>
+      <c r="O10" s="136"/>
       <c r="P10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4995,68 +4039,68 @@
         <v>189</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AD10" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE10" s="190" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE10" s="127" t="s">
         <v>101</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG10" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG10" s="127" t="s">
         <v>200</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>562</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75">
-      <c r="A11" s="192" t="s">
-        <v>436</v>
-      </c>
-      <c r="B11" s="193" t="s">
+      <c r="A11" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="193" t="s">
+      <c r="D11" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="193" t="s">
+      <c r="E11" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="193" t="s">
-        <v>481</v>
-      </c>
-      <c r="G11" s="194" t="s">
+      <c r="F11" s="130" t="s">
+        <v>440</v>
+      </c>
+      <c r="G11" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="194" t="s">
+      <c r="H11" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="I11" s="193" t="s">
+      <c r="I11" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="193" t="s">
+      <c r="J11" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="193" t="s">
-        <v>482</v>
-      </c>
-      <c r="L11" s="194" t="s">
+      <c r="K11" s="130" t="s">
+        <v>441</v>
+      </c>
+      <c r="L11" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="M11" s="193"/>
-      <c r="N11" s="192" t="s">
-        <v>436</v>
-      </c>
-      <c r="O11" s="200"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="O11" s="137"/>
       <c r="P11" s="2" t="s">
         <v>212</v>
       </c>
@@ -5072,79 +4116,79 @@
         <v>227</v>
       </c>
       <c r="Y11" s="115" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="Z11" s="115" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="AA11" s="37"/>
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
       <c r="AD11" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE11" s="190" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE11" s="127" t="s">
         <v>135</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="AG11" s="190" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG11" s="127" t="s">
         <v>129</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15.75">
-      <c r="A12" s="192"/>
-      <c r="B12" s="192">
+      <c r="A12" s="129"/>
+      <c r="B12" s="129">
         <v>1</v>
       </c>
-      <c r="C12" s="192">
+      <c r="C12" s="129">
         <v>2</v>
       </c>
-      <c r="D12" s="192">
+      <c r="D12" s="129">
         <v>3</v>
       </c>
-      <c r="E12" s="192">
+      <c r="E12" s="129">
         <v>4</v>
       </c>
-      <c r="F12" s="192">
+      <c r="F12" s="129">
         <v>5</v>
       </c>
-      <c r="G12" s="192">
+      <c r="G12" s="129">
         <v>6</v>
       </c>
-      <c r="H12" s="192">
+      <c r="H12" s="129">
         <v>7</v>
       </c>
-      <c r="I12" s="192">
+      <c r="I12" s="129">
         <v>8</v>
       </c>
-      <c r="J12" s="192">
+      <c r="J12" s="129">
         <v>9</v>
       </c>
-      <c r="K12" s="192">
+      <c r="K12" s="129">
         <v>10</v>
       </c>
-      <c r="L12" s="192">
+      <c r="L12" s="129">
         <v>11</v>
       </c>
-      <c r="M12" s="192">
+      <c r="M12" s="129">
         <v>12</v>
       </c>
-      <c r="N12" s="192"/>
+      <c r="N12" s="129"/>
       <c r="O12" s="38"/>
       <c r="P12" s="2" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="119"/>
       <c r="S12" s="120"/>
       <c r="T12" s="12"/>
       <c r="V12" s="10" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="W12" s="118"/>
       <c r="X12" s="3"/>
@@ -5152,72 +4196,72 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="36"/>
       <c r="AD12" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="AE12" s="190" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE12" s="127" t="s">
         <v>193</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="AG12" s="190" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG12" s="127" t="s">
         <v>194</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15.75">
-      <c r="A13" s="192" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" s="193" t="s">
-        <v>483</v>
+      <c r="A13" s="129" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>442</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="193" t="s">
+      <c r="D13" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="193" t="s">
+      <c r="E13" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="194" t="s">
+      <c r="F13" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="191" t="s">
+      <c r="G13" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="193" t="s">
+      <c r="H13" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="193" t="s">
+      <c r="I13" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="193" t="s">
+      <c r="J13" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="194" t="s">
+      <c r="K13" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="193" t="s">
-        <v>484</v>
-      </c>
-      <c r="M13" s="193"/>
-      <c r="N13" s="192" t="s">
-        <v>437</v>
-      </c>
-      <c r="O13" s="190"/>
+      <c r="L13" s="130" t="s">
+        <v>443</v>
+      </c>
+      <c r="M13" s="130"/>
+      <c r="N13" s="129" t="s">
+        <v>396</v>
+      </c>
+      <c r="O13" s="127"/>
       <c r="P13" s="2" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="119"/>
       <c r="S13" s="120"/>
       <c r="T13" s="12"/>
       <c r="V13" s="10" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="3"/>
@@ -5225,72 +4269,72 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="12"/>
       <c r="AD13" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AE13" s="190" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE13" s="127" t="s">
         <v>36</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="AG13" s="190" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG13" s="127" t="s">
         <v>149</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.75">
-      <c r="A14" s="192" t="s">
-        <v>438</v>
-      </c>
-      <c r="B14" s="193" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="193" t="s">
-        <v>486</v>
-      </c>
-      <c r="D14" s="193" t="s">
+      <c r="A14" s="129" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="130" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="193" t="s">
+      <c r="F14" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="194" t="s">
+      <c r="G14" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="190" t="s">
+      <c r="H14" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="193" t="s">
-        <v>487</v>
-      </c>
-      <c r="J14" s="193" t="s">
+      <c r="I14" s="130" t="s">
+        <v>446</v>
+      </c>
+      <c r="J14" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="191" t="s">
+      <c r="K14" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="193" t="s">
-        <v>488</v>
-      </c>
-      <c r="M14" s="193"/>
-      <c r="N14" s="192" t="s">
-        <v>438</v>
-      </c>
-      <c r="O14" s="191"/>
+      <c r="L14" s="130" t="s">
+        <v>447</v>
+      </c>
+      <c r="M14" s="130"/>
+      <c r="N14" s="129" t="s">
+        <v>397</v>
+      </c>
+      <c r="O14" s="128"/>
       <c r="P14" s="2" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="121"/>
       <c r="S14" s="120"/>
       <c r="T14" s="12"/>
       <c r="V14" s="10" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -5304,45 +4348,45 @@
       <c r="AH14" s="45"/>
     </row>
     <row r="15" spans="1:34" ht="15.75">
-      <c r="A15" s="192" t="s">
-        <v>439</v>
-      </c>
-      <c r="B15" s="193" t="s">
+      <c r="A15" s="129" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="193" t="s">
+      <c r="D15" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="194" t="s">
+      <c r="E15" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="193" t="s">
+      <c r="F15" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="194" t="s">
+      <c r="G15" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="194" t="s">
+      <c r="H15" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="193" t="s">
+      <c r="I15" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="J15" s="193" t="s">
+      <c r="J15" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="190" t="s">
+      <c r="K15" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="L15" s="190" t="s">
+      <c r="L15" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="M15" s="193"/>
-      <c r="N15" s="192" t="s">
-        <v>439</v>
+      <c r="M15" s="130"/>
+      <c r="N15" s="129" t="s">
+        <v>398</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="2"/>
@@ -5354,61 +4398,61 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AD15" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="AE15" s="190" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE15" s="127" t="s">
         <v>166</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="AG15" s="190" t="s">
-        <v>478</v>
+        <v>511</v>
+      </c>
+      <c r="AG15" s="127" t="s">
+        <v>437</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.75">
-      <c r="A16" s="192" t="s">
-        <v>440</v>
-      </c>
-      <c r="B16" s="193" t="s">
-        <v>489</v>
-      </c>
-      <c r="C16" s="193" t="s">
-        <v>490</v>
-      </c>
-      <c r="D16" s="190" t="s">
+      <c r="A16" s="129" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>449</v>
+      </c>
+      <c r="D16" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="193" t="s">
+      <c r="E16" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="193" t="s">
-        <v>491</v>
-      </c>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="130" t="s">
+        <v>450</v>
+      </c>
+      <c r="G16" s="130" t="s">
         <v>170</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I16" s="193" t="s">
-        <v>492</v>
-      </c>
-      <c r="J16" s="194" t="s">
+      <c r="I16" s="130" t="s">
+        <v>451</v>
+      </c>
+      <c r="J16" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="193" t="s">
+      <c r="K16" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="193" t="s">
-        <v>493</v>
-      </c>
-      <c r="M16" s="193"/>
-      <c r="N16" s="192" t="s">
-        <v>440</v>
+      <c r="L16" s="130" t="s">
+        <v>452</v>
+      </c>
+      <c r="M16" s="130"/>
+      <c r="N16" s="129" t="s">
+        <v>399</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="2"/>
@@ -5416,71 +4460,71 @@
       <c r="R16" s="121"/>
       <c r="S16" s="120"/>
       <c r="T16" s="12"/>
-      <c r="V16" s="133" t="s">
+      <c r="V16" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
       <c r="AD16" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="AE16" s="190" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE16" s="127" t="s">
         <v>49</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="AG16" s="190" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG16" s="127" t="s">
         <v>71</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="15.75">
-      <c r="A17" s="192" t="s">
-        <v>441</v>
-      </c>
-      <c r="B17" s="194" t="s">
+      <c r="A17" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="193" t="s">
+      <c r="D17" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="193" t="s">
+      <c r="E17" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="194" t="s">
+      <c r="F17" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="193" t="s">
-        <v>494</v>
-      </c>
-      <c r="H17" s="193" t="s">
+      <c r="G17" s="130" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="I17" s="193" t="s">
+      <c r="I17" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="J17" s="193" t="s">
-        <v>495</v>
-      </c>
-      <c r="K17" s="193" t="s">
+      <c r="J17" s="130" t="s">
+        <v>454</v>
+      </c>
+      <c r="K17" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="L17" s="193" t="s">
+      <c r="L17" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="193"/>
-      <c r="N17" s="192" t="s">
-        <v>441</v>
+      <c r="M17" s="130"/>
+      <c r="N17" s="129" t="s">
+        <v>400</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="2"/>
@@ -5504,67 +4548,67 @@
         <v>220</v>
       </c>
       <c r="AA17" s="115" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="AB17" s="115" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="AE17" s="190" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE17" s="127" t="s">
         <v>131</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="AG17" s="190" t="s">
-        <v>466</v>
+        <v>514</v>
+      </c>
+      <c r="AG17" s="127" t="s">
+        <v>425</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="15.75">
-      <c r="A18" s="192" t="s">
-        <v>442</v>
-      </c>
-      <c r="B18" s="194" t="s">
+      <c r="A18" s="129" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="193" t="s">
-        <v>496</v>
-      </c>
-      <c r="D18" s="193" t="s">
+      <c r="C18" s="130" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" s="130" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="193" t="s">
+      <c r="E18" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="193" t="s">
-        <v>497</v>
-      </c>
-      <c r="G18" s="193" t="s">
-        <v>498</v>
-      </c>
-      <c r="H18" s="193" t="s">
+      <c r="F18" s="130" t="s">
+        <v>456</v>
+      </c>
+      <c r="G18" s="130" t="s">
+        <v>457</v>
+      </c>
+      <c r="H18" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="I18" s="193" t="s">
+      <c r="I18" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="193" t="s">
-        <v>499</v>
-      </c>
-      <c r="K18" s="193" t="s">
+      <c r="J18" s="130" t="s">
+        <v>458</v>
+      </c>
+      <c r="K18" s="130" t="s">
         <v>188</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="M18" s="193"/>
-      <c r="N18" s="192" t="s">
-        <v>442</v>
+      <c r="M18" s="130"/>
+      <c r="N18" s="129" t="s">
+        <v>401</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="2"/>
@@ -5581,61 +4625,61 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AD18" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="AE18" s="190" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE18" s="127" t="s">
         <v>96</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG18" s="190" t="s">
+        <v>515</v>
+      </c>
+      <c r="AG18" s="127" t="s">
         <v>168</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="15.75">
-      <c r="A19" s="192" t="s">
-        <v>443</v>
-      </c>
-      <c r="B19" s="193" t="s">
+      <c r="A19" s="129" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C19" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="193" t="s">
+      <c r="D19" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="190" t="s">
+      <c r="E19" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="190" t="s">
+      <c r="F19" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="193" t="s">
-        <v>500</v>
-      </c>
-      <c r="H19" s="193" t="s">
-        <v>501</v>
-      </c>
-      <c r="I19" s="194" t="s">
+      <c r="G19" s="130" t="s">
+        <v>459</v>
+      </c>
+      <c r="H19" s="130" t="s">
+        <v>460</v>
+      </c>
+      <c r="I19" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="190" t="s">
+      <c r="J19" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="K19" s="193" t="s">
+      <c r="K19" s="130" t="s">
         <v>197</v>
       </c>
-      <c r="L19" s="193" t="s">
-        <v>502</v>
-      </c>
-      <c r="M19" s="193"/>
-      <c r="N19" s="192" t="s">
-        <v>443</v>
+      <c r="L19" s="130" t="s">
+        <v>461</v>
+      </c>
+      <c r="M19" s="130"/>
+      <c r="N19" s="129" t="s">
+        <v>402</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="2"/>
@@ -5652,56 +4696,56 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AD19" s="45"/>
-      <c r="AE19" s="186"/>
+      <c r="AE19" s="123"/>
       <c r="AF19" s="45"/>
       <c r="AG19" s="45"/>
       <c r="AH19" s="45"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="192" t="s">
-        <v>444</v>
-      </c>
-      <c r="B20" s="193" t="s">
+      <c r="A20" s="129" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="194" t="s">
+      <c r="C20" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="190" t="s">
+      <c r="D20" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="E20" s="193" t="s">
+      <c r="E20" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="193" t="s">
+      <c r="F20" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="194" t="s">
+      <c r="G20" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="193"/>
-      <c r="I20" s="194" t="s">
-        <v>234</v>
-      </c>
-      <c r="J20" s="193" t="s">
+      <c r="H20" s="130"/>
+      <c r="I20" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="J20" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="K20" s="194" t="s">
+      <c r="K20" s="131" t="s">
         <v>205</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="M20" s="193"/>
-      <c r="N20" s="192" t="s">
-        <v>444</v>
+        <v>462</v>
+      </c>
+      <c r="M20" s="130"/>
+      <c r="N20" s="129" t="s">
+        <v>403</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5711,61 +4755,61 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AD20" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="AE20" s="190" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE20" s="127" t="s">
         <v>167</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="AG20" s="190" t="s">
-        <v>472</v>
+        <v>512</v>
+      </c>
+      <c r="AG20" s="127" t="s">
+        <v>431</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="192" t="s">
-        <v>445</v>
-      </c>
-      <c r="B21" s="193" t="s">
+      <c r="A21" s="129" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="194" t="s">
+      <c r="C21" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="193" t="s">
+      <c r="E21" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="193" t="s">
+      <c r="F21" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="193" t="s">
+      <c r="G21" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="190" t="s">
+      <c r="H21" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="193" t="s">
-        <v>504</v>
-      </c>
-      <c r="J21" s="190" t="s">
+      <c r="I21" s="130" t="s">
+        <v>463</v>
+      </c>
+      <c r="J21" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="194" t="s">
+      <c r="K21" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="193" t="s">
+      <c r="L21" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="193"/>
-      <c r="N21" s="192" t="s">
-        <v>445</v>
+      <c r="M21" s="130"/>
+      <c r="N21" s="129" t="s">
+        <v>404</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -5782,61 +4826,61 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AD21" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="AE21" s="190" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE21" s="127" t="s">
         <v>196</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="AG21" s="190" t="s">
-        <v>463</v>
+        <v>516</v>
+      </c>
+      <c r="AG21" s="127" t="s">
+        <v>422</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="192" t="s">
-        <v>446</v>
-      </c>
-      <c r="B22" s="194" t="s">
+      <c r="A22" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="194" t="s">
+      <c r="E22" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="193" t="s">
+      <c r="F22" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="193" t="s">
-        <v>505</v>
-      </c>
-      <c r="H22" s="193" t="s">
+      <c r="G22" s="130" t="s">
+        <v>464</v>
+      </c>
+      <c r="H22" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="193" t="s">
-        <v>506</v>
-      </c>
-      <c r="J22" s="194" t="s">
+      <c r="I22" s="130" t="s">
+        <v>465</v>
+      </c>
+      <c r="J22" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="193" t="s">
+      <c r="K22" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="L22" s="194" t="s">
+      <c r="L22" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="193"/>
-      <c r="N22" s="192" t="s">
-        <v>446</v>
+      <c r="M22" s="130"/>
+      <c r="N22" s="129" t="s">
+        <v>405</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -5844,70 +4888,70 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="V22" s="133" t="s">
-        <v>303</v>
-      </c>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="133"/>
-      <c r="AB22" s="133"/>
+      <c r="V22" s="147" t="s">
+        <v>277</v>
+      </c>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
       <c r="AD22" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="AE22" s="190" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE22" s="127" t="s">
         <v>112</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG22" s="190" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG22" s="127" t="s">
         <v>151</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="192"/>
-      <c r="B23" s="192">
+      <c r="A23" s="129"/>
+      <c r="B23" s="129">
         <v>1</v>
       </c>
-      <c r="C23" s="192">
+      <c r="C23" s="129">
         <v>2</v>
       </c>
-      <c r="D23" s="192">
+      <c r="D23" s="129">
         <v>3</v>
       </c>
-      <c r="E23" s="192">
+      <c r="E23" s="129">
         <v>4</v>
       </c>
-      <c r="F23" s="192">
+      <c r="F23" s="129">
         <v>5</v>
       </c>
-      <c r="G23" s="192">
+      <c r="G23" s="129">
         <v>6</v>
       </c>
-      <c r="H23" s="192">
+      <c r="H23" s="129">
         <v>7</v>
       </c>
-      <c r="I23" s="192">
+      <c r="I23" s="129">
         <v>8</v>
       </c>
-      <c r="J23" s="192">
+      <c r="J23" s="129">
         <v>9</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="129">
         <v>10</v>
       </c>
-      <c r="L23" s="192">
+      <c r="L23" s="129">
         <v>11</v>
       </c>
-      <c r="M23" s="192">
+      <c r="M23" s="129">
         <v>12</v>
       </c>
-      <c r="N23" s="192"/>
+      <c r="N23" s="129"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="R23" s="12"/>
@@ -5929,52 +4973,52 @@
         <v>220</v>
       </c>
       <c r="AA23" s="114" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="AB23" s="114" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="192" t="s">
-        <v>447</v>
+      <c r="A24" s="129" t="s">
+        <v>406</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="193" t="s">
+      <c r="D24" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="193" t="s">
+      <c r="E24" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="193" t="s">
-        <v>507</v>
-      </c>
-      <c r="G24" s="193" t="s">
+      <c r="F24" s="130" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="193" t="s">
+      <c r="H24" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="193" t="s">
+      <c r="I24" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="193" t="s">
+      <c r="J24" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="193" t="s">
+      <c r="K24" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="194" t="s">
+      <c r="L24" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="193"/>
-      <c r="N24" s="192" t="s">
-        <v>447</v>
+      <c r="M24" s="130"/>
+      <c r="N24" s="129" t="s">
+        <v>406</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -5988,54 +5032,54 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
-      <c r="AD24" s="133" t="s">
-        <v>583</v>
-      </c>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="133"/>
-      <c r="AH24" s="133"/>
+      <c r="AD24" s="147" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE24" s="147"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="147"/>
+      <c r="AH24" s="147"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="192" t="s">
-        <v>448</v>
-      </c>
-      <c r="B25" s="190" t="s">
+      <c r="A25" s="129" t="s">
+        <v>407</v>
+      </c>
+      <c r="B25" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="193" t="s">
-        <v>508</v>
-      </c>
-      <c r="D25" s="193" t="s">
-        <v>509</v>
-      </c>
-      <c r="E25" s="193" t="s">
+      <c r="C25" s="130" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="194" t="s">
+      <c r="F25" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="193" t="s">
-        <v>510</v>
-      </c>
-      <c r="H25" s="194" t="s">
+      <c r="G25" s="130" t="s">
+        <v>469</v>
+      </c>
+      <c r="H25" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="193" t="s">
+      <c r="I25" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="193" t="s">
+      <c r="J25" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="194" t="s">
+      <c r="K25" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="193" t="s">
+      <c r="L25" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="193"/>
-      <c r="N25" s="192" t="s">
-        <v>448</v>
+      <c r="M25" s="130"/>
+      <c r="N25" s="129" t="s">
+        <v>407</v>
       </c>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
@@ -6065,37 +5109,37 @@
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="192" t="s">
-        <v>449</v>
-      </c>
-      <c r="B26" s="194" t="s">
-        <v>511</v>
-      </c>
-      <c r="C26" s="194" t="s">
-        <v>512</v>
-      </c>
-      <c r="D26" s="193" t="s">
-        <v>513</v>
-      </c>
-      <c r="E26" s="194" t="s">
-        <v>514</v>
-      </c>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="194" t="s">
-        <v>515</v>
-      </c>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193" t="s">
-        <v>516</v>
-      </c>
-      <c r="K26" s="194" t="s">
-        <v>517</v>
-      </c>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="192" t="s">
-        <v>449</v>
+      <c r="A26" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" s="131" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="E26" s="131" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="131" t="s">
+        <v>474</v>
+      </c>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130" t="s">
+        <v>475</v>
+      </c>
+      <c r="K26" s="131" t="s">
+        <v>476</v>
+      </c>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="129" t="s">
+        <v>408</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="2"/>
@@ -6111,61 +5155,61 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AD26" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="AE26" s="191" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE26" s="128" t="s">
         <v>78</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG26" s="191" t="s">
+        <v>540</v>
+      </c>
+      <c r="AG26" s="128" t="s">
         <v>25</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="192" t="s">
-        <v>450</v>
-      </c>
-      <c r="B27" s="190" t="s">
+      <c r="A27" s="129" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="193" t="s">
+      <c r="C27" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="193" t="s">
+      <c r="D27" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="193" t="s">
+      <c r="E27" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="193" t="s">
+      <c r="F27" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="193" t="s">
-        <v>518</v>
-      </c>
-      <c r="H27" s="190" t="s">
+      <c r="G27" s="130" t="s">
+        <v>477</v>
+      </c>
+      <c r="H27" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="193" t="s">
+      <c r="I27" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="193" t="s">
+      <c r="J27" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="194" t="s">
+      <c r="K27" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="L27" s="193" t="s">
+      <c r="L27" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="193"/>
-      <c r="N27" s="192" t="s">
-        <v>450</v>
+      <c r="M27" s="130"/>
+      <c r="N27" s="129" t="s">
+        <v>409</v>
       </c>
       <c r="O27" s="13"/>
       <c r="R27" s="12"/>
@@ -6181,47 +5225,47 @@
       <c r="AB27" s="12"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="192" t="s">
-        <v>451</v>
-      </c>
-      <c r="B28" s="193" t="s">
+      <c r="A28" s="129" t="s">
+        <v>410</v>
+      </c>
+      <c r="B28" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="193" t="s">
+      <c r="C28" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="193" t="s">
+      <c r="D28" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="193" t="s">
+      <c r="E28" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="193" t="s">
+      <c r="F28" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="193" t="s">
+      <c r="G28" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="193" t="s">
+      <c r="H28" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="193" t="s">
+      <c r="I28" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="190" t="s">
+      <c r="J28" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="193" t="s">
+      <c r="K28" s="130" t="s">
         <v>72</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M28" s="194" t="s">
-        <v>519</v>
-      </c>
-      <c r="N28" s="192" t="s">
-        <v>451</v>
+      <c r="M28" s="131" t="s">
+        <v>478</v>
+      </c>
+      <c r="N28" s="129" t="s">
+        <v>410</v>
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
@@ -6229,47 +5273,47 @@
       <c r="U28" s="12"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="192" t="s">
-        <v>452</v>
-      </c>
-      <c r="B29" s="194" t="s">
+      <c r="A29" s="129" t="s">
+        <v>411</v>
+      </c>
+      <c r="B29" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="190" t="s">
+      <c r="D29" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="193" t="s">
-        <v>520</v>
-      </c>
-      <c r="F29" s="194" t="s">
+      <c r="E29" s="130" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="190" t="s">
+      <c r="G29" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="193" t="s">
+      <c r="H29" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="193" t="s">
+      <c r="I29" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="193" t="s">
-        <v>521</v>
-      </c>
-      <c r="K29" s="193" t="s">
+      <c r="J29" s="130" t="s">
+        <v>480</v>
+      </c>
+      <c r="K29" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="193" t="s">
+      <c r="L29" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="194" t="s">
-        <v>522</v>
-      </c>
-      <c r="N29" s="192" t="s">
-        <v>452</v>
+      <c r="M29" s="131" t="s">
+        <v>481</v>
+      </c>
+      <c r="N29" s="129" t="s">
+        <v>411</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -6277,55 +5321,55 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="133" t="s">
+      <c r="V29" s="147" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="133"/>
-      <c r="AB29" s="133"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="192"/>
-      <c r="B30" s="192">
+      <c r="A30" s="129"/>
+      <c r="B30" s="129">
         <v>1</v>
       </c>
-      <c r="C30" s="192">
+      <c r="C30" s="129">
         <v>2</v>
       </c>
-      <c r="D30" s="192">
+      <c r="D30" s="129">
         <v>3</v>
       </c>
-      <c r="E30" s="192">
+      <c r="E30" s="129">
         <v>4</v>
       </c>
-      <c r="F30" s="192">
+      <c r="F30" s="129">
         <v>5</v>
       </c>
-      <c r="G30" s="192">
+      <c r="G30" s="129">
         <v>6</v>
       </c>
-      <c r="H30" s="192">
+      <c r="H30" s="129">
         <v>7</v>
       </c>
-      <c r="I30" s="192">
+      <c r="I30" s="129">
         <v>8</v>
       </c>
-      <c r="J30" s="192">
+      <c r="J30" s="129">
         <v>9</v>
       </c>
-      <c r="K30" s="192">
+      <c r="K30" s="129">
         <v>10</v>
       </c>
-      <c r="L30" s="192">
+      <c r="L30" s="129">
         <v>11</v>
       </c>
-      <c r="M30" s="192">
+      <c r="M30" s="129">
         <v>12</v>
       </c>
-      <c r="N30" s="192"/>
+      <c r="N30" s="129"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -6375,11 +5419,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="134" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="136"/>
+      <c r="AD31" s="148" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="150"/>
     </row>
     <row r="32" spans="1:34">
       <c r="S32" s="12"/>
@@ -6412,7 +5456,7 @@
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AD33" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
@@ -6428,7 +5472,7 @@
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AD34" s="3" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
@@ -6449,7 +5493,7 @@
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AD35" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="AE35" s="11"/>
       <c r="AF35" s="10"/>
@@ -6470,7 +5514,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AD36" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
@@ -6484,17 +5528,17 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="133" t="s">
+      <c r="V37" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="133"/>
-      <c r="X37" s="133"/>
-      <c r="Y37" s="133"/>
-      <c r="Z37" s="133"/>
-      <c r="AA37" s="133"/>
-      <c r="AB37" s="133"/>
+      <c r="W37" s="147"/>
+      <c r="X37" s="147"/>
+      <c r="Y37" s="147"/>
+      <c r="Z37" s="147"/>
+      <c r="AA37" s="147"/>
+      <c r="AB37" s="147"/>
       <c r="AD37" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
@@ -6526,7 +5570,7 @@
       <c r="AA38" s="114"/>
       <c r="AB38" s="114"/>
       <c r="AD38" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AE38" s="11"/>
       <c r="AF38" s="10"/>
@@ -6541,7 +5585,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="10" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
@@ -6550,7 +5594,7 @@
       <c r="AA39" s="10"/>
       <c r="AB39" s="3"/>
       <c r="AD39" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AE39" s="11"/>
       <c r="AF39" s="10"/>
@@ -6566,7 +5610,7 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AD40" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="AE40" s="11"/>
       <c r="AF40" s="10"/>
@@ -6582,7 +5626,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
       <c r="AD41" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
@@ -6591,17 +5635,17 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="133" t="s">
-        <v>260</v>
-      </c>
-      <c r="W42" s="133"/>
-      <c r="X42" s="133"/>
-      <c r="Y42" s="133"/>
-      <c r="Z42" s="133"/>
-      <c r="AA42" s="133"/>
-      <c r="AB42" s="133"/>
+      <c r="V42" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
       <c r="AD42" s="3" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
@@ -6611,7 +5655,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="115" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="W43" s="115" t="s">
         <v>218</v>
@@ -6620,17 +5664,17 @@
         <v>224</v>
       </c>
       <c r="Y43" s="115" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="Z43" s="115" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="AA43" s="115" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="AB43" s="115"/>
       <c r="AD43" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
@@ -6647,7 +5691,7 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="3"/>
       <c r="AD44" s="10" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
@@ -6663,7 +5707,7 @@
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
       <c r="AD45" s="10" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AE45" s="11"/>
       <c r="AF45" s="10"/>
@@ -6679,7 +5723,7 @@
       <c r="Z46" s="117"/>
       <c r="AA46" s="12"/>
       <c r="AD46" s="10" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AE46" s="11"/>
       <c r="AF46" s="10"/>
@@ -6695,7 +5739,7 @@
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
       <c r="AD47" s="10" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
@@ -6704,28 +5748,28 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="134" t="s">
-        <v>570</v>
-      </c>
-      <c r="W48" s="135"/>
-      <c r="X48" s="135"/>
-      <c r="Y48" s="135"/>
-      <c r="Z48" s="135"/>
-      <c r="AA48" s="135"/>
-      <c r="AB48" s="136"/>
+      <c r="V48" s="148" t="s">
+        <v>529</v>
+      </c>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="149"/>
+      <c r="Z48" s="149"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="150"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
       <c r="V49" s="115" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="W49" s="115" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="X49" s="115" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="Y49" s="115" t="s">
         <v>227</v>
@@ -6739,13 +5783,13 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="10" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="X50" s="10" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
@@ -6756,13 +5800,13 @@
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="10" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -6773,13 +5817,13 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="10" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="X52" s="10" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
@@ -6798,17 +5842,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="V16:AB16"/>
     <mergeCell ref="V22:AB22"/>
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
     <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6816,7 +5860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AD32"/>
   <sheetViews>
@@ -6836,428 +5880,428 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30">
-      <c r="B2" s="133" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="H2" s="133" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="N2" s="133" t="s">
-        <v>240</v>
-      </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="T2" s="133" t="s">
-        <v>265</v>
-      </c>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Z2" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
+      <c r="B2" s="147" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="H2" s="147" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="N2" s="147" t="s">
+        <v>239</v>
+      </c>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="T2" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Z2" s="147" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
     </row>
     <row r="3" spans="2:30">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="187" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" s="188" t="s">
-        <v>542</v>
-      </c>
-      <c r="E3" s="187" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="188" t="s">
-        <v>366</v>
-      </c>
-      <c r="H3" s="187" t="s">
+      <c r="C3" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="125" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="187" t="s">
-        <v>321</v>
-      </c>
-      <c r="J3" s="188" t="s">
-        <v>542</v>
-      </c>
-      <c r="K3" s="187" t="s">
-        <v>322</v>
-      </c>
-      <c r="L3" s="188" t="s">
-        <v>366</v>
-      </c>
-      <c r="N3" s="187" t="s">
+      <c r="I3" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="J3" s="125" t="s">
+        <v>501</v>
+      </c>
+      <c r="K3" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="N3" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="O3" s="187" t="s">
-        <v>321</v>
-      </c>
-      <c r="P3" s="188" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q3" s="187" t="s">
-        <v>322</v>
-      </c>
-      <c r="R3" s="188" t="s">
-        <v>366</v>
-      </c>
-      <c r="T3" s="187" t="s">
+      <c r="O3" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="125" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q3" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="R3" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="T3" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="U3" s="187" t="s">
-        <v>321</v>
-      </c>
-      <c r="V3" s="188" t="s">
-        <v>542</v>
-      </c>
-      <c r="W3" s="187" t="s">
-        <v>322</v>
-      </c>
-      <c r="X3" s="188" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z3" s="187" t="s">
+      <c r="U3" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="V3" s="125" t="s">
+        <v>501</v>
+      </c>
+      <c r="W3" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="X3" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z3" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="AA3" s="187" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB3" s="188" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC3" s="187" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD3" s="188" t="s">
-        <v>366</v>
+      <c r="AA3" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB3" s="125" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC3" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD3" s="125" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="2:30">
       <c r="B4" s="3" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="189"/>
+      <c r="D4" s="126"/>
       <c r="E4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F4" s="189" t="s">
-        <v>367</v>
+        <v>324</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="2:30">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="189"/>
+      <c r="D5" s="126"/>
       <c r="E5" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F5" s="189" t="s">
-        <v>368</v>
+        <v>330</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="2:30">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="189"/>
+      <c r="D6" s="126"/>
       <c r="E6" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F6" s="189" t="s">
-        <v>369</v>
+        <v>331</v>
+      </c>
+      <c r="F6" s="126" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="2:30">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="189"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F7" s="189" t="s">
-        <v>370</v>
+        <v>332</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="2:30">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="189"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="189"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="2:30">
       <c r="B9" s="3" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="189"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F9" s="189" t="s">
-        <v>377</v>
+        <v>335</v>
+      </c>
+      <c r="F9" s="126" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="2:30">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="189"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F10" s="189" t="s">
-        <v>378</v>
+        <v>346</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="2:30">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="189"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11" s="189" t="s">
-        <v>379</v>
+        <v>347</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="2:30">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="189"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F12" s="189" t="s">
-        <v>380</v>
+        <v>348</v>
+      </c>
+      <c r="F12" s="126" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="2:30">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="189"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="189"/>
+      <c r="F13" s="126"/>
     </row>
     <row r="14" spans="2:30">
       <c r="B14" s="3" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="189"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F14" s="189" t="s">
-        <v>383</v>
+        <v>341</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="2:30">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="189"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F15" s="189" t="s">
-        <v>384</v>
+        <v>349</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="2:30">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="189"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F16" s="189" t="s">
-        <v>385</v>
+        <v>350</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="189"/>
+      <c r="D17" s="126"/>
       <c r="E17" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F17" s="189" t="s">
-        <v>386</v>
+        <v>351</v>
+      </c>
+      <c r="F17" s="126" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="189"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="189"/>
+      <c r="F18" s="126"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="189"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F19" s="189" t="s">
-        <v>395</v>
+        <v>353</v>
+      </c>
+      <c r="F19" s="126" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="189"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F20" s="189" t="s">
-        <v>396</v>
+        <v>358</v>
+      </c>
+      <c r="F20" s="126" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="189"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" s="189" t="s">
-        <v>397</v>
+        <v>359</v>
+      </c>
+      <c r="F21" s="126" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="189"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F22" s="189" t="s">
-        <v>398</v>
+        <v>360</v>
+      </c>
+      <c r="F22" s="126" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="189"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="189"/>
+      <c r="F23" s="126"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="3" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="189"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F24" s="189" t="s">
-        <v>404</v>
+        <v>362</v>
+      </c>
+      <c r="F24" s="126" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="189"/>
+      <c r="D25" s="126"/>
       <c r="E25" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F25" s="189" t="s">
-        <v>405</v>
+        <v>367</v>
+      </c>
+      <c r="F25" s="126" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="189"/>
+      <c r="D26" s="126"/>
       <c r="E26" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F26" s="189" t="s">
-        <v>406</v>
+        <v>368</v>
+      </c>
+      <c r="F26" s="126" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="189"/>
+      <c r="D27" s="126"/>
       <c r="E27" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F27" s="189" t="s">
-        <v>407</v>
+        <v>369</v>
+      </c>
+      <c r="F27" s="126" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="189"/>
+      <c r="D28" s="126"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="189"/>
+      <c r="F28" s="126"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="3" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="189"/>
+      <c r="D29" s="126"/>
       <c r="E29" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F29" s="189" t="s">
-        <v>413</v>
+        <v>371</v>
+      </c>
+      <c r="F29" s="126" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="189"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F30" s="189" t="s">
-        <v>414</v>
+        <v>376</v>
+      </c>
+      <c r="F30" s="126" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="189"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F31" s="189" t="s">
-        <v>415</v>
+        <v>377</v>
+      </c>
+      <c r="F31" s="126" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="189"/>
+      <c r="D32" s="126"/>
       <c r="E32" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F32" s="189" t="s">
-        <v>416</v>
+        <v>378</v>
+      </c>
+      <c r="F32" s="126" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +6317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
@@ -7295,40 +6339,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="123" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
+      <c r="A1" s="138" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="129" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
+      <c r="A3" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -7337,7 +6381,7 @@
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="30" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
@@ -7345,7 +6389,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="22" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1">
@@ -7916,7 +6960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -7933,28 +6977,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="140" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="A1" s="155" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="152" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="139"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -8133,16 +7177,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="139"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="154"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -8318,16 +7362,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="139"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="154"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -8503,7 +7547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -8527,40 +7571,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="141" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="143"/>
+      <c r="A1" s="156" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="162" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="147" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -8569,7 +7613,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -8577,7 +7621,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1">
@@ -8977,7 +8021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -8999,40 +8043,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="168" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="A1" s="166" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="168" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="170" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="171"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -9325,270 +8369,241 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="170" t="s">
-        <v>333</v>
-      </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="170" t="s">
-        <v>334</v>
-      </c>
-      <c r="F25" s="171"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="173"/>
+      <c r="A25" s="168" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="169"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="169"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="159"/>
+        <v>295</v>
+      </c>
+      <c r="B26" s="172"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="F26" s="165"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="167"/>
+        <v>296</v>
+      </c>
+      <c r="F26" s="175"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="177"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="163"/>
+        <v>297</v>
+      </c>
+      <c r="B27" s="178"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="F27" s="157"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="164"/>
+        <v>298</v>
+      </c>
+      <c r="F27" s="172"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="181"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
+        <v>299</v>
+      </c>
+      <c r="B28" s="172"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
       <c r="E28" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="162"/>
+        <v>300</v>
+      </c>
+      <c r="F28" s="178"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="182"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="161"/>
-      <c r="D29" s="163"/>
+        <v>301</v>
+      </c>
+      <c r="B29" s="178"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="164"/>
+        <v>302</v>
+      </c>
+      <c r="F29" s="172"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="181"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="159"/>
+        <v>303</v>
+      </c>
+      <c r="B30" s="172"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="58" t="s">
-        <v>344</v>
-      </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="162"/>
+        <v>304</v>
+      </c>
+      <c r="F30" s="178"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="182"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="163"/>
+        <v>305</v>
+      </c>
+      <c r="B31" s="178"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="180"/>
       <c r="E31" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="164"/>
+        <v>306</v>
+      </c>
+      <c r="F31" s="172"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="181"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="159"/>
+        <v>307</v>
+      </c>
+      <c r="B32" s="172"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="174"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="162" t="s">
-        <v>255</v>
+      <c r="F32" s="178"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="182" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickBot="1">
       <c r="A33" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="B33" s="160"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="163"/>
+        <v>308</v>
+      </c>
+      <c r="B33" s="178"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="180"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="164" t="s">
-        <v>328</v>
+      <c r="F33" s="172"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="181" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75" thickBot="1">
       <c r="A34" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="159"/>
+        <v>309</v>
+      </c>
+      <c r="B34" s="172"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="162" t="s">
-        <v>329</v>
+      <c r="F34" s="178"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="182" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" thickBot="1">
       <c r="A35" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="B35" s="160"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="163"/>
+        <v>310</v>
+      </c>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="164" t="s">
-        <v>330</v>
+      <c r="F35" s="172"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="181" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" thickBot="1">
       <c r="A36" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="159"/>
+        <v>311</v>
+      </c>
+      <c r="B36" s="172"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="174"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="162" t="s">
-        <v>331</v>
+      <c r="F36" s="178"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="182" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" thickBot="1">
       <c r="A37" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="B37" s="160"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="163"/>
+        <v>312</v>
+      </c>
+      <c r="B37" s="178"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="180"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="164" t="s">
-        <v>332</v>
+      <c r="F37" s="172"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="181" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75" thickBot="1">
       <c r="A38" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="159"/>
+        <v>313</v>
+      </c>
+      <c r="B38" s="172"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="162" t="s">
-        <v>254</v>
+      <c r="F38" s="178"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="182" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" thickBot="1">
       <c r="A39" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="163"/>
+        <v>314</v>
+      </c>
+      <c r="B39" s="178"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="180"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="164" t="s">
-        <v>255</v>
+      <c r="F39" s="172"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="181" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" thickBot="1">
       <c r="A40" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="159"/>
+        <v>315</v>
+      </c>
+      <c r="B40" s="172"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="174"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="162"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="182"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
-        <v>356</v>
-      </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="153"/>
+        <v>316</v>
+      </c>
+      <c r="B41" s="183"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="185"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="156"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -9597,13 +8612,42 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -9625,40 +8669,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="180" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="182"/>
+      <c r="A1" s="195" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="197"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="185"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="200"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="189" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="174" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="189" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="191"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9875,18 +8919,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="177" t="s">
-        <v>359</v>
-      </c>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="177" t="s">
-        <v>360</v>
-      </c>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="179"/>
+      <c r="A22" s="192" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="193"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="192" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="194"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -10139,4 +9183,1174 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="195" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="197"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="198"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="200"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" thickBot="1">
+      <c r="A3" s="189" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="189" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="191"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="93">
+        <v>1</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="93">
+        <v>1</v>
+      </c>
+      <c r="F4" s="92"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A5" s="93">
+        <v>2</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="93">
+        <v>2</v>
+      </c>
+      <c r="F5" s="92"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A6" s="93">
+        <v>3</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="93">
+        <v>3</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="93">
+        <v>4</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="93">
+        <v>4</v>
+      </c>
+      <c r="F7" s="92"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A8" s="93">
+        <v>5</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="93">
+        <v>5</v>
+      </c>
+      <c r="F8" s="92"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A9" s="93">
+        <v>6</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="93">
+        <v>6</v>
+      </c>
+      <c r="F9" s="92"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A10" s="93">
+        <v>7</v>
+      </c>
+      <c r="B10" s="92"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="93">
+        <v>7</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="93">
+        <v>8</v>
+      </c>
+      <c r="F11" s="92"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A12" s="93"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="93">
+        <v>9</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="93">
+        <v>10</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="96"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="97"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="96"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="96"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="85"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="96"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="96"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="85"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="96"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="85"/>
+    </row>
+    <row r="20" spans="1:8" ht="78.75" customHeight="1">
+      <c r="A20" s="96"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="85"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="96"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="85"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A22" s="192" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="193"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="192" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="194"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A23" s="78">
+        <v>1</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78">
+        <v>1</v>
+      </c>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A24" s="78">
+        <v>2</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="78">
+        <v>2</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A25" s="78">
+        <v>3</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="78">
+        <v>3</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A26" s="78">
+        <v>4</v>
+      </c>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="78">
+        <v>4</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A27" s="78">
+        <v>5</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="78">
+        <v>5</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A28" s="78">
+        <v>6</v>
+      </c>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="78">
+        <v>6</v>
+      </c>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A29" s="78">
+        <v>7</v>
+      </c>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="78">
+        <v>7</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A30" s="78">
+        <v>8</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="78">
+        <v>8</v>
+      </c>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="81"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A31" s="78">
+        <v>9</v>
+      </c>
+      <c r="B31" s="79"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="78">
+        <v>9</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="81"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A32" s="102">
+        <v>10</v>
+      </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="102">
+        <v>10</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="81"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
+      <c r="A33" s="96"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="85"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
+      <c r="A34" s="96"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="85"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75">
+      <c r="A35" s="96"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="85"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75">
+      <c r="A36" s="96"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="85"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75">
+      <c r="A37" s="96"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="85"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75">
+      <c r="A38" s="96"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="85"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75">
+      <c r="A39" s="96"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="85"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="A40" s="96"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="85"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75">
+      <c r="A41" s="96"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="85"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="138" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="140"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="141"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="144" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="21">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="21">
+        <v>5</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="21">
+        <v>7</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="21">
+        <v>8</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="21">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="21">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="21">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="21">
+        <v>12</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="21">
+        <v>13</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="21">
+        <v>14</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="21">
+        <v>15</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="21">
+        <v>16</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="21">
+        <v>17</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="21">
+        <v>18</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="21">
+        <v>19</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="108">
+        <v>20</v>
+      </c>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="111"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="110">
+        <v>21</v>
+      </c>
+      <c r="F24" s="109"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="109"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="110">
+        <v>22</v>
+      </c>
+      <c r="F25" s="109"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="109"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="110">
+        <v>23</v>
+      </c>
+      <c r="F26" s="109"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="109"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="110">
+        <v>24</v>
+      </c>
+      <c r="F27" s="109"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="109"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="110">
+        <v>25</v>
+      </c>
+      <c r="F28" s="109"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="109"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="110">
+        <v>26</v>
+      </c>
+      <c r="F29" s="109"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="109"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="110">
+        <v>27</v>
+      </c>
+      <c r="F30" s="109"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="109"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="110">
+        <v>28</v>
+      </c>
+      <c r="F31" s="109"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="109"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="110">
+        <v>29</v>
+      </c>
+      <c r="F32" s="109"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="109"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="110">
+        <v>30</v>
+      </c>
+      <c r="F33" s="109"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="109"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="110">
+        <v>31</v>
+      </c>
+      <c r="F34" s="109"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="110">
+        <v>32</v>
+      </c>
+      <c r="F35" s="109"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="109"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="110">
+        <v>33</v>
+      </c>
+      <c r="F36" s="109"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="110">
+        <v>34</v>
+      </c>
+      <c r="F37" s="109"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="109"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="110">
+        <v>35</v>
+      </c>
+      <c r="F38" s="109"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="109"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="110">
+        <v>36</v>
+      </c>
+      <c r="F39" s="109"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="109"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="110">
+        <v>37</v>
+      </c>
+      <c r="F40" s="109"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="109"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="110">
+        <v>38</v>
+      </c>
+      <c r="F41" s="109"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="109"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="20">
+        <v>39</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="110">
+        <v>40</v>
+      </c>
+      <c r="F43" s="109"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="109"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="579">
   <si>
     <t>AWACS</t>
   </si>
@@ -1026,141 +1026,6 @@
     <t>VIPER 1</t>
   </si>
   <si>
-    <t>VENOM 2</t>
-  </si>
-  <si>
-    <t>VM21</t>
-  </si>
-  <si>
-    <t>00035</t>
-  </si>
-  <si>
-    <t>00036</t>
-  </si>
-  <si>
-    <t>00037</t>
-  </si>
-  <si>
-    <t>00040</t>
-  </si>
-  <si>
-    <t>LOBO 3</t>
-  </si>
-  <si>
-    <t>LO31</t>
-  </si>
-  <si>
-    <t>00055</t>
-  </si>
-  <si>
-    <t>00056</t>
-  </si>
-  <si>
-    <t>00057</t>
-  </si>
-  <si>
-    <t>00060</t>
-  </si>
-  <si>
-    <t>VM22</t>
-  </si>
-  <si>
-    <t>VM23</t>
-  </si>
-  <si>
-    <t>VM24</t>
-  </si>
-  <si>
-    <t>LO32</t>
-  </si>
-  <si>
-    <t>LO33</t>
-  </si>
-  <si>
-    <t>LO34</t>
-  </si>
-  <si>
-    <t>COWBOY 4</t>
-  </si>
-  <si>
-    <t>CY41</t>
-  </si>
-  <si>
-    <t>00065</t>
-  </si>
-  <si>
-    <t>00066</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>00070</t>
-  </si>
-  <si>
-    <t>CY42</t>
-  </si>
-  <si>
-    <t>CY43</t>
-  </si>
-  <si>
-    <t>CY44</t>
-  </si>
-  <si>
-    <t>PYTHON 5</t>
-  </si>
-  <si>
-    <t>PN51</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>00012</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>PN52</t>
-  </si>
-  <si>
-    <t>PN53</t>
-  </si>
-  <si>
-    <t>PN54</t>
-  </si>
-  <si>
-    <t>RATTLER 6</t>
-  </si>
-  <si>
-    <t>RR61</t>
-  </si>
-  <si>
-    <t>00025</t>
-  </si>
-  <si>
-    <t>00026</t>
-  </si>
-  <si>
-    <t>00027</t>
-  </si>
-  <si>
-    <t>00030</t>
-  </si>
-  <si>
-    <t>RR62</t>
-  </si>
-  <si>
-    <t>RR63</t>
-  </si>
-  <si>
-    <t>RR64</t>
-  </si>
-  <si>
     <t>F-16C presets  (TRMA) V1.0</t>
   </si>
   <si>
@@ -1657,6 +1522,243 @@
   </si>
   <si>
     <t>F-15 presets  (TRMA) V1.0</t>
+  </si>
+  <si>
+    <t>Gunslinger 1</t>
+  </si>
+  <si>
+    <t>Hammerhead 1</t>
+  </si>
+  <si>
+    <t>OH-58</t>
+  </si>
+  <si>
+    <t>SABER 1</t>
+  </si>
+  <si>
+    <t>OUTCAST 1</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Hawg</t>
+  </si>
+  <si>
+    <t>Jedi</t>
+  </si>
+  <si>
+    <t>Hornet</t>
+  </si>
+  <si>
+    <t>Tusk</t>
+  </si>
+  <si>
+    <t>Chevy</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>VENOM</t>
+  </si>
+  <si>
+    <t>DEVIL</t>
+  </si>
+  <si>
+    <t>PONTIAC</t>
+  </si>
+  <si>
+    <t>AR201 #IFF:5201FR</t>
+  </si>
+  <si>
+    <t>ARCO 1</t>
+  </si>
+  <si>
+    <t>280.000</t>
+  </si>
+  <si>
+    <t>281.000</t>
+  </si>
+  <si>
+    <t>282.000</t>
+  </si>
+  <si>
+    <t>283.000</t>
+  </si>
+  <si>
+    <t>284.000</t>
+  </si>
+  <si>
+    <t>285.000</t>
+  </si>
+  <si>
+    <t>286.000</t>
+  </si>
+  <si>
+    <t>287.000</t>
+  </si>
+  <si>
+    <t>288.000</t>
+  </si>
+  <si>
+    <t>289.000</t>
+  </si>
+  <si>
+    <t>280.5</t>
+  </si>
+  <si>
+    <t>281.5</t>
+  </si>
+  <si>
+    <t>282.5</t>
+  </si>
+  <si>
+    <t>283.5</t>
+  </si>
+  <si>
+    <t>GRAY 12</t>
+  </si>
+  <si>
+    <t>AR301 #IFF:5301FR</t>
+  </si>
+  <si>
+    <t>SHELL 1</t>
+  </si>
+  <si>
+    <t>PINK 12</t>
+  </si>
+  <si>
+    <t>45X</t>
+  </si>
+  <si>
+    <t>AR201 #IFF:5101FR</t>
+  </si>
+  <si>
+    <t>TEXACO 1</t>
+  </si>
+  <si>
+    <t>37Y</t>
+  </si>
+  <si>
+    <t>38Y</t>
+  </si>
+  <si>
+    <t>39Y</t>
+  </si>
+  <si>
+    <t>40Y</t>
+  </si>
+  <si>
+    <t>41Y</t>
+  </si>
+  <si>
+    <t>42Y</t>
+  </si>
+  <si>
+    <t>43Y</t>
+  </si>
+  <si>
+    <t>44Y</t>
+  </si>
+  <si>
+    <t>64Y</t>
+  </si>
+  <si>
+    <t>46Y</t>
+  </si>
+  <si>
+    <t>47Y</t>
+  </si>
+  <si>
+    <t>48Y</t>
+  </si>
+  <si>
+    <t>49Y</t>
+  </si>
+  <si>
+    <t>65Y</t>
+  </si>
+  <si>
+    <t>GREEN 12</t>
+  </si>
+  <si>
+    <t>ARCO 2</t>
+  </si>
+  <si>
+    <t>INDIGO 12</t>
+  </si>
+  <si>
+    <t>ARCO 3</t>
+  </si>
+  <si>
+    <t>ARCO 4</t>
+  </si>
+  <si>
+    <t>ARCO 5</t>
+  </si>
+  <si>
+    <t>AR203 #IFF:5203FR</t>
+  </si>
+  <si>
+    <t>AR202 #IFF:5202FR</t>
+  </si>
+  <si>
+    <t>ORANGE 12</t>
+  </si>
+  <si>
+    <t>AR302 #IFF:5302FR</t>
+  </si>
+  <si>
+    <t>SHELL 2</t>
+  </si>
+  <si>
+    <t>AR303 #IFF:5303FR</t>
+  </si>
+  <si>
+    <t>SHELL 3</t>
+  </si>
+  <si>
+    <t>OLIVE 12</t>
+  </si>
+  <si>
+    <t>OCHRE 12</t>
+  </si>
+  <si>
+    <t>SHELL 4</t>
+  </si>
+  <si>
+    <t>AR304 #IFF:5304FR</t>
+  </si>
+  <si>
+    <t>LEMON 12</t>
+  </si>
+  <si>
+    <t>AR401 #IFF:5401FR</t>
+  </si>
+  <si>
+    <t>LIME 12</t>
+  </si>
+  <si>
+    <t>AR501 #IFF:5501FR</t>
+  </si>
+  <si>
+    <t>SHELL 5</t>
+  </si>
+  <si>
+    <t>SHELL 6</t>
+  </si>
+  <si>
+    <t>AR502 #IFF:5502FR</t>
+  </si>
+  <si>
+    <t>MAROON 12</t>
+  </si>
+  <si>
+    <t>PURPLE 12</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1768,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1812,6 +1914,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -2443,7 +2552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2778,6 +2887,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2805,21 +2934,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2967,6 +3081,10 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3333,10 +3451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Ark1"/>
-  <dimension ref="A1:AK53"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3356,9 +3474,11 @@
     <col min="32" max="32" width="16" customWidth="1"/>
     <col min="33" max="33" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.28515625" customWidth="1"/>
+    <col min="36" max="36" width="23" customWidth="1"/>
+    <col min="39" max="39" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:42">
       <c r="A1" s="129"/>
       <c r="B1" s="129">
         <v>1</v>
@@ -3403,9 +3523,9 @@
       <c r="T1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:42">
       <c r="A2" s="129" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="B2" s="130" t="s">
         <v>111</v>
@@ -3426,7 +3546,7 @@
         <v>116</v>
       </c>
       <c r="H2" s="130" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="I2" s="130" t="s">
         <v>117</v>
@@ -3441,34 +3561,34 @@
         <v>120</v>
       </c>
       <c r="M2" s="130" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="147" t="s">
+      <c r="V2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:42">
       <c r="A3" s="129" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="C3" s="130" t="s">
         <v>121</v>
@@ -3498,24 +3618,24 @@
         <v>129</v>
       </c>
       <c r="L3" s="130" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="M3" s="130" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="N3" s="129" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="O3" s="133"/>
       <c r="P3" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
       <c r="V3" s="122" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="W3" s="115" t="s">
         <v>224</v>
@@ -3535,9 +3655,9 @@
       <c r="AD3" s="37"/>
       <c r="AE3" s="37"/>
     </row>
-    <row r="4" spans="1:34" ht="15.75">
+    <row r="4" spans="1:42" ht="15.75">
       <c r="A4" s="129" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="B4" s="131" t="s">
         <v>234</v>
@@ -3573,10 +3693,10 @@
         <v>238</v>
       </c>
       <c r="M4" s="130" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="N4" s="129" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="O4" s="13"/>
       <c r="Q4" s="12"/>
@@ -3590,24 +3710,33 @@
         <v>12</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="147" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE4" s="147"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-    </row>
-    <row r="5" spans="1:34" ht="15.75">
+      <c r="AD4" s="141" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="141"/>
+      <c r="AH4" s="141"/>
+      <c r="AJ4" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="141"/>
+      <c r="AL4" s="141"/>
+      <c r="AM4" s="141"/>
+      <c r="AN4" s="141"/>
+      <c r="AO4" s="141"/>
+      <c r="AP4" s="141"/>
+    </row>
+    <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="B5" s="130" t="s">
         <v>10</v>
@@ -3622,7 +3751,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="130" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="G5" s="130" t="s">
         <v>14</v>
@@ -3637,16 +3766,16 @@
         <v>17</v>
       </c>
       <c r="K5" s="130" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="L5" s="130" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="130" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="N5" s="129" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="O5" s="13"/>
       <c r="Q5" s="12"/>
@@ -3657,10 +3786,10 @@
         <v>3</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>73</v>
@@ -3686,39 +3815,60 @@
       <c r="AH5" s="115" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="15.75">
+      <c r="AJ5" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK5" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL5" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM5" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN5" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO5" s="115" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP5" s="115" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="15.75">
       <c r="A6" s="129" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="C6" s="130"/>
       <c r="D6" s="127" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="F6" s="130"/>
       <c r="G6" s="131" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="H6" s="127" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="I6" s="131" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="J6" s="130"/>
       <c r="K6" s="130"/>
       <c r="L6" s="130"/>
       <c r="M6" s="130" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="N6" s="129" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="2" t="s">
@@ -3743,7 +3893,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="3" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="AE6" s="127" t="s">
         <v>23</v>
@@ -3752,15 +3902,30 @@
         <v>240</v>
       </c>
       <c r="AG6" s="127" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15.75">
+        <v>472</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>538</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO6">
+        <v>5101</v>
+      </c>
+      <c r="AP6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="15.75">
       <c r="A7" s="129" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="B7" s="130" t="s">
         <v>92</v>
@@ -3772,7 +3937,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="130" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="F7" s="130" t="s">
         <v>95</v>
@@ -3797,7 +3962,7 @@
       </c>
       <c r="M7" s="130"/>
       <c r="N7" s="129" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="O7" s="134"/>
       <c r="P7" s="2" t="s">
@@ -3822,13 +3987,13 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="3" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="AE7" s="127" t="s">
         <v>114</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="AG7" s="127" t="s">
         <v>26</v>
@@ -3836,22 +4001,25 @@
       <c r="AH7" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" ht="15.75">
+      <c r="AN7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15.75">
       <c r="A8" s="129" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="B8" s="132" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="130" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="D8" s="127" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="130" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="F8" s="132" t="s">
         <v>132</v>
@@ -3876,7 +4044,7 @@
       </c>
       <c r="M8" s="130"/>
       <c r="N8" s="129" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="O8" s="132"/>
       <c r="P8" s="2" t="s">
@@ -3893,60 +4061,63 @@
         <v>171</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AD8" s="3" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="AE8" s="127" t="s">
         <v>97</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="AG8" s="127" t="s">
         <v>50</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="15.75">
+        <v>475</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="15.75">
       <c r="A9" s="129" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="B9" s="127" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="D9" s="130"/>
       <c r="E9" s="130" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="H9" s="130"/>
       <c r="I9" s="130"/>
       <c r="J9" s="131" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="K9" s="127" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="L9" s="130"/>
       <c r="M9" s="130"/>
       <c r="N9" s="129" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="O9" s="135"/>
       <c r="P9" s="2" t="s">
@@ -3963,18 +4134,18 @@
         <v>53</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="3"/>
       <c r="AD9" s="3" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="AE9" s="127" t="s">
         <v>38</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="AG9" s="127" t="s">
         <v>106</v>
@@ -3982,16 +4153,37 @@
       <c r="AH9" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" ht="15.75">
+      <c r="AJ9" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL9" s="135" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM9" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>5201</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="15.75">
       <c r="A10" s="129" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="B10" s="130" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="130" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="D10" s="127" t="s">
         <v>149</v>
@@ -4006,7 +4198,7 @@
         <v>152</v>
       </c>
       <c r="H10" s="130" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="I10" s="130" t="s">
         <v>153</v>
@@ -4022,7 +4214,7 @@
       </c>
       <c r="M10" s="130"/>
       <c r="N10" s="129" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="O10" s="136"/>
       <c r="P10" s="2" t="s">
@@ -4039,12 +4231,12 @@
         <v>189</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AD10" s="3" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="AE10" s="127" t="s">
         <v>101</v>
@@ -4056,12 +4248,33 @@
         <v>200</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="15.75">
+        <v>476</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="AL10" s="135" t="s">
+        <v>519</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="AN10" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>5202</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="15.75">
       <c r="A11" s="129" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="B11" s="130" t="s">
         <v>139</v>
@@ -4076,7 +4289,7 @@
         <v>142</v>
       </c>
       <c r="F11" s="130" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="G11" s="131" t="s">
         <v>143</v>
@@ -4091,14 +4304,14 @@
         <v>146</v>
       </c>
       <c r="K11" s="130" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="L11" s="131" t="s">
         <v>147</v>
       </c>
       <c r="M11" s="130"/>
       <c r="N11" s="129" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="O11" s="137"/>
       <c r="P11" s="2" t="s">
@@ -4125,22 +4338,43 @@
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
       <c r="AD11" s="3" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="AE11" s="127" t="s">
         <v>135</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="AG11" s="127" t="s">
         <v>129</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15.75">
+        <v>479</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK11" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="AL11" s="135" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>5203</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="15.75">
       <c r="A12" s="129"/>
       <c r="B12" s="129">
         <v>1</v>
@@ -4196,27 +4430,48 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="36"/>
       <c r="AD12" s="3" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="AE12" s="127" t="s">
         <v>193</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="AG12" s="127" t="s">
         <v>194</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="15.75">
+        <v>480</v>
+      </c>
+      <c r="AJ12" s="204" t="s">
+        <v>571</v>
+      </c>
+      <c r="AK12" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="AL12" s="135" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="AN12" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>5204</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15.75">
       <c r="A13" s="129" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="B13" s="130" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>74</v>
@@ -4246,15 +4501,17 @@
         <v>82</v>
       </c>
       <c r="L13" s="130" t="s">
-        <v>443</v>
-      </c>
-      <c r="M13" s="130"/>
+        <v>398</v>
+      </c>
+      <c r="M13" s="135" t="s">
+        <v>518</v>
+      </c>
       <c r="N13" s="129" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="O13" s="127"/>
       <c r="P13" s="2" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="119"/>
@@ -4269,30 +4526,51 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="12"/>
       <c r="AD13" s="3" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="AE13" s="127" t="s">
         <v>36</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="AG13" s="127" t="s">
         <v>149</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="15.75">
+        <v>481</v>
+      </c>
+      <c r="AJ13" s="204" t="s">
+        <v>571</v>
+      </c>
+      <c r="AK13" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AL13" s="135" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>5205</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="15.75">
       <c r="A14" s="129" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="B14" s="130" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="C14" s="130" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="D14" s="130" t="s">
         <v>19</v>
@@ -4310,7 +4588,7 @@
         <v>23</v>
       </c>
       <c r="I14" s="130" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="J14" s="130" t="s">
         <v>24</v>
@@ -4319,15 +4597,17 @@
         <v>25</v>
       </c>
       <c r="L14" s="130" t="s">
-        <v>447</v>
-      </c>
-      <c r="M14" s="130"/>
+        <v>402</v>
+      </c>
+      <c r="M14" s="135" t="s">
+        <v>519</v>
+      </c>
       <c r="N14" s="129" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="O14" s="128"/>
       <c r="P14" s="2" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="121"/>
@@ -4346,10 +4626,11 @@
       <c r="AF14" s="45"/>
       <c r="AG14" s="45"/>
       <c r="AH14" s="45"/>
-    </row>
-    <row r="15" spans="1:34" ht="15.75">
+      <c r="AN14" s="12"/>
+    </row>
+    <row r="15" spans="1:42" ht="15.75">
       <c r="A15" s="129" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="B15" s="130" t="s">
         <v>157</v>
@@ -4384,9 +4665,11 @@
       <c r="L15" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="M15" s="130"/>
+      <c r="M15" s="135" t="s">
+        <v>520</v>
+      </c>
       <c r="N15" s="129" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="2"/>
@@ -4398,30 +4681,30 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AD15" s="3" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="AE15" s="127" t="s">
         <v>166</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="AG15" s="127" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="15.75">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="15.75">
       <c r="A16" s="129" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="C16" s="130" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="D16" s="127" t="s">
         <v>168</v>
@@ -4430,7 +4713,7 @@
         <v>169</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="G16" s="130" t="s">
         <v>170</v>
@@ -4439,7 +4722,7 @@
         <v>171</v>
       </c>
       <c r="I16" s="130" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="J16" s="131" t="s">
         <v>172</v>
@@ -4448,11 +4731,13 @@
         <v>173</v>
       </c>
       <c r="L16" s="130" t="s">
-        <v>452</v>
-      </c>
-      <c r="M16" s="130"/>
+        <v>407</v>
+      </c>
+      <c r="M16" s="135" t="s">
+        <v>521</v>
+      </c>
       <c r="N16" s="129" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="2"/>
@@ -4460,23 +4745,14 @@
       <c r="R16" s="121"/>
       <c r="S16" s="120"/>
       <c r="T16" s="12"/>
-      <c r="V16" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
       <c r="AD16" s="3" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="AE16" s="127" t="s">
         <v>49</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="AG16" s="127" t="s">
         <v>71</v>
@@ -4485,9 +4761,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15.75">
+    <row r="17" spans="1:42" ht="15.75">
       <c r="A17" s="129" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="B17" s="131" t="s">
         <v>174</v>
@@ -4505,7 +4781,7 @@
         <v>178</v>
       </c>
       <c r="G17" s="130" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="H17" s="130" t="s">
         <v>179</v>
@@ -4514,7 +4790,7 @@
         <v>180</v>
       </c>
       <c r="J17" s="130" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="K17" s="130" t="s">
         <v>181</v>
@@ -4522,9 +4798,11 @@
       <c r="L17" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="130"/>
+      <c r="M17" s="135" t="s">
+        <v>522</v>
+      </c>
       <c r="N17" s="129" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="2"/>
@@ -4532,52 +4810,40 @@
       <c r="R17" s="12"/>
       <c r="S17" s="120"/>
       <c r="T17" s="12"/>
-      <c r="V17" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="W17" s="115" t="s">
-        <v>219</v>
-      </c>
-      <c r="X17" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y17" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z17" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA17" s="115" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB17" s="115" t="s">
-        <v>280</v>
-      </c>
       <c r="AD17" s="10" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="AE17" s="127" t="s">
         <v>131</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="AG17" s="127" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15.75">
+        <v>478</v>
+      </c>
+      <c r="AJ17" s="141" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK17" s="141"/>
+      <c r="AL17" s="141"/>
+      <c r="AM17" s="141"/>
+      <c r="AN17" s="141"/>
+      <c r="AO17" s="141"/>
+      <c r="AP17" s="141"/>
+    </row>
+    <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="B18" s="131" t="s">
         <v>183</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="D18" s="130" t="s">
         <v>184</v>
@@ -4586,10 +4852,10 @@
         <v>185</v>
       </c>
       <c r="F18" s="130" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="G18" s="130" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="H18" s="130" t="s">
         <v>186</v>
@@ -4598,7 +4864,7 @@
         <v>187</v>
       </c>
       <c r="J18" s="130" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="K18" s="130" t="s">
         <v>188</v>
@@ -4606,9 +4872,11 @@
       <c r="L18" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="M18" s="130"/>
+      <c r="M18" s="135" t="s">
+        <v>523</v>
+      </c>
       <c r="N18" s="129" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="2"/>
@@ -4617,32 +4885,46 @@
       <c r="S18" s="120"/>
       <c r="T18" s="37"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
       <c r="AD18" s="10" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="AE18" s="127" t="s">
         <v>96</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="AG18" s="127" t="s">
         <v>168</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="15.75">
+        <v>483</v>
+      </c>
+      <c r="AJ18" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK18" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL18" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM18" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN18" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO18" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP18" s="114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="129" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="B19" s="130" t="s">
         <v>190</v>
@@ -4660,10 +4942,10 @@
         <v>194</v>
       </c>
       <c r="G19" s="130" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="H19" s="130" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="I19" s="131" t="s">
         <v>195</v>
@@ -4675,11 +4957,13 @@
         <v>197</v>
       </c>
       <c r="L19" s="130" t="s">
-        <v>461</v>
-      </c>
-      <c r="M19" s="130"/>
+        <v>416</v>
+      </c>
+      <c r="M19" s="135" t="s">
+        <v>524</v>
+      </c>
       <c r="N19" s="129" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="2"/>
@@ -4700,10 +4984,31 @@
       <c r="AF19" s="45"/>
       <c r="AG19" s="45"/>
       <c r="AH19" s="45"/>
-    </row>
-    <row r="20" spans="1:34">
+      <c r="AJ19" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="AL19" s="135" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM19" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN19" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>5301</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="129" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="B20" s="130" t="s">
         <v>198</v>
@@ -4734,18 +5039,20 @@
         <v>205</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="M20" s="130"/>
+        <v>417</v>
+      </c>
+      <c r="M20" s="135" t="s">
+        <v>525</v>
+      </c>
       <c r="N20" s="129" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -4755,24 +5062,45 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AD20" s="10" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="AE20" s="127" t="s">
         <v>167</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="AG20" s="127" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
+        <v>473</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="AK20" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AL20" s="135" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>5302</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="129" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="B21" s="130" t="s">
         <v>43</v>
@@ -4796,7 +5124,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="130" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="J21" s="127" t="s">
         <v>50</v>
@@ -4807,9 +5135,11 @@
       <c r="L21" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="130"/>
+      <c r="M21" s="135" t="s">
+        <v>526</v>
+      </c>
       <c r="N21" s="129" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4826,24 +5156,45 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AD21" s="10" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="AE21" s="127" t="s">
         <v>196</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="AG21" s="127" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+        <v>477</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="AL21" s="135" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AO21" s="10">
+        <v>5303</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="129" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="B22" s="131" t="s">
         <v>83</v>
@@ -4861,13 +5212,13 @@
         <v>87</v>
       </c>
       <c r="G22" s="130" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="H22" s="130" t="s">
         <v>88</v>
       </c>
       <c r="I22" s="130" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="J22" s="131" t="s">
         <v>89</v>
@@ -4878,9 +5229,11 @@
       <c r="L22" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="130"/>
+      <c r="M22" s="135" t="s">
+        <v>527</v>
+      </c>
       <c r="N22" s="129" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4888,17 +5241,8 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="V22" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
       <c r="AD22" s="10" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="AE22" s="127" t="s">
         <v>112</v>
@@ -4910,10 +5254,31 @@
         <v>151</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+        <v>482</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL22" s="135" t="s">
+        <v>524</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>5304</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="129"/>
       <c r="B23" s="129">
         <v>1</v>
@@ -4957,31 +5322,31 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="V23" s="114" t="s">
-        <v>218</v>
-      </c>
-      <c r="W23" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="X23" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y23" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z23" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA23" s="114" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB23" s="114" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
+      <c r="AJ23" s="205" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AL23" s="135" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="AO23" s="10">
+        <v>5305</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="129" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>53</v>
@@ -4996,7 +5361,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="130" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="G24" s="130" t="s">
         <v>57</v>
@@ -5016,42 +5381,58 @@
       <c r="L24" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="130"/>
+      <c r="M24" s="135" t="s">
+        <v>528</v>
+      </c>
       <c r="N24" s="129" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AD24" s="147" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE24" s="147"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
-    </row>
-    <row r="25" spans="1:34">
+      <c r="AD24" s="141" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE24" s="141"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="141"/>
+      <c r="AH24" s="141"/>
+      <c r="AJ24" s="205" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AL24" s="135" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>5306</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="129" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="B25" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="130" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="E25" s="130" t="s">
         <v>27</v>
@@ -5060,7 +5441,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="130" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="H25" s="131" t="s">
         <v>29</v>
@@ -5077,9 +5458,11 @@
       <c r="L25" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="130"/>
+      <c r="M25" s="130" t="s">
+        <v>529</v>
+      </c>
       <c r="N25" s="129" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
@@ -5108,38 +5491,40 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:42">
       <c r="A26" s="129" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="B26" s="131" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="C26" s="131" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="E26" s="131" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="F26" s="130"/>
       <c r="G26" s="130"/>
       <c r="H26" s="131" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="I26" s="130"/>
       <c r="J26" s="130" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="K26" s="131" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
+      <c r="M26" s="130" t="s">
+        <v>530</v>
+      </c>
       <c r="N26" s="129" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="2"/>
@@ -5155,24 +5540,24 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AD26" s="3" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="AE26" s="128" t="s">
         <v>78</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="AG26" s="128" t="s">
         <v>25</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="129" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="B27" s="127" t="s">
         <v>101</v>
@@ -5190,7 +5575,7 @@
         <v>105</v>
       </c>
       <c r="G27" s="130" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="H27" s="127" t="s">
         <v>106</v>
@@ -5207,9 +5592,11 @@
       <c r="L27" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="130"/>
+      <c r="M27" s="130" t="s">
+        <v>531</v>
+      </c>
       <c r="N27" s="129" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="O27" s="13"/>
       <c r="R27" s="12"/>
@@ -5224,9 +5611,9 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:42">
       <c r="A28" s="129" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="B28" s="130" t="s">
         <v>63</v>
@@ -5262,19 +5649,19 @@
         <v>73</v>
       </c>
       <c r="M28" s="131" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="N28" s="129" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:42">
       <c r="A29" s="129" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="B29" s="131" t="s">
         <v>34</v>
@@ -5286,7 +5673,7 @@
         <v>36</v>
       </c>
       <c r="E29" s="130" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="F29" s="131" t="s">
         <v>37</v>
@@ -5301,7 +5688,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="130" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="K29" s="130" t="s">
         <v>41</v>
@@ -5310,10 +5697,10 @@
         <v>42</v>
       </c>
       <c r="M29" s="131" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="N29" s="129" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -5321,17 +5708,17 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="147" t="s">
+      <c r="V29" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-    </row>
-    <row r="30" spans="1:34">
+      <c r="W29" s="141"/>
+      <c r="X29" s="141"/>
+      <c r="Y29" s="141"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="141"/>
+      <c r="AB29" s="141"/>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="129"/>
       <c r="B30" s="129">
         <v>1</v>
@@ -5392,7 +5779,7 @@
       <c r="AA30" s="114"/>
       <c r="AB30" s="114"/>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:42">
       <c r="A31" s="12"/>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -5419,13 +5806,13 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="148" t="s">
+      <c r="AD31" s="142" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="150"/>
-    </row>
-    <row r="32" spans="1:34">
+      <c r="AE31" s="143"/>
+      <c r="AF31" s="144"/>
+    </row>
+    <row r="32" spans="1:42">
       <c r="S32" s="12"/>
       <c r="T32" s="117"/>
       <c r="U32" s="117"/>
@@ -5528,15 +5915,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="147" t="s">
+      <c r="V37" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="147"/>
-      <c r="X37" s="147"/>
-      <c r="Y37" s="147"/>
-      <c r="Z37" s="147"/>
-      <c r="AA37" s="147"/>
-      <c r="AB37" s="147"/>
+      <c r="W37" s="141"/>
+      <c r="X37" s="141"/>
+      <c r="Y37" s="141"/>
+      <c r="Z37" s="141"/>
+      <c r="AA37" s="141"/>
+      <c r="AB37" s="141"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -5585,7 +5972,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="10" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
@@ -5635,15 +6022,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="147" t="s">
+      <c r="V42" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="147"/>
-      <c r="X42" s="147"/>
-      <c r="Y42" s="147"/>
-      <c r="Z42" s="147"/>
-      <c r="AA42" s="147"/>
-      <c r="AB42" s="147"/>
+      <c r="W42" s="141"/>
+      <c r="X42" s="141"/>
+      <c r="Y42" s="141"/>
+      <c r="Z42" s="141"/>
+      <c r="AA42" s="141"/>
+      <c r="AB42" s="141"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -5655,7 +6042,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="115" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="W43" s="115" t="s">
         <v>218</v>
@@ -5664,7 +6051,7 @@
         <v>224</v>
       </c>
       <c r="Y43" s="115" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="Z43" s="115" t="s">
         <v>278</v>
@@ -5748,15 +6135,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="148" t="s">
-        <v>529</v>
-      </c>
-      <c r="W48" s="149"/>
-      <c r="X48" s="149"/>
-      <c r="Y48" s="149"/>
-      <c r="Z48" s="149"/>
-      <c r="AA48" s="149"/>
-      <c r="AB48" s="150"/>
+      <c r="V48" s="142" t="s">
+        <v>484</v>
+      </c>
+      <c r="W48" s="143"/>
+      <c r="X48" s="143"/>
+      <c r="Y48" s="143"/>
+      <c r="Z48" s="143"/>
+      <c r="AA48" s="143"/>
+      <c r="AB48" s="144"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -5766,16 +6153,18 @@
         <v>281</v>
       </c>
       <c r="W49" s="115" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="X49" s="115" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="Y49" s="115" t="s">
         <v>227</v>
       </c>
       <c r="Z49" s="115"/>
-      <c r="AA49" s="115"/>
+      <c r="AA49" s="138" t="s">
+        <v>220</v>
+      </c>
       <c r="AB49" s="115"/>
     </row>
     <row r="50" spans="19:28">
@@ -5783,30 +6172,32 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="10" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="W50" s="10" t="s">
         <v>271</v>
       </c>
       <c r="X50" s="10" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
+      <c r="AA50" s="12" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="51" spans="19:28">
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="10" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="W51" s="10" t="s">
         <v>252</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -5817,13 +6208,13 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="10" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="X52" s="10" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
@@ -5844,8 +6235,8 @@
   <mergeCells count="12">
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V22:AB22"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AJ17:AP17"/>
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
@@ -5862,10 +6253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AD32"/>
+  <dimension ref="B2:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5879,44 +6270,51 @@
     <col min="25" max="25" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30">
-      <c r="B2" s="147" t="s">
+    <row r="2" spans="2:36">
+      <c r="B2" s="141" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="H2" s="147" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="H2" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="N2" s="147" t="s">
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="N2" s="141" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="T2" s="147" t="s">
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="T2" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Z2" s="147" t="s">
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Z2" s="141" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-    </row>
-    <row r="3" spans="2:30">
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="141"/>
+      <c r="AD2" s="141"/>
+      <c r="AF2" s="141" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="141"/>
+      <c r="AJ2" s="141"/>
+    </row>
+    <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
         <v>218</v>
       </c>
@@ -5924,7 +6322,7 @@
         <v>281</v>
       </c>
       <c r="D3" s="125" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="E3" s="124" t="s">
         <v>282</v>
@@ -5939,7 +6337,7 @@
         <v>281</v>
       </c>
       <c r="J3" s="125" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="K3" s="124" t="s">
         <v>282</v>
@@ -5954,7 +6352,7 @@
         <v>281</v>
       </c>
       <c r="P3" s="125" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="Q3" s="124" t="s">
         <v>282</v>
@@ -5969,7 +6367,7 @@
         <v>281</v>
       </c>
       <c r="V3" s="125" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="W3" s="124" t="s">
         <v>282</v>
@@ -5984,7 +6382,7 @@
         <v>281</v>
       </c>
       <c r="AB3" s="125" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AC3" s="124" t="s">
         <v>282</v>
@@ -5992,8 +6390,23 @@
       <c r="AD3" s="125" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="4" spans="2:30">
+      <c r="AF3" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG3" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH3" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI3" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ3" s="125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36">
       <c r="B4" s="3" t="s">
         <v>333</v>
       </c>
@@ -6005,8 +6418,29 @@
       <c r="F4" s="126" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="5" spans="2:30">
+      <c r="H4" t="s">
+        <v>506</v>
+      </c>
+      <c r="N4" t="s">
+        <v>507</v>
+      </c>
+      <c r="T4" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="126"/>
@@ -6017,7 +6451,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="2:36">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="126"/>
@@ -6027,8 +6461,14 @@
       <c r="F6" s="126" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="7" spans="2:30">
+      <c r="H6" t="s">
+        <v>509</v>
+      </c>
+      <c r="N6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="126"/>
@@ -6039,273 +6479,217 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="2:36">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="126"/>
       <c r="E8" s="3"/>
       <c r="F8" s="126"/>
-    </row>
-    <row r="9" spans="2:30">
-      <c r="B9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11" s="126" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F12" s="126" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="126"/>
-    </row>
-    <row r="14" spans="2:30">
-      <c r="B14" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F14" s="126" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F15" s="126" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="126"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F19" s="126" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F20" s="126" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F21" s="126" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F22" s="126" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="126"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="3" t="s">
+      <c r="Z8" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36">
+      <c r="B9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="H9" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:36">
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+    </row>
+    <row r="11" spans="2:36">
+      <c r="B11" s="139" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+    </row>
+    <row r="12" spans="2:36">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+    </row>
+    <row r="13" spans="2:36">
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+    </row>
+    <row r="14" spans="2:36">
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+    </row>
+    <row r="15" spans="2:36">
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140"/>
+    </row>
+    <row r="16" spans="2:36">
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="H19" t="s">
         <v>362</v>
       </c>
-      <c r="F24" s="126" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F25" s="126" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F26" s="126" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27" s="126" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="126"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F29" s="126" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F30" s="126" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F31" s="126" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F32" s="126" t="s">
-        <v>375</v>
-      </c>
+      <c r="T19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="139" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="H20" t="s">
+        <v>514</v>
+      </c>
+      <c r="T20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="139" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="140"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="140"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="140"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:L2"/>
@@ -6339,40 +6723,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="140"/>
+      <c r="A1" s="146" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="152" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -6977,28 +7361,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="155" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="A1" s="158" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="155" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -7177,16 +7561,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="155" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="154"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -7362,16 +7746,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="155" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="157"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -7571,40 +7955,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="156" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="158"/>
+      <c r="A1" s="159" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="161"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="161"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="164"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="162" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="165" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="165"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -8043,40 +8427,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="166" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="A1" s="169" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="168" t="s">
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="171" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -8369,114 +8753,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="168" t="s">
+      <c r="B25" s="172"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="171" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="169"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="174"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="177"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="175"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="180"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="178"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="172"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="181"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="184"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="177"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="182"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="185"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="180"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="172"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="181"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="184"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="177"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="178"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="185"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="178"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="180"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="183"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="172"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="181"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="184"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="172"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="177"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="182" t="s">
+      <c r="F32" s="181"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="185" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8484,13 +8868,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="178"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="180"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="183"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="181" t="s">
+      <c r="F33" s="175"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="184" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8498,13 +8882,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="182" t="s">
+      <c r="F34" s="181"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="185" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8512,13 +8896,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="178"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="180"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="183"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="181" t="s">
+      <c r="F35" s="175"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="184" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8526,13 +8910,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="182" t="s">
+      <c r="F36" s="181"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="185" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8540,13 +8924,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="178"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="180"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="183"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="181" t="s">
+      <c r="F37" s="175"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="184" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8554,13 +8938,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="172"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="174"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="182" t="s">
+      <c r="F38" s="181"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="185" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8568,13 +8952,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="178"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="183"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="181" t="s">
+      <c r="F39" s="175"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="184" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8582,25 +8966,25 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="172"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="174"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="182"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="185"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="183"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="185"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="188"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="188"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -8669,40 +9053,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="195" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="197"/>
+      <c r="A1" s="198" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="203"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="192" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="189" t="s">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="192" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="191"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -8919,18 +9303,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="195" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="192" t="s">
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="195" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="194"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="197"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -9207,40 +9591,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="195" t="s">
-        <v>543</v>
-      </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="197"/>
+      <c r="A1" s="198" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="203"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="192" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="189" t="s">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="192" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="191"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9457,18 +9841,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="195" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="192" t="s">
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="195" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="194"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="197"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -9745,40 +10129,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="138" t="s">
-        <v>544</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="140"/>
+      <c r="A1" s="146" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="152" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="580">
   <si>
     <t>AWACS</t>
   </si>
@@ -1759,6 +1759,9 @@
   </si>
   <si>
     <t>PURPLE 12</t>
+  </si>
+  <si>
+    <t>Range 16</t>
   </si>
 </sst>
 </file>
@@ -2892,6 +2895,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2904,9 +2914,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2976,6 +2983,57 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2994,57 +3052,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3081,10 +3088,6 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3127,7 +3130,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3457,7 @@
   <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3570,13 +3573,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="141" t="s">
+      <c r="V2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -3631,9 +3634,9 @@
         <v>437</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
       <c r="V3" s="122" t="s">
         <v>339</v>
       </c>
@@ -3717,22 +3720,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="141" t="s">
+      <c r="AD4" s="144" t="s">
         <v>440</v>
       </c>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="141"/>
-      <c r="AH4" s="141"/>
-      <c r="AJ4" s="141" t="s">
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AJ4" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="141"/>
-      <c r="AL4" s="141"/>
-      <c r="AM4" s="141"/>
-      <c r="AN4" s="141"/>
-      <c r="AO4" s="141"/>
-      <c r="AP4" s="141"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -4338,7 +4341,7 @@
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
       <c r="AD11" s="3" t="s">
-        <v>445</v>
+        <v>579</v>
       </c>
       <c r="AE11" s="127" t="s">
         <v>135</v>
@@ -4444,7 +4447,7 @@
       <c r="AH12" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="AJ12" s="204" t="s">
+      <c r="AJ12" s="141" t="s">
         <v>571</v>
       </c>
       <c r="AK12" s="11" t="s">
@@ -4540,7 +4543,7 @@
       <c r="AH13" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="AJ13" s="204" t="s">
+      <c r="AJ13" s="141" t="s">
         <v>571</v>
       </c>
       <c r="AK13" s="11" t="s">
@@ -4825,15 +4828,15 @@
       <c r="AH17" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AJ17" s="141" t="s">
+      <c r="AJ17" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="141"/>
-      <c r="AL17" s="141"/>
-      <c r="AM17" s="141"/>
-      <c r="AN17" s="141"/>
-      <c r="AO17" s="141"/>
-      <c r="AP17" s="141"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5050,9 +5053,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="145"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5322,7 +5325,7 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="AJ23" s="205" t="s">
+      <c r="AJ23" s="142" t="s">
         <v>573</v>
       </c>
       <c r="AK23" s="3" t="s">
@@ -5392,14 +5395,14 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="141" t="s">
+      <c r="AD24" s="144" t="s">
         <v>497</v>
       </c>
-      <c r="AE24" s="141"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AJ24" s="205" t="s">
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
+      <c r="AJ24" s="142" t="s">
         <v>576</v>
       </c>
       <c r="AK24" s="3" t="s">
@@ -5708,15 +5711,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="141" t="s">
+      <c r="V29" s="144" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="141"/>
-      <c r="X29" s="141"/>
-      <c r="Y29" s="141"/>
-      <c r="Z29" s="141"/>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="141"/>
+      <c r="W29" s="144"/>
+      <c r="X29" s="144"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="144"/>
+      <c r="AB29" s="144"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -5806,11 +5809,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="142" t="s">
+      <c r="AD31" s="145" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="143"/>
-      <c r="AF31" s="144"/>
+      <c r="AE31" s="146"/>
+      <c r="AF31" s="147"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -5915,15 +5918,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="141" t="s">
+      <c r="V37" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="141"/>
-      <c r="X37" s="141"/>
-      <c r="Y37" s="141"/>
-      <c r="Z37" s="141"/>
-      <c r="AA37" s="141"/>
-      <c r="AB37" s="141"/>
+      <c r="W37" s="144"/>
+      <c r="X37" s="144"/>
+      <c r="Y37" s="144"/>
+      <c r="Z37" s="144"/>
+      <c r="AA37" s="144"/>
+      <c r="AB37" s="144"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6022,15 +6025,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="141" t="s">
+      <c r="V42" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="141"/>
-      <c r="X42" s="141"/>
-      <c r="Y42" s="141"/>
-      <c r="Z42" s="141"/>
-      <c r="AA42" s="141"/>
-      <c r="AB42" s="141"/>
+      <c r="W42" s="144"/>
+      <c r="X42" s="144"/>
+      <c r="Y42" s="144"/>
+      <c r="Z42" s="144"/>
+      <c r="AA42" s="144"/>
+      <c r="AB42" s="144"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6135,15 +6138,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="142" t="s">
+      <c r="V48" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="W48" s="143"/>
-      <c r="X48" s="143"/>
-      <c r="Y48" s="143"/>
-      <c r="Z48" s="143"/>
-      <c r="AA48" s="143"/>
-      <c r="AB48" s="144"/>
+      <c r="W48" s="146"/>
+      <c r="X48" s="146"/>
+      <c r="Y48" s="146"/>
+      <c r="Z48" s="146"/>
+      <c r="AA48" s="146"/>
+      <c r="AB48" s="147"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6233,6 +6236,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -6240,11 +6248,6 @@
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6271,48 +6274,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="H2" s="141" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="H2" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="N2" s="141" t="s">
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="N2" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="T2" s="141" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="T2" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Z2" s="141" t="s">
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Z2" s="144" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AF2" s="141" t="s">
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AF2" s="144" t="s">
         <v>502</v>
       </c>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="144"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -6723,40 +6726,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="148" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="150"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="154"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -7361,28 +7364,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="160" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="159"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -7561,16 +7564,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="157" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="157"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="159"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -7746,16 +7749,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="157" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="157"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -7955,40 +7958,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="161" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="161"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="167" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="165" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="167" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="170"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -8427,40 +8430,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="171" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="193"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -8753,114 +8756,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="190" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="171" t="s">
+      <c r="B25" s="191"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="172"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="174"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="193"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="180"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="187"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="182"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
       <c r="D27" s="183"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="175"/>
-      <c r="G27" s="176"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="184"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="181"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="185"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="182"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="182"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
       <c r="D29" s="183"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="175"/>
-      <c r="G29" s="176"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="184"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="181"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="185"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="182"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="181"/>
-      <c r="C31" s="182"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
       <c r="D31" s="183"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="178"/>
       <c r="H31" s="184"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="185" t="s">
+      <c r="F32" s="180"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="182" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8868,12 +8871,12 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="181"/>
-      <c r="C33" s="182"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="183"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="176"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="178"/>
       <c r="H33" s="184" t="s">
         <v>288</v>
       </c>
@@ -8882,13 +8885,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="177"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="181"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="185" t="s">
+      <c r="F34" s="180"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="182" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8896,12 +8899,12 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="182"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="181"/>
       <c r="D35" s="183"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="176"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="178"/>
       <c r="H35" s="184" t="s">
         <v>290</v>
       </c>
@@ -8910,13 +8913,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="175"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="177"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="185" t="s">
+      <c r="F36" s="180"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="182" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8924,12 +8927,12 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="181"/>
-      <c r="C37" s="182"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="181"/>
       <c r="D37" s="183"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="176"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="178"/>
       <c r="H37" s="184" t="s">
         <v>292</v>
       </c>
@@ -8938,13 +8941,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="175"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="177"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="178"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="185" t="s">
+      <c r="F38" s="180"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="182" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8952,12 +8955,12 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="181"/>
-      <c r="C39" s="182"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="181"/>
       <c r="D39" s="183"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="176"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="178"/>
       <c r="H39" s="184" t="s">
         <v>245</v>
       </c>
@@ -8966,28 +8969,57 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="175"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="177"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="185"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="182"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="188"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="173"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="191"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -8996,35 +9028,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9053,40 +9056,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="202"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="203"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="205"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="192" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="194" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="194"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="196"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9303,18 +9306,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="195" t="s">
+      <c r="A22" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="196"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="195" t="s">
+      <c r="B22" s="198"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="197" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="197"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="199"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -9591,40 +9594,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="200" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="202"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="203"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="205"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="194" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="192" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="194" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="194"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="196"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9841,18 +9844,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="195" t="s">
+      <c r="A22" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="196"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="195" t="s">
+      <c r="B22" s="198"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="197" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="197"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="199"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -10129,40 +10132,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="148" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="150"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="154" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="154"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="581">
   <si>
     <t>AWACS</t>
   </si>
@@ -1762,6 +1762,9 @@
   </si>
   <si>
     <t>Range 16</t>
+  </si>
+  <si>
+    <t>AR402 #IFF:5402FR</t>
   </si>
 </sst>
 </file>
@@ -2899,21 +2902,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2983,6 +2986,57 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3000,57 +3054,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3130,7 +3133,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3456,8 +3459,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3573,13 +3576,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="144" t="s">
+      <c r="V2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -3634,9 +3637,9 @@
         <v>437</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
       <c r="V3" s="122" t="s">
         <v>339</v>
       </c>
@@ -3720,22 +3723,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="144" t="s">
+      <c r="AD4" s="143" t="s">
         <v>440</v>
       </c>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AJ4" s="144" t="s">
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+      <c r="AJ4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="143"/>
+      <c r="AN4" s="143"/>
+      <c r="AO4" s="143"/>
+      <c r="AP4" s="143"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -4544,7 +4547,7 @@
         <v>481</v>
       </c>
       <c r="AJ13" s="141" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="AK13" s="11" t="s">
         <v>558</v>
@@ -4828,15 +4831,15 @@
       <c r="AH17" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AJ17" s="144" t="s">
+      <c r="AJ17" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="144"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="144"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
+      <c r="AK17" s="143"/>
+      <c r="AL17" s="143"/>
+      <c r="AM17" s="143"/>
+      <c r="AN17" s="143"/>
+      <c r="AO17" s="143"/>
+      <c r="AP17" s="143"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5053,9 +5056,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5395,13 +5398,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="144" t="s">
+      <c r="AD24" s="143" t="s">
         <v>497</v>
       </c>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
+      <c r="AE24" s="143"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="143"/>
+      <c r="AH24" s="143"/>
       <c r="AJ24" s="142" t="s">
         <v>576</v>
       </c>
@@ -5711,15 +5714,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="144" t="s">
+      <c r="V29" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
+      <c r="W29" s="143"/>
+      <c r="X29" s="143"/>
+      <c r="Y29" s="143"/>
+      <c r="Z29" s="143"/>
+      <c r="AA29" s="143"/>
+      <c r="AB29" s="143"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -5809,11 +5812,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="145" t="s">
+      <c r="AD31" s="144" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="146"/>
-      <c r="AF31" s="147"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="146"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -5918,15 +5921,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="144" t="s">
+      <c r="V37" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="144"/>
-      <c r="X37" s="144"/>
-      <c r="Y37" s="144"/>
-      <c r="Z37" s="144"/>
-      <c r="AA37" s="144"/>
-      <c r="AB37" s="144"/>
+      <c r="W37" s="143"/>
+      <c r="X37" s="143"/>
+      <c r="Y37" s="143"/>
+      <c r="Z37" s="143"/>
+      <c r="AA37" s="143"/>
+      <c r="AB37" s="143"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6025,15 +6028,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="144" t="s">
+      <c r="V42" s="143" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="144"/>
-      <c r="X42" s="144"/>
-      <c r="Y42" s="144"/>
-      <c r="Z42" s="144"/>
-      <c r="AA42" s="144"/>
-      <c r="AB42" s="144"/>
+      <c r="W42" s="143"/>
+      <c r="X42" s="143"/>
+      <c r="Y42" s="143"/>
+      <c r="Z42" s="143"/>
+      <c r="AA42" s="143"/>
+      <c r="AB42" s="143"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6138,15 +6141,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="145" t="s">
+      <c r="V48" s="144" t="s">
         <v>484</v>
       </c>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="146"/>
-      <c r="Z48" s="146"/>
-      <c r="AA48" s="146"/>
-      <c r="AB48" s="147"/>
+      <c r="W48" s="145"/>
+      <c r="X48" s="145"/>
+      <c r="Y48" s="145"/>
+      <c r="Z48" s="145"/>
+      <c r="AA48" s="145"/>
+      <c r="AB48" s="146"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6236,11 +6239,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -6248,6 +6246,11 @@
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6274,48 +6277,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="H2" s="144" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="H2" s="143" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="N2" s="144" t="s">
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="N2" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="T2" s="144" t="s">
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="T2" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Z2" s="144" t="s">
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Z2" s="143" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AF2" s="144" t="s">
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AF2" s="143" t="s">
         <v>502</v>
       </c>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
-      <c r="AJ2" s="144"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -8430,40 +8433,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="171" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="173" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="190" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="173" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="193"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -8756,18 +8759,18 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="190" t="s">
+      <c r="A25" s="173" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="190" t="s">
+      <c r="B25" s="174"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="173" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="193"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="176"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
@@ -8779,23 +8782,23 @@
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="185"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="187"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="182"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="180"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="183"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="185"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
       <c r="F27" s="177"/>
       <c r="G27" s="178"/>
-      <c r="H27" s="184"/>
+      <c r="H27" s="186"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
@@ -8807,23 +8810,23 @@
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="182"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="187"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="183"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
       <c r="F29" s="177"/>
       <c r="G29" s="178"/>
-      <c r="H29" s="184"/>
+      <c r="H29" s="186"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
@@ -8835,23 +8838,23 @@
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="180"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="187"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="180"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="185"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
       <c r="F31" s="177"/>
       <c r="G31" s="178"/>
-      <c r="H31" s="184"/>
+      <c r="H31" s="186"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
@@ -8861,9 +8864,9 @@
       <c r="C32" s="178"/>
       <c r="D32" s="179"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="182" t="s">
+      <c r="F32" s="183"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="187" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8871,13 +8874,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="185"/>
       <c r="E33" s="50"/>
       <c r="F33" s="177"/>
       <c r="G33" s="178"/>
-      <c r="H33" s="184" t="s">
+      <c r="H33" s="186" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8889,9 +8892,9 @@
       <c r="C34" s="178"/>
       <c r="D34" s="179"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="182" t="s">
+      <c r="F34" s="183"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="187" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8899,13 +8902,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="180"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="183"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="185"/>
       <c r="E35" s="50"/>
       <c r="F35" s="177"/>
       <c r="G35" s="178"/>
-      <c r="H35" s="184" t="s">
+      <c r="H35" s="186" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8917,9 +8920,9 @@
       <c r="C36" s="178"/>
       <c r="D36" s="179"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="182" t="s">
+      <c r="F36" s="183"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="187" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8927,13 +8930,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="180"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="183"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="185"/>
       <c r="E37" s="50"/>
       <c r="F37" s="177"/>
       <c r="G37" s="178"/>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="186" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8945,9 +8948,9 @@
       <c r="C38" s="178"/>
       <c r="D38" s="179"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="182" t="s">
+      <c r="F38" s="183"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="187" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8955,13 +8958,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="183"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="185"/>
       <c r="E39" s="50"/>
       <c r="F39" s="177"/>
       <c r="G39" s="178"/>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="186" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8973,53 +8976,24 @@
       <c r="C40" s="178"/>
       <c r="D40" s="179"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="182"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="187"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="171"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="173"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="190"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="176"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -9028,6 +9002,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="584">
   <si>
     <t>AWACS</t>
   </si>
@@ -1765,6 +1765,15 @@
   </si>
   <si>
     <t>AR402 #IFF:5402FR</t>
+  </si>
+  <si>
+    <t>JURY</t>
+  </si>
+  <si>
+    <t>BOAR</t>
+  </si>
+  <si>
+    <t>SNAKE</t>
   </si>
 </sst>
 </file>
@@ -2902,6 +2911,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2914,9 +2926,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2986,6 +2995,57 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3003,57 +3063,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3133,7 +3142,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3468,7 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
@@ -3576,13 +3585,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="143" t="s">
+      <c r="V2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -3637,9 +3646,9 @@
         <v>437</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
       <c r="V3" s="122" t="s">
         <v>339</v>
       </c>
@@ -3723,22 +3732,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="143" t="s">
+      <c r="AD4" s="144" t="s">
         <v>440</v>
       </c>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AJ4" s="143" t="s">
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AJ4" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -4831,15 +4840,15 @@
       <c r="AH17" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AJ17" s="143" t="s">
+      <c r="AJ17" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="143"/>
-      <c r="AL17" s="143"/>
-      <c r="AM17" s="143"/>
-      <c r="AN17" s="143"/>
-      <c r="AO17" s="143"/>
-      <c r="AP17" s="143"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5056,9 +5065,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5398,13 +5407,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="143" t="s">
+      <c r="AD24" s="144" t="s">
         <v>497</v>
       </c>
-      <c r="AE24" s="143"/>
-      <c r="AF24" s="143"/>
-      <c r="AG24" s="143"/>
-      <c r="AH24" s="143"/>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
       <c r="AJ24" s="142" t="s">
         <v>576</v>
       </c>
@@ -5714,15 +5723,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="143" t="s">
+      <c r="V29" s="144" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="143"/>
-      <c r="X29" s="143"/>
-      <c r="Y29" s="143"/>
-      <c r="Z29" s="143"/>
-      <c r="AA29" s="143"/>
-      <c r="AB29" s="143"/>
+      <c r="W29" s="144"/>
+      <c r="X29" s="144"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="144"/>
+      <c r="AB29" s="144"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -5812,11 +5821,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="144" t="s">
+      <c r="AD31" s="145" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="146"/>
+      <c r="AE31" s="146"/>
+      <c r="AF31" s="147"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -5921,15 +5930,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="143" t="s">
+      <c r="V37" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="143"/>
-      <c r="X37" s="143"/>
-      <c r="Y37" s="143"/>
-      <c r="Z37" s="143"/>
-      <c r="AA37" s="143"/>
-      <c r="AB37" s="143"/>
+      <c r="W37" s="144"/>
+      <c r="X37" s="144"/>
+      <c r="Y37" s="144"/>
+      <c r="Z37" s="144"/>
+      <c r="AA37" s="144"/>
+      <c r="AB37" s="144"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6028,15 +6037,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="143" t="s">
+      <c r="V42" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="143"/>
-      <c r="X42" s="143"/>
-      <c r="Y42" s="143"/>
-      <c r="Z42" s="143"/>
-      <c r="AA42" s="143"/>
-      <c r="AB42" s="143"/>
+      <c r="W42" s="144"/>
+      <c r="X42" s="144"/>
+      <c r="Y42" s="144"/>
+      <c r="Z42" s="144"/>
+      <c r="AA42" s="144"/>
+      <c r="AB42" s="144"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6141,15 +6150,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="144" t="s">
+      <c r="V48" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="W48" s="145"/>
-      <c r="X48" s="145"/>
-      <c r="Y48" s="145"/>
-      <c r="Z48" s="145"/>
-      <c r="AA48" s="145"/>
-      <c r="AB48" s="146"/>
+      <c r="W48" s="146"/>
+      <c r="X48" s="146"/>
+      <c r="Y48" s="146"/>
+      <c r="Z48" s="146"/>
+      <c r="AA48" s="146"/>
+      <c r="AB48" s="147"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6239,6 +6248,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -6246,11 +6260,6 @@
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6261,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6277,48 +6286,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="H2" s="143" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="H2" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="N2" s="143" t="s">
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="N2" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="T2" s="143" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="T2" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Z2" s="143" t="s">
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Z2" s="144" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AF2" s="143" t="s">
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AF2" s="144" t="s">
         <v>502</v>
       </c>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="144"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -6513,6 +6522,9 @@
         <v>512</v>
       </c>
       <c r="J9"/>
+      <c r="N9" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="139"/>
@@ -6543,6 +6555,9 @@
       <c r="D13" s="140"/>
       <c r="E13" s="139"/>
       <c r="F13" s="140"/>
+      <c r="H13" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="139"/>
@@ -6564,6 +6579,9 @@
       <c r="D16" s="140"/>
       <c r="E16" s="139"/>
       <c r="F16" s="140"/>
+      <c r="H16" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="139"/>
@@ -8433,40 +8451,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="173" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="193"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -8759,18 +8777,18 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="190" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="174"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="173" t="s">
+      <c r="B25" s="191"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="174"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="176"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="193"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
@@ -8782,23 +8800,23 @@
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="180"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="182"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="187"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="183"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="185"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="183"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
       <c r="F27" s="177"/>
       <c r="G27" s="178"/>
-      <c r="H27" s="186"/>
+      <c r="H27" s="184"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
@@ -8810,23 +8828,23 @@
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="183"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="187"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="182"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="183"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="185"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="183"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
       <c r="F29" s="177"/>
       <c r="G29" s="178"/>
-      <c r="H29" s="186"/>
+      <c r="H29" s="184"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
@@ -8838,23 +8856,23 @@
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="183"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="187"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="182"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="183"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="185"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="183"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
       <c r="F31" s="177"/>
       <c r="G31" s="178"/>
-      <c r="H31" s="186"/>
+      <c r="H31" s="184"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
@@ -8864,9 +8882,9 @@
       <c r="C32" s="178"/>
       <c r="D32" s="179"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="187" t="s">
+      <c r="F32" s="180"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="182" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8874,13 +8892,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="183"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="185"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="183"/>
       <c r="E33" s="50"/>
       <c r="F33" s="177"/>
       <c r="G33" s="178"/>
-      <c r="H33" s="186" t="s">
+      <c r="H33" s="184" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8892,9 +8910,9 @@
       <c r="C34" s="178"/>
       <c r="D34" s="179"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="187" t="s">
+      <c r="F34" s="180"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="182" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8902,13 +8920,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="183"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="185"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="183"/>
       <c r="E35" s="50"/>
       <c r="F35" s="177"/>
       <c r="G35" s="178"/>
-      <c r="H35" s="186" t="s">
+      <c r="H35" s="184" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8920,9 +8938,9 @@
       <c r="C36" s="178"/>
       <c r="D36" s="179"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="187" t="s">
+      <c r="F36" s="180"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="182" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8930,13 +8948,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="185"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="183"/>
       <c r="E37" s="50"/>
       <c r="F37" s="177"/>
       <c r="G37" s="178"/>
-      <c r="H37" s="186" t="s">
+      <c r="H37" s="184" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8948,9 +8966,9 @@
       <c r="C38" s="178"/>
       <c r="D38" s="179"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="187" t="s">
+      <c r="F38" s="180"/>
+      <c r="G38" s="181"/>
+      <c r="H38" s="182" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8958,13 +8976,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="183"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="185"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="183"/>
       <c r="E39" s="50"/>
       <c r="F39" s="177"/>
       <c r="G39" s="178"/>
-      <c r="H39" s="186" t="s">
+      <c r="H39" s="184" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8976,24 +8994,53 @@
       <c r="C40" s="178"/>
       <c r="D40" s="179"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="187"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="182"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="190"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="173"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="193"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -9002,35 +9049,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="626">
   <si>
     <t>AWACS</t>
   </si>
@@ -1774,6 +1774,132 @@
   </si>
   <si>
     <t>SNAKE</t>
+  </si>
+  <si>
+    <t>AWACS VHF Backup</t>
+  </si>
+  <si>
+    <t>Bodø TWR</t>
+  </si>
+  <si>
+    <t>AWACS Check-in</t>
+  </si>
+  <si>
+    <t>Bodø APP</t>
+  </si>
+  <si>
+    <t>Bodø ATIS</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>AR201</t>
+  </si>
+  <si>
+    <t>AR202</t>
+  </si>
+  <si>
+    <t>AR203</t>
+  </si>
+  <si>
+    <t>In Flight Report</t>
+  </si>
+  <si>
+    <t>Alert Freq</t>
+  </si>
+  <si>
+    <t>Admin Freq</t>
+  </si>
+  <si>
+    <t>Air Request Secondary</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R11 Secondary</t>
+  </si>
+  <si>
+    <t>R12 Secondary</t>
+  </si>
+  <si>
+    <t>R15 Secondary</t>
+  </si>
+  <si>
+    <t>R16 Secondary</t>
+  </si>
+  <si>
+    <t>R17 Secondary</t>
+  </si>
+  <si>
+    <t>R18 Secondary</t>
+  </si>
+  <si>
+    <t>R21 Secondary</t>
+  </si>
+  <si>
+    <t>R22Secondary</t>
+  </si>
+  <si>
+    <t>R24 Secondary</t>
+  </si>
+  <si>
+    <t>R23 Secondary</t>
+  </si>
+  <si>
+    <t>R31 Secondary</t>
+  </si>
+  <si>
+    <t>R32 Secondary</t>
+  </si>
+  <si>
+    <t>R33 Secondary</t>
+  </si>
+  <si>
+    <t>MOA 1 Secondary</t>
+  </si>
+  <si>
+    <t>Bodø Airbase AI (for lights)</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2911,6 +3037,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2925,6 +3060,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3120,64 +3258,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="133350" y="7277100"/>
-          <a:ext cx="3467100" cy="3419475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3468,8 +3548,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3:AP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3585,13 +3665,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="144" t="s">
+      <c r="V2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -3646,9 +3726,9 @@
         <v>437</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
       <c r="V3" s="122" t="s">
         <v>339</v>
       </c>
@@ -3732,22 +3812,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="144" t="s">
+      <c r="AD4" s="147" t="s">
         <v>440</v>
       </c>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AJ4" s="144" t="s">
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AJ4" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="147"/>
+      <c r="AM4" s="147"/>
+      <c r="AN4" s="147"/>
+      <c r="AO4" s="147"/>
+      <c r="AP4" s="147"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -4840,15 +4920,15 @@
       <c r="AH17" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AJ17" s="144" t="s">
+      <c r="AJ17" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="144"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="144"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
+      <c r="AK17" s="147"/>
+      <c r="AL17" s="147"/>
+      <c r="AM17" s="147"/>
+      <c r="AN17" s="147"/>
+      <c r="AO17" s="147"/>
+      <c r="AP17" s="147"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5065,9 +5145,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5407,13 +5487,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="144" t="s">
+      <c r="AD24" s="147" t="s">
         <v>497</v>
       </c>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
+      <c r="AE24" s="147"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="147"/>
+      <c r="AH24" s="147"/>
       <c r="AJ24" s="142" t="s">
         <v>576</v>
       </c>
@@ -5723,15 +5803,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="144" t="s">
+      <c r="V29" s="147" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -5821,11 +5901,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="145" t="s">
+      <c r="AD31" s="148" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="146"/>
-      <c r="AF31" s="147"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="150"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -5930,15 +6010,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="144" t="s">
+      <c r="V37" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="144"/>
-      <c r="X37" s="144"/>
-      <c r="Y37" s="144"/>
-      <c r="Z37" s="144"/>
-      <c r="AA37" s="144"/>
-      <c r="AB37" s="144"/>
+      <c r="W37" s="147"/>
+      <c r="X37" s="147"/>
+      <c r="Y37" s="147"/>
+      <c r="Z37" s="147"/>
+      <c r="AA37" s="147"/>
+      <c r="AB37" s="147"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6037,15 +6117,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="144" t="s">
+      <c r="V42" s="147" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="144"/>
-      <c r="X42" s="144"/>
-      <c r="Y42" s="144"/>
-      <c r="Z42" s="144"/>
-      <c r="AA42" s="144"/>
-      <c r="AB42" s="144"/>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6150,15 +6230,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="145" t="s">
+      <c r="V48" s="148" t="s">
         <v>484</v>
       </c>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="146"/>
-      <c r="Z48" s="146"/>
-      <c r="AA48" s="146"/>
-      <c r="AB48" s="147"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="149"/>
+      <c r="Z48" s="149"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="150"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6270,7 +6350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -6286,48 +6366,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="147" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="H2" s="144" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="H2" s="147" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="N2" s="144" t="s">
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="N2" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="T2" s="144" t="s">
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="T2" s="147" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Z2" s="144" t="s">
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Z2" s="147" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AF2" s="144" t="s">
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AF2" s="147" t="s">
         <v>502</v>
       </c>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
-      <c r="AJ2" s="144"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -6729,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6741,46 +6821,49 @@
     <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="152" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="158" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -6806,13 +6889,17 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="30"/>
+      <c r="D5" s="30" t="s">
+        <v>588</v>
+      </c>
       <c r="E5" s="21">
         <v>2</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="22" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1">
       <c r="A6" s="20">
@@ -6820,7 +6907,9 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>585</v>
+      </c>
       <c r="E6" s="21">
         <v>3</v>
       </c>
@@ -6834,7 +6923,9 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>587</v>
+      </c>
       <c r="E7" s="21">
         <v>4</v>
       </c>
@@ -6848,7 +6939,9 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30" t="s">
+        <v>586</v>
+      </c>
       <c r="E8" s="21">
         <v>5</v>
       </c>
@@ -6862,7 +6955,9 @@
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="30" t="s">
+        <v>602</v>
+      </c>
       <c r="E9" s="21">
         <v>6</v>
       </c>
@@ -6876,13 +6971,17 @@
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>603</v>
+      </c>
       <c r="E10" s="21">
         <v>7</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1">
       <c r="A11" s="20">
@@ -6890,13 +6989,17 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>589</v>
+      </c>
       <c r="E11" s="21">
         <v>8</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1">
       <c r="A12" s="20">
@@ -6904,13 +7007,17 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>590</v>
+      </c>
       <c r="E12" s="21">
         <v>9</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1">
       <c r="A13" s="20">
@@ -6918,13 +7025,17 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30" t="s">
+        <v>591</v>
+      </c>
       <c r="E13" s="21">
         <v>10</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="A14" s="20">
@@ -6932,13 +7043,17 @@
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>592</v>
+      </c>
       <c r="E14" s="21">
         <v>11</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="22" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1">
       <c r="A15" s="20">
@@ -6946,13 +7061,17 @@
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="30" t="s">
+        <v>593</v>
+      </c>
       <c r="E15" s="21">
         <v>12</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1">
       <c r="A16" s="20">
@@ -6960,13 +7079,17 @@
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>594</v>
+      </c>
       <c r="E16" s="21">
         <v>13</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1">
       <c r="A17" s="20">
@@ -6974,13 +7097,17 @@
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>595</v>
+      </c>
       <c r="E17" s="21">
         <v>14</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="22" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1">
       <c r="A18" s="20">
@@ -6988,13 +7115,17 @@
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="30" t="s">
+        <v>596</v>
+      </c>
       <c r="E18" s="21">
         <v>15</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1">
       <c r="A19" s="20">
@@ -7002,13 +7133,17 @@
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="30" t="s">
+        <v>597</v>
+      </c>
       <c r="E19" s="21">
         <v>16</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="40"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1">
       <c r="A20" s="20">
@@ -7016,13 +7151,17 @@
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="30" t="s">
+        <v>598</v>
+      </c>
       <c r="E20" s="21">
         <v>17</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="22" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
       <c r="A21" s="20">
@@ -7030,13 +7169,17 @@
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="30" t="s">
+        <v>599</v>
+      </c>
       <c r="E21" s="21">
         <v>18</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1">
       <c r="A22" s="20">
@@ -7044,13 +7187,17 @@
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>600</v>
+      </c>
       <c r="E22" s="21">
         <v>19</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="20">
@@ -7058,13 +7205,17 @@
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="30" t="s">
+        <v>601</v>
+      </c>
       <c r="E23" s="21">
         <v>20</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="22" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="24"/>
@@ -7086,103 +7237,121 @@
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="18">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="D26" s="143"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="18">
       <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="151" t="s">
+        <v>604</v>
+      </c>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="18">
       <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="151" t="s">
+        <v>606</v>
+      </c>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="18">
       <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="151" t="s">
+        <v>607</v>
+      </c>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="18">
       <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="151" t="s">
+        <v>608</v>
+      </c>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="151" t="s">
+        <v>493</v>
+      </c>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="151" t="s">
+        <v>609</v>
+      </c>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="18">
       <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="151" t="s">
+        <v>610</v>
+      </c>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
@@ -7190,7 +7359,9 @@
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>625</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
@@ -7357,14 +7528,22 @@
       <c r="H52" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7372,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30:H39"/>
     </sheetView>
   </sheetViews>
@@ -7385,28 +7564,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="159"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="163"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -7585,16 +7764,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="163"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -7770,16 +7949,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="163"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -7979,40 +8158,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="165" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="163"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="167"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="166"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="170"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="167" t="s">
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="171" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="170"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -8451,40 +8630,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="192" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="194" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="190" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="194" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="193"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -8777,114 +8956,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="190" t="s">
+      <c r="A25" s="194" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="190" t="s">
+      <c r="B25" s="195"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="194" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="193"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="185"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="187"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="191"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="180"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="183"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="187"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="177"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="184"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="188"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="177"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="179"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="183"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="182"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="180"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="183"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="187"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="177"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="184"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="188"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="183"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="180"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="180"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="183"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="187"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="177"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="184"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="188"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="183"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="182" t="s">
+      <c r="F32" s="184"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="186" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8892,13 +9071,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="183"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="187"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="184" t="s">
+      <c r="F33" s="181"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="188" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8906,13 +9085,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="179"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="182" t="s">
+      <c r="F34" s="184"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="186" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8920,13 +9099,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="180"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="183"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="187"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="184" t="s">
+      <c r="F35" s="181"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="188" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8934,13 +9113,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="179"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="183"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="182" t="s">
+      <c r="F36" s="184"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="186" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8948,13 +9127,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="180"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="183"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="187"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="184" t="s">
+      <c r="F37" s="181"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="188" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8962,13 +9141,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="177"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="179"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="183"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="182" t="s">
+      <c r="F38" s="184"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="186" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8976,13 +9155,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="180"/>
-      <c r="C39" s="181"/>
-      <c r="D39" s="183"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="187"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="177"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="184" t="s">
+      <c r="F39" s="181"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="188" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8990,25 +9169,25 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="179"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="183"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="182"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="186"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="171"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="173"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="176"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="179"/>
+      <c r="H41" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -9077,40 +9256,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="202"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="206"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="205"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="209"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="198" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="194" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="198" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="196"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9327,18 +9506,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="197" t="s">
+      <c r="A22" s="201" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="198"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="197" t="s">
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="201" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="199"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="203"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -9615,40 +9794,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="202"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="206"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="205"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="209"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="198" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="194" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="198" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="196"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9865,18 +10044,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="197" t="s">
+      <c r="A22" s="201" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="198"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="197" t="s">
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="201" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="199"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="203"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -10135,7 +10314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -10153,40 +10332,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="152" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="158" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="679">
   <si>
     <t>AWACS</t>
   </si>
@@ -1791,45 +1791,6 @@
     <t>Bodø ATIS</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
     <t>AR201</t>
   </si>
   <si>
@@ -1900,6 +1861,204 @@
   </si>
   <si>
     <t>Bodø Airbase AI (for lights)</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>237.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>MAROON11</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>236.5</t>
+  </si>
+  <si>
+    <t>248.5</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>231.5</t>
+  </si>
+  <si>
+    <t>235.75</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>243.75</t>
+  </si>
+  <si>
+    <t>242.5</t>
+  </si>
+  <si>
+    <t>237.75</t>
+  </si>
+  <si>
+    <t>225.85</t>
+  </si>
+  <si>
+    <t>246.25</t>
+  </si>
+  <si>
+    <t>242.0</t>
+  </si>
+  <si>
+    <t>233.5</t>
+  </si>
+  <si>
+    <t>230.5</t>
+  </si>
+  <si>
+    <t>234.0</t>
+  </si>
+  <si>
+    <t>238.75</t>
+  </si>
+  <si>
+    <t>235.25</t>
+  </si>
+  <si>
+    <t>231.75</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>R13 Secondary</t>
+  </si>
+  <si>
+    <t>R14 Secondary</t>
+  </si>
+  <si>
+    <t>119.5</t>
+  </si>
+  <si>
+    <t>130.75</t>
+  </si>
+  <si>
+    <t>123.75</t>
+  </si>
+  <si>
+    <t>134.7</t>
+  </si>
+  <si>
+    <t>140.25</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>139.75</t>
+  </si>
+  <si>
+    <t>120.25</t>
+  </si>
+  <si>
+    <t>138.25</t>
+  </si>
+  <si>
+    <t>133.7</t>
+  </si>
+  <si>
+    <t>120.5</t>
+  </si>
+  <si>
+    <t>132.7</t>
+  </si>
+  <si>
+    <t>132.75</t>
+  </si>
+  <si>
+    <t>137.7</t>
+  </si>
+  <si>
+    <t>130.7</t>
+  </si>
+  <si>
+    <t>134.75</t>
+  </si>
+  <si>
+    <t>398.15</t>
+  </si>
+  <si>
+    <t>398.65</t>
+  </si>
+  <si>
+    <t>277.3</t>
+  </si>
+  <si>
+    <t>RANGE 11</t>
+  </si>
+  <si>
+    <t>RANGE 12</t>
+  </si>
+  <si>
+    <t>RANGE 15</t>
+  </si>
+  <si>
+    <t>RANGE 16</t>
+  </si>
+  <si>
+    <t>RANGE 17</t>
+  </si>
+  <si>
+    <t>RANGE 18</t>
+  </si>
+  <si>
+    <t>RANGE 21</t>
+  </si>
+  <si>
+    <t>RANGE 22</t>
+  </si>
+  <si>
+    <t>RANGE 23</t>
+  </si>
+  <si>
+    <t>RANGE 24</t>
+  </si>
+  <si>
+    <t>RANGE 31</t>
+  </si>
+  <si>
+    <t>RANGE 32</t>
+  </si>
+  <si>
+    <t>RANGE 33</t>
+  </si>
+  <si>
+    <t>250.6</t>
+  </si>
+  <si>
+    <t>Kiruna Airbase AI (for lights)</t>
+  </si>
+  <si>
+    <t>250.1</t>
+  </si>
+  <si>
+    <t>250.5</t>
+  </si>
+  <si>
+    <t>Jokkmokk roadbase AI (for lights)</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,30 +3199,24 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3133,6 +3286,57 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3151,57 +3355,6 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3238,6 +3391,22 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3549,7 +3718,7 @@
   <dimension ref="A1:AP53"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3:AP25"/>
+      <selection activeCell="V50" sqref="V50:X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3665,13 +3834,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="147" t="s">
+      <c r="V2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -3726,9 +3895,9 @@
         <v>437</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
       <c r="V3" s="122" t="s">
         <v>339</v>
       </c>
@@ -3812,22 +3981,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="147" t="s">
+      <c r="AD4" s="144" t="s">
         <v>440</v>
       </c>
-      <c r="AE4" s="147"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-      <c r="AJ4" s="147" t="s">
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AJ4" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="147"/>
-      <c r="AL4" s="147"/>
-      <c r="AM4" s="147"/>
-      <c r="AN4" s="147"/>
-      <c r="AO4" s="147"/>
-      <c r="AP4" s="147"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -4920,15 +5089,15 @@
       <c r="AH17" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AJ17" s="147" t="s">
+      <c r="AJ17" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="147"/>
-      <c r="AL17" s="147"/>
-      <c r="AM17" s="147"/>
-      <c r="AN17" s="147"/>
-      <c r="AO17" s="147"/>
-      <c r="AP17" s="147"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5145,9 +5314,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5487,13 +5656,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="147" t="s">
+      <c r="AD24" s="144" t="s">
         <v>497</v>
       </c>
-      <c r="AE24" s="147"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
       <c r="AJ24" s="142" t="s">
         <v>576</v>
       </c>
@@ -5803,15 +5972,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="147" t="s">
+      <c r="V29" s="144" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
+      <c r="W29" s="144"/>
+      <c r="X29" s="144"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="144"/>
+      <c r="AB29" s="144"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -5901,11 +6070,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="148" t="s">
+      <c r="AD31" s="145" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="150"/>
+      <c r="AE31" s="146"/>
+      <c r="AF31" s="147"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -6010,15 +6179,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="147" t="s">
+      <c r="V37" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="147"/>
-      <c r="X37" s="147"/>
-      <c r="Y37" s="147"/>
-      <c r="Z37" s="147"/>
-      <c r="AA37" s="147"/>
-      <c r="AB37" s="147"/>
+      <c r="W37" s="144"/>
+      <c r="X37" s="144"/>
+      <c r="Y37" s="144"/>
+      <c r="Z37" s="144"/>
+      <c r="AA37" s="144"/>
+      <c r="AB37" s="144"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6117,15 +6286,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="147" t="s">
+      <c r="V42" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="147"/>
-      <c r="X42" s="147"/>
-      <c r="Y42" s="147"/>
-      <c r="Z42" s="147"/>
-      <c r="AA42" s="147"/>
-      <c r="AB42" s="147"/>
+      <c r="W42" s="144"/>
+      <c r="X42" s="144"/>
+      <c r="Y42" s="144"/>
+      <c r="Z42" s="144"/>
+      <c r="AA42" s="144"/>
+      <c r="AB42" s="144"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6230,15 +6399,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="148" t="s">
+      <c r="V48" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="W48" s="149"/>
-      <c r="X48" s="149"/>
-      <c r="Y48" s="149"/>
-      <c r="Z48" s="149"/>
-      <c r="AA48" s="149"/>
-      <c r="AB48" s="150"/>
+      <c r="W48" s="146"/>
+      <c r="X48" s="146"/>
+      <c r="Y48" s="146"/>
+      <c r="Z48" s="146"/>
+      <c r="AA48" s="146"/>
+      <c r="AB48" s="147"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6328,11 +6497,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -6340,6 +6504,11 @@
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6366,48 +6535,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="H2" s="147" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="H2" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="N2" s="147" t="s">
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="N2" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="T2" s="147" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="T2" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Z2" s="147" t="s">
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Z2" s="144" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AF2" s="147" t="s">
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AF2" s="144" t="s">
         <v>502</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="144"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -6807,63 +6976,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" customWidth="1"/>
-    <col min="18" max="18" width="1.140625" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="158"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -6888,15 +7053,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
+      <c r="C5" s="22" t="s">
+        <v>658</v>
+      </c>
       <c r="D5" s="30" t="s">
         <v>588</v>
       </c>
       <c r="E5" s="21">
         <v>2</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>617</v>
+      </c>
       <c r="H5" s="22" t="s">
         <v>584</v>
       </c>
@@ -6906,7 +7077,9 @@
         <v>3</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>659</v>
+      </c>
       <c r="D6" s="30" t="s">
         <v>585</v>
       </c>
@@ -6922,7 +7095,9 @@
         <v>4</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22" t="s">
+        <v>660</v>
+      </c>
       <c r="D7" s="30" t="s">
         <v>587</v>
       </c>
@@ -6937,284 +7112,416 @@
       <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>616</v>
+      </c>
       <c r="D8" s="30" t="s">
         <v>586</v>
       </c>
       <c r="E8" s="21">
         <v>5</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1">
       <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>613</v>
+      </c>
       <c r="D9" s="30" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="E9" s="21">
         <v>6</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1">
       <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>614</v>
+      </c>
       <c r="D10" s="30" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E10" s="21">
         <v>7</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>644</v>
+      </c>
       <c r="H10" s="22" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1">
       <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>624</v>
+      </c>
       <c r="D11" s="30" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="E11" s="21">
         <v>8</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="41"/>
+      <c r="F11" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>645</v>
+      </c>
       <c r="H11" s="22" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1">
       <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>625</v>
+      </c>
       <c r="D12" s="30" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="E12" s="21">
         <v>9</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>646</v>
+      </c>
       <c r="H12" s="22" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1">
       <c r="A13" s="20">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>626</v>
+      </c>
       <c r="D13" s="30" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>647</v>
+      </c>
       <c r="H13" s="22" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="A14" s="20">
         <v>11</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>627</v>
+      </c>
       <c r="D14" s="30" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="E14" s="21">
         <v>11</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>648</v>
+      </c>
       <c r="H14" s="22" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1">
       <c r="A15" s="20">
         <v>12</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>628</v>
+      </c>
       <c r="D15" s="30" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="E15" s="21">
         <v>12</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="41"/>
+      <c r="F15" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>649</v>
+      </c>
       <c r="H15" s="22" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1">
       <c r="A16" s="20">
         <v>13</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>629</v>
+      </c>
       <c r="D16" s="30" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="E16" s="21">
         <v>13</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>650</v>
+      </c>
       <c r="H16" s="22" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1">
       <c r="A17" s="20">
         <v>14</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>630</v>
+      </c>
       <c r="D17" s="30" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="E17" s="21">
         <v>14</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>651</v>
+      </c>
       <c r="H17" s="22" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1">
       <c r="A18" s="20">
         <v>15</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>631</v>
+      </c>
       <c r="D18" s="30" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="E18" s="21">
         <v>15</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>652</v>
+      </c>
       <c r="H18" s="22" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1">
       <c r="A19" s="20">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>632</v>
+      </c>
       <c r="D19" s="30" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="E19" s="21">
         <v>16</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>653</v>
+      </c>
       <c r="H19" s="22" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1">
       <c r="A20" s="20">
         <v>17</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>633</v>
+      </c>
       <c r="D20" s="30" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="E20" s="21">
         <v>17</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>654</v>
+      </c>
       <c r="H20" s="22" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
       <c r="A21" s="20">
         <v>18</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>634</v>
+      </c>
       <c r="D21" s="30" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="E21" s="21">
         <v>18</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>655</v>
+      </c>
       <c r="H21" s="22" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1">
       <c r="A22" s="20">
         <v>19</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>635</v>
+      </c>
       <c r="D22" s="30" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="E22" s="21">
         <v>19</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>656</v>
+      </c>
       <c r="H22" s="22" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="20">
         <v>20</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>636</v>
+      </c>
       <c r="D23" s="30" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="E23" s="21">
         <v>20</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>657</v>
+      </c>
       <c r="H23" s="22" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7249,151 +7556,197 @@
     </row>
     <row r="27" spans="1:8" ht="18">
       <c r="A27" s="24"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="151" t="s">
-        <v>604</v>
-      </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
+      <c r="B27" s="212" t="s">
+        <v>555</v>
+      </c>
+      <c r="C27" s="208" t="s">
+        <v>615</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>591</v>
+      </c>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="18">
       <c r="A28" s="24"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="151" t="s">
+      <c r="B28" s="212" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="208" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="18">
       <c r="A29" s="24"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="151" t="s">
-        <v>605</v>
-      </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
+      <c r="B29" s="212" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="208" t="s">
+        <v>620</v>
+      </c>
+      <c r="D29" s="149" t="s">
+        <v>592</v>
+      </c>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="18">
       <c r="A30" s="24"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="151" t="s">
-        <v>606</v>
-      </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
+      <c r="B30" s="212" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="208" t="s">
+        <v>621</v>
+      </c>
+      <c r="D30" s="149" t="s">
+        <v>593</v>
+      </c>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="18">
       <c r="A31" s="24"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="151" t="s">
-        <v>607</v>
-      </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
+      <c r="B31" s="212" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="208" t="s">
+        <v>622</v>
+      </c>
+      <c r="D31" s="149" t="s">
+        <v>594</v>
+      </c>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="18">
       <c r="A32" s="24"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="151" t="s">
-        <v>608</v>
-      </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
+      <c r="B32" s="212" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="208" t="s">
+        <v>623</v>
+      </c>
+      <c r="D32" s="149" t="s">
+        <v>595</v>
+      </c>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="18">
       <c r="A33" s="24"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="151" t="s">
+      <c r="B33" s="212" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="D33" s="149" t="s">
         <v>493</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="18">
       <c r="A34" s="24"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="151" t="s">
-        <v>609</v>
-      </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
+      <c r="B34" s="212" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" s="208" t="s">
+        <v>638</v>
+      </c>
+      <c r="D34" s="149" t="s">
+        <v>596</v>
+      </c>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="18">
       <c r="A35" s="24"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="151" t="s">
-        <v>610</v>
-      </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
+      <c r="B35" s="212" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="208" t="s">
+        <v>639</v>
+      </c>
+      <c r="D35" s="149" t="s">
+        <v>597</v>
+      </c>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="208" t="s">
+        <v>674</v>
+      </c>
+      <c r="D36" s="209" t="s">
+        <v>612</v>
+      </c>
+      <c r="E36" s="210"/>
+      <c r="F36" s="211"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="208" t="s">
+        <v>677</v>
+      </c>
+      <c r="D37" s="209" t="s">
+        <v>675</v>
+      </c>
+      <c r="E37" s="210"/>
+      <c r="F37" s="211"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="18">
       <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="B38" s="213"/>
+      <c r="C38" s="208" t="s">
+        <v>676</v>
+      </c>
+      <c r="D38" s="209" t="s">
+        <v>678</v>
+      </c>
+      <c r="E38" s="210"/>
+      <c r="F38" s="211"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="B39" s="213"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="211"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
@@ -7477,58 +7830,24 @@
       <c r="G47" s="25"/>
       <c r="H47" s="26"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
-    </row>
-    <row r="51" spans="1:8" ht="10.5" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
-    </row>
+    <row r="48" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="51" ht="10.5" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
@@ -7564,28 +7883,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="162" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="163"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -7764,16 +8083,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="163"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="161"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -7949,16 +8268,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="163"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="161"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -8158,40 +8477,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="167"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="170"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="171" t="s">
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="169" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -8630,40 +8949,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="173" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="175" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="194" t="s">
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="197"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -8956,114 +9275,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="194" t="s">
+      <c r="A25" s="175" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="195"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="194" t="s">
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="175" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="195"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="197"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="178"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="181"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="183"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="181"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="189"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="191"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="184"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="185"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="186"/>
       <c r="D27" s="187"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="181"/>
-      <c r="G27" s="182"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="180"/>
       <c r="H27" s="188"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="183"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="181"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="184"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="186"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="189"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="184"/>
-      <c r="C29" s="185"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="187"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="181"/>
-      <c r="G29" s="182"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="188"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="181"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="183"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="184"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="189"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="184"/>
-      <c r="C31" s="185"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="186"/>
       <c r="D31" s="187"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="181"/>
-      <c r="G31" s="182"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="180"/>
       <c r="H31" s="188"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="181"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="183"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="181"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186" t="s">
+      <c r="F32" s="185"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="189" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9071,12 +9390,12 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="184"/>
-      <c r="C33" s="185"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="186"/>
       <c r="D33" s="187"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="182"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="188" t="s">
         <v>288</v>
       </c>
@@ -9085,13 +9404,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="181"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="183"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="181"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="186" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="189" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9099,12 +9418,12 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="184"/>
-      <c r="C35" s="185"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="186"/>
       <c r="D35" s="187"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="182"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="188" t="s">
         <v>290</v>
       </c>
@@ -9113,13 +9432,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="181"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="183"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="181"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="186" t="s">
+      <c r="F36" s="185"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="189" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9127,12 +9446,12 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="186"/>
       <c r="D37" s="187"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="182"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="180"/>
       <c r="H37" s="188" t="s">
         <v>292</v>
       </c>
@@ -9141,13 +9460,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="181"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="183"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="181"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="186" t="s">
+      <c r="F38" s="185"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="189" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9155,12 +9474,12 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="185"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="186"/>
       <c r="D39" s="187"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="182"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="180"/>
       <c r="H39" s="188" t="s">
         <v>245</v>
       </c>
@@ -9169,57 +9488,28 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="181"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="183"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="181"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="186"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="189"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="175"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="177"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="192"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="180"/>
+      <c r="F41" s="193"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -9228,6 +9518,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9256,40 +9575,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="206"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="204"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="209"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="207"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="196" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="198" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="196" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="198"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9506,18 +9825,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="199" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="201" t="s">
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="199" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="203"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="201"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -9794,40 +10113,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="206"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="204"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="209"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="207"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="196" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="198" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="196" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="198"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -10044,18 +10363,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="199" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="201" t="s">
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="199" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="203"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="201"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -10332,40 +10651,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="150" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="158"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="761">
   <si>
     <t>AWACS</t>
   </si>
@@ -1002,18 +1002,6 @@
     <t>STN</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
     <t>VR12</t>
   </si>
   <si>
@@ -1539,18 +1527,12 @@
     <t>OUTCAST 1</t>
   </si>
   <si>
-    <t>Lobo</t>
-  </si>
-  <si>
     <t>Roman</t>
   </si>
   <si>
     <t>Hawg</t>
   </si>
   <si>
-    <t>Jedi</t>
-  </si>
-  <si>
     <t>Hornet</t>
   </si>
   <si>
@@ -1914,9 +1896,6 @@
     <t>237.75</t>
   </si>
   <si>
-    <t>225.85</t>
-  </si>
-  <si>
     <t>246.25</t>
   </si>
   <si>
@@ -2059,6 +2038,273 @@
   </si>
   <si>
     <t>Jokkmokk roadbase AI (for lights)</t>
+  </si>
+  <si>
+    <t>225.75</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>00311</t>
+  </si>
+  <si>
+    <t>00312</t>
+  </si>
+  <si>
+    <t>00313</t>
+  </si>
+  <si>
+    <t>00314</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>LO21</t>
+  </si>
+  <si>
+    <t>LO22</t>
+  </si>
+  <si>
+    <t>LO23</t>
+  </si>
+  <si>
+    <t>LO24</t>
+  </si>
+  <si>
+    <t>00322</t>
+  </si>
+  <si>
+    <t>00323</t>
+  </si>
+  <si>
+    <t>00324</t>
+  </si>
+  <si>
+    <t>00321</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>JI31</t>
+  </si>
+  <si>
+    <t>JI32</t>
+  </si>
+  <si>
+    <t>JI33</t>
+  </si>
+  <si>
+    <t>JI34</t>
+  </si>
+  <si>
+    <t>00331</t>
+  </si>
+  <si>
+    <t>00332</t>
+  </si>
+  <si>
+    <t>00333</t>
+  </si>
+  <si>
+    <t>00334</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>00341</t>
+  </si>
+  <si>
+    <t>00342</t>
+  </si>
+  <si>
+    <t>00343</t>
+  </si>
+  <si>
+    <t>00344</t>
+  </si>
+  <si>
+    <t>JEDI 3</t>
+  </si>
+  <si>
+    <t>COWBOY 4</t>
+  </si>
+  <si>
+    <t>LOBO 2</t>
+  </si>
+  <si>
+    <t>CY41</t>
+  </si>
+  <si>
+    <t>CY42</t>
+  </si>
+  <si>
+    <t>CY43</t>
+  </si>
+  <si>
+    <t>CY44</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>VM91</t>
+  </si>
+  <si>
+    <t>11311</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>VM92</t>
+  </si>
+  <si>
+    <t>VM93</t>
+  </si>
+  <si>
+    <t>VM94</t>
+  </si>
+  <si>
+    <t>11312</t>
+  </si>
+  <si>
+    <t>11313</t>
+  </si>
+  <si>
+    <t>11314</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>NA91</t>
+  </si>
+  <si>
+    <t>NA92</t>
+  </si>
+  <si>
+    <t>NA93</t>
+  </si>
+  <si>
+    <t>NA94</t>
+  </si>
+  <si>
+    <t>11321</t>
+  </si>
+  <si>
+    <t>NINJA</t>
+  </si>
+  <si>
+    <t>Banak</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>11331</t>
+  </si>
+  <si>
+    <t>11332</t>
+  </si>
+  <si>
+    <t>11333</t>
+  </si>
+  <si>
+    <t>11334</t>
+  </si>
+  <si>
+    <t>RATTLER</t>
+  </si>
+  <si>
+    <t>RR91</t>
+  </si>
+  <si>
+    <t>RR92</t>
+  </si>
+  <si>
+    <t>RR93</t>
+  </si>
+  <si>
+    <t>RR94</t>
+  </si>
+  <si>
+    <t>Rovanemi</t>
+  </si>
+  <si>
+    <t>AGGRESSOR F-16 (RED AIRCRAFT)</t>
+  </si>
+  <si>
+    <t>WOLF</t>
+  </si>
+  <si>
+    <t>Kallax</t>
+  </si>
+  <si>
+    <t>WF92</t>
+  </si>
+  <si>
+    <t>WF93</t>
+  </si>
+  <si>
+    <t>WF94</t>
+  </si>
+  <si>
+    <t>WF91</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +3098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3199,6 +3445,16 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3211,8 +3467,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3286,6 +3548,57 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3304,57 +3617,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3391,22 +3653,10 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3789,7 +4039,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" s="129" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B2" s="130" t="s">
         <v>111</v>
@@ -3810,7 +4060,7 @@
         <v>116</v>
       </c>
       <c r="H2" s="130" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I2" s="130" t="s">
         <v>117</v>
@@ -3825,22 +4075,22 @@
         <v>120</v>
       </c>
       <c r="M2" s="130" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N2" s="129" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="144" t="s">
+      <c r="V2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -3849,10 +4099,10 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="129" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C3" s="130" t="s">
         <v>121</v>
@@ -3882,24 +4132,24 @@
         <v>129</v>
       </c>
       <c r="L3" s="130" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M3" s="130" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N3" s="129" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O3" s="133"/>
       <c r="P3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
       <c r="V3" s="122" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="W3" s="115" t="s">
         <v>224</v>
@@ -3921,7 +4171,7 @@
     </row>
     <row r="4" spans="1:42" ht="15.75">
       <c r="A4" s="129" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B4" s="131" t="s">
         <v>234</v>
@@ -3957,10 +4207,10 @@
         <v>238</v>
       </c>
       <c r="M4" s="130" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N4" s="129" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O4" s="13"/>
       <c r="Q4" s="12"/>
@@ -3974,33 +4224,33 @@
         <v>12</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="144" t="s">
-        <v>440</v>
-      </c>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AJ4" s="144" t="s">
+      <c r="AD4" s="148" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="148"/>
+      <c r="AH4" s="148"/>
+      <c r="AJ4" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
+      <c r="AK4" s="148"/>
+      <c r="AL4" s="148"/>
+      <c r="AM4" s="148"/>
+      <c r="AN4" s="148"/>
+      <c r="AO4" s="148"/>
+      <c r="AP4" s="148"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B5" s="130" t="s">
         <v>10</v>
@@ -4015,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="130" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G5" s="130" t="s">
         <v>14</v>
@@ -4030,16 +4280,16 @@
         <v>17</v>
       </c>
       <c r="K5" s="130" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L5" s="130" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="130" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N5" s="129" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O5" s="13"/>
       <c r="Q5" s="12"/>
@@ -4050,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>73</v>
@@ -4103,36 +4353,36 @@
     </row>
     <row r="6" spans="1:42" ht="15.75">
       <c r="A6" s="129" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C6" s="130"/>
       <c r="D6" s="127" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F6" s="130"/>
       <c r="G6" s="131" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H6" s="127" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I6" s="131" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J6" s="130"/>
       <c r="K6" s="130"/>
       <c r="L6" s="130"/>
       <c r="M6" s="130" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N6" s="129" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="2" t="s">
@@ -4157,7 +4407,7 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AE6" s="127" t="s">
         <v>23</v>
@@ -4166,19 +4416,19 @@
         <v>240</v>
       </c>
       <c r="AG6" s="127" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AK6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AN6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AO6">
         <v>5101</v>
@@ -4189,7 +4439,7 @@
     </row>
     <row r="7" spans="1:42" ht="15.75">
       <c r="A7" s="129" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B7" s="130" t="s">
         <v>92</v>
@@ -4201,7 +4451,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="130" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F7" s="130" t="s">
         <v>95</v>
@@ -4226,7 +4476,7 @@
       </c>
       <c r="M7" s="130"/>
       <c r="N7" s="129" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O7" s="134"/>
       <c r="P7" s="2" t="s">
@@ -4251,13 +4501,13 @@
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AE7" s="127" t="s">
         <v>114</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AG7" s="127" t="s">
         <v>26</v>
@@ -4266,24 +4516,24 @@
         <v>275</v>
       </c>
       <c r="AN7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="15.75">
       <c r="A8" s="129" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B8" s="132" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="130" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D8" s="127" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="130" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F8" s="132" t="s">
         <v>132</v>
@@ -4308,7 +4558,7 @@
       </c>
       <c r="M8" s="130"/>
       <c r="N8" s="129" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O8" s="132"/>
       <c r="P8" s="2" t="s">
@@ -4325,63 +4575,63 @@
         <v>171</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AD8" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AE8" s="127" t="s">
         <v>97</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AG8" s="127" t="s">
         <v>50</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AN8" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="15.75">
       <c r="A9" s="129" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B9" s="127" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C9" s="127" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D9" s="130"/>
       <c r="E9" s="130" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G9" s="131" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H9" s="130"/>
       <c r="I9" s="130"/>
       <c r="J9" s="131" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K9" s="127" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L9" s="130"/>
       <c r="M9" s="130"/>
       <c r="N9" s="129" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O9" s="135"/>
       <c r="P9" s="2" t="s">
@@ -4398,18 +4648,18 @@
         <v>53</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="3"/>
       <c r="AD9" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AE9" s="127" t="s">
         <v>38</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AG9" s="127" t="s">
         <v>106</v>
@@ -4418,19 +4668,19 @@
         <v>276</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AL9" s="135" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AM9" s="11" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AO9" s="10">
         <v>5201</v>
@@ -4441,13 +4691,13 @@
     </row>
     <row r="10" spans="1:42" ht="15.75">
       <c r="A10" s="129" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B10" s="130" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="130" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D10" s="127" t="s">
         <v>149</v>
@@ -4462,7 +4712,7 @@
         <v>152</v>
       </c>
       <c r="H10" s="130" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I10" s="130" t="s">
         <v>153</v>
@@ -4478,7 +4728,7 @@
       </c>
       <c r="M10" s="130"/>
       <c r="N10" s="129" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O10" s="136"/>
       <c r="P10" s="2" t="s">
@@ -4495,12 +4745,12 @@
         <v>189</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AD10" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AE10" s="127" t="s">
         <v>101</v>
@@ -4512,22 +4762,22 @@
         <v>200</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AL10" s="135" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AO10" s="3">
         <v>5202</v>
@@ -4538,7 +4788,7 @@
     </row>
     <row r="11" spans="1:42" ht="15.75">
       <c r="A11" s="129" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B11" s="130" t="s">
         <v>139</v>
@@ -4553,7 +4803,7 @@
         <v>142</v>
       </c>
       <c r="F11" s="130" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G11" s="131" t="s">
         <v>143</v>
@@ -4568,14 +4818,14 @@
         <v>146</v>
       </c>
       <c r="K11" s="130" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L11" s="131" t="s">
         <v>147</v>
       </c>
       <c r="M11" s="130"/>
       <c r="N11" s="129" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="O11" s="137"/>
       <c r="P11" s="2" t="s">
@@ -4602,34 +4852,34 @@
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
       <c r="AD11" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AE11" s="127" t="s">
         <v>135</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AG11" s="127" t="s">
         <v>129</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AL11" s="135" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AO11" s="10">
         <v>5203</v>
@@ -4694,34 +4944,34 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="36"/>
       <c r="AD12" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AE12" s="127" t="s">
         <v>193</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AG12" s="127" t="s">
         <v>194</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AJ12" s="141" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AL12" s="135" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AO12" s="3">
         <v>5204</v>
@@ -4732,10 +4982,10 @@
     </row>
     <row r="13" spans="1:42" ht="15.75">
       <c r="A13" s="129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B13" s="130" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>74</v>
@@ -4765,17 +5015,17 @@
         <v>82</v>
       </c>
       <c r="L13" s="130" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M13" s="135" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N13" s="129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="O13" s="127"/>
       <c r="P13" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="119"/>
@@ -4790,34 +5040,34 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="12"/>
       <c r="AD13" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AE13" s="127" t="s">
         <v>36</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AG13" s="127" t="s">
         <v>149</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AJ13" s="141" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AL13" s="135" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AO13" s="10">
         <v>5205</v>
@@ -4828,13 +5078,13 @@
     </row>
     <row r="14" spans="1:42" ht="15.75">
       <c r="A14" s="129" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B14" s="130" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C14" s="130" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D14" s="130" t="s">
         <v>19</v>
@@ -4852,7 +5102,7 @@
         <v>23</v>
       </c>
       <c r="I14" s="130" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J14" s="130" t="s">
         <v>24</v>
@@ -4861,17 +5111,17 @@
         <v>25</v>
       </c>
       <c r="L14" s="130" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M14" s="135" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N14" s="129" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O14" s="128"/>
       <c r="P14" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="121"/>
@@ -4894,7 +5144,7 @@
     </row>
     <row r="15" spans="1:42" ht="15.75">
       <c r="A15" s="129" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B15" s="130" t="s">
         <v>157</v>
@@ -4930,10 +5180,10 @@
         <v>167</v>
       </c>
       <c r="M15" s="135" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N15" s="129" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="2"/>
@@ -4945,30 +5195,30 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AD15" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AE15" s="127" t="s">
         <v>166</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AG15" s="127" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="15.75">
       <c r="A16" s="129" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C16" s="130" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D16" s="127" t="s">
         <v>168</v>
@@ -4977,7 +5227,7 @@
         <v>169</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G16" s="130" t="s">
         <v>170</v>
@@ -4986,7 +5236,7 @@
         <v>171</v>
       </c>
       <c r="I16" s="130" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J16" s="131" t="s">
         <v>172</v>
@@ -4995,13 +5245,13 @@
         <v>173</v>
       </c>
       <c r="L16" s="130" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M16" s="135" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="N16" s="129" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="2"/>
@@ -5010,13 +5260,13 @@
       <c r="S16" s="120"/>
       <c r="T16" s="12"/>
       <c r="AD16" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AE16" s="127" t="s">
         <v>49</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AG16" s="127" t="s">
         <v>71</v>
@@ -5027,7 +5277,7 @@
     </row>
     <row r="17" spans="1:42" ht="15.75">
       <c r="A17" s="129" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B17" s="131" t="s">
         <v>174</v>
@@ -5045,7 +5295,7 @@
         <v>178</v>
       </c>
       <c r="G17" s="130" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H17" s="130" t="s">
         <v>179</v>
@@ -5054,7 +5304,7 @@
         <v>180</v>
       </c>
       <c r="J17" s="130" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K17" s="130" t="s">
         <v>181</v>
@@ -5063,10 +5313,10 @@
         <v>182</v>
       </c>
       <c r="M17" s="135" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="N17" s="129" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="2"/>
@@ -5075,39 +5325,39 @@
       <c r="S17" s="120"/>
       <c r="T17" s="12"/>
       <c r="AD17" s="10" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AE17" s="127" t="s">
         <v>131</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG17" s="127" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="AJ17" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="AJ17" s="148" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="144"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="144"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
+      <c r="AK17" s="148"/>
+      <c r="AL17" s="148"/>
+      <c r="AM17" s="148"/>
+      <c r="AN17" s="148"/>
+      <c r="AO17" s="148"/>
+      <c r="AP17" s="148"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B18" s="131" t="s">
         <v>183</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D18" s="130" t="s">
         <v>184</v>
@@ -5116,10 +5366,10 @@
         <v>185</v>
       </c>
       <c r="F18" s="130" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G18" s="130" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H18" s="130" t="s">
         <v>186</v>
@@ -5128,7 +5378,7 @@
         <v>187</v>
       </c>
       <c r="J18" s="130" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K18" s="130" t="s">
         <v>188</v>
@@ -5137,10 +5387,10 @@
         <v>189</v>
       </c>
       <c r="M18" s="135" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N18" s="129" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="2"/>
@@ -5150,19 +5400,19 @@
       <c r="T18" s="37"/>
       <c r="U18" s="12"/>
       <c r="AD18" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AE18" s="127" t="s">
         <v>96</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AG18" s="127" t="s">
         <v>168</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AJ18" s="114" t="s">
         <v>218</v>
@@ -5188,7 +5438,7 @@
     </row>
     <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="129" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B19" s="130" t="s">
         <v>190</v>
@@ -5206,10 +5456,10 @@
         <v>194</v>
       </c>
       <c r="G19" s="130" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H19" s="130" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I19" s="131" t="s">
         <v>195</v>
@@ -5221,13 +5471,13 @@
         <v>197</v>
       </c>
       <c r="L19" s="130" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M19" s="135" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="N19" s="129" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="2"/>
@@ -5249,19 +5499,19 @@
       <c r="AG19" s="45"/>
       <c r="AH19" s="45"/>
       <c r="AJ19" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AL19" s="135" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AM19" s="11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AN19" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AO19" s="10">
         <v>5301</v>
@@ -5272,7 +5522,7 @@
     </row>
     <row r="20" spans="1:42">
       <c r="A20" s="129" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B20" s="130" t="s">
         <v>198</v>
@@ -5303,20 +5553,20 @@
         <v>205</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M20" s="135" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N20" s="129" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5326,34 +5576,34 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AD20" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AE20" s="127" t="s">
         <v>167</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AG20" s="127" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AL20" s="135" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AO20" s="3">
         <v>5302</v>
@@ -5364,7 +5614,7 @@
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="129" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B21" s="130" t="s">
         <v>43</v>
@@ -5388,7 +5638,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="130" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J21" s="127" t="s">
         <v>50</v>
@@ -5400,10 +5650,10 @@
         <v>52</v>
       </c>
       <c r="M21" s="135" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="N21" s="129" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -5420,34 +5670,34 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AD21" s="10" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AE21" s="127" t="s">
         <v>196</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AG21" s="127" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AL21" s="135" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AO21" s="10">
         <v>5303</v>
@@ -5458,7 +5708,7 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B22" s="131" t="s">
         <v>83</v>
@@ -5476,13 +5726,13 @@
         <v>87</v>
       </c>
       <c r="G22" s="130" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H22" s="130" t="s">
         <v>88</v>
       </c>
       <c r="I22" s="130" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J22" s="131" t="s">
         <v>89</v>
@@ -5494,10 +5744,10 @@
         <v>91</v>
       </c>
       <c r="M22" s="135" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="N22" s="129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -5506,7 +5756,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
       <c r="AD22" s="10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AE22" s="127" t="s">
         <v>112</v>
@@ -5518,22 +5768,22 @@
         <v>151</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AL22" s="135" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AO22" s="3">
         <v>5304</v>
@@ -5587,19 +5837,19 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="AJ23" s="142" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AL23" s="135" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AO23" s="10">
         <v>5305</v>
@@ -5610,7 +5860,7 @@
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="129" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>53</v>
@@ -5625,7 +5875,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="130" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G24" s="130" t="s">
         <v>57</v>
@@ -5646,37 +5896,37 @@
         <v>62</v>
       </c>
       <c r="M24" s="135" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N24" s="129" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="144" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
+      <c r="AD24" s="148" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="148"/>
+      <c r="AG24" s="148"/>
+      <c r="AH24" s="148"/>
       <c r="AJ24" s="142" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AL24" s="135" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AM24" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="AO24" s="3">
         <v>5306</v>
@@ -5687,16 +5937,16 @@
     </row>
     <row r="25" spans="1:42">
       <c r="A25" s="129" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B25" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="130" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E25" s="130" t="s">
         <v>27</v>
@@ -5705,7 +5955,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="130" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H25" s="131" t="s">
         <v>29</v>
@@ -5723,10 +5973,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="130" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="N25" s="129" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
@@ -5757,38 +6007,38 @@
     </row>
     <row r="26" spans="1:42">
       <c r="A26" s="129" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B26" s="131" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C26" s="131" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E26" s="131" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F26" s="130"/>
       <c r="G26" s="130"/>
       <c r="H26" s="131" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I26" s="130"/>
       <c r="J26" s="130" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K26" s="131" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L26" s="130"/>
       <c r="M26" s="130" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N26" s="129" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="2"/>
@@ -5804,24 +6054,24 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AD26" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AE26" s="128" t="s">
         <v>78</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AG26" s="128" t="s">
         <v>25</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:42">
       <c r="A27" s="129" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B27" s="127" t="s">
         <v>101</v>
@@ -5839,7 +6089,7 @@
         <v>105</v>
       </c>
       <c r="G27" s="130" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H27" s="127" t="s">
         <v>106</v>
@@ -5857,10 +6107,10 @@
         <v>110</v>
       </c>
       <c r="M27" s="130" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N27" s="129" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="O27" s="13"/>
       <c r="R27" s="12"/>
@@ -5877,7 +6127,7 @@
     </row>
     <row r="28" spans="1:42">
       <c r="A28" s="129" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B28" s="130" t="s">
         <v>63</v>
@@ -5913,10 +6163,10 @@
         <v>73</v>
       </c>
       <c r="M28" s="131" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N28" s="129" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
@@ -5925,7 +6175,7 @@
     </row>
     <row r="29" spans="1:42">
       <c r="A29" s="129" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B29" s="131" t="s">
         <v>34</v>
@@ -5937,7 +6187,7 @@
         <v>36</v>
       </c>
       <c r="E29" s="130" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F29" s="131" t="s">
         <v>37</v>
@@ -5952,7 +6202,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="130" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K29" s="130" t="s">
         <v>41</v>
@@ -5961,10 +6211,10 @@
         <v>42</v>
       </c>
       <c r="M29" s="131" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N29" s="129" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -5972,15 +6222,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="144" t="s">
+      <c r="V29" s="148" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -6070,11 +6320,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="145" t="s">
+      <c r="AD31" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="146"/>
-      <c r="AF31" s="147"/>
+      <c r="AE31" s="150"/>
+      <c r="AF31" s="151"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -6179,15 +6429,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="144" t="s">
+      <c r="V37" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="144"/>
-      <c r="X37" s="144"/>
-      <c r="Y37" s="144"/>
-      <c r="Z37" s="144"/>
-      <c r="AA37" s="144"/>
-      <c r="AB37" s="144"/>
+      <c r="W37" s="148"/>
+      <c r="X37" s="148"/>
+      <c r="Y37" s="148"/>
+      <c r="Z37" s="148"/>
+      <c r="AA37" s="148"/>
+      <c r="AB37" s="148"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6236,7 +6486,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
@@ -6286,15 +6536,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="144" t="s">
+      <c r="V42" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="144"/>
-      <c r="X42" s="144"/>
-      <c r="Y42" s="144"/>
-      <c r="Z42" s="144"/>
-      <c r="AA42" s="144"/>
-      <c r="AB42" s="144"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="148"/>
+      <c r="Z42" s="148"/>
+      <c r="AA42" s="148"/>
+      <c r="AB42" s="148"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6306,7 +6556,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
       <c r="V43" s="115" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="W43" s="115" t="s">
         <v>218</v>
@@ -6315,7 +6565,7 @@
         <v>224</v>
       </c>
       <c r="Y43" s="115" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Z43" s="115" t="s">
         <v>278</v>
@@ -6399,15 +6649,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="145" t="s">
-        <v>484</v>
-      </c>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="146"/>
-      <c r="Z48" s="146"/>
-      <c r="AA48" s="146"/>
-      <c r="AB48" s="147"/>
+      <c r="V48" s="149" t="s">
+        <v>480</v>
+      </c>
+      <c r="W48" s="150"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="150"/>
+      <c r="Z48" s="150"/>
+      <c r="AA48" s="150"/>
+      <c r="AB48" s="151"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6417,10 +6667,10 @@
         <v>281</v>
       </c>
       <c r="W49" s="115" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="X49" s="115" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Y49" s="115" t="s">
         <v>227</v>
@@ -6436,18 +6686,18 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="W50" s="10" t="s">
         <v>271</v>
       </c>
       <c r="X50" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="19:28">
@@ -6455,13 +6705,13 @@
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
       <c r="V51" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="W51" s="10" t="s">
         <v>252</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -6472,13 +6722,13 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="X52" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="W52" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="X52" s="10" t="s">
-        <v>490</v>
       </c>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
@@ -6497,6 +6747,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -6504,11 +6759,6 @@
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6517,10 +6767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AJ32"/>
+  <dimension ref="B2:AJ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6535,48 +6785,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="148" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="H2" s="144" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="H2" s="148" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="N2" s="144" t="s">
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="N2" s="148" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="T2" s="144" t="s">
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="T2" s="148" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Z2" s="144" t="s">
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Z2" s="148" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AF2" s="144" t="s">
-        <v>502</v>
-      </c>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
-      <c r="AJ2" s="144"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AF2" s="148" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -6586,7 +6836,7 @@
         <v>281</v>
       </c>
       <c r="D3" s="125" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E3" s="124" t="s">
         <v>282</v>
@@ -6601,7 +6851,7 @@
         <v>281</v>
       </c>
       <c r="J3" s="125" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K3" s="124" t="s">
         <v>282</v>
@@ -6616,7 +6866,7 @@
         <v>281</v>
       </c>
       <c r="P3" s="125" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q3" s="124" t="s">
         <v>282</v>
@@ -6631,7 +6881,7 @@
         <v>281</v>
       </c>
       <c r="V3" s="125" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="W3" s="124" t="s">
         <v>282</v>
@@ -6646,7 +6896,7 @@
         <v>281</v>
       </c>
       <c r="AB3" s="125" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AC3" s="124" t="s">
         <v>282</v>
@@ -6661,7 +6911,7 @@
         <v>281</v>
       </c>
       <c r="AH3" s="125" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AI3" s="124" t="s">
         <v>282</v>
@@ -6672,75 +6922,87 @@
     </row>
     <row r="4" spans="2:36">
       <c r="B4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="126"/>
+        <v>329</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>673</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>324</v>
       </c>
       <c r="F4" s="126" t="s">
+        <v>677</v>
+      </c>
+      <c r="H4" t="s">
+        <v>501</v>
+      </c>
+      <c r="N4" t="s">
+        <v>502</v>
+      </c>
+      <c r="T4" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36">
+      <c r="B5" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="126" t="s">
+        <v>674</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H4" t="s">
-        <v>506</v>
-      </c>
-      <c r="N4" t="s">
-        <v>507</v>
-      </c>
-      <c r="T4" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>500</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>503</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="5" spans="2:36">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="F5" s="126" t="s">
-        <v>327</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="126"/>
+      <c r="D6" s="126" t="s">
+        <v>675</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>328</v>
+        <v>679</v>
       </c>
       <c r="H6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="N6" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="126"/>
+      <c r="D7" s="126" t="s">
+        <v>676</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>329</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="2:36">
@@ -6750,145 +7012,230 @@
       <c r="E8" s="3"/>
       <c r="F8" s="126"/>
       <c r="Z8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AA8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AF8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AG8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9" t="s">
-        <v>505</v>
-      </c>
-      <c r="D9" s="74"/>
+      <c r="B9" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>681</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="F9" s="126" t="s">
+        <v>692</v>
+      </c>
       <c r="H9" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J9"/>
       <c r="N9" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
+      <c r="B10" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="126" t="s">
+        <v>682</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="126" t="s">
+        <v>683</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="126" t="s">
+        <v>684</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="F12" s="126" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="126"/>
+      <c r="H13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36">
+      <c r="B14" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>693</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36">
+      <c r="B15" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="126" t="s">
+        <v>694</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="126" t="s">
+        <v>695</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>703</v>
+      </c>
+      <c r="H16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="F17" s="126" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="126"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>705</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F19" s="126" t="s">
+        <v>709</v>
+      </c>
+      <c r="H19" t="s">
+        <v>358</v>
+      </c>
+      <c r="T19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="126" t="s">
+        <v>706</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F20" s="126" t="s">
+        <v>710</v>
+      </c>
+      <c r="H20" t="s">
         <v>508</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-    </row>
-    <row r="12" spans="2:36">
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-    </row>
-    <row r="13" spans="2:36">
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="H13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36">
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-    </row>
-    <row r="15" spans="2:36">
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140"/>
-    </row>
-    <row r="16" spans="2:36">
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="H16" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="H19" t="s">
-        <v>362</v>
-      </c>
-      <c r="T19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
-      <c r="H20" t="s">
-        <v>514</v>
-      </c>
       <c r="T20" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="139" t="s">
-        <v>513</v>
-      </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="126" t="s">
+        <v>707</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F21" s="126" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="126" t="s">
+        <v>708</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F22" s="126" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="139"/>
@@ -6905,63 +7252,279 @@
       <c r="F24" s="140"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
+      <c r="B25" s="148" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
+      <c r="B26" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="125" t="s">
+        <v>452</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="125" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
+      <c r="B27" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>722</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F27" s="126" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="126" t="s">
+        <v>725</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F28" s="126" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="126" t="s">
+        <v>726</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="F29" s="126" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="140"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="126" t="s">
+        <v>727</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F30" s="126" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="140"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="126"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="140"/>
+      <c r="B32" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D32" s="126" t="s">
+        <v>734</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="F32" s="126" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="126">
+        <v>922</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F33" s="126">
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="126">
+        <v>923</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="F34" s="126">
+        <v>11323</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="126">
+        <v>924</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F35" s="126">
+        <v>11324</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="126"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D37" s="126" t="s">
+        <v>742</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F37" s="126" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="126" t="s">
+        <v>743</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F38" s="126" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="126">
+        <v>933</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F39" s="126" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="126">
+        <v>934</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F40" s="126" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="126"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="D42" s="214">
+        <v>941</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F42" s="215">
+        <v>11341</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="214">
+        <v>942</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F43" s="215">
+        <v>11342</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="214">
+        <v>943</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F44" s="215">
+        <v>11343</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="214">
+        <v>945</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F45" s="215">
+        <v>11344</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="B2:F2"/>
@@ -6971,15 +7534,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4 D5:D7 D9:D12 D14:D17 D19:D22 D27:D30 D32:D35 D37:D40 F27:F40 F4:F22" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6995,40 +7561,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="150" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="152"/>
+      <c r="A1" s="156" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="155"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -7054,22 +7620,22 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E5" s="21">
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1">
@@ -7078,10 +7644,10 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E6" s="21">
         <v>3</v>
@@ -7096,10 +7662,10 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E7" s="21">
         <v>4</v>
@@ -7113,25 +7679,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E8" s="21">
         <v>5</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1">
@@ -7139,13 +7705,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E9" s="21">
         <v>6</v>
@@ -7154,10 +7720,10 @@
         <v>276</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1">
@@ -7165,25 +7731,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E10" s="21">
         <v>7</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1">
@@ -7194,22 +7760,22 @@
         <v>240</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E11" s="21">
         <v>8</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1">
@@ -7217,13 +7783,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E12" s="21">
         <v>9</v>
@@ -7232,10 +7798,10 @@
         <v>275</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1">
@@ -7246,22 +7812,22 @@
         <v>272</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1">
@@ -7269,25 +7835,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E14" s="21">
         <v>11</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1">
@@ -7295,25 +7861,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E15" s="21">
         <v>12</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1">
@@ -7321,25 +7887,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E16" s="21">
         <v>13</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1">
@@ -7347,25 +7913,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E17" s="21">
         <v>14</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1">
@@ -7373,13 +7939,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E18" s="21">
         <v>15</v>
@@ -7388,10 +7954,10 @@
         <v>248</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1">
@@ -7399,25 +7965,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E19" s="21">
         <v>16</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1">
@@ -7425,25 +7991,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E20" s="21">
         <v>17</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
@@ -7451,25 +8017,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E21" s="21">
         <v>18</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1">
@@ -7477,25 +8043,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E22" s="21">
         <v>19</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1">
@@ -7506,22 +8072,22 @@
         <v>243</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E23" s="21">
         <v>20</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7556,197 +8122,197 @@
     </row>
     <row r="27" spans="1:8" ht="18">
       <c r="A27" s="24"/>
-      <c r="B27" s="212" t="s">
-        <v>555</v>
-      </c>
-      <c r="C27" s="208" t="s">
-        <v>615</v>
-      </c>
-      <c r="D27" s="149" t="s">
-        <v>591</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
+      <c r="B27" s="145" t="s">
+        <v>549</v>
+      </c>
+      <c r="C27" s="144" t="s">
+        <v>609</v>
+      </c>
+      <c r="D27" s="155" t="s">
+        <v>585</v>
+      </c>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="18">
       <c r="A28" s="24"/>
-      <c r="B28" s="212" t="s">
+      <c r="B28" s="145" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="208" t="s">
-        <v>619</v>
-      </c>
-      <c r="D28" s="149" t="s">
+      <c r="C28" s="144" t="s">
+        <v>613</v>
+      </c>
+      <c r="D28" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="18">
       <c r="A29" s="24"/>
-      <c r="B29" s="212" t="s">
+      <c r="B29" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="208" t="s">
-        <v>620</v>
-      </c>
-      <c r="D29" s="149" t="s">
-        <v>592</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
+      <c r="C29" s="144" t="s">
+        <v>614</v>
+      </c>
+      <c r="D29" s="155" t="s">
+        <v>586</v>
+      </c>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="18">
       <c r="A30" s="24"/>
-      <c r="B30" s="212" t="s">
-        <v>457</v>
-      </c>
-      <c r="C30" s="208" t="s">
-        <v>621</v>
-      </c>
-      <c r="D30" s="149" t="s">
-        <v>593</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
+      <c r="B30" s="145" t="s">
+        <v>453</v>
+      </c>
+      <c r="C30" s="144" t="s">
+        <v>615</v>
+      </c>
+      <c r="D30" s="155" t="s">
+        <v>587</v>
+      </c>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="18">
       <c r="A31" s="24"/>
-      <c r="B31" s="212" t="s">
-        <v>458</v>
-      </c>
-      <c r="C31" s="208" t="s">
-        <v>622</v>
-      </c>
-      <c r="D31" s="149" t="s">
-        <v>594</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
+      <c r="B31" s="145" t="s">
+        <v>454</v>
+      </c>
+      <c r="C31" s="144" t="s">
+        <v>616</v>
+      </c>
+      <c r="D31" s="155" t="s">
+        <v>588</v>
+      </c>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="18">
       <c r="A32" s="24"/>
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="145" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="208" t="s">
-        <v>623</v>
-      </c>
-      <c r="D32" s="149" t="s">
-        <v>595</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
+      <c r="C32" s="144" t="s">
+        <v>617</v>
+      </c>
+      <c r="D32" s="155" t="s">
+        <v>589</v>
+      </c>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="18">
       <c r="A33" s="24"/>
-      <c r="B33" s="212" t="s">
-        <v>495</v>
-      </c>
-      <c r="C33" s="208" t="s">
-        <v>637</v>
-      </c>
-      <c r="D33" s="149" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
+      <c r="B33" s="145" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="144" t="s">
+        <v>630</v>
+      </c>
+      <c r="D33" s="155" t="s">
+        <v>489</v>
+      </c>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="18">
       <c r="A34" s="24"/>
-      <c r="B34" s="212" t="s">
-        <v>461</v>
-      </c>
-      <c r="C34" s="208" t="s">
-        <v>638</v>
-      </c>
-      <c r="D34" s="149" t="s">
-        <v>596</v>
-      </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
+      <c r="B34" s="145" t="s">
+        <v>457</v>
+      </c>
+      <c r="C34" s="144" t="s">
+        <v>631</v>
+      </c>
+      <c r="D34" s="155" t="s">
+        <v>590</v>
+      </c>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="18">
       <c r="A35" s="24"/>
-      <c r="B35" s="212" t="s">
-        <v>462</v>
-      </c>
-      <c r="C35" s="208" t="s">
-        <v>639</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>597</v>
-      </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
+      <c r="B35" s="145" t="s">
+        <v>458</v>
+      </c>
+      <c r="C35" s="144" t="s">
+        <v>632</v>
+      </c>
+      <c r="D35" s="155" t="s">
+        <v>591</v>
+      </c>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="18">
       <c r="A36" s="24"/>
-      <c r="B36" s="208"/>
-      <c r="C36" s="208" t="s">
-        <v>674</v>
-      </c>
-      <c r="D36" s="209" t="s">
-        <v>612</v>
-      </c>
-      <c r="E36" s="210"/>
-      <c r="F36" s="211"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144" t="s">
+        <v>667</v>
+      </c>
+      <c r="D36" s="152" t="s">
+        <v>606</v>
+      </c>
+      <c r="E36" s="153"/>
+      <c r="F36" s="154"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" ht="18">
       <c r="A37" s="24"/>
-      <c r="B37" s="213"/>
-      <c r="C37" s="208" t="s">
-        <v>677</v>
-      </c>
-      <c r="D37" s="209" t="s">
-        <v>675</v>
-      </c>
-      <c r="E37" s="210"/>
-      <c r="F37" s="211"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="144" t="s">
+        <v>670</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>668</v>
+      </c>
+      <c r="E37" s="153"/>
+      <c r="F37" s="154"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="18">
       <c r="A38" s="24"/>
-      <c r="B38" s="213"/>
-      <c r="C38" s="208" t="s">
-        <v>676</v>
-      </c>
-      <c r="D38" s="209" t="s">
-        <v>678</v>
-      </c>
-      <c r="E38" s="210"/>
-      <c r="F38" s="211"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="144" t="s">
+        <v>669</v>
+      </c>
+      <c r="D38" s="152" t="s">
+        <v>671</v>
+      </c>
+      <c r="E38" s="153"/>
+      <c r="F38" s="154"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" ht="18">
       <c r="A39" s="24"/>
-      <c r="B39" s="213"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="211"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="154"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
@@ -7844,13 +8410,6 @@
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -7860,6 +8419,13 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7883,28 +8449,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="162" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
+      <c r="A1" s="168" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="165" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="161"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="167"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -8083,16 +8649,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="165" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="161"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -8268,16 +8834,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="165" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="161"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="167"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -8477,40 +9043,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="163" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="A1" s="169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="171"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="175" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="169" t="s">
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -8949,40 +9515,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="173" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="A1" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="198" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="175" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="198" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="201"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -9275,114 +9841,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="198" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="175" t="s">
+      <c r="B25" s="199"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="176"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="178"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="201"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="181"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="182"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="184"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="195"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="185"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="187"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="191"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="179"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="188"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="192"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="181"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="185"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="189"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="190"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="191"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="179"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="188"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="192"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="185"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="189"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="190"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="185"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="187"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="191"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="179"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="188"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="192"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="179"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="181"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="189" t="s">
+      <c r="F32" s="188"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="190" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9390,13 +9956,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="185"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="191"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="188" t="s">
+      <c r="F33" s="185"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="192" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9404,13 +9970,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="179"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="189" t="s">
+      <c r="F34" s="188"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="190" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9418,13 +9984,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="185"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="187"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="191"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="188" t="s">
+      <c r="F35" s="185"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="192" t="s">
         <v>290</v>
       </c>
     </row>
@@ -9432,13 +9998,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="179"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="181"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="187"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="189" t="s">
+      <c r="F36" s="188"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="190" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9446,13 +10012,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="185"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="187"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="191"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="188" t="s">
+      <c r="F37" s="185"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="192" t="s">
         <v>292</v>
       </c>
     </row>
@@ -9460,13 +10026,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="179"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="181"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="187"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="189" t="s">
+      <c r="F38" s="188"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="190" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9474,13 +10040,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="185"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="187"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="191"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="188" t="s">
+      <c r="F39" s="185"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="192" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9488,28 +10054,57 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="181"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="187"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="189"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="190"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="190"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="192"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="181"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="195"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -9518,35 +10113,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9575,40 +10141,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="202" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
+      <c r="A1" s="208" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="213"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="202" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="196" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="202" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="198"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -9825,18 +10391,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="205" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="200"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="199" t="s">
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="205" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="201"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -10113,40 +10679,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="202" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="204"/>
+      <c r="A1" s="208" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="207"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="213"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="202" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="196" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="202" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="198"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -10363,18 +10929,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="205" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="200"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="199" t="s">
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="205" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="201"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -10651,40 +11217,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="150" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="152"/>
+      <c r="A1" s="156" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="155"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
     <sheet name="Aircraft" sheetId="2" r:id="rId2"/>
-    <sheet name="F-16 Presets" sheetId="12" r:id="rId3"/>
-    <sheet name="A10 presets" sheetId="5" r:id="rId4"/>
-    <sheet name="F-14 Presets" sheetId="13" r:id="rId5"/>
-    <sheet name="FA-18 Hornet Presets" sheetId="10" r:id="rId6"/>
-    <sheet name="AH64 Presets" sheetId="16" r:id="rId7"/>
-    <sheet name="OH-58 Presets" sheetId="18" r:id="rId8"/>
-    <sheet name="F-15 Presets " sheetId="17" r:id="rId9"/>
+    <sheet name="Datalink" sheetId="19" r:id="rId3"/>
+    <sheet name="F-16 Presets" sheetId="12" r:id="rId4"/>
+    <sheet name="A10 presets" sheetId="5" r:id="rId5"/>
+    <sheet name="F-14 Presets" sheetId="13" r:id="rId6"/>
+    <sheet name="FA-18 Hornet Presets" sheetId="10" r:id="rId7"/>
+    <sheet name="AH64 Presets" sheetId="16" r:id="rId8"/>
+    <sheet name="OH-58 Presets" sheetId="18" r:id="rId9"/>
+    <sheet name="F-15 Presets " sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="763">
   <si>
     <t>AWACS</t>
   </si>
@@ -2305,6 +2306,12 @@
   </si>
   <si>
     <t>WF91</t>
+  </si>
+  <si>
+    <t>RED F16</t>
+  </si>
+  <si>
+    <t>BLUE F-16</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2467,8 +2474,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2571,8 +2609,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -3094,11 +3138,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3452,210 +3520,275 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4084,13 +4217,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="148" t="s">
+      <c r="V2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -4145,9 +4278,9 @@
         <v>433</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="147"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
       <c r="V3" s="122" t="s">
         <v>335</v>
       </c>
@@ -4231,22 +4364,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="148" t="s">
+      <c r="AD4" s="153" t="s">
         <v>436</v>
       </c>
-      <c r="AE4" s="148"/>
-      <c r="AF4" s="148"/>
-      <c r="AG4" s="148"/>
-      <c r="AH4" s="148"/>
-      <c r="AJ4" s="148" t="s">
+      <c r="AE4" s="153"/>
+      <c r="AF4" s="153"/>
+      <c r="AG4" s="153"/>
+      <c r="AH4" s="153"/>
+      <c r="AJ4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="148"/>
-      <c r="AL4" s="148"/>
-      <c r="AM4" s="148"/>
-      <c r="AN4" s="148"/>
-      <c r="AO4" s="148"/>
-      <c r="AP4" s="148"/>
+      <c r="AK4" s="153"/>
+      <c r="AL4" s="153"/>
+      <c r="AM4" s="153"/>
+      <c r="AN4" s="153"/>
+      <c r="AO4" s="153"/>
+      <c r="AP4" s="153"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -5339,15 +5472,15 @@
       <c r="AH17" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="AJ17" s="148" t="s">
+      <c r="AJ17" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="148"/>
-      <c r="AL17" s="148"/>
-      <c r="AM17" s="148"/>
-      <c r="AN17" s="148"/>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="148"/>
+      <c r="AK17" s="153"/>
+      <c r="AL17" s="153"/>
+      <c r="AM17" s="153"/>
+      <c r="AN17" s="153"/>
+      <c r="AO17" s="153"/>
+      <c r="AP17" s="153"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5564,9 +5697,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5906,13 +6039,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="148" t="s">
+      <c r="AD24" s="153" t="s">
         <v>493</v>
       </c>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="148"/>
-      <c r="AG24" s="148"/>
-      <c r="AH24" s="148"/>
+      <c r="AE24" s="153"/>
+      <c r="AF24" s="153"/>
+      <c r="AG24" s="153"/>
+      <c r="AH24" s="153"/>
       <c r="AJ24" s="142" t="s">
         <v>570</v>
       </c>
@@ -6222,15 +6355,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="148" t="s">
+      <c r="V29" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="153"/>
+      <c r="Z29" s="153"/>
+      <c r="AA29" s="153"/>
+      <c r="AB29" s="153"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -6320,11 +6453,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="149" t="s">
+      <c r="AD31" s="154" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="150"/>
-      <c r="AF31" s="151"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="156"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -6429,15 +6562,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="148" t="s">
+      <c r="V37" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="148"/>
-      <c r="X37" s="148"/>
-      <c r="Y37" s="148"/>
-      <c r="Z37" s="148"/>
-      <c r="AA37" s="148"/>
-      <c r="AB37" s="148"/>
+      <c r="W37" s="153"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="153"/>
+      <c r="Z37" s="153"/>
+      <c r="AA37" s="153"/>
+      <c r="AB37" s="153"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6536,15 +6669,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="148" t="s">
+      <c r="V42" s="153" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="148"/>
-      <c r="X42" s="148"/>
-      <c r="Y42" s="148"/>
-      <c r="Z42" s="148"/>
-      <c r="AA42" s="148"/>
-      <c r="AB42" s="148"/>
+      <c r="W42" s="153"/>
+      <c r="X42" s="153"/>
+      <c r="Y42" s="153"/>
+      <c r="Z42" s="153"/>
+      <c r="AA42" s="153"/>
+      <c r="AB42" s="153"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6649,15 +6782,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="149" t="s">
+      <c r="V48" s="154" t="s">
         <v>480</v>
       </c>
-      <c r="W48" s="150"/>
-      <c r="X48" s="150"/>
-      <c r="Y48" s="150"/>
-      <c r="Z48" s="150"/>
-      <c r="AA48" s="150"/>
-      <c r="AB48" s="151"/>
+      <c r="W48" s="155"/>
+      <c r="X48" s="155"/>
+      <c r="Y48" s="155"/>
+      <c r="Z48" s="155"/>
+      <c r="AA48" s="155"/>
+      <c r="AB48" s="156"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6765,12 +6898,644 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="161" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="167" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="169"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="21">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="21">
+        <v>5</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="21">
+        <v>7</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="21">
+        <v>8</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="21">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="21">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="21">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="21">
+        <v>12</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="21">
+        <v>13</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="21">
+        <v>14</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="21">
+        <v>15</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="21">
+        <v>16</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="21">
+        <v>17</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="21">
+        <v>18</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="21">
+        <v>19</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="108">
+        <v>20</v>
+      </c>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="111"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="110">
+        <v>21</v>
+      </c>
+      <c r="F24" s="109"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="109"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="110">
+        <v>22</v>
+      </c>
+      <c r="F25" s="109"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="109"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="110">
+        <v>23</v>
+      </c>
+      <c r="F26" s="109"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="109"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="110">
+        <v>24</v>
+      </c>
+      <c r="F27" s="109"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="109"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="110">
+        <v>25</v>
+      </c>
+      <c r="F28" s="109"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="109"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="110">
+        <v>26</v>
+      </c>
+      <c r="F29" s="109"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="109"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="110">
+        <v>27</v>
+      </c>
+      <c r="F30" s="109"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="109"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="110">
+        <v>28</v>
+      </c>
+      <c r="F31" s="109"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="109"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="110">
+        <v>29</v>
+      </c>
+      <c r="F32" s="109"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="109"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="110">
+        <v>30</v>
+      </c>
+      <c r="F33" s="109"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="109"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="110">
+        <v>31</v>
+      </c>
+      <c r="F34" s="109"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="110">
+        <v>32</v>
+      </c>
+      <c r="F35" s="109"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="109"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="110">
+        <v>33</v>
+      </c>
+      <c r="F36" s="109"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="110">
+        <v>34</v>
+      </c>
+      <c r="F37" s="109"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="109"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="110">
+        <v>35</v>
+      </c>
+      <c r="F38" s="109"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="109"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="110">
+        <v>36</v>
+      </c>
+      <c r="F39" s="109"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="109"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="110">
+        <v>37</v>
+      </c>
+      <c r="F40" s="109"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="109"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="110">
+        <v>38</v>
+      </c>
+      <c r="F41" s="109"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="109"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="20">
+        <v>39</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="110">
+        <v>40</v>
+      </c>
+      <c r="F43" s="109"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="109"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6785,48 +7550,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="153" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="H2" s="148" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="H2" s="153" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="N2" s="148" t="s">
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="N2" s="153" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="T2" s="148" t="s">
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="T2" s="153" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Z2" s="148" t="s">
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Z2" s="153" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AF2" s="148" t="s">
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="153"/>
+      <c r="AF2" s="153" t="s">
         <v>498</v>
       </c>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
+      <c r="AG2" s="153"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="153"/>
+      <c r="AJ2" s="153"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -7252,13 +8017,13 @@
       <c r="F24" s="140"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="153" t="s">
         <v>754</v>
       </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="124" t="s">
@@ -7473,52 +8238,52 @@
       <c r="C42" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D42" s="214">
+      <c r="D42" s="147">
         <v>941</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="F42" s="215">
+      <c r="F42" s="148">
         <v>11341</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="214">
+      <c r="D43" s="147">
         <v>942</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="F43" s="215">
+      <c r="F43" s="148">
         <v>11342</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="214">
+      <c r="D44" s="147">
         <v>943</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="F44" s="215">
+      <c r="F44" s="148">
         <v>11343</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="214">
+      <c r="D45" s="147">
         <v>945</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="F45" s="215">
+      <c r="F45" s="148">
         <v>11344</v>
       </c>
     </row>
@@ -7542,6 +8307,762 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="1.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A1" s="245" t="s">
+        <v>762</v>
+      </c>
+      <c r="B1" s="246"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="149"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A2" s="234" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="234" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="235" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="150"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="248" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="229" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="230" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="150"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="249"/>
+      <c r="B4" s="228" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="231" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="150"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
+      <c r="A5" s="249"/>
+      <c r="B5" s="228" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="231" t="s">
+        <v>679</v>
+      </c>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="219"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="219"/>
+      <c r="J5" s="150"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A6" s="250"/>
+      <c r="B6" s="232" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="233" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="150"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="248" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" s="229" t="s">
+        <v>685</v>
+      </c>
+      <c r="C7" s="230" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="150"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
+      <c r="A8" s="249"/>
+      <c r="B8" s="228" t="s">
+        <v>686</v>
+      </c>
+      <c r="C8" s="231" t="s">
+        <v>689</v>
+      </c>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="150"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
+      <c r="A9" s="249"/>
+      <c r="B9" s="228" t="s">
+        <v>687</v>
+      </c>
+      <c r="C9" s="231" t="s">
+        <v>690</v>
+      </c>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="150"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A10" s="250"/>
+      <c r="B10" s="232" t="s">
+        <v>688</v>
+      </c>
+      <c r="C10" s="233" t="s">
+        <v>691</v>
+      </c>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="150"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
+      <c r="A11" s="248" t="s">
+        <v>713</v>
+      </c>
+      <c r="B11" s="229" t="s">
+        <v>697</v>
+      </c>
+      <c r="C11" s="230" t="s">
+        <v>701</v>
+      </c>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="150"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="A12" s="249"/>
+      <c r="B12" s="228" t="s">
+        <v>698</v>
+      </c>
+      <c r="C12" s="231" t="s">
+        <v>702</v>
+      </c>
+      <c r="D12" s="219"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="150"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="249"/>
+      <c r="B13" s="228" t="s">
+        <v>699</v>
+      </c>
+      <c r="C13" s="231" t="s">
+        <v>703</v>
+      </c>
+      <c r="D13" s="219"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="150"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A14" s="250"/>
+      <c r="B14" s="232" t="s">
+        <v>700</v>
+      </c>
+      <c r="C14" s="233" t="s">
+        <v>704</v>
+      </c>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="150"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75">
+      <c r="A15" s="248" t="s">
+        <v>714</v>
+      </c>
+      <c r="B15" s="229" t="s">
+        <v>716</v>
+      </c>
+      <c r="C15" s="230" t="s">
+        <v>709</v>
+      </c>
+      <c r="D15" s="219"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="219"/>
+      <c r="J15" s="150"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75">
+      <c r="A16" s="249"/>
+      <c r="B16" s="228" t="s">
+        <v>717</v>
+      </c>
+      <c r="C16" s="231" t="s">
+        <v>710</v>
+      </c>
+      <c r="D16" s="219"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="150"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75">
+      <c r="A17" s="249"/>
+      <c r="B17" s="228" t="s">
+        <v>718</v>
+      </c>
+      <c r="C17" s="231" t="s">
+        <v>711</v>
+      </c>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A18" s="250"/>
+      <c r="B18" s="232" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" s="233" t="s">
+        <v>712</v>
+      </c>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="150"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A19" s="222"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="150"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A20" s="236" t="s">
+        <v>761</v>
+      </c>
+      <c r="B20" s="237"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="150"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A21" s="234" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="234" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="235" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="150"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75">
+      <c r="A22" s="239" t="s">
+        <v>507</v>
+      </c>
+      <c r="B22" s="229" t="s">
+        <v>723</v>
+      </c>
+      <c r="C22" s="230" t="s">
+        <v>724</v>
+      </c>
+      <c r="D22" s="219"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="150"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75">
+      <c r="A23" s="240"/>
+      <c r="B23" s="228" t="s">
+        <v>728</v>
+      </c>
+      <c r="C23" s="231" t="s">
+        <v>731</v>
+      </c>
+      <c r="D23" s="219"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="150"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75">
+      <c r="A24" s="240"/>
+      <c r="B24" s="228" t="s">
+        <v>729</v>
+      </c>
+      <c r="C24" s="231" t="s">
+        <v>732</v>
+      </c>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="150"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A25" s="241"/>
+      <c r="B25" s="232" t="s">
+        <v>730</v>
+      </c>
+      <c r="C25" s="233" t="s">
+        <v>733</v>
+      </c>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="150"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75">
+      <c r="A26" s="239" t="s">
+        <v>740</v>
+      </c>
+      <c r="B26" s="229" t="s">
+        <v>735</v>
+      </c>
+      <c r="C26" s="230" t="s">
+        <v>739</v>
+      </c>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="150"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75">
+      <c r="A27" s="240"/>
+      <c r="B27" s="228" t="s">
+        <v>736</v>
+      </c>
+      <c r="C27" s="231">
+        <v>11322</v>
+      </c>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="150"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75">
+      <c r="A28" s="240"/>
+      <c r="B28" s="228" t="s">
+        <v>737</v>
+      </c>
+      <c r="C28" s="231">
+        <v>11323</v>
+      </c>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="150"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A29" s="241"/>
+      <c r="B29" s="232" t="s">
+        <v>738</v>
+      </c>
+      <c r="C29" s="233">
+        <v>11324</v>
+      </c>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="150"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
+      <c r="A30" s="239" t="s">
+        <v>748</v>
+      </c>
+      <c r="B30" s="229" t="s">
+        <v>749</v>
+      </c>
+      <c r="C30" s="230" t="s">
+        <v>744</v>
+      </c>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="150"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75">
+      <c r="A31" s="240"/>
+      <c r="B31" s="228" t="s">
+        <v>750</v>
+      </c>
+      <c r="C31" s="231" t="s">
+        <v>745</v>
+      </c>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="150"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75">
+      <c r="A32" s="240"/>
+      <c r="B32" s="228" t="s">
+        <v>751</v>
+      </c>
+      <c r="C32" s="231" t="s">
+        <v>746</v>
+      </c>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="150"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A33" s="241"/>
+      <c r="B33" s="232" t="s">
+        <v>752</v>
+      </c>
+      <c r="C33" s="233" t="s">
+        <v>747</v>
+      </c>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="150"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.75">
+      <c r="A34" s="239" t="s">
+        <v>755</v>
+      </c>
+      <c r="B34" s="229" t="s">
+        <v>760</v>
+      </c>
+      <c r="C34" s="242">
+        <v>11341</v>
+      </c>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="219"/>
+      <c r="J34" s="150"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.75">
+      <c r="A35" s="240"/>
+      <c r="B35" s="228" t="s">
+        <v>757</v>
+      </c>
+      <c r="C35" s="243">
+        <v>11342</v>
+      </c>
+      <c r="D35" s="219"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="150"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75">
+      <c r="A36" s="240"/>
+      <c r="B36" s="228" t="s">
+        <v>758</v>
+      </c>
+      <c r="C36" s="243">
+        <v>11343</v>
+      </c>
+      <c r="D36" s="219"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="150"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A37" s="241"/>
+      <c r="B37" s="232" t="s">
+        <v>759</v>
+      </c>
+      <c r="C37" s="244">
+        <v>11344</v>
+      </c>
+      <c r="D37" s="219"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="223"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="150"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="224"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="223"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="150"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="224"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="223"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+      <c r="J39" s="150"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="224"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="219"/>
+      <c r="E40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="150"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="224"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="150"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="224"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="219"/>
+      <c r="J42" s="150"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="224"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="219"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="223"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="150"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="224"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="219"/>
+      <c r="D44" s="219"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="219"/>
+      <c r="G44" s="223"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="150"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="224"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="219"/>
+      <c r="D45" s="219"/>
+      <c r="E45" s="219"/>
+      <c r="F45" s="219"/>
+      <c r="G45" s="219"/>
+      <c r="H45" s="219"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="150"/>
+    </row>
+    <row r="46" spans="1:10" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A46" s="225"/>
+      <c r="B46" s="226"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="227"/>
+      <c r="J46" s="151"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:C6 C7:C10 C11:C14 C15:C19 C26:C29 C30:C33 C34:C36 C21:C25" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7561,40 +9082,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="161" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="158"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="161"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="167" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="164"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="169"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -8128,11 +9649,11 @@
       <c r="C27" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="D27" s="155" t="s">
+      <c r="D27" s="160" t="s">
         <v>585</v>
       </c>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
@@ -8144,11 +9665,11 @@
       <c r="C28" s="144" t="s">
         <v>613</v>
       </c>
-      <c r="D28" s="155" t="s">
+      <c r="D28" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
@@ -8160,11 +9681,11 @@
       <c r="C29" s="144" t="s">
         <v>614</v>
       </c>
-      <c r="D29" s="155" t="s">
+      <c r="D29" s="160" t="s">
         <v>586</v>
       </c>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
@@ -8176,11 +9697,11 @@
       <c r="C30" s="144" t="s">
         <v>615</v>
       </c>
-      <c r="D30" s="155" t="s">
+      <c r="D30" s="160" t="s">
         <v>587</v>
       </c>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
@@ -8192,11 +9713,11 @@
       <c r="C31" s="144" t="s">
         <v>616</v>
       </c>
-      <c r="D31" s="155" t="s">
+      <c r="D31" s="160" t="s">
         <v>588</v>
       </c>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
@@ -8208,11 +9729,11 @@
       <c r="C32" s="144" t="s">
         <v>617</v>
       </c>
-      <c r="D32" s="155" t="s">
+      <c r="D32" s="160" t="s">
         <v>589</v>
       </c>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
@@ -8224,11 +9745,11 @@
       <c r="C33" s="144" t="s">
         <v>630</v>
       </c>
-      <c r="D33" s="155" t="s">
+      <c r="D33" s="160" t="s">
         <v>489</v>
       </c>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
@@ -8240,11 +9761,11 @@
       <c r="C34" s="144" t="s">
         <v>631</v>
       </c>
-      <c r="D34" s="155" t="s">
+      <c r="D34" s="160" t="s">
         <v>590</v>
       </c>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
@@ -8256,11 +9777,11 @@
       <c r="C35" s="144" t="s">
         <v>632</v>
       </c>
-      <c r="D35" s="155" t="s">
+      <c r="D35" s="160" t="s">
         <v>591</v>
       </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
@@ -8270,11 +9791,11 @@
       <c r="C36" s="144" t="s">
         <v>667</v>
       </c>
-      <c r="D36" s="152" t="s">
+      <c r="D36" s="157" t="s">
         <v>606</v>
       </c>
-      <c r="E36" s="153"/>
-      <c r="F36" s="154"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
@@ -8284,11 +9805,11 @@
       <c r="C37" s="144" t="s">
         <v>670</v>
       </c>
-      <c r="D37" s="152" t="s">
+      <c r="D37" s="157" t="s">
         <v>668</v>
       </c>
-      <c r="E37" s="153"/>
-      <c r="F37" s="154"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="159"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
     </row>
@@ -8298,11 +9819,11 @@
       <c r="C38" s="144" t="s">
         <v>669</v>
       </c>
-      <c r="D38" s="152" t="s">
+      <c r="D38" s="157" t="s">
         <v>671</v>
       </c>
-      <c r="E38" s="153"/>
-      <c r="F38" s="154"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="159"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
     </row>
@@ -8310,9 +9831,9 @@
       <c r="A39" s="24"/>
       <c r="B39" s="146"/>
       <c r="C39" s="144"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="154"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="159"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
@@ -8432,7 +9953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -8449,28 +9970,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="170" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -8649,16 +10170,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -8834,16 +10355,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="170" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="167"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="172"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -9019,7 +10540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -9043,40 +10564,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="174" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="176"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="174"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="179"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="180" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="175" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="180" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="183"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -9493,7 +11014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H41"/>
   <sheetViews>
@@ -9515,40 +11036,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="201" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="197"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="203" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="198" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="203" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="201"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="206"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -9841,114 +11362,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="198" t="s">
+      <c r="A25" s="203" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="199"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="198" t="s">
+      <c r="B25" s="204"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="203" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="199"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="206"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="187"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="193"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="195"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="200"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="188"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="191"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="185"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="192"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="197"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="187"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="192"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="188"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="190"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="195"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="188"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="191"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="196"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="192"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="197"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="187"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="192"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="188"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="190"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="195"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="188"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="191"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="196"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="185"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="192"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="197"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="185"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="187"/>
+      <c r="B32" s="190"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="192"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="190" t="s">
+      <c r="F32" s="193"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="195" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9956,13 +11477,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="188"/>
-      <c r="C33" s="189"/>
-      <c r="D33" s="191"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="196"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="192" t="s">
+      <c r="F33" s="190"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="197" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9970,13 +11491,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="187"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="190" t="s">
+      <c r="F34" s="193"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="195" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9984,13 +11505,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="188"/>
-      <c r="C35" s="189"/>
-      <c r="D35" s="191"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="196"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="192" t="s">
+      <c r="F35" s="190"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="197" t="s">
         <v>290</v>
       </c>
     </row>
@@ -9998,13 +11519,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="185"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="187"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="192"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="190" t="s">
+      <c r="F36" s="193"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="195" t="s">
         <v>291</v>
       </c>
     </row>
@@ -10012,13 +11533,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="188"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="191"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="196"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="192" t="s">
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="197" t="s">
         <v>292</v>
       </c>
     </row>
@@ -10026,13 +11547,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="185"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="187"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="192"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="190" t="s">
+      <c r="F38" s="193"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="195" t="s">
         <v>244</v>
       </c>
     </row>
@@ -10040,13 +11561,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="188"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="191"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="196"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="192" t="s">
+      <c r="F39" s="190"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="197" t="s">
         <v>245</v>
       </c>
     </row>
@@ -10054,25 +11575,25 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="185"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="187"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="192"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="190"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="195"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="181"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="186"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="183"/>
-      <c r="H41" s="184"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -10119,7 +11640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -10141,40 +11662,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="213" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="213"/>
+      <c r="A2" s="216"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="218"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="202" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="207" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="204"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="209"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -10391,18 +11912,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="210" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="205" t="s">
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="210" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="207"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -10657,7 +12178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -10679,40 +12200,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="213" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="215"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="213"/>
+      <c r="A2" s="216"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="218"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="202" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="207" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="204"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="209"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -10929,18 +12450,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="205" t="s">
+      <c r="A22" s="210" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="205" t="s">
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="210" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="207"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -11193,636 +12714,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="156" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="158"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="161"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="162" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="164"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="21">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A6" s="20">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="21">
-        <v>3</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A7" s="20">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="21">
-        <v>4</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A8" s="20">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="21">
-        <v>5</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A9" s="20">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="21">
-        <v>6</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A10" s="20">
-        <v>7</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="21">
-        <v>7</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A11" s="20">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="21">
-        <v>8</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A12" s="20">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="21">
-        <v>9</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A13" s="20">
-        <v>10</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="21">
-        <v>10</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A14" s="20">
-        <v>11</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="21">
-        <v>11</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A15" s="20">
-        <v>12</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="21">
-        <v>12</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A16" s="20">
-        <v>13</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="21">
-        <v>13</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A17" s="20">
-        <v>14</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="21">
-        <v>14</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A18" s="20">
-        <v>15</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="21">
-        <v>15</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A19" s="20">
-        <v>16</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="21">
-        <v>16</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A20" s="20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="21">
-        <v>17</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A21" s="20">
-        <v>18</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="21">
-        <v>18</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A22" s="20">
-        <v>19</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="21">
-        <v>19</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A23" s="20">
-        <v>20</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="108">
-        <v>20</v>
-      </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="111"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="110">
-        <v>21</v>
-      </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="109"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="110">
-        <v>22</v>
-      </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="109"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="110">
-        <v>23</v>
-      </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="109"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="110">
-        <v>24</v>
-      </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="109"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="110">
-        <v>25</v>
-      </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="109"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="110">
-        <v>26</v>
-      </c>
-      <c r="F29" s="109"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="109"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="110">
-        <v>27</v>
-      </c>
-      <c r="F30" s="109"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="109"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="110">
-        <v>28</v>
-      </c>
-      <c r="F31" s="109"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="109"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="110">
-        <v>29</v>
-      </c>
-      <c r="F32" s="109"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="109"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="110">
-        <v>30</v>
-      </c>
-      <c r="F33" s="109"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="109"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="110">
-        <v>31</v>
-      </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="110">
-        <v>32</v>
-      </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="109"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="110">
-        <v>33</v>
-      </c>
-      <c r="F36" s="109"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="109"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="110">
-        <v>34</v>
-      </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="109"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="110">
-        <v>35</v>
-      </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="109"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="110">
-        <v>36</v>
-      </c>
-      <c r="F39" s="109"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="109"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="110">
-        <v>37</v>
-      </c>
-      <c r="F40" s="109"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="109"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="110">
-        <v>38</v>
-      </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="109"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="20">
-        <v>39</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="110">
-        <v>40</v>
-      </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="109"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="769">
   <si>
     <t>AWACS</t>
   </si>
@@ -2044,42 +2044,6 @@
     <t>225.75</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>00311</t>
-  </si>
-  <si>
-    <t>00312</t>
-  </si>
-  <si>
-    <t>00313</t>
-  </si>
-  <si>
-    <t>00314</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
     <t>LO21</t>
   </si>
   <si>
@@ -2092,30 +2056,6 @@
     <t>LO24</t>
   </si>
   <si>
-    <t>00322</t>
-  </si>
-  <si>
-    <t>00323</t>
-  </si>
-  <si>
-    <t>00324</t>
-  </si>
-  <si>
-    <t>00321</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
     <t>JI31</t>
   </si>
   <si>
@@ -2128,42 +2068,6 @@
     <t>JI34</t>
   </si>
   <si>
-    <t>00331</t>
-  </si>
-  <si>
-    <t>00332</t>
-  </si>
-  <si>
-    <t>00333</t>
-  </si>
-  <si>
-    <t>00334</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>00341</t>
-  </si>
-  <si>
-    <t>00342</t>
-  </si>
-  <si>
-    <t>00343</t>
-  </si>
-  <si>
-    <t>00344</t>
-  </si>
-  <si>
     <t>JEDI 3</t>
   </si>
   <si>
@@ -2197,9 +2101,6 @@
     <t>VM91</t>
   </si>
   <si>
-    <t>11311</t>
-  </si>
-  <si>
     <t>912</t>
   </si>
   <si>
@@ -2218,15 +2119,6 @@
     <t>VM94</t>
   </si>
   <si>
-    <t>11312</t>
-  </si>
-  <si>
-    <t>11313</t>
-  </si>
-  <si>
-    <t>11314</t>
-  </si>
-  <si>
     <t>921</t>
   </si>
   <si>
@@ -2242,9 +2134,6 @@
     <t>NA94</t>
   </si>
   <si>
-    <t>11321</t>
-  </si>
-  <si>
     <t>NINJA</t>
   </si>
   <si>
@@ -2257,18 +2146,6 @@
     <t>932</t>
   </si>
   <si>
-    <t>11331</t>
-  </si>
-  <si>
-    <t>11332</t>
-  </si>
-  <si>
-    <t>11333</t>
-  </si>
-  <si>
-    <t>11334</t>
-  </si>
-  <si>
     <t>RATTLER</t>
   </si>
   <si>
@@ -2312,6 +2189,147 @@
   </si>
   <si>
     <t>BLUE F-16</t>
+  </si>
+  <si>
+    <t>00411</t>
+  </si>
+  <si>
+    <t>00412</t>
+  </si>
+  <si>
+    <t>00413</t>
+  </si>
+  <si>
+    <t>00414</t>
+  </si>
+  <si>
+    <t>00421</t>
+  </si>
+  <si>
+    <t>00422</t>
+  </si>
+  <si>
+    <t>00423</t>
+  </si>
+  <si>
+    <t>00424</t>
+  </si>
+  <si>
+    <t>00431</t>
+  </si>
+  <si>
+    <t>00432</t>
+  </si>
+  <si>
+    <t>00433</t>
+  </si>
+  <si>
+    <t>00434</t>
+  </si>
+  <si>
+    <t>00441</t>
+  </si>
+  <si>
+    <t>00442</t>
+  </si>
+  <si>
+    <t>00443</t>
+  </si>
+  <si>
+    <t>00444</t>
+  </si>
+  <si>
+    <t>11411</t>
+  </si>
+  <si>
+    <t>11412</t>
+  </si>
+  <si>
+    <t>11413</t>
+  </si>
+  <si>
+    <t>11414</t>
+  </si>
+  <si>
+    <t>11421</t>
+  </si>
+  <si>
+    <t>11422</t>
+  </si>
+  <si>
+    <t>11423</t>
+  </si>
+  <si>
+    <t>11424</t>
+  </si>
+  <si>
+    <t>11431</t>
+  </si>
+  <si>
+    <t>11432</t>
+  </si>
+  <si>
+    <t>11433</t>
+  </si>
+  <si>
+    <t>11434</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>DATALINK TRMA v0.1</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>AGGRESSOR F/A-18 (RED AIRCRAFT)</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2505,6 +2523,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -2616,7 +2642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3162,11 +3188,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3524,212 +3600,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3745,6 +3618,39 @@
     <xf numFmtId="49" fontId="24" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3754,33 +3660,6 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3789,6 +3668,210 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4217,13 +4300,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="153" t="s">
+      <c r="V2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -4278,9 +4361,9 @@
         <v>433</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
       <c r="V3" s="122" t="s">
         <v>335</v>
       </c>
@@ -4364,22 +4447,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="153" t="s">
+      <c r="AD4" s="170" t="s">
         <v>436</v>
       </c>
-      <c r="AE4" s="153"/>
-      <c r="AF4" s="153"/>
-      <c r="AG4" s="153"/>
-      <c r="AH4" s="153"/>
-      <c r="AJ4" s="153" t="s">
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="170"/>
+      <c r="AJ4" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="153"/>
-      <c r="AL4" s="153"/>
-      <c r="AM4" s="153"/>
-      <c r="AN4" s="153"/>
-      <c r="AO4" s="153"/>
-      <c r="AP4" s="153"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="170"/>
+      <c r="AP4" s="170"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -5472,15 +5555,15 @@
       <c r="AH17" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="AJ17" s="153" t="s">
+      <c r="AJ17" s="170" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="153"/>
-      <c r="AL17" s="153"/>
-      <c r="AM17" s="153"/>
-      <c r="AN17" s="153"/>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="153"/>
+      <c r="AK17" s="170"/>
+      <c r="AL17" s="170"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="170"/>
+      <c r="AO17" s="170"/>
+      <c r="AP17" s="170"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5697,9 +5780,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="152"/>
-      <c r="T20" s="152"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -6039,13 +6122,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="153" t="s">
+      <c r="AD24" s="170" t="s">
         <v>493</v>
       </c>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
+      <c r="AE24" s="170"/>
+      <c r="AF24" s="170"/>
+      <c r="AG24" s="170"/>
+      <c r="AH24" s="170"/>
       <c r="AJ24" s="142" t="s">
         <v>570</v>
       </c>
@@ -6355,15 +6438,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="153" t="s">
+      <c r="V29" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
+      <c r="W29" s="170"/>
+      <c r="X29" s="170"/>
+      <c r="Y29" s="170"/>
+      <c r="Z29" s="170"/>
+      <c r="AA29" s="170"/>
+      <c r="AB29" s="170"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -6453,11 +6536,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="154" t="s">
+      <c r="AD31" s="171" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="155"/>
-      <c r="AF31" s="156"/>
+      <c r="AE31" s="172"/>
+      <c r="AF31" s="173"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -6562,15 +6645,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="153" t="s">
+      <c r="V37" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="153"/>
-      <c r="Z37" s="153"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="153"/>
+      <c r="W37" s="170"/>
+      <c r="X37" s="170"/>
+      <c r="Y37" s="170"/>
+      <c r="Z37" s="170"/>
+      <c r="AA37" s="170"/>
+      <c r="AB37" s="170"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6669,15 +6752,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="153" t="s">
+      <c r="V42" s="170" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="153"/>
-      <c r="X42" s="153"/>
-      <c r="Y42" s="153"/>
-      <c r="Z42" s="153"/>
-      <c r="AA42" s="153"/>
-      <c r="AB42" s="153"/>
+      <c r="W42" s="170"/>
+      <c r="X42" s="170"/>
+      <c r="Y42" s="170"/>
+      <c r="Z42" s="170"/>
+      <c r="AA42" s="170"/>
+      <c r="AB42" s="170"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6782,15 +6865,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="154" t="s">
+      <c r="V48" s="171" t="s">
         <v>480</v>
       </c>
-      <c r="W48" s="155"/>
-      <c r="X48" s="155"/>
-      <c r="Y48" s="155"/>
-      <c r="Z48" s="155"/>
-      <c r="AA48" s="155"/>
-      <c r="AB48" s="156"/>
+      <c r="W48" s="172"/>
+      <c r="X48" s="172"/>
+      <c r="Y48" s="172"/>
+      <c r="Z48" s="172"/>
+      <c r="AA48" s="172"/>
+      <c r="AB48" s="173"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6880,11 +6963,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -6892,6 +6970,11 @@
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6920,40 +7003,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="184" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="163"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="166"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="190" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="169"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -7534,13 +7617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="74"/>
     <col min="13" max="13" width="1.7109375" customWidth="1"/>
@@ -7550,48 +7634,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="170" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="H2" s="153" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="H2" s="170" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="N2" s="153" t="s">
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="N2" s="170" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="T2" s="153" t="s">
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="T2" s="170" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Z2" s="153" t="s">
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Z2" s="170" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="153"/>
-      <c r="AF2" s="153" t="s">
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="170"/>
+      <c r="AD2" s="170"/>
+      <c r="AF2" s="170" t="s">
         <v>498</v>
       </c>
-      <c r="AG2" s="153"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="153"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="170"/>
+      <c r="AJ2" s="170"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -7693,13 +7777,13 @@
         <v>482</v>
       </c>
       <c r="D4" s="126" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>324</v>
       </c>
       <c r="F4" s="126" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="H4" t="s">
         <v>501</v>
@@ -7725,30 +7809,30 @@
     </row>
     <row r="5" spans="2:36">
       <c r="B5" s="3" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="126" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>326</v>
       </c>
       <c r="F5" s="126" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="126" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>327</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
       <c r="H6" t="s">
         <v>503</v>
@@ -7761,13 +7845,13 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="126" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>328</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="2:36">
@@ -7791,19 +7875,19 @@
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="3" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>482</v>
       </c>
       <c r="D9" s="126" t="s">
-        <v>681</v>
+        <v>754</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F9" s="126" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="H9" t="s">
         <v>506</v>
@@ -7815,43 +7899,43 @@
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="3" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="126" t="s">
-        <v>682</v>
+        <v>755</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="F10" s="126" t="s">
-        <v>689</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="126" t="s">
-        <v>683</v>
+        <v>756</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F11" s="126" t="s">
-        <v>690</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="126" t="s">
-        <v>684</v>
+        <v>757</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="F12" s="126" t="s">
-        <v>691</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="2:36">
@@ -7866,47 +7950,47 @@
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="3" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>482</v>
       </c>
       <c r="D14" s="126" t="s">
-        <v>693</v>
+        <v>758</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="F14" s="126" t="s">
-        <v>701</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="3" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="126" t="s">
-        <v>694</v>
+        <v>759</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="F15" s="126" t="s">
-        <v>702</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="126" t="s">
-        <v>695</v>
+        <v>760</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F16" s="126" t="s">
-        <v>703</v>
+        <v>732</v>
       </c>
       <c r="H16" t="s">
         <v>577</v>
@@ -7916,13 +8000,13 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="126" t="s">
-        <v>696</v>
+        <v>761</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="F17" s="126" t="s">
-        <v>704</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -7931,25 +8015,25 @@
       <c r="D18" s="126"/>
       <c r="E18" s="3"/>
       <c r="F18" s="126"/>
+      <c r="H18" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="3" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>482</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="F19" s="126" t="s">
-        <v>709</v>
-      </c>
-      <c r="H19" t="s">
-        <v>358</v>
+        <v>734</v>
       </c>
       <c r="T19" t="s">
         <v>358</v>
@@ -7957,20 +8041,17 @@
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="3" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="126" t="s">
-        <v>706</v>
+        <v>763</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="F20" s="126" t="s">
-        <v>710</v>
-      </c>
-      <c r="H20" t="s">
-        <v>508</v>
+        <v>735</v>
       </c>
       <c r="T20" t="s">
         <v>509</v>
@@ -7980,26 +8061,26 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="126" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="F21" s="126" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="126" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="F22" s="126" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="2:20">
@@ -8017,13 +8098,20 @@
       <c r="F24" s="140"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="153" t="s">
-        <v>754</v>
-      </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
+      <c r="B25" s="170" t="s">
+        <v>713</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="H25" s="170" t="s">
+        <v>768</v>
+      </c>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="124" t="s">
@@ -8041,6 +8129,21 @@
       <c r="F26" s="125" t="s">
         <v>325</v>
       </c>
+      <c r="H26" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="J26" s="125" t="s">
+        <v>452</v>
+      </c>
+      <c r="K26" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="L26" s="125" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="3" t="s">
@@ -8050,52 +8153,55 @@
         <v>482</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="F27" s="126" t="s">
-        <v>724</v>
+        <v>738</v>
+      </c>
+      <c r="H27" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="126" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
       <c r="F28" s="126" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="126" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="F29" s="126" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="126" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="F30" s="126" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="31" spans="2:20">
@@ -8107,19 +8213,19 @@
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="3" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="D32" s="126" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="F32" s="126" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -8129,10 +8235,10 @@
         <v>922</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="F33" s="126">
-        <v>11322</v>
+        <v>700</v>
+      </c>
+      <c r="F33" s="126" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -8142,10 +8248,10 @@
         <v>923</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="F34" s="126">
-        <v>11323</v>
+        <v>701</v>
+      </c>
+      <c r="F34" s="126" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -8155,10 +8261,10 @@
         <v>924</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="F35" s="126">
-        <v>11324</v>
+        <v>702</v>
+      </c>
+      <c r="F35" s="126" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -8170,32 +8276,32 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="3" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>753</v>
+        <v>712</v>
       </c>
       <c r="D37" s="126" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>749</v>
+        <v>708</v>
       </c>
       <c r="F37" s="126" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="126" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>750</v>
+        <v>709</v>
       </c>
       <c r="F38" s="126" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -8205,10 +8311,10 @@
         <v>933</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>751</v>
+        <v>710</v>
       </c>
       <c r="F39" s="126" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -8218,10 +8324,10 @@
         <v>934</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="F40" s="126" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -8233,19 +8339,19 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="3" t="s">
-        <v>755</v>
+        <v>714</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="D42" s="147">
         <v>941</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="F42" s="148">
-        <v>11341</v>
+        <v>11441</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -8255,10 +8361,10 @@
         <v>942</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="F43" s="148">
-        <v>11342</v>
+        <v>11442</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -8268,10 +8374,10 @@
         <v>943</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>758</v>
+        <v>717</v>
       </c>
       <c r="F44" s="148">
-        <v>11343</v>
+        <v>11443</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -8281,14 +8387,14 @@
         <v>945</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="F45" s="148">
-        <v>11344</v>
+        <v>11444</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="Z2:AD2"/>
@@ -8296,21 +8402,22 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="T2:X2"/>
+    <mergeCell ref="H25:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D4 D5:D7 D9:D12 D14:D17 D19:D22 D27:D30 D32:D35 D37:D40 F27:F40 F4:F22" numberStoredAsText="1"/>
+    <ignoredError sqref="D27:D30 D32:D35 D37:D40 F13 F18 F8 F4:F7 F9:F12 F19:F22 F14:F17 F36 F31 F27:F30 F32:F35 F37:F40 D4:D22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8321,742 +8428,757 @@
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="74" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" customWidth="1"/>
     <col min="18" max="18" width="1.5703125" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A1" s="245" t="s">
-        <v>762</v>
-      </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="149"/>
+    <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A1" s="249" t="s">
+        <v>766</v>
+      </c>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="251"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="246" t="s">
+        <v>721</v>
+      </c>
+      <c r="B2" s="247"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="149"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A3" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B3" s="165" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="235" t="s">
+      <c r="C3" s="166" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="150"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="248" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="149"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="229" t="s">
+      <c r="B4" s="160" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="230" t="s">
+      <c r="C4" s="161" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="149"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75">
+      <c r="A5" s="182"/>
+      <c r="B5" s="159" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="162" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="149"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="182"/>
+      <c r="B6" s="159" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>724</v>
+      </c>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="149"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A7" s="183"/>
+      <c r="B7" s="163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="164" t="s">
+        <v>725</v>
+      </c>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="149"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
+      <c r="A8" s="181" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" s="160" t="s">
+        <v>673</v>
+      </c>
+      <c r="C8" s="161" t="s">
+        <v>726</v>
+      </c>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="149"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
+      <c r="A9" s="182"/>
+      <c r="B9" s="159" t="s">
+        <v>674</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>727</v>
+      </c>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="149"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
+      <c r="A10" s="182"/>
+      <c r="B10" s="159" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="162" t="s">
+        <v>728</v>
+      </c>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="149"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A11" s="183"/>
+      <c r="B11" s="163" t="s">
+        <v>676</v>
+      </c>
+      <c r="C11" s="164" t="s">
+        <v>729</v>
+      </c>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="149"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="A12" s="181" t="s">
+        <v>681</v>
+      </c>
+      <c r="B12" s="160" t="s">
         <v>677</v>
       </c>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="150"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="249"/>
-      <c r="B4" s="228" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="231" t="s">
+      <c r="C12" s="161" t="s">
+        <v>730</v>
+      </c>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="149"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="182"/>
+      <c r="B13" s="159" t="s">
         <v>678</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="150"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="249"/>
-      <c r="B5" s="228" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="231" t="s">
+      <c r="C13" s="162" t="s">
+        <v>731</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="149"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75">
+      <c r="A14" s="182"/>
+      <c r="B14" s="159" t="s">
         <v>679</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="150"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="232" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="233" t="s">
+      <c r="C14" s="162" t="s">
+        <v>732</v>
+      </c>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="149"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A15" s="183"/>
+      <c r="B15" s="163" t="s">
         <v>680</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="150"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75">
-      <c r="A7" s="248" t="s">
-        <v>715</v>
-      </c>
-      <c r="B7" s="229" t="s">
+      <c r="C15" s="164" t="s">
+        <v>733</v>
+      </c>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="149"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75">
+      <c r="A16" s="181" t="s">
+        <v>682</v>
+      </c>
+      <c r="B16" s="160" t="s">
+        <v>684</v>
+      </c>
+      <c r="C16" s="161" t="s">
+        <v>734</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="149"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75">
+      <c r="A17" s="182"/>
+      <c r="B17" s="159" t="s">
         <v>685</v>
       </c>
-      <c r="C7" s="230" t="s">
-        <v>692</v>
-      </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="150"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75">
-      <c r="A8" s="249"/>
-      <c r="B8" s="228" t="s">
+      <c r="C17" s="162" t="s">
+        <v>735</v>
+      </c>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="149"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75">
+      <c r="A18" s="182"/>
+      <c r="B18" s="159" t="s">
         <v>686</v>
       </c>
-      <c r="C8" s="231" t="s">
-        <v>689</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="150"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75">
-      <c r="A9" s="249"/>
-      <c r="B9" s="228" t="s">
+      <c r="C18" s="162" t="s">
+        <v>736</v>
+      </c>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="149"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A19" s="183"/>
+      <c r="B19" s="163" t="s">
         <v>687</v>
       </c>
-      <c r="C9" s="231" t="s">
-        <v>690</v>
-      </c>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="150"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A10" s="250"/>
-      <c r="B10" s="232" t="s">
-        <v>688</v>
-      </c>
-      <c r="C10" s="233" t="s">
+      <c r="C19" s="164" t="s">
+        <v>737</v>
+      </c>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="149"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A20" s="153"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="149"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A21" s="178" t="s">
+        <v>720</v>
+      </c>
+      <c r="B21" s="179"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="149"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A22" s="165" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="165" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="166" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="149"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75">
+      <c r="A23" s="175" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" s="160" t="s">
         <v>691</v>
       </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="150"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75">
-      <c r="A11" s="248" t="s">
-        <v>713</v>
-      </c>
-      <c r="B11" s="229" t="s">
+      <c r="C23" s="161" t="s">
+        <v>738</v>
+      </c>
+      <c r="D23" s="151"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="149"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75">
+      <c r="A24" s="176"/>
+      <c r="B24" s="159" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" s="162" t="s">
+        <v>739</v>
+      </c>
+      <c r="D24" s="151"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="149"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75">
+      <c r="A25" s="176"/>
+      <c r="B25" s="159" t="s">
+        <v>696</v>
+      </c>
+      <c r="C25" s="162" t="s">
+        <v>740</v>
+      </c>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="149"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A26" s="177"/>
+      <c r="B26" s="163" t="s">
         <v>697</v>
       </c>
-      <c r="C11" s="230" t="s">
+      <c r="C26" s="164" t="s">
+        <v>741</v>
+      </c>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="149"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75">
+      <c r="A27" s="175" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" s="160" t="s">
+        <v>699</v>
+      </c>
+      <c r="C27" s="161" t="s">
+        <v>742</v>
+      </c>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="149"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75">
+      <c r="A28" s="176"/>
+      <c r="B28" s="159" t="s">
+        <v>700</v>
+      </c>
+      <c r="C28" s="162" t="s">
+        <v>743</v>
+      </c>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="149"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75">
+      <c r="A29" s="176"/>
+      <c r="B29" s="159" t="s">
         <v>701</v>
       </c>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="150"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="249"/>
-      <c r="B12" s="228" t="s">
-        <v>698</v>
-      </c>
-      <c r="C12" s="231" t="s">
+      <c r="C29" s="162" t="s">
+        <v>744</v>
+      </c>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="149"/>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A30" s="177"/>
+      <c r="B30" s="163" t="s">
         <v>702</v>
       </c>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="150"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="249"/>
-      <c r="B13" s="228" t="s">
-        <v>699</v>
-      </c>
-      <c r="C13" s="231" t="s">
-        <v>703</v>
-      </c>
-      <c r="D13" s="219"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="150"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A14" s="250"/>
-      <c r="B14" s="232" t="s">
-        <v>700</v>
-      </c>
-      <c r="C14" s="233" t="s">
-        <v>704</v>
-      </c>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="150"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75">
-      <c r="A15" s="248" t="s">
+      <c r="C30" s="164" t="s">
+        <v>745</v>
+      </c>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="149"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75">
+      <c r="A31" s="175" t="s">
+        <v>707</v>
+      </c>
+      <c r="B31" s="160" t="s">
+        <v>708</v>
+      </c>
+      <c r="C31" s="161" t="s">
+        <v>746</v>
+      </c>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="149"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75">
+      <c r="A32" s="176"/>
+      <c r="B32" s="159" t="s">
+        <v>709</v>
+      </c>
+      <c r="C32" s="162" t="s">
+        <v>747</v>
+      </c>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="149"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75">
+      <c r="A33" s="176"/>
+      <c r="B33" s="159" t="s">
+        <v>710</v>
+      </c>
+      <c r="C33" s="162" t="s">
+        <v>748</v>
+      </c>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="149"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A34" s="177"/>
+      <c r="B34" s="163" t="s">
+        <v>711</v>
+      </c>
+      <c r="C34" s="164" t="s">
+        <v>749</v>
+      </c>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="149"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.75">
+      <c r="A35" s="175" t="s">
         <v>714</v>
       </c>
-      <c r="B15" s="229" t="s">
+      <c r="B35" s="160" t="s">
+        <v>719</v>
+      </c>
+      <c r="C35" s="167">
+        <v>11441</v>
+      </c>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="149"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75">
+      <c r="A36" s="176"/>
+      <c r="B36" s="159" t="s">
         <v>716</v>
       </c>
-      <c r="C15" s="230" t="s">
-        <v>709</v>
-      </c>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="150"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75">
-      <c r="A16" s="249"/>
-      <c r="B16" s="228" t="s">
+      <c r="C36" s="168">
+        <v>11442</v>
+      </c>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="149"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75">
+      <c r="A37" s="176"/>
+      <c r="B37" s="159" t="s">
         <v>717</v>
       </c>
-      <c r="C16" s="231" t="s">
-        <v>710</v>
-      </c>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="150"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="249"/>
-      <c r="B17" s="228" t="s">
+      <c r="C37" s="168">
+        <v>11443</v>
+      </c>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="149"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A38" s="177"/>
+      <c r="B38" s="163" t="s">
         <v>718</v>
       </c>
-      <c r="C17" s="231" t="s">
-        <v>711</v>
-      </c>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="150"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A18" s="250"/>
-      <c r="B18" s="232" t="s">
-        <v>719</v>
-      </c>
-      <c r="C18" s="233" t="s">
-        <v>712</v>
-      </c>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="150"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A19" s="222"/>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="150"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A20" s="236" t="s">
-        <v>761</v>
-      </c>
-      <c r="B20" s="237"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="150"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="234" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" s="234" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="235" t="s">
-        <v>325</v>
-      </c>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="150"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75">
-      <c r="A22" s="239" t="s">
-        <v>507</v>
-      </c>
-      <c r="B22" s="229" t="s">
-        <v>723</v>
-      </c>
-      <c r="C22" s="230" t="s">
-        <v>724</v>
-      </c>
-      <c r="D22" s="219"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="150"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="240"/>
-      <c r="B23" s="228" t="s">
-        <v>728</v>
-      </c>
-      <c r="C23" s="231" t="s">
-        <v>731</v>
-      </c>
-      <c r="D23" s="219"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="150"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="240"/>
-      <c r="B24" s="228" t="s">
-        <v>729</v>
-      </c>
-      <c r="C24" s="231" t="s">
-        <v>732</v>
-      </c>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="150"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A25" s="241"/>
-      <c r="B25" s="232" t="s">
-        <v>730</v>
-      </c>
-      <c r="C25" s="233" t="s">
-        <v>733</v>
-      </c>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="150"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75">
-      <c r="A26" s="239" t="s">
-        <v>740</v>
-      </c>
-      <c r="B26" s="229" t="s">
-        <v>735</v>
-      </c>
-      <c r="C26" s="230" t="s">
-        <v>739</v>
-      </c>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="150"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75">
-      <c r="A27" s="240"/>
-      <c r="B27" s="228" t="s">
-        <v>736</v>
-      </c>
-      <c r="C27" s="231">
-        <v>11322</v>
-      </c>
-      <c r="D27" s="219"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="150"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75">
-      <c r="A28" s="240"/>
-      <c r="B28" s="228" t="s">
-        <v>737</v>
-      </c>
-      <c r="C28" s="231">
-        <v>11323</v>
-      </c>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="150"/>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A29" s="241"/>
-      <c r="B29" s="232" t="s">
-        <v>738</v>
-      </c>
-      <c r="C29" s="233">
-        <v>11324</v>
-      </c>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="150"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="239" t="s">
-        <v>748</v>
-      </c>
-      <c r="B30" s="229" t="s">
-        <v>749</v>
-      </c>
-      <c r="C30" s="230" t="s">
-        <v>744</v>
-      </c>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="150"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="240"/>
-      <c r="B31" s="228" t="s">
-        <v>750</v>
-      </c>
-      <c r="C31" s="231" t="s">
-        <v>745</v>
-      </c>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="150"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75">
-      <c r="A32" s="240"/>
-      <c r="B32" s="228" t="s">
-        <v>751</v>
-      </c>
-      <c r="C32" s="231" t="s">
-        <v>746</v>
-      </c>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="150"/>
-    </row>
-    <row r="33" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A33" s="241"/>
-      <c r="B33" s="232" t="s">
-        <v>752</v>
-      </c>
-      <c r="C33" s="233" t="s">
-        <v>747</v>
-      </c>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="150"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75">
-      <c r="A34" s="239" t="s">
-        <v>755</v>
-      </c>
-      <c r="B34" s="229" t="s">
-        <v>760</v>
-      </c>
-      <c r="C34" s="242">
-        <v>11341</v>
-      </c>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="150"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75">
-      <c r="A35" s="240"/>
-      <c r="B35" s="228" t="s">
-        <v>757</v>
-      </c>
-      <c r="C35" s="243">
-        <v>11342</v>
-      </c>
-      <c r="D35" s="219"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="150"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75">
-      <c r="A36" s="240"/>
-      <c r="B36" s="228" t="s">
-        <v>758</v>
-      </c>
-      <c r="C36" s="243">
-        <v>11343</v>
-      </c>
-      <c r="D36" s="219"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="150"/>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A37" s="241"/>
-      <c r="B37" s="232" t="s">
-        <v>759</v>
-      </c>
-      <c r="C37" s="244">
-        <v>11344</v>
-      </c>
-      <c r="D37" s="219"/>
-      <c r="E37" s="219"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="150"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="224"/>
-      <c r="B38" s="219"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="223"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="150"/>
+      <c r="C38" s="169">
+        <v>11444</v>
+      </c>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="149"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="224"/>
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="150"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="149"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="224"/>
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="219"/>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="150"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="149"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="224"/>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="150"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="149"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="224"/>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
-      <c r="E42" s="219"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="150"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="149"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="224"/>
-      <c r="B43" s="219"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="219"/>
-      <c r="E43" s="219"/>
-      <c r="F43" s="219"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="150"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="149"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="224"/>
-      <c r="B44" s="219"/>
-      <c r="C44" s="219"/>
-      <c r="D44" s="219"/>
-      <c r="E44" s="219"/>
-      <c r="F44" s="219"/>
-      <c r="G44" s="223"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="150"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="149"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="224"/>
-      <c r="B45" s="219"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="219"/>
-      <c r="E45" s="219"/>
-      <c r="F45" s="219"/>
-      <c r="G45" s="219"/>
-      <c r="H45" s="219"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="150"/>
-    </row>
-    <row r="46" spans="1:10" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A46" s="225"/>
-      <c r="B46" s="226"/>
-      <c r="C46" s="226"/>
-      <c r="D46" s="226"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="226"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="226"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="151"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="149"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="155"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="149"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A47" s="156"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:C6 C7:C10 C11:C14 C15:C19 C26:C29 C30:C33 C34:C36 C21:C25" numberStoredAsText="1"/>
+    <ignoredError sqref="C20 C22 C4:C19 C23:C38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9082,40 +9204,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="184" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="163"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="166"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="190" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="169"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -9649,11 +9771,11 @@
       <c r="C27" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="193" t="s">
         <v>585</v>
       </c>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
@@ -9665,11 +9787,11 @@
       <c r="C28" s="144" t="s">
         <v>613</v>
       </c>
-      <c r="D28" s="160" t="s">
+      <c r="D28" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
@@ -9681,11 +9803,11 @@
       <c r="C29" s="144" t="s">
         <v>614</v>
       </c>
-      <c r="D29" s="160" t="s">
+      <c r="D29" s="193" t="s">
         <v>586</v>
       </c>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
@@ -9697,11 +9819,11 @@
       <c r="C30" s="144" t="s">
         <v>615</v>
       </c>
-      <c r="D30" s="160" t="s">
+      <c r="D30" s="193" t="s">
         <v>587</v>
       </c>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
@@ -9713,11 +9835,11 @@
       <c r="C31" s="144" t="s">
         <v>616</v>
       </c>
-      <c r="D31" s="160" t="s">
+      <c r="D31" s="193" t="s">
         <v>588</v>
       </c>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
@@ -9729,11 +9851,11 @@
       <c r="C32" s="144" t="s">
         <v>617</v>
       </c>
-      <c r="D32" s="160" t="s">
+      <c r="D32" s="193" t="s">
         <v>589</v>
       </c>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
@@ -9745,11 +9867,11 @@
       <c r="C33" s="144" t="s">
         <v>630</v>
       </c>
-      <c r="D33" s="160" t="s">
+      <c r="D33" s="193" t="s">
         <v>489</v>
       </c>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
@@ -9761,11 +9883,11 @@
       <c r="C34" s="144" t="s">
         <v>631</v>
       </c>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="193" t="s">
         <v>590</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
@@ -9777,11 +9899,11 @@
       <c r="C35" s="144" t="s">
         <v>632</v>
       </c>
-      <c r="D35" s="160" t="s">
+      <c r="D35" s="193" t="s">
         <v>591</v>
       </c>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
@@ -9791,11 +9913,11 @@
       <c r="C36" s="144" t="s">
         <v>667</v>
       </c>
-      <c r="D36" s="157" t="s">
+      <c r="D36" s="194" t="s">
         <v>606</v>
       </c>
-      <c r="E36" s="158"/>
-      <c r="F36" s="159"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="196"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
@@ -9805,11 +9927,11 @@
       <c r="C37" s="144" t="s">
         <v>670</v>
       </c>
-      <c r="D37" s="157" t="s">
+      <c r="D37" s="194" t="s">
         <v>668</v>
       </c>
-      <c r="E37" s="158"/>
-      <c r="F37" s="159"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="196"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
     </row>
@@ -9819,11 +9941,11 @@
       <c r="C38" s="144" t="s">
         <v>669</v>
       </c>
-      <c r="D38" s="157" t="s">
+      <c r="D38" s="194" t="s">
         <v>671</v>
       </c>
-      <c r="E38" s="158"/>
-      <c r="F38" s="159"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="196"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
     </row>
@@ -9831,9 +9953,9 @@
       <c r="A39" s="24"/>
       <c r="B39" s="146"/>
       <c r="C39" s="144"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="159"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="196"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
@@ -9931,6 +10053,13 @@
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -9940,13 +10069,6 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9970,28 +10092,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="200" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="197" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="172"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="199"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -10170,16 +10292,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="170" t="s">
+      <c r="A15" s="197" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="199"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -10355,16 +10477,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="197" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="172"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -10564,40 +10686,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="201" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="203"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="177"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="207" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="180" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="207" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="183"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -11036,40 +11158,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
+      <c r="A2" s="212"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="213" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="203" t="s">
+      <c r="B3" s="214"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="213" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="206"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="216"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -11362,114 +11484,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="203" t="s">
+      <c r="A25" s="213" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="204"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="203" t="s">
+      <c r="B25" s="214"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="213" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="204"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="206"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="216"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="190"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="192"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="219"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="198"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="200"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="222"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="193"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="196"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="225"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="190"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="197"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="226"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="190"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="192"/>
+      <c r="B28" s="217"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="219"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="195"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="227"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="193"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="196"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="225"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="190"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="197"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="226"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="190"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="192"/>
+      <c r="B30" s="217"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="193"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="195"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="227"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="193"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="196"/>
+      <c r="B31" s="223"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="225"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="190"/>
-      <c r="G31" s="191"/>
-      <c r="H31" s="197"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="226"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="190"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="192"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="219"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="195" t="s">
+      <c r="F32" s="223"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="227" t="s">
         <v>245</v>
       </c>
     </row>
@@ -11477,13 +11599,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="193"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="196"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="197" t="s">
+      <c r="F33" s="217"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="226" t="s">
         <v>288</v>
       </c>
     </row>
@@ -11491,13 +11613,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="192"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="219"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="195" t="s">
+      <c r="F34" s="223"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="227" t="s">
         <v>289</v>
       </c>
     </row>
@@ -11505,13 +11627,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="196"/>
+      <c r="B35" s="223"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="225"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="197" t="s">
+      <c r="F35" s="217"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="226" t="s">
         <v>290</v>
       </c>
     </row>
@@ -11519,13 +11641,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="192"/>
+      <c r="B36" s="217"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="219"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="195" t="s">
+      <c r="F36" s="223"/>
+      <c r="G36" s="224"/>
+      <c r="H36" s="227" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11533,13 +11655,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="193"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="196"/>
+      <c r="B37" s="223"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="225"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="197" t="s">
+      <c r="F37" s="217"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="226" t="s">
         <v>292</v>
       </c>
     </row>
@@ -11547,13 +11669,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="190"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="192"/>
+      <c r="B38" s="217"/>
+      <c r="C38" s="218"/>
+      <c r="D38" s="219"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="195" t="s">
+      <c r="F38" s="223"/>
+      <c r="G38" s="224"/>
+      <c r="H38" s="227" t="s">
         <v>244</v>
       </c>
     </row>
@@ -11561,13 +11683,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="193"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="196"/>
+      <c r="B39" s="223"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="225"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="197" t="s">
+      <c r="F39" s="217"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="226" t="s">
         <v>245</v>
       </c>
     </row>
@@ -11575,57 +11697,28 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="190"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="192"/>
+      <c r="B40" s="217"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="219"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="195"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="227"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="184"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="186"/>
+      <c r="B41" s="228"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="230"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="189"/>
+      <c r="F41" s="231"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -11634,6 +11727,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11662,40 +11784,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="215"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="218"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="234" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="207" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="234" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -11912,18 +12034,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="210" t="s">
+      <c r="A22" s="237" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="211"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="210" t="s">
+      <c r="B22" s="238"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="237" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="212"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="238"/>
+      <c r="H22" s="239"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -12200,40 +12322,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="240" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="215"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="216"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="218"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="234" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="207" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="234" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -12450,18 +12572,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="210" t="s">
+      <c r="A22" s="237" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="211"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="210" t="s">
+      <c r="B22" s="238"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="237" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="212"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="238"/>
+      <c r="H22" s="239"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -15,15 +15,15 @@
     <sheet name="F-14 Presets" sheetId="13" r:id="rId6"/>
     <sheet name="FA-18 Hornet Presets" sheetId="10" r:id="rId7"/>
     <sheet name="AH64 Presets" sheetId="16" r:id="rId8"/>
-    <sheet name="OH-58 Presets" sheetId="18" r:id="rId9"/>
-    <sheet name="F-15 Presets " sheetId="17" r:id="rId10"/>
+    <sheet name="F-15 Presets " sheetId="17" r:id="rId9"/>
+    <sheet name="OH-58 Presets" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="847">
   <si>
     <t>AWACS</t>
   </si>
@@ -1522,12 +1522,6 @@
     <t>OH-58</t>
   </si>
   <si>
-    <t>SABER 1</t>
-  </si>
-  <si>
-    <t>OUTCAST 1</t>
-  </si>
-  <si>
     <t>Roman</t>
   </si>
   <si>
@@ -2330,6 +2324,246 @@
   </si>
   <si>
     <t>AGGRESSOR F/A-18 (RED AIRCRAFT)</t>
+  </si>
+  <si>
+    <t>FM1</t>
+  </si>
+  <si>
+    <t>65.600</t>
+  </si>
+  <si>
+    <t>Slate 1</t>
+  </si>
+  <si>
+    <t>Bodo ATIS</t>
+  </si>
+  <si>
+    <t>65.700</t>
+  </si>
+  <si>
+    <t>Slate 2</t>
+  </si>
+  <si>
+    <t>Bodo TWR</t>
+  </si>
+  <si>
+    <t>65.800</t>
+  </si>
+  <si>
+    <t>Slate 3</t>
+  </si>
+  <si>
+    <t>Bodo App</t>
+  </si>
+  <si>
+    <t>65.900</t>
+  </si>
+  <si>
+    <t>Slate 4</t>
+  </si>
+  <si>
+    <t>66.000</t>
+  </si>
+  <si>
+    <t>Slate 5</t>
+  </si>
+  <si>
+    <t>CSAR</t>
+  </si>
+  <si>
+    <t>66.100</t>
+  </si>
+  <si>
+    <t>Slate 6</t>
+  </si>
+  <si>
+    <t>In flight Report</t>
+  </si>
+  <si>
+    <t>66.200</t>
+  </si>
+  <si>
+    <t>Slate 7</t>
+  </si>
+  <si>
+    <t>66.300</t>
+  </si>
+  <si>
+    <t>Slate 8</t>
+  </si>
+  <si>
+    <t>66.400</t>
+  </si>
+  <si>
+    <t>Slate 9</t>
+  </si>
+  <si>
+    <t>Air Req Sec</t>
+  </si>
+  <si>
+    <t>66.500</t>
+  </si>
+  <si>
+    <t>Slate 10</t>
+  </si>
+  <si>
+    <t>250.600</t>
+  </si>
+  <si>
+    <t>Bodo AI (lights)</t>
+  </si>
+  <si>
+    <t>66.600</t>
+  </si>
+  <si>
+    <t>Slate 11</t>
+  </si>
+  <si>
+    <t>66.700</t>
+  </si>
+  <si>
+    <t>Slate 12</t>
+  </si>
+  <si>
+    <t>66.800</t>
+  </si>
+  <si>
+    <t>Slate 13</t>
+  </si>
+  <si>
+    <t>66.900</t>
+  </si>
+  <si>
+    <t>Slate 14</t>
+  </si>
+  <si>
+    <t>67.000</t>
+  </si>
+  <si>
+    <t>Slate 15</t>
+  </si>
+  <si>
+    <t>67.100</t>
+  </si>
+  <si>
+    <t>Slate 16</t>
+  </si>
+  <si>
+    <t>67.200</t>
+  </si>
+  <si>
+    <t>Slate 17</t>
+  </si>
+  <si>
+    <t>67.300</t>
+  </si>
+  <si>
+    <t>Slate 18</t>
+  </si>
+  <si>
+    <t>67.400</t>
+  </si>
+  <si>
+    <t>Slate 19</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>67.500</t>
+  </si>
+  <si>
+    <t>Slate 20</t>
+  </si>
+  <si>
+    <t>FM2</t>
+  </si>
+  <si>
+    <t>AWACS Backup</t>
+  </si>
+  <si>
+    <t>BLACK 1</t>
+  </si>
+  <si>
+    <t>BLACK 2</t>
+  </si>
+  <si>
+    <t>BLACK 3</t>
+  </si>
+  <si>
+    <t>BLACK 4</t>
+  </si>
+  <si>
+    <t>BLACK 5</t>
+  </si>
+  <si>
+    <t>BLACK 6</t>
+  </si>
+  <si>
+    <t>BLACK 7</t>
+  </si>
+  <si>
+    <t>BLACK 8</t>
+  </si>
+  <si>
+    <t>BLACK 9</t>
+  </si>
+  <si>
+    <t>BLACK 10</t>
+  </si>
+  <si>
+    <t>BLACK 11</t>
+  </si>
+  <si>
+    <t>Range 12 Sec</t>
+  </si>
+  <si>
+    <t>Range 13 Sec</t>
+  </si>
+  <si>
+    <t>Range 14 Sec</t>
+  </si>
+  <si>
+    <t>Range 15 Sec</t>
+  </si>
+  <si>
+    <t>Range 16 Sec</t>
+  </si>
+  <si>
+    <t>Range 17 Sec</t>
+  </si>
+  <si>
+    <t>Range 18 Sec</t>
+  </si>
+  <si>
+    <t>Range 22 Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTCAST </t>
+  </si>
+  <si>
+    <t>4xx</t>
+  </si>
+  <si>
+    <t>3xx</t>
+  </si>
+  <si>
+    <t>2xx</t>
+  </si>
+  <si>
+    <t>1xx</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>6x</t>
+  </si>
+  <si>
+    <t>MUSTANG</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2573,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2531,8 +2765,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA6A6A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2641,8 +2941,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0D0D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF262626"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF404040"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -3238,11 +3556,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3627,6 +4083,108 @@
     <xf numFmtId="0" fontId="24" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3642,6 +4200,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3651,6 +4218,15 @@
     <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3855,23 +4431,41 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4300,13 +4894,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="170" t="s">
+      <c r="V2" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="204"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -4361,9 +4955,9 @@
         <v>433</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="208"/>
       <c r="V3" s="122" t="s">
         <v>335</v>
       </c>
@@ -4447,22 +5041,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="170" t="s">
+      <c r="AD4" s="204" t="s">
         <v>436</v>
       </c>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="170"/>
-      <c r="AH4" s="170"/>
-      <c r="AJ4" s="170" t="s">
+      <c r="AE4" s="204"/>
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="204"/>
+      <c r="AH4" s="204"/>
+      <c r="AJ4" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="170"/>
-      <c r="AL4" s="170"/>
-      <c r="AM4" s="170"/>
-      <c r="AN4" s="170"/>
-      <c r="AO4" s="170"/>
-      <c r="AP4" s="170"/>
+      <c r="AK4" s="204"/>
+      <c r="AL4" s="204"/>
+      <c r="AM4" s="204"/>
+      <c r="AN4" s="204"/>
+      <c r="AO4" s="204"/>
+      <c r="AP4" s="204"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -4638,13 +5232,13 @@
         <v>468</v>
       </c>
       <c r="AJ6" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>530</v>
+      </c>
+      <c r="AN6" t="s">
         <v>531</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>532</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>533</v>
       </c>
       <c r="AO6">
         <v>5101</v>
@@ -4732,7 +5326,7 @@
         <v>275</v>
       </c>
       <c r="AN7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="15.75">
@@ -4813,7 +5407,7 @@
         <v>471</v>
       </c>
       <c r="AN8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="15.75">
@@ -4884,19 +5478,19 @@
         <v>276</v>
       </c>
       <c r="AJ9" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL9" s="135" t="s">
         <v>510</v>
       </c>
-      <c r="AK9" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="AL9" s="135" t="s">
-        <v>512</v>
-      </c>
       <c r="AM9" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AN9" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AO9" s="10">
         <v>5201</v>
@@ -4981,19 +5575,19 @@
         <v>472</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AL10" s="135" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AO10" s="3">
         <v>5202</v>
@@ -5068,7 +5662,7 @@
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
       <c r="AD11" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AE11" s="127" t="s">
         <v>135</v>
@@ -5083,19 +5677,19 @@
         <v>475</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AL11" s="135" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AN11" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AO11" s="10">
         <v>5203</v>
@@ -5175,19 +5769,19 @@
         <v>476</v>
       </c>
       <c r="AJ12" s="141" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AL12" s="135" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AN12" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AO12" s="3">
         <v>5204</v>
@@ -5234,7 +5828,7 @@
         <v>394</v>
       </c>
       <c r="M13" s="135" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N13" s="129" t="s">
         <v>347</v>
@@ -5271,19 +5865,19 @@
         <v>477</v>
       </c>
       <c r="AJ13" s="141" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AL13" s="135" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AN13" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AO13" s="10">
         <v>5205</v>
@@ -5330,7 +5924,7 @@
         <v>398</v>
       </c>
       <c r="M14" s="135" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N14" s="129" t="s">
         <v>348</v>
@@ -5396,7 +5990,7 @@
         <v>167</v>
       </c>
       <c r="M15" s="135" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N15" s="129" t="s">
         <v>349</v>
@@ -5464,7 +6058,7 @@
         <v>403</v>
       </c>
       <c r="M16" s="135" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N16" s="129" t="s">
         <v>350</v>
@@ -5529,7 +6123,7 @@
         <v>182</v>
       </c>
       <c r="M17" s="135" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N17" s="129" t="s">
         <v>351</v>
@@ -5555,15 +6149,15 @@
       <c r="AH17" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="AJ17" s="170" t="s">
+      <c r="AJ17" s="204" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="170"/>
-      <c r="AL17" s="170"/>
-      <c r="AM17" s="170"/>
-      <c r="AN17" s="170"/>
-      <c r="AO17" s="170"/>
-      <c r="AP17" s="170"/>
+      <c r="AK17" s="204"/>
+      <c r="AL17" s="204"/>
+      <c r="AM17" s="204"/>
+      <c r="AN17" s="204"/>
+      <c r="AO17" s="204"/>
+      <c r="AP17" s="204"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -5603,7 +6197,7 @@
         <v>189</v>
       </c>
       <c r="M18" s="135" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N18" s="129" t="s">
         <v>352</v>
@@ -5690,7 +6284,7 @@
         <v>412</v>
       </c>
       <c r="M19" s="135" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N19" s="129" t="s">
         <v>353</v>
@@ -5715,19 +6309,19 @@
       <c r="AG19" s="45"/>
       <c r="AH19" s="45"/>
       <c r="AJ19" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL19" s="135" t="s">
+        <v>519</v>
+      </c>
+      <c r="AM19" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="AK19" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL19" s="135" t="s">
-        <v>521</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>529</v>
-      </c>
       <c r="AN19" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AO19" s="10">
         <v>5301</v>
@@ -5772,7 +6366,7 @@
         <v>413</v>
       </c>
       <c r="M20" s="135" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N20" s="129" t="s">
         <v>354</v>
@@ -5780,9 +6374,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="174"/>
-      <c r="T20" s="174"/>
+      <c r="R20" s="208"/>
+      <c r="S20" s="208"/>
+      <c r="T20" s="208"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5807,19 +6401,19 @@
         <v>469</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AL20" s="135" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AO20" s="3">
         <v>5302</v>
@@ -5866,7 +6460,7 @@
         <v>52</v>
       </c>
       <c r="M21" s="135" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N21" s="129" t="s">
         <v>355</v>
@@ -5901,19 +6495,19 @@
         <v>473</v>
       </c>
       <c r="AJ21" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AL21" s="135" t="s">
+        <v>517</v>
+      </c>
+      <c r="AM21" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AK21" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="AL21" s="135" t="s">
-        <v>519</v>
-      </c>
-      <c r="AM21" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="AN21" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AO21" s="10">
         <v>5303</v>
@@ -5960,7 +6554,7 @@
         <v>91</v>
       </c>
       <c r="M22" s="135" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N22" s="129" t="s">
         <v>356</v>
@@ -5987,19 +6581,19 @@
         <v>478</v>
       </c>
       <c r="AJ22" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AL22" s="135" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AO22" s="3">
         <v>5304</v>
@@ -6053,19 +6647,19 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
       <c r="AJ23" s="142" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AL23" s="135" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AO23" s="10">
         <v>5305</v>
@@ -6112,7 +6706,7 @@
         <v>62</v>
       </c>
       <c r="M24" s="135" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N24" s="129" t="s">
         <v>357</v>
@@ -6122,27 +6716,27 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="170" t="s">
+      <c r="AD24" s="204" t="s">
         <v>493</v>
       </c>
-      <c r="AE24" s="170"/>
-      <c r="AF24" s="170"/>
-      <c r="AG24" s="170"/>
-      <c r="AH24" s="170"/>
+      <c r="AE24" s="204"/>
+      <c r="AF24" s="204"/>
+      <c r="AG24" s="204"/>
+      <c r="AH24" s="204"/>
       <c r="AJ24" s="142" t="s">
+        <v>568</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="AL24" s="135" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM24" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="AK24" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="AL24" s="135" t="s">
-        <v>522</v>
-      </c>
-      <c r="AM24" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="AN24" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AO24" s="3">
         <v>5306</v>
@@ -6189,7 +6783,7 @@
         <v>33</v>
       </c>
       <c r="M25" s="130" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N25" s="129" t="s">
         <v>358</v>
@@ -6251,7 +6845,7 @@
       </c>
       <c r="L26" s="130"/>
       <c r="M26" s="130" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N26" s="129" t="s">
         <v>359</v>
@@ -6323,7 +6917,7 @@
         <v>110</v>
       </c>
       <c r="M27" s="130" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N27" s="129" t="s">
         <v>360</v>
@@ -6438,15 +7032,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="170" t="s">
+      <c r="V29" s="204" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="170"/>
-      <c r="X29" s="170"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="170"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -6536,11 +7130,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="171" t="s">
+      <c r="AD31" s="205" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="172"/>
-      <c r="AF31" s="173"/>
+      <c r="AE31" s="206"/>
+      <c r="AF31" s="207"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -6645,15 +7239,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="170" t="s">
+      <c r="V37" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="170"/>
-      <c r="X37" s="170"/>
-      <c r="Y37" s="170"/>
-      <c r="Z37" s="170"/>
-      <c r="AA37" s="170"/>
-      <c r="AB37" s="170"/>
+      <c r="W37" s="204"/>
+      <c r="X37" s="204"/>
+      <c r="Y37" s="204"/>
+      <c r="Z37" s="204"/>
+      <c r="AA37" s="204"/>
+      <c r="AB37" s="204"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -6752,15 +7346,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="170" t="s">
+      <c r="V42" s="204" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="170"/>
-      <c r="X42" s="170"/>
-      <c r="Y42" s="170"/>
-      <c r="Z42" s="170"/>
-      <c r="AA42" s="170"/>
-      <c r="AB42" s="170"/>
+      <c r="W42" s="204"/>
+      <c r="X42" s="204"/>
+      <c r="Y42" s="204"/>
+      <c r="Z42" s="204"/>
+      <c r="AA42" s="204"/>
+      <c r="AB42" s="204"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -6865,15 +7459,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="171" t="s">
+      <c r="V48" s="205" t="s">
         <v>480</v>
       </c>
-      <c r="W48" s="172"/>
-      <c r="X48" s="172"/>
-      <c r="Y48" s="172"/>
-      <c r="Z48" s="172"/>
-      <c r="AA48" s="172"/>
-      <c r="AB48" s="173"/>
+      <c r="W48" s="206"/>
+      <c r="X48" s="206"/>
+      <c r="Y48" s="206"/>
+      <c r="Z48" s="206"/>
+      <c r="AA48" s="206"/>
+      <c r="AB48" s="207"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -6913,7 +7507,7 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="19:28">
@@ -6983,642 +7577,941 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="184" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="186"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="189"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="190" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="192"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A4" s="20">
+      <c r="A1" s="286" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="288"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="291"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" thickBot="1">
+      <c r="A3" s="292" t="s">
+        <v>767</v>
+      </c>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="292" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293"/>
+      <c r="H3" s="294"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
+      <c r="A4" s="195">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="B4" s="196"/>
+      <c r="C4" s="196" t="s">
+        <v>768</v>
+      </c>
+      <c r="D4" s="196" t="s">
+        <v>769</v>
+      </c>
+      <c r="E4" s="197">
         <v>1</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A5" s="20">
+      <c r="F4" s="198"/>
+      <c r="G4" s="196" t="s">
+        <v>483</v>
+      </c>
+      <c r="H4" s="199" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
+      <c r="A5" s="200">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="21">
+      <c r="B5" s="171"/>
+      <c r="C5" s="171" t="s">
+        <v>771</v>
+      </c>
+      <c r="D5" s="171" t="s">
+        <v>772</v>
+      </c>
+      <c r="E5" s="170">
         <v>2</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A6" s="20">
+      <c r="F5" s="172"/>
+      <c r="G5" s="171" t="s">
+        <v>484</v>
+      </c>
+      <c r="H5" s="201" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
+      <c r="A6" s="200">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="21">
+      <c r="B6" s="171"/>
+      <c r="C6" s="171" t="s">
+        <v>774</v>
+      </c>
+      <c r="D6" s="171" t="s">
+        <v>775</v>
+      </c>
+      <c r="E6" s="170">
         <v>3</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A7" s="20">
+      <c r="F6" s="172"/>
+      <c r="G6" s="171" t="s">
+        <v>486</v>
+      </c>
+      <c r="H6" s="201" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
+      <c r="A7" s="200">
         <v>4</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="21">
+      <c r="B7" s="171"/>
+      <c r="C7" s="171" t="s">
+        <v>777</v>
+      </c>
+      <c r="D7" s="171" t="s">
+        <v>778</v>
+      </c>
+      <c r="E7" s="170">
         <v>4</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A8" s="20">
+      <c r="F7" s="172" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="202" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5">
+      <c r="A8" s="200">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="21">
+      <c r="B8" s="171"/>
+      <c r="C8" s="171" t="s">
+        <v>779</v>
+      </c>
+      <c r="D8" s="171" t="s">
+        <v>780</v>
+      </c>
+      <c r="E8" s="170">
         <v>5</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A9" s="20">
+      <c r="F8" s="172" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="171" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="201" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="A9" s="200">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="21">
+      <c r="B9" s="171"/>
+      <c r="C9" s="171" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" s="171" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9" s="170">
         <v>6</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A10" s="20">
+      <c r="F9" s="172" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="201" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
+      <c r="A10" s="200">
         <v>7</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="21">
+      <c r="B10" s="171"/>
+      <c r="C10" s="171" t="s">
+        <v>785</v>
+      </c>
+      <c r="D10" s="171" t="s">
+        <v>786</v>
+      </c>
+      <c r="E10" s="170">
         <v>7</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A11" s="20">
+      <c r="F10" s="172" t="s">
+        <v>453</v>
+      </c>
+      <c r="G10" s="171" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="201" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="A11" s="200">
         <v>8</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="21">
+      <c r="B11" s="171"/>
+      <c r="C11" s="171" t="s">
+        <v>787</v>
+      </c>
+      <c r="D11" s="171" t="s">
+        <v>788</v>
+      </c>
+      <c r="E11" s="170">
         <v>8</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A12" s="20">
+      <c r="F11" s="172" t="s">
+        <v>454</v>
+      </c>
+      <c r="G11" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="201" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="A12" s="200">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="21">
+      <c r="B12" s="171"/>
+      <c r="C12" s="171" t="s">
+        <v>789</v>
+      </c>
+      <c r="D12" s="171" t="s">
+        <v>790</v>
+      </c>
+      <c r="E12" s="170">
         <v>9</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A13" s="20">
+      <c r="F12" s="172" t="s">
+        <v>488</v>
+      </c>
+      <c r="G12" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="201" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
+      <c r="A13" s="200">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="21">
+      <c r="B13" s="171"/>
+      <c r="C13" s="171" t="s">
+        <v>792</v>
+      </c>
+      <c r="D13" s="171" t="s">
+        <v>793</v>
+      </c>
+      <c r="E13" s="170">
         <v>10</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A14" s="20">
+      <c r="F13" s="172"/>
+      <c r="G13" s="171" t="s">
+        <v>794</v>
+      </c>
+      <c r="H13" s="201" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="A14" s="200">
         <v>11</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="21">
+      <c r="B14" s="171"/>
+      <c r="C14" s="171" t="s">
+        <v>796</v>
+      </c>
+      <c r="D14" s="171" t="s">
+        <v>797</v>
+      </c>
+      <c r="E14" s="170">
         <v>11</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A15" s="20">
+      <c r="F14" s="172"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="201"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5">
+      <c r="A15" s="200">
         <v>12</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="21">
+      <c r="B15" s="171"/>
+      <c r="C15" s="171" t="s">
+        <v>798</v>
+      </c>
+      <c r="D15" s="171" t="s">
+        <v>799</v>
+      </c>
+      <c r="E15" s="170">
         <v>12</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A16" s="20">
+      <c r="F15" s="172" t="s">
+        <v>456</v>
+      </c>
+      <c r="G15" s="171" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="201" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="A16" s="200">
         <v>13</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="21">
+      <c r="B16" s="171"/>
+      <c r="C16" s="171" t="s">
+        <v>800</v>
+      </c>
+      <c r="D16" s="171" t="s">
+        <v>801</v>
+      </c>
+      <c r="E16" s="170">
         <v>13</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A17" s="20">
+      <c r="F16" s="172" t="s">
+        <v>457</v>
+      </c>
+      <c r="G16" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="201" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5">
+      <c r="A17" s="200">
         <v>14</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="21">
+      <c r="B17" s="171"/>
+      <c r="C17" s="171" t="s">
+        <v>802</v>
+      </c>
+      <c r="D17" s="171" t="s">
+        <v>803</v>
+      </c>
+      <c r="E17" s="170">
         <v>14</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A18" s="20">
+      <c r="F17" s="172" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="201" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5">
+      <c r="A18" s="200">
         <v>15</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="21">
+      <c r="B18" s="171"/>
+      <c r="C18" s="171" t="s">
+        <v>804</v>
+      </c>
+      <c r="D18" s="171" t="s">
+        <v>805</v>
+      </c>
+      <c r="E18" s="170">
         <v>15</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A19" s="20">
+      <c r="F18" s="172" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="171" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="201" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5">
+      <c r="A19" s="200">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="21">
+      <c r="B19" s="171"/>
+      <c r="C19" s="171" t="s">
+        <v>806</v>
+      </c>
+      <c r="D19" s="171" t="s">
+        <v>807</v>
+      </c>
+      <c r="E19" s="170">
         <v>16</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A20" s="20">
+      <c r="F19" s="172" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="201" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5">
+      <c r="A20" s="200">
         <v>17</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="21">
+      <c r="B20" s="171"/>
+      <c r="C20" s="171" t="s">
+        <v>808</v>
+      </c>
+      <c r="D20" s="171" t="s">
+        <v>809</v>
+      </c>
+      <c r="E20" s="170">
         <v>17</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A21" s="20">
+      <c r="F20" s="172" t="s">
+        <v>461</v>
+      </c>
+      <c r="G20" s="171" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5">
+      <c r="A21" s="200">
         <v>18</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="21">
+      <c r="B21" s="171"/>
+      <c r="C21" s="171" t="s">
+        <v>810</v>
+      </c>
+      <c r="D21" s="171" t="s">
+        <v>811</v>
+      </c>
+      <c r="E21" s="170">
         <v>18</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A22" s="20">
+      <c r="F21" s="172" t="s">
+        <v>459</v>
+      </c>
+      <c r="G21" s="171" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="201" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5">
+      <c r="A22" s="200">
         <v>19</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="21">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171" t="s">
+        <v>812</v>
+      </c>
+      <c r="D22" s="171" t="s">
+        <v>813</v>
+      </c>
+      <c r="E22" s="170">
         <v>19</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A23" s="20">
+      <c r="F22" s="172" t="s">
+        <v>464</v>
+      </c>
+      <c r="G22" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="201" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5">
+      <c r="A23" s="200" t="s">
+        <v>814</v>
+      </c>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171" t="s">
+        <v>815</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>816</v>
+      </c>
+      <c r="E23" s="170">
         <v>20</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="108">
-        <v>20</v>
-      </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="111"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="110">
-        <v>21</v>
-      </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="109"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="110">
-        <v>22</v>
-      </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="109"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="110">
-        <v>23</v>
-      </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="109"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="110">
-        <v>24</v>
-      </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="109"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="110">
-        <v>25</v>
-      </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="109"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="110">
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="201"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A24" s="181"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="175"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A25" s="295" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="296"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="295" t="s">
+        <v>817</v>
+      </c>
+      <c r="F25" s="296"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="297"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5">
+      <c r="A26" s="184">
+        <v>1</v>
+      </c>
+      <c r="B26" s="194" t="s">
+        <v>455</v>
+      </c>
+      <c r="C26" s="179" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="203" t="s">
+        <v>818</v>
+      </c>
+      <c r="E26" s="179">
+        <v>1</v>
+      </c>
+      <c r="F26" s="180" t="s">
+        <v>819</v>
+      </c>
+      <c r="G26" s="180" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="185"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5">
+      <c r="A27" s="186">
+        <v>2</v>
+      </c>
+      <c r="B27" s="176"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="177">
+        <v>2</v>
+      </c>
+      <c r="F27" s="178" t="s">
+        <v>820</v>
+      </c>
+      <c r="G27" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" s="187"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5">
+      <c r="A28" s="186">
+        <v>3</v>
+      </c>
+      <c r="B28" s="176"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="177">
+        <v>3</v>
+      </c>
+      <c r="F28" s="178" t="s">
+        <v>821</v>
+      </c>
+      <c r="G28" s="178" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="187"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5">
+      <c r="A29" s="186">
+        <v>4</v>
+      </c>
+      <c r="B29" s="176"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="177">
+        <v>4</v>
+      </c>
+      <c r="F29" s="178" t="s">
+        <v>822</v>
+      </c>
+      <c r="G29" s="178" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="187"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5">
+      <c r="A30" s="186">
+        <v>5</v>
+      </c>
+      <c r="B30" s="176"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="177">
+        <v>5</v>
+      </c>
+      <c r="F30" s="178" t="s">
+        <v>823</v>
+      </c>
+      <c r="G30" s="178" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="187"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5">
+      <c r="A31" s="186">
+        <v>6</v>
+      </c>
+      <c r="B31" s="176"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="177">
+        <v>6</v>
+      </c>
+      <c r="F31" s="178" t="s">
+        <v>824</v>
+      </c>
+      <c r="G31" s="178" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" s="187"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5">
+      <c r="A32" s="186">
+        <v>7</v>
+      </c>
+      <c r="B32" s="176"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="177">
+        <v>7</v>
+      </c>
+      <c r="F32" s="178" t="s">
+        <v>825</v>
+      </c>
+      <c r="G32" s="178" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="187"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5">
+      <c r="A33" s="186">
+        <v>8</v>
+      </c>
+      <c r="B33" s="176"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="177">
+        <v>8</v>
+      </c>
+      <c r="F33" s="178" t="s">
+        <v>826</v>
+      </c>
+      <c r="G33" s="178" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="187"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5">
+      <c r="A34" s="186">
+        <v>9</v>
+      </c>
+      <c r="B34" s="176"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="177">
+        <v>9</v>
+      </c>
+      <c r="F34" s="178" t="s">
+        <v>827</v>
+      </c>
+      <c r="G34" s="178" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="187"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5">
+      <c r="A35" s="186">
+        <v>10</v>
+      </c>
+      <c r="B35" s="176"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="177">
+        <v>10</v>
+      </c>
+      <c r="F35" s="178" t="s">
+        <v>828</v>
+      </c>
+      <c r="G35" s="178" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="187"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5">
+      <c r="A36" s="186">
+        <v>11</v>
+      </c>
+      <c r="B36" s="176"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="177">
+        <v>11</v>
+      </c>
+      <c r="F36" s="178" t="s">
+        <v>829</v>
+      </c>
+      <c r="G36" s="178" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="187"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5">
+      <c r="A37" s="186">
+        <v>12</v>
+      </c>
+      <c r="B37" s="176" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="109"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="109"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="110">
-        <v>27</v>
-      </c>
-      <c r="F30" s="109"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="109"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="110">
-        <v>28</v>
-      </c>
-      <c r="F31" s="109"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="109"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="110">
-        <v>29</v>
-      </c>
-      <c r="F32" s="109"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="109"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="110">
-        <v>30</v>
-      </c>
-      <c r="F33" s="109"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="109"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="110">
-        <v>31</v>
-      </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="109"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="110">
-        <v>32</v>
-      </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="109"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="110">
-        <v>33</v>
-      </c>
-      <c r="F36" s="109"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="109"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="110">
-        <v>34</v>
-      </c>
-      <c r="F37" s="109"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="109"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="110">
-        <v>35</v>
-      </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="109"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="110">
-        <v>36</v>
-      </c>
-      <c r="F39" s="109"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="109"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="110">
-        <v>37</v>
-      </c>
-      <c r="F40" s="109"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="109"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="110">
-        <v>38</v>
-      </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="109"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="20">
-        <v>39</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="110">
-        <v>40</v>
-      </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="109"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
+      <c r="D37" s="176" t="s">
+        <v>830</v>
+      </c>
+      <c r="E37" s="177">
+        <v>12</v>
+      </c>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="187"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5">
+      <c r="A38" s="186">
+        <v>13</v>
+      </c>
+      <c r="B38" s="176" t="s">
+        <v>471</v>
+      </c>
+      <c r="C38" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>831</v>
+      </c>
+      <c r="E38" s="177">
+        <v>13</v>
+      </c>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="188"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5">
+      <c r="A39" s="186">
+        <v>14</v>
+      </c>
+      <c r="B39" s="176" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="177" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="176" t="s">
+        <v>832</v>
+      </c>
+      <c r="E39" s="177">
+        <v>14</v>
+      </c>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="188"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5">
+      <c r="A40" s="186">
+        <v>15</v>
+      </c>
+      <c r="B40" s="176" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="177" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>833</v>
+      </c>
+      <c r="E40" s="177">
+        <v>15</v>
+      </c>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="188"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5">
+      <c r="A41" s="186">
+        <v>16</v>
+      </c>
+      <c r="B41" s="176" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="176" t="s">
+        <v>834</v>
+      </c>
+      <c r="E41" s="177">
+        <v>16</v>
+      </c>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="188"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5">
+      <c r="A42" s="186">
+        <v>17</v>
+      </c>
+      <c r="B42" s="176" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" s="177" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>835</v>
+      </c>
+      <c r="E42" s="177">
+        <v>17</v>
+      </c>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="188"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="186">
+        <v>18</v>
+      </c>
+      <c r="B43" s="176" t="s">
+        <v>477</v>
+      </c>
+      <c r="C43" s="177" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>836</v>
+      </c>
+      <c r="E43" s="177">
+        <v>18</v>
+      </c>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="188"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="186">
+        <v>19</v>
+      </c>
+      <c r="B44" s="176" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="176" t="s">
+        <v>837</v>
+      </c>
+      <c r="E44" s="177">
+        <v>19</v>
+      </c>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="188"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A45" s="189" t="s">
+        <v>814</v>
+      </c>
+      <c r="B45" s="190"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="192" t="s">
+        <v>814</v>
+      </c>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="193"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AJ45"/>
+  <dimension ref="B1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7633,49 +8526,69 @@
     <col min="25" max="25" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:36">
+      <c r="D1" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>841</v>
+      </c>
+      <c r="P1" t="s">
+        <v>843</v>
+      </c>
+      <c r="U1" t="s">
+        <v>842</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>844</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>845</v>
+      </c>
+    </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="204" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="H2" s="170" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="H2" s="204" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="N2" s="170" t="s">
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="N2" s="204" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="T2" s="170" t="s">
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="T2" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
-      <c r="Z2" s="170" t="s">
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Z2" s="204" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="170"/>
-      <c r="AF2" s="170" t="s">
+      <c r="AA2" s="204"/>
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="204"/>
+      <c r="AD2" s="204"/>
+      <c r="AF2" s="204" t="s">
         <v>498</v>
       </c>
-      <c r="AG2" s="170"/>
-      <c r="AH2" s="170"/>
-      <c r="AI2" s="170"/>
-      <c r="AJ2" s="170"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="204"/>
+      <c r="AJ2" s="204"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -7777,22 +8690,22 @@
         <v>482</v>
       </c>
       <c r="D4" s="126" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>324</v>
       </c>
       <c r="F4" s="126" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="T4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Z4" t="s">
         <v>496</v>
@@ -7800,59 +8713,73 @@
       <c r="AA4" t="s">
         <v>482</v>
       </c>
-      <c r="AF4" t="s">
-        <v>499</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AF4" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>482</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="2:36">
       <c r="B5" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="126" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>326</v>
       </c>
       <c r="F5" s="126" t="s">
-        <v>723</v>
+        <v>721</v>
+      </c>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3">
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="126" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>327</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N6" t="s">
-        <v>504</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="126" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>328</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>725</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="3"/>
@@ -7866,76 +8793,99 @@
       <c r="AA8" t="s">
         <v>482</v>
       </c>
-      <c r="AF8" t="s">
-        <v>500</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AF8" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="AG8" s="3" t="s">
         <v>482</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>482</v>
       </c>
       <c r="D9" s="126" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F9" s="126" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J9"/>
       <c r="N9" t="s">
-        <v>576</v>
+        <v>574</v>
+      </c>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3">
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="126" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F10" s="126" t="s">
-        <v>727</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="126" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F11" s="126" t="s">
-        <v>728</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="126" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F12" s="126" t="s">
-        <v>729</v>
+        <v>727</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="2:36">
@@ -7945,68 +8895,83 @@
       <c r="E13" s="3"/>
       <c r="F13" s="126"/>
       <c r="H13" t="s">
-        <v>575</v>
+        <v>573</v>
+      </c>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3">
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>482</v>
       </c>
       <c r="D14" s="126" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F14" s="126" t="s">
-        <v>730</v>
+        <v>728</v>
+      </c>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3">
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="126" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F15" s="126" t="s">
-        <v>731</v>
+        <v>729</v>
+      </c>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3">
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="126" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F16" s="126" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="126" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F17" s="126" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -8016,24 +8981,24 @@
       <c r="E18" s="3"/>
       <c r="F18" s="126"/>
       <c r="H18" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>482</v>
       </c>
       <c r="D19" s="126" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F19" s="126" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="T19" t="s">
         <v>358</v>
@@ -8041,46 +9006,46 @@
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="126" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F20" s="126" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="T20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="126" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F21" s="126" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="126" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F22" s="126" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="2:20">
@@ -8098,20 +9063,20 @@
       <c r="F24" s="140"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="170" t="s">
-        <v>713</v>
-      </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="H25" s="170" t="s">
-        <v>768</v>
-      </c>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
+      <c r="B25" s="204" t="s">
+        <v>711</v>
+      </c>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="H25" s="204" t="s">
+        <v>766</v>
+      </c>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="124" t="s">
@@ -8147,61 +9112,61 @@
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>482</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F27" s="126" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="126" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F28" s="126" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="126" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F29" s="126" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="126" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F30" s="126" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="2:20">
@@ -8213,19 +9178,19 @@
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D32" s="126" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F32" s="126" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -8235,10 +9200,10 @@
         <v>922</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F33" s="126" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -8248,10 +9213,10 @@
         <v>923</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F34" s="126" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -8261,10 +9226,10 @@
         <v>924</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F35" s="126" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -8276,32 +9241,32 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D37" s="126" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F37" s="126" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="126" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F38" s="126" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -8311,10 +9276,10 @@
         <v>933</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F39" s="126" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -8324,10 +9289,10 @@
         <v>934</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F40" s="126" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -8339,16 +9304,16 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D42" s="147">
         <v>941</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F42" s="148">
         <v>11441</v>
@@ -8361,7 +9326,7 @@
         <v>942</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F43" s="148">
         <v>11442</v>
@@ -8374,7 +9339,7 @@
         <v>943</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F44" s="148">
         <v>11443</v>
@@ -8387,7 +9352,7 @@
         <v>945</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F45" s="148">
         <v>11444</v>
@@ -8436,25 +9401,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="249" t="s">
-        <v>766</v>
-      </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="251"/>
+      <c r="A1" s="209" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="211"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A2" s="246" t="s">
-        <v>721</v>
-      </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="248"/>
+      <c r="A2" s="215" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" s="216"/>
+      <c r="C2" s="217"/>
       <c r="D2" s="151"/>
       <c r="E2" s="151"/>
       <c r="F2" s="151"/>
@@ -8482,14 +9447,14 @@
       <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="221" t="s">
         <v>329</v>
       </c>
       <c r="B4" s="160" t="s">
         <v>324</v>
       </c>
       <c r="C4" s="161" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D4" s="151"/>
       <c r="E4" s="151"/>
@@ -8500,12 +9465,12 @@
       <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="182"/>
+      <c r="A5" s="222"/>
       <c r="B5" s="159" t="s">
         <v>326</v>
       </c>
       <c r="C5" s="162" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D5" s="151"/>
       <c r="E5" s="151"/>
@@ -8516,12 +9481,12 @@
       <c r="J5" s="149"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
-      <c r="A6" s="182"/>
+      <c r="A6" s="222"/>
       <c r="B6" s="159" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="162" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D6" s="151"/>
       <c r="E6" s="151"/>
@@ -8532,12 +9497,12 @@
       <c r="J6" s="149"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A7" s="183"/>
+      <c r="A7" s="223"/>
       <c r="B7" s="163" t="s">
         <v>328</v>
       </c>
       <c r="C7" s="164" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D7" s="151"/>
       <c r="E7" s="151"/>
@@ -8548,14 +9513,14 @@
       <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
-      <c r="A8" s="181" t="s">
-        <v>683</v>
+      <c r="A8" s="221" t="s">
+        <v>681</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C8" s="161" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D8" s="151"/>
       <c r="E8" s="151"/>
@@ -8566,12 +9531,12 @@
       <c r="J8" s="149"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
-      <c r="A9" s="182"/>
+      <c r="A9" s="222"/>
       <c r="B9" s="159" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C9" s="162" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D9" s="151"/>
       <c r="E9" s="151"/>
@@ -8582,12 +9547,12 @@
       <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
-      <c r="A10" s="182"/>
+      <c r="A10" s="222"/>
       <c r="B10" s="159" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C10" s="162" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D10" s="151"/>
       <c r="E10" s="151"/>
@@ -8598,12 +9563,12 @@
       <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A11" s="183"/>
+      <c r="A11" s="223"/>
       <c r="B11" s="163" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C11" s="164" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D11" s="151"/>
       <c r="E11" s="151"/>
@@ -8614,14 +9579,14 @@
       <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="181" t="s">
-        <v>681</v>
+      <c r="A12" s="221" t="s">
+        <v>679</v>
       </c>
       <c r="B12" s="160" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C12" s="161" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D12" s="151"/>
       <c r="E12" s="151"/>
@@ -8632,12 +9597,12 @@
       <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="182"/>
+      <c r="A13" s="222"/>
       <c r="B13" s="159" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C13" s="162" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D13" s="151"/>
       <c r="E13" s="151"/>
@@ -8648,12 +9613,12 @@
       <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
-      <c r="A14" s="182"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="159" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C14" s="162" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D14" s="151"/>
       <c r="E14" s="151"/>
@@ -8664,12 +9629,12 @@
       <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A15" s="183"/>
+      <c r="A15" s="223"/>
       <c r="B15" s="163" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C15" s="164" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D15" s="151"/>
       <c r="E15" s="151"/>
@@ -8680,14 +9645,14 @@
       <c r="J15" s="149"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="221" t="s">
+        <v>680</v>
+      </c>
+      <c r="B16" s="160" t="s">
         <v>682</v>
       </c>
-      <c r="B16" s="160" t="s">
-        <v>684</v>
-      </c>
       <c r="C16" s="161" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="151"/>
@@ -8698,12 +9663,12 @@
       <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="182"/>
+      <c r="A17" s="222"/>
       <c r="B17" s="159" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C17" s="162" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D17" s="151"/>
       <c r="E17" s="151"/>
@@ -8714,12 +9679,12 @@
       <c r="J17" s="149"/>
     </row>
     <row r="18" spans="1:10" ht="18.75">
-      <c r="A18" s="182"/>
+      <c r="A18" s="222"/>
       <c r="B18" s="159" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C18" s="162" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D18" s="151"/>
       <c r="E18" s="151"/>
@@ -8730,12 +9695,12 @@
       <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A19" s="183"/>
+      <c r="A19" s="223"/>
       <c r="B19" s="163" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C19" s="164" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D19" s="151"/>
       <c r="E19" s="151"/>
@@ -8758,11 +9723,11 @@
       <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="178" t="s">
-        <v>720</v>
-      </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="180"/>
+      <c r="A21" s="218" t="s">
+        <v>718</v>
+      </c>
+      <c r="B21" s="219"/>
+      <c r="C21" s="220"/>
       <c r="D21" s="151"/>
       <c r="E21" s="151"/>
       <c r="F21" s="151"/>
@@ -8790,14 +9755,14 @@
       <c r="J22" s="149"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="175" t="s">
-        <v>507</v>
+      <c r="A23" s="212" t="s">
+        <v>505</v>
       </c>
       <c r="B23" s="160" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C23" s="161" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D23" s="151"/>
       <c r="E23" s="154"/>
@@ -8808,12 +9773,12 @@
       <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="176"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="159" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C24" s="162" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D24" s="151"/>
       <c r="E24" s="154"/>
@@ -8824,12 +9789,12 @@
       <c r="J24" s="149"/>
     </row>
     <row r="25" spans="1:10" ht="18.75">
-      <c r="A25" s="176"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="159" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C25" s="162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D25" s="151"/>
       <c r="E25" s="151"/>
@@ -8840,12 +9805,12 @@
       <c r="J25" s="149"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A26" s="177"/>
+      <c r="A26" s="214"/>
       <c r="B26" s="163" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C26" s="164" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D26" s="151"/>
       <c r="E26" s="151"/>
@@ -8856,14 +9821,14 @@
       <c r="J26" s="149"/>
     </row>
     <row r="27" spans="1:10" ht="18.75">
-      <c r="A27" s="175" t="s">
-        <v>703</v>
+      <c r="A27" s="212" t="s">
+        <v>701</v>
       </c>
       <c r="B27" s="160" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C27" s="161" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D27" s="151"/>
       <c r="E27" s="151"/>
@@ -8874,12 +9839,12 @@
       <c r="J27" s="149"/>
     </row>
     <row r="28" spans="1:10" ht="18.75">
-      <c r="A28" s="176"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="159" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C28" s="162" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D28" s="151"/>
       <c r="E28" s="151"/>
@@ -8890,12 +9855,12 @@
       <c r="J28" s="149"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="176"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="159" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C29" s="162" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D29" s="151"/>
       <c r="E29" s="151"/>
@@ -8906,12 +9871,12 @@
       <c r="J29" s="149"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A30" s="177"/>
+      <c r="A30" s="214"/>
       <c r="B30" s="163" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C30" s="164" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D30" s="151"/>
       <c r="E30" s="151"/>
@@ -8922,14 +9887,14 @@
       <c r="J30" s="149"/>
     </row>
     <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="175" t="s">
-        <v>707</v>
+      <c r="A31" s="212" t="s">
+        <v>705</v>
       </c>
       <c r="B31" s="160" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C31" s="161" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D31" s="151"/>
       <c r="E31" s="151"/>
@@ -8940,12 +9905,12 @@
       <c r="J31" s="149"/>
     </row>
     <row r="32" spans="1:10" ht="18.75">
-      <c r="A32" s="176"/>
+      <c r="A32" s="213"/>
       <c r="B32" s="159" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C32" s="162" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D32" s="151"/>
       <c r="E32" s="151"/>
@@ -8956,12 +9921,12 @@
       <c r="J32" s="149"/>
     </row>
     <row r="33" spans="1:10" ht="18.75">
-      <c r="A33" s="176"/>
+      <c r="A33" s="213"/>
       <c r="B33" s="159" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C33" s="162" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D33" s="151"/>
       <c r="E33" s="151"/>
@@ -8972,12 +9937,12 @@
       <c r="J33" s="149"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A34" s="177"/>
+      <c r="A34" s="214"/>
       <c r="B34" s="163" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C34" s="164" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D34" s="151"/>
       <c r="E34" s="151"/>
@@ -8988,11 +9953,11 @@
       <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:10" ht="18.75">
-      <c r="A35" s="175" t="s">
-        <v>714</v>
+      <c r="A35" s="212" t="s">
+        <v>712</v>
       </c>
       <c r="B35" s="160" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C35" s="167">
         <v>11441</v>
@@ -9006,9 +9971,9 @@
       <c r="J35" s="149"/>
     </row>
     <row r="36" spans="1:10" ht="18.75">
-      <c r="A36" s="176"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="159" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C36" s="168">
         <v>11442</v>
@@ -9022,9 +9987,9 @@
       <c r="J36" s="149"/>
     </row>
     <row r="37" spans="1:10" ht="18.75">
-      <c r="A37" s="176"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="159" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C37" s="168">
         <v>11443</v>
@@ -9038,9 +10003,9 @@
       <c r="J37" s="149"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A38" s="177"/>
+      <c r="A38" s="214"/>
       <c r="B38" s="163" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C38" s="169">
         <v>11444</v>
@@ -9204,40 +10169,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="224" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="186"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="226"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="189"/>
+      <c r="A2" s="227"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="229"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="230" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="192"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="232"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -9263,22 +10228,22 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E5" s="21">
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1">
@@ -9287,10 +10252,10 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E6" s="21">
         <v>3</v>
@@ -9305,10 +10270,10 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E7" s="21">
         <v>4</v>
@@ -9325,10 +10290,10 @@
         <v>487</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E8" s="21">
         <v>5</v>
@@ -9337,10 +10302,10 @@
         <v>471</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1">
@@ -9348,13 +10313,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E9" s="21">
         <v>6</v>
@@ -9363,10 +10328,10 @@
         <v>276</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1">
@@ -9374,13 +10339,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E10" s="21">
         <v>7</v>
@@ -9389,10 +10354,10 @@
         <v>492</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1">
@@ -9403,10 +10368,10 @@
         <v>240</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E11" s="21">
         <v>8</v>
@@ -9415,10 +10380,10 @@
         <v>468</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1">
@@ -9429,10 +10394,10 @@
         <v>456</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E12" s="21">
         <v>9</v>
@@ -9441,10 +10406,10 @@
         <v>275</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1">
@@ -9455,10 +10420,10 @@
         <v>272</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
@@ -9467,10 +10432,10 @@
         <v>472</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1">
@@ -9481,10 +10446,10 @@
         <v>460</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E14" s="21">
         <v>11</v>
@@ -9493,10 +10458,10 @@
         <v>475</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1">
@@ -9507,10 +10472,10 @@
         <v>461</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E15" s="21">
         <v>12</v>
@@ -9519,10 +10484,10 @@
         <v>476</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1">
@@ -9533,10 +10498,10 @@
         <v>459</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E16" s="21">
         <v>13</v>
@@ -9545,10 +10510,10 @@
         <v>477</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1">
@@ -9559,10 +10524,10 @@
         <v>462</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E17" s="21">
         <v>14</v>
@@ -9571,10 +10536,10 @@
         <v>470</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1">
@@ -9585,10 +10550,10 @@
         <v>464</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E18" s="21">
         <v>15</v>
@@ -9597,10 +10562,10 @@
         <v>248</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1">
@@ -9611,10 +10576,10 @@
         <v>465</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E19" s="21">
         <v>16</v>
@@ -9623,10 +10588,10 @@
         <v>474</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1">
@@ -9637,10 +10602,10 @@
         <v>466</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E20" s="21">
         <v>17</v>
@@ -9649,10 +10614,10 @@
         <v>479</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1">
@@ -9663,10 +10628,10 @@
         <v>463</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E21" s="21">
         <v>18</v>
@@ -9675,10 +10640,10 @@
         <v>470</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1">
@@ -9689,10 +10654,10 @@
         <v>467</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E22" s="21">
         <v>19</v>
@@ -9701,10 +10666,10 @@
         <v>473</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1">
@@ -9715,10 +10680,10 @@
         <v>243</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E23" s="21">
         <v>20</v>
@@ -9727,10 +10692,10 @@
         <v>478</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9766,16 +10731,16 @@
     <row r="27" spans="1:8" ht="18">
       <c r="A27" s="24"/>
       <c r="B27" s="145" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C27" s="144" t="s">
-        <v>609</v>
-      </c>
-      <c r="D27" s="193" t="s">
-        <v>585</v>
-      </c>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
+        <v>607</v>
+      </c>
+      <c r="D27" s="233" t="s">
+        <v>583</v>
+      </c>
+      <c r="E27" s="233"/>
+      <c r="F27" s="233"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
@@ -9785,13 +10750,13 @@
         <v>241</v>
       </c>
       <c r="C28" s="144" t="s">
-        <v>613</v>
-      </c>
-      <c r="D28" s="193" t="s">
+        <v>611</v>
+      </c>
+      <c r="D28" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="233"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
@@ -9801,13 +10766,13 @@
         <v>242</v>
       </c>
       <c r="C29" s="144" t="s">
-        <v>614</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>586</v>
-      </c>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
+        <v>612</v>
+      </c>
+      <c r="D29" s="233" t="s">
+        <v>584</v>
+      </c>
+      <c r="E29" s="233"/>
+      <c r="F29" s="233"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
@@ -9817,13 +10782,13 @@
         <v>453</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>615</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>587</v>
-      </c>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
+        <v>613</v>
+      </c>
+      <c r="D30" s="233" t="s">
+        <v>585</v>
+      </c>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
@@ -9833,13 +10798,13 @@
         <v>454</v>
       </c>
       <c r="C31" s="144" t="s">
-        <v>616</v>
-      </c>
-      <c r="D31" s="193" t="s">
-        <v>588</v>
-      </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
+        <v>614</v>
+      </c>
+      <c r="D31" s="233" t="s">
+        <v>586</v>
+      </c>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
@@ -9849,13 +10814,13 @@
         <v>246</v>
       </c>
       <c r="C32" s="144" t="s">
-        <v>617</v>
-      </c>
-      <c r="D32" s="193" t="s">
-        <v>589</v>
-      </c>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
+        <v>615</v>
+      </c>
+      <c r="D32" s="233" t="s">
+        <v>587</v>
+      </c>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
@@ -9865,13 +10830,13 @@
         <v>491</v>
       </c>
       <c r="C33" s="144" t="s">
-        <v>630</v>
-      </c>
-      <c r="D33" s="193" t="s">
+        <v>628</v>
+      </c>
+      <c r="D33" s="233" t="s">
         <v>489</v>
       </c>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
@@ -9881,13 +10846,13 @@
         <v>457</v>
       </c>
       <c r="C34" s="144" t="s">
-        <v>631</v>
-      </c>
-      <c r="D34" s="193" t="s">
-        <v>590</v>
-      </c>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
+        <v>629</v>
+      </c>
+      <c r="D34" s="233" t="s">
+        <v>588</v>
+      </c>
+      <c r="E34" s="233"/>
+      <c r="F34" s="233"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
@@ -9897,13 +10862,13 @@
         <v>458</v>
       </c>
       <c r="C35" s="144" t="s">
-        <v>632</v>
-      </c>
-      <c r="D35" s="193" t="s">
-        <v>591</v>
-      </c>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
+        <v>630</v>
+      </c>
+      <c r="D35" s="233" t="s">
+        <v>589</v>
+      </c>
+      <c r="E35" s="233"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
@@ -9911,13 +10876,13 @@
       <c r="A36" s="24"/>
       <c r="B36" s="144"/>
       <c r="C36" s="144" t="s">
-        <v>667</v>
-      </c>
-      <c r="D36" s="194" t="s">
-        <v>606</v>
-      </c>
-      <c r="E36" s="195"/>
-      <c r="F36" s="196"/>
+        <v>665</v>
+      </c>
+      <c r="D36" s="234" t="s">
+        <v>604</v>
+      </c>
+      <c r="E36" s="235"/>
+      <c r="F36" s="236"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
@@ -9925,13 +10890,13 @@
       <c r="A37" s="24"/>
       <c r="B37" s="146"/>
       <c r="C37" s="144" t="s">
-        <v>670</v>
-      </c>
-      <c r="D37" s="194" t="s">
         <v>668</v>
       </c>
-      <c r="E37" s="195"/>
-      <c r="F37" s="196"/>
+      <c r="D37" s="234" t="s">
+        <v>666</v>
+      </c>
+      <c r="E37" s="235"/>
+      <c r="F37" s="236"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
     </row>
@@ -9939,13 +10904,13 @@
       <c r="A38" s="24"/>
       <c r="B38" s="146"/>
       <c r="C38" s="144" t="s">
+        <v>667</v>
+      </c>
+      <c r="D38" s="234" t="s">
         <v>669</v>
       </c>
-      <c r="D38" s="194" t="s">
-        <v>671</v>
-      </c>
-      <c r="E38" s="195"/>
-      <c r="F38" s="196"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="236"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
     </row>
@@ -9953,9 +10918,9 @@
       <c r="A39" s="24"/>
       <c r="B39" s="146"/>
       <c r="C39" s="144"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="196"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="236"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
@@ -10092,28 +11057,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="240" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="237" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="239"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -10292,16 +11257,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="199"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="239"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -10477,16 +11442,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="197" t="s">
+      <c r="A28" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="198"/>
-      <c r="C28" s="198"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="239"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -10686,40 +11651,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="241" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="203"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="206"/>
+      <c r="A2" s="244"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="246"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="247" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="207" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="247" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="250"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -11158,40 +12123,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="251" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="212"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
+      <c r="A2" s="252"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="253" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="213" t="s">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="214"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="216"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -11484,114 +12449,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="213" t="s">
+      <c r="A25" s="253" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="214"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="216"/>
-      <c r="E25" s="213" t="s">
+      <c r="B25" s="254"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="253" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="216"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="256"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="217"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="219"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="220"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="222"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="261"/>
+      <c r="H26" s="262"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="223"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="225"/>
+      <c r="B27" s="263"/>
+      <c r="C27" s="264"/>
+      <c r="D27" s="265"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="217"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="226"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="266"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="217"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="219"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="223"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="227"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="267"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="223"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
+      <c r="B29" s="263"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="265"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="217"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="226"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="266"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="217"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="219"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="223"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="227"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="264"/>
+      <c r="H30" s="267"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="223"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="225"/>
+      <c r="B31" s="263"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="265"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="226"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="266"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="217"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="219"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="227" t="s">
+      <c r="F32" s="263"/>
+      <c r="G32" s="264"/>
+      <c r="H32" s="267" t="s">
         <v>245</v>
       </c>
     </row>
@@ -11599,13 +12564,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="223"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="225"/>
+      <c r="B33" s="263"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="265"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="226" t="s">
+      <c r="F33" s="257"/>
+      <c r="G33" s="258"/>
+      <c r="H33" s="266" t="s">
         <v>288</v>
       </c>
     </row>
@@ -11613,13 +12578,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="217"/>
-      <c r="C34" s="218"/>
-      <c r="D34" s="219"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="227" t="s">
+      <c r="F34" s="263"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="267" t="s">
         <v>289</v>
       </c>
     </row>
@@ -11627,13 +12592,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="223"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="225"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="226" t="s">
+      <c r="F35" s="257"/>
+      <c r="G35" s="258"/>
+      <c r="H35" s="266" t="s">
         <v>290</v>
       </c>
     </row>
@@ -11641,13 +12606,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="217"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="219"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="259"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="224"/>
-      <c r="H36" s="227" t="s">
+      <c r="F36" s="263"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="267" t="s">
         <v>291</v>
       </c>
     </row>
@@ -11655,13 +12620,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="223"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="225"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="265"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="217"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="226" t="s">
+      <c r="F37" s="257"/>
+      <c r="G37" s="258"/>
+      <c r="H37" s="266" t="s">
         <v>292</v>
       </c>
     </row>
@@ -11669,13 +12634,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="217"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="219"/>
+      <c r="B38" s="257"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="259"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="223"/>
-      <c r="G38" s="224"/>
-      <c r="H38" s="227" t="s">
+      <c r="F38" s="263"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="267" t="s">
         <v>244</v>
       </c>
     </row>
@@ -11683,13 +12648,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="223"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="225"/>
+      <c r="B39" s="263"/>
+      <c r="C39" s="264"/>
+      <c r="D39" s="265"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="217"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="226" t="s">
+      <c r="F39" s="257"/>
+      <c r="G39" s="258"/>
+      <c r="H39" s="266" t="s">
         <v>245</v>
       </c>
     </row>
@@ -11697,25 +12662,25 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="217"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="219"/>
+      <c r="B40" s="257"/>
+      <c r="C40" s="258"/>
+      <c r="D40" s="259"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="227"/>
+      <c r="F40" s="263"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="267"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="228"/>
-      <c r="C41" s="229"/>
-      <c r="D41" s="230"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="269"/>
+      <c r="D41" s="270"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="231"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="233"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="272"/>
+      <c r="H41" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -11784,40 +12749,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="280" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="242"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="282"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="243"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="245"/>
+      <c r="A2" s="283"/>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="285"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="274" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="234" t="s">
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="274" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="236"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="276"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -12034,18 +12999,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="277" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="238"/>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="237" t="s">
+      <c r="B22" s="278"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="277" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="238"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="239"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="278"/>
+      <c r="H22" s="279"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -12302,538 +13267,632 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="240" t="s">
-        <v>494</v>
-      </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="242"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="243"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="245"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="234" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="234" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="236"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A4" s="93">
+    <row r="1" spans="1:8">
+      <c r="A1" s="224" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="226"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="227"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="229"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="230" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="232"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="93">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A5" s="93">
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="93">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="21">
         <v>2</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A6" s="93">
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="93">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A7" s="93">
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="93">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="21">
         <v>4</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A8" s="93">
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="93">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="21">
         <v>5</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A9" s="93">
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="93">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="21">
         <v>6</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A10" s="93">
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="93">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="21">
         <v>7</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="93">
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A12" s="93"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="93">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="21">
+        <v>8</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="93">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="21">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A13" s="20">
         <v>10</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="96"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="97"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="96"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="86"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="96"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="85"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="96"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="85"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="96"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="85"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="96"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="85"/>
-    </row>
-    <row r="20" spans="1:8" ht="78.75" customHeight="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="85"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="85"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="237" t="s">
-        <v>319</v>
-      </c>
-      <c r="B22" s="238"/>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="237" t="s">
-        <v>320</v>
-      </c>
-      <c r="F22" s="238"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="239"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A23" s="78">
-        <v>1</v>
-      </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78">
-        <v>1</v>
-      </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A24" s="78">
-        <v>2</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="78">
-        <v>2</v>
-      </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A25" s="78">
-        <v>3</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="78">
-        <v>3</v>
-      </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="78">
-        <v>4</v>
-      </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="78">
-        <v>4</v>
-      </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A27" s="78">
-        <v>5</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="78">
-        <v>5</v>
-      </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A28" s="78">
-        <v>6</v>
-      </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="78">
-        <v>6</v>
-      </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A29" s="78">
-        <v>7</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="78">
-        <v>7</v>
-      </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A30" s="78">
-        <v>8</v>
-      </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="78">
-        <v>8</v>
-      </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="81"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A31" s="78">
-        <v>9</v>
-      </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="78">
-        <v>9</v>
-      </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A32" s="102">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="21">
         <v>10</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="102">
-        <v>10</v>
-      </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="81"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="96"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="85"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="96"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="85"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="96"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="85"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="96"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="85"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="96"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="85"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="96"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="85"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="96"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="85"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="96"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="85"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="96"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="85"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A42" s="103"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="77"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="21">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="21">
+        <v>12</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="21">
+        <v>13</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="21">
+        <v>14</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="21">
+        <v>15</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="21">
+        <v>16</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="21">
+        <v>17</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="21">
+        <v>18</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="21">
+        <v>19</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="108">
+        <v>20</v>
+      </c>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="111"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="110">
+        <v>21</v>
+      </c>
+      <c r="F24" s="109"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="109"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="110">
+        <v>22</v>
+      </c>
+      <c r="F25" s="109"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="109"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="110">
+        <v>23</v>
+      </c>
+      <c r="F26" s="109"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="109"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="110">
+        <v>24</v>
+      </c>
+      <c r="F27" s="109"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="109"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="110">
+        <v>25</v>
+      </c>
+      <c r="F28" s="109"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="109"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="110">
+        <v>26</v>
+      </c>
+      <c r="F29" s="109"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="109"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="110">
+        <v>27</v>
+      </c>
+      <c r="F30" s="109"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="109"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="110">
+        <v>28</v>
+      </c>
+      <c r="F31" s="109"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="109"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="110">
+        <v>29</v>
+      </c>
+      <c r="F32" s="109"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="109"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="110">
+        <v>30</v>
+      </c>
+      <c r="F33" s="109"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="109"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="110">
+        <v>31</v>
+      </c>
+      <c r="F34" s="109"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="110">
+        <v>32</v>
+      </c>
+      <c r="F35" s="109"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="109"/>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="110">
+        <v>33</v>
+      </c>
+      <c r="F36" s="109"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="110">
+        <v>34</v>
+      </c>
+      <c r="F37" s="109"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="109"/>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="110">
+        <v>35</v>
+      </c>
+      <c r="F38" s="109"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="109"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="110">
+        <v>36</v>
+      </c>
+      <c r="F39" s="109"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="109"/>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="110">
+        <v>37</v>
+      </c>
+      <c r="F40" s="109"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="109"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="110">
+        <v>38</v>
+      </c>
+      <c r="F41" s="109"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="109"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="20">
+        <v>39</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="110">
+        <v>40</v>
+      </c>
+      <c r="F43" s="109"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="109"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="852">
   <si>
     <t>AWACS</t>
   </si>
@@ -2564,6 +2564,21 @@
   </si>
   <si>
     <t>MUSTANG</t>
+  </si>
+  <si>
+    <t>TANKER KC-130</t>
+  </si>
+  <si>
+    <t>AR305</t>
+  </si>
+  <si>
+    <t>SHELL 7</t>
+  </si>
+  <si>
+    <t>RED 12</t>
+  </si>
+  <si>
+    <t>46X</t>
   </si>
 </sst>
 </file>
@@ -3698,7 +3713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4188,6 +4203,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4197,9 +4218,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4245,6 +4263,18 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4272,18 +4302,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4326,6 +4344,57 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4343,57 +4412,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4777,8 +4795,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50:X52"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4894,13 +4912,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="204" t="s">
+      <c r="V2" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="204"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -4955,9 +4973,9 @@
         <v>433</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="208"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
       <c r="V3" s="122" t="s">
         <v>335</v>
       </c>
@@ -5041,22 +5059,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="204" t="s">
+      <c r="AD4" s="206" t="s">
         <v>436</v>
       </c>
-      <c r="AE4" s="204"/>
-      <c r="AF4" s="204"/>
-      <c r="AG4" s="204"/>
-      <c r="AH4" s="204"/>
-      <c r="AJ4" s="204" t="s">
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="206"/>
+      <c r="AG4" s="206"/>
+      <c r="AH4" s="206"/>
+      <c r="AJ4" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="204"/>
-      <c r="AL4" s="204"/>
-      <c r="AM4" s="204"/>
-      <c r="AN4" s="204"/>
-      <c r="AO4" s="204"/>
-      <c r="AP4" s="204"/>
+      <c r="AK4" s="206"/>
+      <c r="AL4" s="206"/>
+      <c r="AM4" s="206"/>
+      <c r="AN4" s="206"/>
+      <c r="AO4" s="206"/>
+      <c r="AP4" s="206"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -6149,15 +6167,15 @@
       <c r="AH17" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="AJ17" s="204" t="s">
+      <c r="AJ17" s="206" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="204"/>
-      <c r="AL17" s="204"/>
-      <c r="AM17" s="204"/>
-      <c r="AN17" s="204"/>
-      <c r="AO17" s="204"/>
-      <c r="AP17" s="204"/>
+      <c r="AK17" s="206"/>
+      <c r="AL17" s="206"/>
+      <c r="AM17" s="206"/>
+      <c r="AN17" s="206"/>
+      <c r="AO17" s="206"/>
+      <c r="AP17" s="206"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -6374,9 +6392,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -6716,13 +6734,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="204" t="s">
+      <c r="AD24" s="206" t="s">
         <v>493</v>
       </c>
-      <c r="AE24" s="204"/>
-      <c r="AF24" s="204"/>
-      <c r="AG24" s="204"/>
-      <c r="AH24" s="204"/>
+      <c r="AE24" s="206"/>
+      <c r="AF24" s="206"/>
+      <c r="AG24" s="206"/>
+      <c r="AH24" s="206"/>
       <c r="AJ24" s="142" t="s">
         <v>568</v>
       </c>
@@ -6782,7 +6800,7 @@
       <c r="L25" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="130" t="s">
+      <c r="M25" s="135" t="s">
         <v>521</v>
       </c>
       <c r="N25" s="129" t="s">
@@ -6878,6 +6896,15 @@
       <c r="AH26" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="AJ26" s="206" t="s">
+        <v>847</v>
+      </c>
+      <c r="AK26" s="206"/>
+      <c r="AL26" s="206"/>
+      <c r="AM26" s="206"/>
+      <c r="AN26" s="206"/>
+      <c r="AO26" s="206"/>
+      <c r="AP26" s="206"/>
     </row>
     <row r="27" spans="1:42">
       <c r="A27" s="129" t="s">
@@ -6934,6 +6961,27 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
+      <c r="AJ27" s="204" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK27" s="204" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL27" s="204" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM27" s="204" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN27" s="204" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO27" s="204" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP27" s="204" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="28" spans="1:42">
       <c r="A28" s="129" t="s">
@@ -6982,6 +7030,27 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
+      <c r="AJ28" t="s">
+        <v>848</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>849</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>850</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>851</v>
+      </c>
+      <c r="AO28">
+        <v>5307</v>
+      </c>
+      <c r="AP28">
+        <v>307</v>
+      </c>
     </row>
     <row r="29" spans="1:42">
       <c r="A29" s="129" t="s">
@@ -7032,15 +7101,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="204" t="s">
+      <c r="V29" s="206" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="204"/>
-      <c r="X29" s="204"/>
-      <c r="Y29" s="204"/>
-      <c r="Z29" s="204"/>
-      <c r="AA29" s="204"/>
-      <c r="AB29" s="204"/>
+      <c r="W29" s="206"/>
+      <c r="X29" s="206"/>
+      <c r="Y29" s="206"/>
+      <c r="Z29" s="206"/>
+      <c r="AA29" s="206"/>
+      <c r="AB29" s="206"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -7130,11 +7199,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="205" t="s">
+      <c r="AD31" s="207" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="206"/>
-      <c r="AF31" s="207"/>
+      <c r="AE31" s="208"/>
+      <c r="AF31" s="209"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -7239,15 +7308,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="204" t="s">
+      <c r="V37" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="204"/>
-      <c r="X37" s="204"/>
-      <c r="Y37" s="204"/>
-      <c r="Z37" s="204"/>
-      <c r="AA37" s="204"/>
-      <c r="AB37" s="204"/>
+      <c r="W37" s="206"/>
+      <c r="X37" s="206"/>
+      <c r="Y37" s="206"/>
+      <c r="Z37" s="206"/>
+      <c r="AA37" s="206"/>
+      <c r="AB37" s="206"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -7346,15 +7415,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="204" t="s">
+      <c r="V42" s="206" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="204"/>
-      <c r="X42" s="204"/>
-      <c r="Y42" s="204"/>
-      <c r="Z42" s="204"/>
-      <c r="AA42" s="204"/>
-      <c r="AB42" s="204"/>
+      <c r="W42" s="206"/>
+      <c r="X42" s="206"/>
+      <c r="Y42" s="206"/>
+      <c r="Z42" s="206"/>
+      <c r="AA42" s="206"/>
+      <c r="AB42" s="206"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -7459,15 +7528,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="205" t="s">
+      <c r="V48" s="207" t="s">
         <v>480</v>
       </c>
-      <c r="W48" s="206"/>
-      <c r="X48" s="206"/>
-      <c r="Y48" s="206"/>
-      <c r="Z48" s="206"/>
-      <c r="AA48" s="206"/>
-      <c r="AB48" s="207"/>
+      <c r="W48" s="208"/>
+      <c r="X48" s="208"/>
+      <c r="Y48" s="208"/>
+      <c r="Z48" s="208"/>
+      <c r="AA48" s="208"/>
+      <c r="AB48" s="209"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -7556,7 +7625,12 @@
       <c r="AA53" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -7564,11 +7638,7 @@
     <mergeCell ref="AD31:AF31"/>
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
+    <mergeCell ref="AJ26:AP26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7596,40 +7666,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="287" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="288"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="289"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="289"/>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="291"/>
+      <c r="A2" s="290"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="292"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="293" t="s">
         <v>767</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="292" t="s">
+      <c r="B3" s="294"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="293" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293"/>
-      <c r="H3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="295"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="195">
@@ -8102,18 +8172,18 @@
       <c r="H24" s="175"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A25" s="295" t="s">
+      <c r="A25" s="296" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="296"/>
-      <c r="C25" s="296"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="295" t="s">
+      <c r="B25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="296" t="s">
         <v>817</v>
       </c>
-      <c r="F25" s="296"/>
-      <c r="G25" s="296"/>
-      <c r="H25" s="297"/>
+      <c r="F25" s="297"/>
+      <c r="G25" s="297"/>
+      <c r="H25" s="298"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="184">
@@ -8510,7 +8580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
@@ -8547,48 +8617,48 @@
       </c>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="206" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="H2" s="204" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="H2" s="206" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="N2" s="204" t="s">
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="N2" s="206" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="204"/>
-      <c r="T2" s="204" t="s">
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="T2" s="206" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Z2" s="204" t="s">
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Z2" s="206" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="204"/>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="204"/>
-      <c r="AD2" s="204"/>
-      <c r="AF2" s="204" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="206"/>
+      <c r="AF2" s="206" t="s">
         <v>498</v>
       </c>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="204"/>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="204"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -9063,20 +9133,20 @@
       <c r="F24" s="140"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="204" t="s">
+      <c r="B25" s="206" t="s">
         <v>711</v>
       </c>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="H25" s="204" t="s">
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="H25" s="206" t="s">
         <v>766</v>
       </c>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="124" t="s">
@@ -9401,25 +9471,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="210" t="s">
         <v>764</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="211"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="212"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="216" t="s">
         <v>719</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="217"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="218"/>
       <c r="D2" s="151"/>
       <c r="E2" s="151"/>
       <c r="F2" s="151"/>
@@ -9447,7 +9517,7 @@
       <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="222" t="s">
         <v>329</v>
       </c>
       <c r="B4" s="160" t="s">
@@ -9465,7 +9535,7 @@
       <c r="J4" s="149"/>
     </row>
     <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="222"/>
+      <c r="A5" s="223"/>
       <c r="B5" s="159" t="s">
         <v>326</v>
       </c>
@@ -9481,7 +9551,7 @@
       <c r="J5" s="149"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
-      <c r="A6" s="222"/>
+      <c r="A6" s="223"/>
       <c r="B6" s="159" t="s">
         <v>327</v>
       </c>
@@ -9497,7 +9567,7 @@
       <c r="J6" s="149"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A7" s="223"/>
+      <c r="A7" s="224"/>
       <c r="B7" s="163" t="s">
         <v>328</v>
       </c>
@@ -9513,7 +9583,7 @@
       <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="222" t="s">
         <v>681</v>
       </c>
       <c r="B8" s="160" t="s">
@@ -9531,7 +9601,7 @@
       <c r="J8" s="149"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
-      <c r="A9" s="222"/>
+      <c r="A9" s="223"/>
       <c r="B9" s="159" t="s">
         <v>672</v>
       </c>
@@ -9547,7 +9617,7 @@
       <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
-      <c r="A10" s="222"/>
+      <c r="A10" s="223"/>
       <c r="B10" s="159" t="s">
         <v>673</v>
       </c>
@@ -9563,7 +9633,7 @@
       <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A11" s="223"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="163" t="s">
         <v>674</v>
       </c>
@@ -9579,7 +9649,7 @@
       <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="222" t="s">
         <v>679</v>
       </c>
       <c r="B12" s="160" t="s">
@@ -9597,7 +9667,7 @@
       <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="222"/>
+      <c r="A13" s="223"/>
       <c r="B13" s="159" t="s">
         <v>676</v>
       </c>
@@ -9613,7 +9683,7 @@
       <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
-      <c r="A14" s="222"/>
+      <c r="A14" s="223"/>
       <c r="B14" s="159" t="s">
         <v>677</v>
       </c>
@@ -9629,7 +9699,7 @@
       <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A15" s="223"/>
+      <c r="A15" s="224"/>
       <c r="B15" s="163" t="s">
         <v>678</v>
       </c>
@@ -9645,7 +9715,7 @@
       <c r="J15" s="149"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
-      <c r="A16" s="221" t="s">
+      <c r="A16" s="222" t="s">
         <v>680</v>
       </c>
       <c r="B16" s="160" t="s">
@@ -9663,7 +9733,7 @@
       <c r="J16" s="149"/>
     </row>
     <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="222"/>
+      <c r="A17" s="223"/>
       <c r="B17" s="159" t="s">
         <v>683</v>
       </c>
@@ -9679,7 +9749,7 @@
       <c r="J17" s="149"/>
     </row>
     <row r="18" spans="1:10" ht="18.75">
-      <c r="A18" s="222"/>
+      <c r="A18" s="223"/>
       <c r="B18" s="159" t="s">
         <v>684</v>
       </c>
@@ -9695,7 +9765,7 @@
       <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A19" s="223"/>
+      <c r="A19" s="224"/>
       <c r="B19" s="163" t="s">
         <v>685</v>
       </c>
@@ -9723,11 +9793,11 @@
       <c r="J20" s="149"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="219" t="s">
         <v>718</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="220"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="221"/>
       <c r="D21" s="151"/>
       <c r="E21" s="151"/>
       <c r="F21" s="151"/>
@@ -9755,7 +9825,7 @@
       <c r="J22" s="149"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="213" t="s">
         <v>505</v>
       </c>
       <c r="B23" s="160" t="s">
@@ -9773,7 +9843,7 @@
       <c r="J23" s="149"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="213"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="159" t="s">
         <v>693</v>
       </c>
@@ -9789,7 +9859,7 @@
       <c r="J24" s="149"/>
     </row>
     <row r="25" spans="1:10" ht="18.75">
-      <c r="A25" s="213"/>
+      <c r="A25" s="214"/>
       <c r="B25" s="159" t="s">
         <v>694</v>
       </c>
@@ -9805,7 +9875,7 @@
       <c r="J25" s="149"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A26" s="214"/>
+      <c r="A26" s="215"/>
       <c r="B26" s="163" t="s">
         <v>695</v>
       </c>
@@ -9821,7 +9891,7 @@
       <c r="J26" s="149"/>
     </row>
     <row r="27" spans="1:10" ht="18.75">
-      <c r="A27" s="212" t="s">
+      <c r="A27" s="213" t="s">
         <v>701</v>
       </c>
       <c r="B27" s="160" t="s">
@@ -9839,7 +9909,7 @@
       <c r="J27" s="149"/>
     </row>
     <row r="28" spans="1:10" ht="18.75">
-      <c r="A28" s="213"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="159" t="s">
         <v>698</v>
       </c>
@@ -9855,7 +9925,7 @@
       <c r="J28" s="149"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="213"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="159" t="s">
         <v>699</v>
       </c>
@@ -9871,7 +9941,7 @@
       <c r="J29" s="149"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A30" s="214"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="163" t="s">
         <v>700</v>
       </c>
@@ -9887,7 +9957,7 @@
       <c r="J30" s="149"/>
     </row>
     <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="212" t="s">
+      <c r="A31" s="213" t="s">
         <v>705</v>
       </c>
       <c r="B31" s="160" t="s">
@@ -9905,7 +9975,7 @@
       <c r="J31" s="149"/>
     </row>
     <row r="32" spans="1:10" ht="18.75">
-      <c r="A32" s="213"/>
+      <c r="A32" s="214"/>
       <c r="B32" s="159" t="s">
         <v>707</v>
       </c>
@@ -9921,7 +9991,7 @@
       <c r="J32" s="149"/>
     </row>
     <row r="33" spans="1:10" ht="18.75">
-      <c r="A33" s="213"/>
+      <c r="A33" s="214"/>
       <c r="B33" s="159" t="s">
         <v>708</v>
       </c>
@@ -9937,7 +10007,7 @@
       <c r="J33" s="149"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A34" s="214"/>
+      <c r="A34" s="215"/>
       <c r="B34" s="163" t="s">
         <v>709</v>
       </c>
@@ -9953,7 +10023,7 @@
       <c r="J34" s="149"/>
     </row>
     <row r="35" spans="1:10" ht="18.75">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="213" t="s">
         <v>712</v>
       </c>
       <c r="B35" s="160" t="s">
@@ -9971,7 +10041,7 @@
       <c r="J35" s="149"/>
     </row>
     <row r="36" spans="1:10" ht="18.75">
-      <c r="A36" s="213"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="159" t="s">
         <v>714</v>
       </c>
@@ -9987,7 +10057,7 @@
       <c r="J36" s="149"/>
     </row>
     <row r="37" spans="1:10" ht="18.75">
-      <c r="A37" s="213"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="159" t="s">
         <v>715</v>
       </c>
@@ -10003,7 +10073,7 @@
       <c r="J37" s="149"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A38" s="214"/>
+      <c r="A38" s="215"/>
       <c r="B38" s="163" t="s">
         <v>716</v>
       </c>
@@ -10169,40 +10239,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="229" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="226"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="231"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="227"/>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="234"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="235" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="232"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="237"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -10736,11 +10806,11 @@
       <c r="C27" s="144" t="s">
         <v>607</v>
       </c>
-      <c r="D27" s="233" t="s">
+      <c r="D27" s="228" t="s">
         <v>583</v>
       </c>
-      <c r="E27" s="233"/>
-      <c r="F27" s="233"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
@@ -10752,11 +10822,11 @@
       <c r="C28" s="144" t="s">
         <v>611</v>
       </c>
-      <c r="D28" s="233" t="s">
+      <c r="D28" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
@@ -10768,11 +10838,11 @@
       <c r="C29" s="144" t="s">
         <v>612</v>
       </c>
-      <c r="D29" s="233" t="s">
+      <c r="D29" s="228" t="s">
         <v>584</v>
       </c>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
@@ -10784,11 +10854,11 @@
       <c r="C30" s="144" t="s">
         <v>613</v>
       </c>
-      <c r="D30" s="233" t="s">
+      <c r="D30" s="228" t="s">
         <v>585</v>
       </c>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
@@ -10800,11 +10870,11 @@
       <c r="C31" s="144" t="s">
         <v>614</v>
       </c>
-      <c r="D31" s="233" t="s">
+      <c r="D31" s="228" t="s">
         <v>586</v>
       </c>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
@@ -10816,11 +10886,11 @@
       <c r="C32" s="144" t="s">
         <v>615</v>
       </c>
-      <c r="D32" s="233" t="s">
+      <c r="D32" s="228" t="s">
         <v>587</v>
       </c>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
@@ -10832,11 +10902,11 @@
       <c r="C33" s="144" t="s">
         <v>628</v>
       </c>
-      <c r="D33" s="233" t="s">
+      <c r="D33" s="228" t="s">
         <v>489</v>
       </c>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
@@ -10848,11 +10918,11 @@
       <c r="C34" s="144" t="s">
         <v>629</v>
       </c>
-      <c r="D34" s="233" t="s">
+      <c r="D34" s="228" t="s">
         <v>588</v>
       </c>
-      <c r="E34" s="233"/>
-      <c r="F34" s="233"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
@@ -10864,11 +10934,11 @@
       <c r="C35" s="144" t="s">
         <v>630</v>
       </c>
-      <c r="D35" s="233" t="s">
+      <c r="D35" s="228" t="s">
         <v>589</v>
       </c>
-      <c r="E35" s="233"/>
-      <c r="F35" s="233"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
@@ -10878,11 +10948,11 @@
       <c r="C36" s="144" t="s">
         <v>665</v>
       </c>
-      <c r="D36" s="234" t="s">
+      <c r="D36" s="225" t="s">
         <v>604</v>
       </c>
-      <c r="E36" s="235"/>
-      <c r="F36" s="236"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="227"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
@@ -10892,11 +10962,11 @@
       <c r="C37" s="144" t="s">
         <v>668</v>
       </c>
-      <c r="D37" s="234" t="s">
+      <c r="D37" s="225" t="s">
         <v>666</v>
       </c>
-      <c r="E37" s="235"/>
-      <c r="F37" s="236"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="227"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
     </row>
@@ -10906,11 +10976,11 @@
       <c r="C38" s="144" t="s">
         <v>667</v>
       </c>
-      <c r="D38" s="234" t="s">
+      <c r="D38" s="225" t="s">
         <v>669</v>
       </c>
-      <c r="E38" s="235"/>
-      <c r="F38" s="236"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="227"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
     </row>
@@ -10918,9 +10988,9 @@
       <c r="A39" s="24"/>
       <c r="B39" s="146"/>
       <c r="C39" s="144"/>
-      <c r="D39" s="234"/>
-      <c r="E39" s="235"/>
-      <c r="F39" s="236"/>
+      <c r="D39" s="225"/>
+      <c r="E39" s="226"/>
+      <c r="F39" s="227"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
@@ -11018,13 +11088,6 @@
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -11034,6 +11097,13 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11057,28 +11127,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="238" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="239"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="240"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -11257,16 +11327,16 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="238" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="239"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="240"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="9"/>
@@ -11442,16 +11512,16 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="238" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="239"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="240"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="5"/>
@@ -11651,40 +11721,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="242" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="244"/>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="246"/>
+      <c r="A2" s="245"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="247"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="248" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="247" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="248" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="248"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="250"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
@@ -12123,40 +12193,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="269" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="252"/>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
+      <c r="A2" s="270"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="271" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="253" t="s">
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="271" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="254"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="256"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="274"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -12449,114 +12519,114 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="253" t="s">
+      <c r="A25" s="271" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="254"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="253" t="s">
+      <c r="B25" s="272"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="274"/>
+      <c r="E25" s="271" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="254"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="256"/>
+      <c r="F25" s="272"/>
+      <c r="G25" s="273"/>
+      <c r="H25" s="274"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="257"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="259"/>
+      <c r="D26" s="260"/>
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="260"/>
-      <c r="G26" s="261"/>
-      <c r="H26" s="262"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="267"/>
+      <c r="H26" s="268"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="263"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="265"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="262"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="257"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="266"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="265"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="257"/>
-      <c r="C28" s="258"/>
-      <c r="D28" s="259"/>
+      <c r="B28" s="258"/>
+      <c r="C28" s="259"/>
+      <c r="D28" s="260"/>
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="263"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="267"/>
+      <c r="F28" s="261"/>
+      <c r="G28" s="262"/>
+      <c r="H28" s="263"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="263"/>
-      <c r="C29" s="264"/>
-      <c r="D29" s="265"/>
+      <c r="B29" s="261"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="257"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="266"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="265"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="257"/>
-      <c r="C30" s="258"/>
-      <c r="D30" s="259"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="259"/>
+      <c r="D30" s="260"/>
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="263"/>
-      <c r="G30" s="264"/>
-      <c r="H30" s="267"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="262"/>
+      <c r="H30" s="263"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="263"/>
-      <c r="C31" s="264"/>
-      <c r="D31" s="265"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="262"/>
+      <c r="D31" s="264"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="F31" s="257"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="266"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="265"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="257"/>
-      <c r="C32" s="258"/>
-      <c r="D32" s="259"/>
+      <c r="B32" s="258"/>
+      <c r="C32" s="259"/>
+      <c r="D32" s="260"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="263"/>
-      <c r="G32" s="264"/>
-      <c r="H32" s="267" t="s">
+      <c r="F32" s="261"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="263" t="s">
         <v>245</v>
       </c>
     </row>
@@ -12564,13 +12634,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="263"/>
-      <c r="C33" s="264"/>
-      <c r="D33" s="265"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="264"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="257"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="266" t="s">
+      <c r="F33" s="258"/>
+      <c r="G33" s="259"/>
+      <c r="H33" s="265" t="s">
         <v>288</v>
       </c>
     </row>
@@ -12578,13 +12648,13 @@
       <c r="A34" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="257"/>
-      <c r="C34" s="258"/>
-      <c r="D34" s="259"/>
+      <c r="B34" s="258"/>
+      <c r="C34" s="259"/>
+      <c r="D34" s="260"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="263"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="267" t="s">
+      <c r="F34" s="261"/>
+      <c r="G34" s="262"/>
+      <c r="H34" s="263" t="s">
         <v>289</v>
       </c>
     </row>
@@ -12592,13 +12662,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="263"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="264"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="257"/>
-      <c r="G35" s="258"/>
-      <c r="H35" s="266" t="s">
+      <c r="F35" s="258"/>
+      <c r="G35" s="259"/>
+      <c r="H35" s="265" t="s">
         <v>290</v>
       </c>
     </row>
@@ -12606,13 +12676,13 @@
       <c r="A36" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B36" s="257"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="259"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="260"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="263"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="267" t="s">
+      <c r="F36" s="261"/>
+      <c r="G36" s="262"/>
+      <c r="H36" s="263" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12620,13 +12690,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="263"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="265"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="262"/>
+      <c r="D37" s="264"/>
       <c r="E37" s="50"/>
-      <c r="F37" s="257"/>
-      <c r="G37" s="258"/>
-      <c r="H37" s="266" t="s">
+      <c r="F37" s="258"/>
+      <c r="G37" s="259"/>
+      <c r="H37" s="265" t="s">
         <v>292</v>
       </c>
     </row>
@@ -12634,13 +12704,13 @@
       <c r="A38" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="257"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="259"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="260"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="263"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="267" t="s">
+      <c r="F38" s="261"/>
+      <c r="G38" s="262"/>
+      <c r="H38" s="263" t="s">
         <v>244</v>
       </c>
     </row>
@@ -12648,13 +12718,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="263"/>
-      <c r="C39" s="264"/>
-      <c r="D39" s="265"/>
+      <c r="B39" s="261"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="264"/>
       <c r="E39" s="50"/>
-      <c r="F39" s="257"/>
-      <c r="G39" s="258"/>
-      <c r="H39" s="266" t="s">
+      <c r="F39" s="258"/>
+      <c r="G39" s="259"/>
+      <c r="H39" s="265" t="s">
         <v>245</v>
       </c>
     </row>
@@ -12662,28 +12732,57 @@
       <c r="A40" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="257"/>
-      <c r="C40" s="258"/>
-      <c r="D40" s="259"/>
+      <c r="B40" s="258"/>
+      <c r="C40" s="259"/>
+      <c r="D40" s="260"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="263"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="267"/>
+      <c r="F40" s="261"/>
+      <c r="G40" s="262"/>
+      <c r="H40" s="263"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="268"/>
-      <c r="C41" s="269"/>
-      <c r="D41" s="270"/>
+      <c r="B41" s="252"/>
+      <c r="C41" s="253"/>
+      <c r="D41" s="254"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="272"/>
-      <c r="H41" s="273"/>
+      <c r="F41" s="255"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -12692,35 +12791,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12749,40 +12819,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="281" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="282"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="283"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="283"/>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="285"/>
+      <c r="A2" s="284"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="286"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="275" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="274" t="s">
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="275" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="277"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="93">
@@ -12999,18 +13069,18 @@
       <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="277" t="s">
+      <c r="A22" s="278" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="278"/>
-      <c r="C22" s="278"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="277" t="s">
+      <c r="B22" s="279"/>
+      <c r="C22" s="279"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="278" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="278"/>
-      <c r="G22" s="278"/>
-      <c r="H22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="280"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="78">
@@ -13287,40 +13357,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="229" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="226"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="231"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="227"/>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
+      <c r="A2" s="232"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="234"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="235" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231" t="s">
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="232"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="237"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="853">
   <si>
     <t>AWACS</t>
   </si>
@@ -2579,6 +2579,9 @@
   </si>
   <si>
     <t>46X</t>
+  </si>
+  <si>
+    <t>Apache</t>
   </si>
 </sst>
 </file>
@@ -4203,21 +4206,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4263,6 +4266,36 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4272,36 +4305,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4344,6 +4347,57 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4361,57 +4415,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4795,7 +4798,7 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
@@ -4912,13 +4915,13 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
-      <c r="V2" s="206" t="s">
+      <c r="V2" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
@@ -4973,9 +4976,9 @@
         <v>433</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
       <c r="V3" s="122" t="s">
         <v>335</v>
       </c>
@@ -5059,22 +5062,22 @@
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
-      <c r="AD4" s="206" t="s">
+      <c r="AD4" s="205" t="s">
         <v>436</v>
       </c>
-      <c r="AE4" s="206"/>
-      <c r="AF4" s="206"/>
-      <c r="AG4" s="206"/>
-      <c r="AH4" s="206"/>
-      <c r="AJ4" s="206" t="s">
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="205"/>
+      <c r="AH4" s="205"/>
+      <c r="AJ4" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="206"/>
-      <c r="AL4" s="206"/>
-      <c r="AM4" s="206"/>
-      <c r="AN4" s="206"/>
-      <c r="AO4" s="206"/>
-      <c r="AP4" s="206"/>
+      <c r="AK4" s="205"/>
+      <c r="AL4" s="205"/>
+      <c r="AM4" s="205"/>
+      <c r="AN4" s="205"/>
+      <c r="AO4" s="205"/>
+      <c r="AP4" s="205"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="129" t="s">
@@ -6167,15 +6170,15 @@
       <c r="AH17" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="AJ17" s="206" t="s">
+      <c r="AJ17" s="205" t="s">
         <v>277</v>
       </c>
-      <c r="AK17" s="206"/>
-      <c r="AL17" s="206"/>
-      <c r="AM17" s="206"/>
-      <c r="AN17" s="206"/>
-      <c r="AO17" s="206"/>
-      <c r="AP17" s="206"/>
+      <c r="AK17" s="205"/>
+      <c r="AL17" s="205"/>
+      <c r="AM17" s="205"/>
+      <c r="AN17" s="205"/>
+      <c r="AO17" s="205"/>
+      <c r="AP17" s="205"/>
     </row>
     <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="129" t="s">
@@ -6392,9 +6395,9 @@
       <c r="O20" s="35"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
+      <c r="R20" s="209"/>
+      <c r="S20" s="209"/>
+      <c r="T20" s="209"/>
       <c r="U20" s="2"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -6734,13 +6737,13 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="206" t="s">
+      <c r="AD24" s="205" t="s">
         <v>493</v>
       </c>
-      <c r="AE24" s="206"/>
-      <c r="AF24" s="206"/>
-      <c r="AG24" s="206"/>
-      <c r="AH24" s="206"/>
+      <c r="AE24" s="205"/>
+      <c r="AF24" s="205"/>
+      <c r="AG24" s="205"/>
+      <c r="AH24" s="205"/>
       <c r="AJ24" s="142" t="s">
         <v>568</v>
       </c>
@@ -6896,15 +6899,15 @@
       <c r="AH26" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="AJ26" s="206" t="s">
+      <c r="AJ26" s="205" t="s">
         <v>847</v>
       </c>
-      <c r="AK26" s="206"/>
-      <c r="AL26" s="206"/>
-      <c r="AM26" s="206"/>
-      <c r="AN26" s="206"/>
-      <c r="AO26" s="206"/>
-      <c r="AP26" s="206"/>
+      <c r="AK26" s="205"/>
+      <c r="AL26" s="205"/>
+      <c r="AM26" s="205"/>
+      <c r="AN26" s="205"/>
+      <c r="AO26" s="205"/>
+      <c r="AP26" s="205"/>
     </row>
     <row r="27" spans="1:42">
       <c r="A27" s="129" t="s">
@@ -7101,15 +7104,15 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="206" t="s">
+      <c r="V29" s="205" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="206"/>
-      <c r="X29" s="206"/>
-      <c r="Y29" s="206"/>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="206"/>
-      <c r="AB29" s="206"/>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
+      <c r="Y29" s="205"/>
+      <c r="Z29" s="205"/>
+      <c r="AA29" s="205"/>
+      <c r="AB29" s="205"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="129"/>
@@ -7199,11 +7202,11 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="207" t="s">
+      <c r="AD31" s="206" t="s">
         <v>263</v>
       </c>
-      <c r="AE31" s="208"/>
-      <c r="AF31" s="209"/>
+      <c r="AE31" s="207"/>
+      <c r="AF31" s="208"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -7308,15 +7311,15 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
-      <c r="V37" s="206" t="s">
+      <c r="V37" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="206"/>
-      <c r="X37" s="206"/>
-      <c r="Y37" s="206"/>
-      <c r="Z37" s="206"/>
-      <c r="AA37" s="206"/>
-      <c r="AB37" s="206"/>
+      <c r="W37" s="205"/>
+      <c r="X37" s="205"/>
+      <c r="Y37" s="205"/>
+      <c r="Z37" s="205"/>
+      <c r="AA37" s="205"/>
+      <c r="AB37" s="205"/>
       <c r="AD37" s="3" t="s">
         <v>259</v>
       </c>
@@ -7415,15 +7418,15 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="206" t="s">
+      <c r="V42" s="205" t="s">
         <v>247</v>
       </c>
-      <c r="W42" s="206"/>
-      <c r="X42" s="206"/>
-      <c r="Y42" s="206"/>
-      <c r="Z42" s="206"/>
-      <c r="AA42" s="206"/>
-      <c r="AB42" s="206"/>
+      <c r="W42" s="205"/>
+      <c r="X42" s="205"/>
+      <c r="Y42" s="205"/>
+      <c r="Z42" s="205"/>
+      <c r="AA42" s="205"/>
+      <c r="AB42" s="205"/>
       <c r="AD42" s="3" t="s">
         <v>265</v>
       </c>
@@ -7528,15 +7531,15 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
-      <c r="V48" s="207" t="s">
+      <c r="V48" s="206" t="s">
         <v>480</v>
       </c>
-      <c r="W48" s="208"/>
-      <c r="X48" s="208"/>
-      <c r="Y48" s="208"/>
-      <c r="Z48" s="208"/>
-      <c r="AA48" s="208"/>
-      <c r="AB48" s="209"/>
+      <c r="W48" s="207"/>
+      <c r="X48" s="207"/>
+      <c r="Y48" s="207"/>
+      <c r="Z48" s="207"/>
+      <c r="AA48" s="207"/>
+      <c r="AB48" s="208"/>
     </row>
     <row r="49" spans="19:28">
       <c r="S49" s="12"/>
@@ -7626,11 +7629,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -7639,6 +7637,11 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD24:AH24"/>
     <mergeCell ref="AJ26:AP26"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8580,8 +8583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AJ45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8617,48 +8620,48 @@
       </c>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="H2" s="206" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="H2" s="205" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="N2" s="206" t="s">
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="N2" s="205" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="T2" s="206" t="s">
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="T2" s="205" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Z2" s="206" t="s">
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Z2" s="205" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="206"/>
-      <c r="AF2" s="206" t="s">
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205"/>
+      <c r="AF2" s="205" t="s">
         <v>498</v>
       </c>
-      <c r="AG2" s="206"/>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="206"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="205"/>
+      <c r="AJ2" s="205"/>
     </row>
     <row r="3" spans="2:36">
       <c r="B3" s="124" t="s">
@@ -8782,6 +8785,12 @@
       </c>
       <c r="AA4" t="s">
         <v>482</v>
+      </c>
+      <c r="AB4">
+        <v>511</v>
+      </c>
+      <c r="AC4">
+        <v>511</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>838</v>
@@ -8863,6 +8872,12 @@
       <c r="AA8" t="s">
         <v>482</v>
       </c>
+      <c r="AB8">
+        <v>521</v>
+      </c>
+      <c r="AC8">
+        <v>521</v>
+      </c>
       <c r="AF8" s="3" t="s">
         <v>839</v>
       </c>
@@ -8947,6 +8962,18 @@
       </c>
       <c r="F12" s="126" t="s">
         <v>727</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB12">
+        <v>531</v>
+      </c>
+      <c r="AC12">
+        <v>531</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>846</v>
@@ -9133,20 +9160,20 @@
       <c r="F24" s="140"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="206" t="s">
+      <c r="B25" s="205" t="s">
         <v>711</v>
       </c>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="H25" s="206" t="s">
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="H25" s="205" t="s">
         <v>766</v>
       </c>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="206"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="205"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="124" t="s">
@@ -10239,40 +10266,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="225" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="232"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="234"/>
+      <c r="A2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="231" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236" t="s">
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="233"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">
@@ -10806,11 +10833,11 @@
       <c r="C27" s="144" t="s">
         <v>607</v>
       </c>
-      <c r="D27" s="228" t="s">
+      <c r="D27" s="234" t="s">
         <v>583</v>
       </c>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="234"/>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
@@ -10822,11 +10849,11 @@
       <c r="C28" s="144" t="s">
         <v>611</v>
       </c>
-      <c r="D28" s="228" t="s">
+      <c r="D28" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="228"/>
-      <c r="F28" s="228"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
     </row>
@@ -10838,11 +10865,11 @@
       <c r="C29" s="144" t="s">
         <v>612</v>
       </c>
-      <c r="D29" s="228" t="s">
+      <c r="D29" s="234" t="s">
         <v>584</v>
       </c>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
     </row>
@@ -10854,11 +10881,11 @@
       <c r="C30" s="144" t="s">
         <v>613</v>
       </c>
-      <c r="D30" s="228" t="s">
+      <c r="D30" s="234" t="s">
         <v>585</v>
       </c>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="234"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
     </row>
@@ -10870,11 +10897,11 @@
       <c r="C31" s="144" t="s">
         <v>614</v>
       </c>
-      <c r="D31" s="228" t="s">
+      <c r="D31" s="234" t="s">
         <v>586</v>
       </c>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="234"/>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
     </row>
@@ -10886,11 +10913,11 @@
       <c r="C32" s="144" t="s">
         <v>615</v>
       </c>
-      <c r="D32" s="228" t="s">
+      <c r="D32" s="234" t="s">
         <v>587</v>
       </c>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="234"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
     </row>
@@ -10902,11 +10929,11 @@
       <c r="C33" s="144" t="s">
         <v>628</v>
       </c>
-      <c r="D33" s="228" t="s">
+      <c r="D33" s="234" t="s">
         <v>489</v>
       </c>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="234"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
     </row>
@@ -10918,11 +10945,11 @@
       <c r="C34" s="144" t="s">
         <v>629</v>
       </c>
-      <c r="D34" s="228" t="s">
+      <c r="D34" s="234" t="s">
         <v>588</v>
       </c>
-      <c r="E34" s="228"/>
-      <c r="F34" s="228"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
     </row>
@@ -10934,11 +10961,11 @@
       <c r="C35" s="144" t="s">
         <v>630</v>
       </c>
-      <c r="D35" s="228" t="s">
+      <c r="D35" s="234" t="s">
         <v>589</v>
       </c>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
     </row>
@@ -10948,11 +10975,11 @@
       <c r="C36" s="144" t="s">
         <v>665</v>
       </c>
-      <c r="D36" s="225" t="s">
+      <c r="D36" s="235" t="s">
         <v>604</v>
       </c>
-      <c r="E36" s="226"/>
-      <c r="F36" s="227"/>
+      <c r="E36" s="236"/>
+      <c r="F36" s="237"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
@@ -10962,11 +10989,11 @@
       <c r="C37" s="144" t="s">
         <v>668</v>
       </c>
-      <c r="D37" s="225" t="s">
+      <c r="D37" s="235" t="s">
         <v>666</v>
       </c>
-      <c r="E37" s="226"/>
-      <c r="F37" s="227"/>
+      <c r="E37" s="236"/>
+      <c r="F37" s="237"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
     </row>
@@ -10976,11 +11003,11 @@
       <c r="C38" s="144" t="s">
         <v>667</v>
       </c>
-      <c r="D38" s="225" t="s">
+      <c r="D38" s="235" t="s">
         <v>669</v>
       </c>
-      <c r="E38" s="226"/>
-      <c r="F38" s="227"/>
+      <c r="E38" s="236"/>
+      <c r="F38" s="237"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
     </row>
@@ -10988,9 +11015,9 @@
       <c r="A39" s="24"/>
       <c r="B39" s="146"/>
       <c r="C39" s="144"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="226"/>
-      <c r="F39" s="227"/>
+      <c r="D39" s="235"/>
+      <c r="E39" s="236"/>
+      <c r="F39" s="237"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
     </row>
@@ -11088,6 +11115,13 @@
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -11097,13 +11131,6 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12193,40 +12220,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="252" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="270"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="271" t="s">
+      <c r="A3" s="254" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="271" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="254" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="272"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="274"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="257"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="46">
@@ -12519,18 +12546,18 @@
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="271" t="s">
+      <c r="A25" s="254" t="s">
         <v>293</v>
       </c>
-      <c r="B25" s="272"/>
-      <c r="C25" s="273"/>
-      <c r="D25" s="274"/>
-      <c r="E25" s="271" t="s">
+      <c r="B25" s="255"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="254" t="s">
         <v>294</v>
       </c>
-      <c r="F25" s="272"/>
-      <c r="G25" s="273"/>
-      <c r="H25" s="274"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="257"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="50" t="s">
@@ -12542,23 +12569,23 @@
       <c r="E26" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="266"/>
-      <c r="G26" s="267"/>
-      <c r="H26" s="268"/>
+      <c r="F26" s="261"/>
+      <c r="G26" s="262"/>
+      <c r="H26" s="263"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="261"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="264"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="266"/>
       <c r="E27" s="50" t="s">
         <v>298</v>
       </c>
       <c r="F27" s="258"/>
       <c r="G27" s="259"/>
-      <c r="H27" s="265"/>
+      <c r="H27" s="267"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="50" t="s">
@@ -12570,23 +12597,23 @@
       <c r="E28" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F28" s="261"/>
-      <c r="G28" s="262"/>
-      <c r="H28" s="263"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="268"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="261"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="264"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="266"/>
       <c r="E29" s="50" t="s">
         <v>302</v>
       </c>
       <c r="F29" s="258"/>
       <c r="G29" s="259"/>
-      <c r="H29" s="265"/>
+      <c r="H29" s="267"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="50" t="s">
@@ -12598,23 +12625,23 @@
       <c r="E30" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="F30" s="261"/>
-      <c r="G30" s="262"/>
-      <c r="H30" s="263"/>
+      <c r="F30" s="264"/>
+      <c r="G30" s="265"/>
+      <c r="H30" s="268"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="261"/>
-      <c r="C31" s="262"/>
-      <c r="D31" s="264"/>
+      <c r="B31" s="264"/>
+      <c r="C31" s="265"/>
+      <c r="D31" s="266"/>
       <c r="E31" s="50" t="s">
         <v>306</v>
       </c>
       <c r="F31" s="258"/>
       <c r="G31" s="259"/>
-      <c r="H31" s="265"/>
+      <c r="H31" s="267"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="50" t="s">
@@ -12624,9 +12651,9 @@
       <c r="C32" s="259"/>
       <c r="D32" s="260"/>
       <c r="E32" s="58"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="263" t="s">
+      <c r="F32" s="264"/>
+      <c r="G32" s="265"/>
+      <c r="H32" s="268" t="s">
         <v>245</v>
       </c>
     </row>
@@ -12634,13 +12661,13 @@
       <c r="A33" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="B33" s="261"/>
-      <c r="C33" s="262"/>
-      <c r="D33" s="264"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="266"/>
       <c r="E33" s="50"/>
       <c r="F33" s="258"/>
       <c r="G33" s="259"/>
-      <c r="H33" s="265" t="s">
+      <c r="H33" s="267" t="s">
         <v>288</v>
       </c>
     </row>
@@ -12652,9 +12679,9 @@
       <c r="C34" s="259"/>
       <c r="D34" s="260"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="261"/>
-      <c r="G34" s="262"/>
-      <c r="H34" s="263" t="s">
+      <c r="F34" s="264"/>
+      <c r="G34" s="265"/>
+      <c r="H34" s="268" t="s">
         <v>289</v>
       </c>
     </row>
@@ -12662,13 +12689,13 @@
       <c r="A35" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="261"/>
-      <c r="C35" s="262"/>
-      <c r="D35" s="264"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="265"/>
+      <c r="D35" s="266"/>
       <c r="E35" s="50"/>
       <c r="F35" s="258"/>
       <c r="G35" s="259"/>
-      <c r="H35" s="265" t="s">
+      <c r="H35" s="267" t="s">
         <v>290</v>
       </c>
     </row>
@@ -12680,9 +12707,9 @@
       <c r="C36" s="259"/>
       <c r="D36" s="260"/>
       <c r="E36" s="58"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="262"/>
-      <c r="H36" s="263" t="s">
+      <c r="F36" s="264"/>
+      <c r="G36" s="265"/>
+      <c r="H36" s="268" t="s">
         <v>291</v>
       </c>
     </row>
@@ -12690,13 +12717,13 @@
       <c r="A37" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="261"/>
-      <c r="C37" s="262"/>
-      <c r="D37" s="264"/>
+      <c r="B37" s="264"/>
+      <c r="C37" s="265"/>
+      <c r="D37" s="266"/>
       <c r="E37" s="50"/>
       <c r="F37" s="258"/>
       <c r="G37" s="259"/>
-      <c r="H37" s="265" t="s">
+      <c r="H37" s="267" t="s">
         <v>292</v>
       </c>
     </row>
@@ -12708,9 +12735,9 @@
       <c r="C38" s="259"/>
       <c r="D38" s="260"/>
       <c r="E38" s="58"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="262"/>
-      <c r="H38" s="263" t="s">
+      <c r="F38" s="264"/>
+      <c r="G38" s="265"/>
+      <c r="H38" s="268" t="s">
         <v>244</v>
       </c>
     </row>
@@ -12718,13 +12745,13 @@
       <c r="A39" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="261"/>
-      <c r="C39" s="262"/>
-      <c r="D39" s="264"/>
+      <c r="B39" s="264"/>
+      <c r="C39" s="265"/>
+      <c r="D39" s="266"/>
       <c r="E39" s="50"/>
       <c r="F39" s="258"/>
       <c r="G39" s="259"/>
-      <c r="H39" s="265" t="s">
+      <c r="H39" s="267" t="s">
         <v>245</v>
       </c>
     </row>
@@ -12736,53 +12763,24 @@
       <c r="C40" s="259"/>
       <c r="D40" s="260"/>
       <c r="E40" s="58"/>
-      <c r="F40" s="261"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="263"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="268"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="252"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="254"/>
+      <c r="B41" s="269"/>
+      <c r="C41" s="270"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="75"/>
-      <c r="F41" s="255"/>
-      <c r="G41" s="256"/>
-      <c r="H41" s="257"/>
+      <c r="F41" s="272"/>
+      <c r="G41" s="273"/>
+      <c r="H41" s="274"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -12791,6 +12789,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13357,40 +13384,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="225" t="s">
         <v>495</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="232"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="234"/>
+      <c r="A2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="230"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="235" t="s">
+      <c r="A3" s="231" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236" t="s">
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="237"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="233"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="20">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="856">
   <si>
     <t>AWACS</t>
   </si>
@@ -2582,6 +2582,15 @@
   </si>
   <si>
     <t>Apache</t>
+  </si>
+  <si>
+    <t>Range 34</t>
+  </si>
+  <si>
+    <t>BRONZE 12</t>
+  </si>
+  <si>
+    <t>COPPER 4</t>
   </si>
 </sst>
 </file>
@@ -4796,10 +4805,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Ark1"/>
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ41" sqref="AJ41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4:AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5209,7 +5218,7 @@
       <c r="J6" s="130"/>
       <c r="K6" s="130"/>
       <c r="L6" s="130"/>
-      <c r="M6" s="130" t="s">
+      <c r="M6" s="127" t="s">
         <v>378</v>
       </c>
       <c r="N6" s="129" t="s">
@@ -5442,7 +5451,7 @@
         <v>383</v>
       </c>
       <c r="D9" s="130"/>
-      <c r="E9" s="130" t="s">
+      <c r="E9" s="127" t="s">
         <v>384</v>
       </c>
       <c r="F9" s="131" t="s">
@@ -6667,6 +6676,21 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
+      <c r="AD23" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="AE23" s="127" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="AG23" s="127" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>855</v>
+      </c>
       <c r="AJ23" s="142" t="s">
         <v>565</v>
       </c>
@@ -6737,13 +6761,6 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="AD24" s="205" t="s">
-        <v>493</v>
-      </c>
-      <c r="AE24" s="205"/>
-      <c r="AF24" s="205"/>
-      <c r="AG24" s="205"/>
-      <c r="AH24" s="205"/>
       <c r="AJ24" s="142" t="s">
         <v>568</v>
       </c>
@@ -6820,21 +6837,13 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AD25" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE25" s="115" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF25" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG25" s="115" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH25" s="115" t="s">
-        <v>227</v>
-      </c>
+      <c r="AD25" s="205" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE25" s="205"/>
+      <c r="AF25" s="205"/>
+      <c r="AG25" s="205"/>
+      <c r="AH25" s="205"/>
     </row>
     <row r="26" spans="1:42">
       <c r="A26" s="129" t="s">
@@ -6884,20 +6893,20 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AD26" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="AE26" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF26" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="AG26" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH26" s="3" t="s">
-        <v>492</v>
+      <c r="AD26" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE26" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF26" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG26" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH26" s="115" t="s">
+        <v>227</v>
       </c>
       <c r="AJ26" s="205" t="s">
         <v>847</v>
@@ -6964,6 +6973,21 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
+      <c r="AD27" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE27" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG27" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="AJ27" s="204" t="s">
         <v>218</v>
       </c>
@@ -7202,11 +7226,6 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="12"/>
-      <c r="AD31" s="206" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE31" s="207"/>
-      <c r="AF31" s="208"/>
     </row>
     <row r="32" spans="1:42">
       <c r="S32" s="12"/>
@@ -7218,15 +7237,6 @@
       <c r="Y32" s="117"/>
       <c r="Z32" s="117"/>
       <c r="AA32" s="12"/>
-      <c r="AD32" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE32" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF32" s="44" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="33" spans="19:37">
       <c r="S33" s="12"/>
@@ -7238,11 +7248,6 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
-      <c r="AD33" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
     </row>
     <row r="34" spans="19:37">
       <c r="S34" s="12"/>
@@ -7254,11 +7259,6 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
-      <c r="AD34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
       <c r="AG34" s="116"/>
       <c r="AH34" s="116"/>
       <c r="AI34" s="116"/>
@@ -7275,11 +7275,6 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
-      <c r="AD35" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="10"/>
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="12"/>
@@ -7296,11 +7291,6 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AD36" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
       <c r="AG36" s="12"/>
       <c r="AH36" s="12"/>
       <c r="AI36" s="12"/>
@@ -7320,11 +7310,6 @@
       <c r="Z37" s="205"/>
       <c r="AA37" s="205"/>
       <c r="AB37" s="205"/>
-      <c r="AD37" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="12"/>
       <c r="AI37" s="12"/>
@@ -7352,11 +7337,11 @@
       </c>
       <c r="AA38" s="114"/>
       <c r="AB38" s="114"/>
-      <c r="AD38" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="10"/>
+      <c r="AD38" s="206" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE38" s="207"/>
+      <c r="AF38" s="208"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="12"/>
       <c r="AI38" s="12"/>
@@ -7376,11 +7361,15 @@
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="3"/>
-      <c r="AD39" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="10"/>
+      <c r="AD39" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE39" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF39" s="44" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="40" spans="19:37">
       <c r="S40" s="12"/>
@@ -7393,9 +7382,9 @@
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AD40" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE40" s="11"/>
+        <v>255</v>
+      </c>
+      <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
     </row>
     <row r="41" spans="19:37">
@@ -7409,7 +7398,7 @@
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
       <c r="AD41" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
@@ -7428,9 +7417,9 @@
       <c r="AA42" s="205"/>
       <c r="AB42" s="205"/>
       <c r="AD42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE42" s="10"/>
+        <v>257</v>
+      </c>
+      <c r="AE42" s="11"/>
       <c r="AF42" s="10"/>
     </row>
     <row r="43" spans="19:37">
@@ -7457,7 +7446,7 @@
       </c>
       <c r="AB43" s="115"/>
       <c r="AD43" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
@@ -7473,8 +7462,8 @@
       <c r="Z44" s="10"/>
       <c r="AA44" s="10"/>
       <c r="AB44" s="3"/>
-      <c r="AD44" s="10" t="s">
-        <v>267</v>
+      <c r="AD44" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
@@ -7489,8 +7478,8 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
-      <c r="AD45" s="10" t="s">
-        <v>268</v>
+      <c r="AD45" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="AE45" s="11"/>
       <c r="AF45" s="10"/>
@@ -7505,8 +7494,8 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="117"/>
       <c r="AA46" s="12"/>
-      <c r="AD46" s="10" t="s">
-        <v>269</v>
+      <c r="AD46" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="AE46" s="11"/>
       <c r="AF46" s="10"/>
@@ -7521,10 +7510,10 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
-      <c r="AD47" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE47" s="10"/>
+      <c r="AD47" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE47" s="11"/>
       <c r="AF47" s="10"/>
     </row>
     <row r="48" spans="19:37">
@@ -7540,8 +7529,13 @@
       <c r="Z48" s="207"/>
       <c r="AA48" s="207"/>
       <c r="AB48" s="208"/>
-    </row>
-    <row r="49" spans="19:28">
+      <c r="AD48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+    </row>
+    <row r="49" spans="19:32">
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
@@ -7562,8 +7556,13 @@
         <v>220</v>
       </c>
       <c r="AB49" s="115"/>
-    </row>
-    <row r="50" spans="19:28">
+      <c r="AD49" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+    </row>
+    <row r="50" spans="19:32">
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
@@ -7581,8 +7580,13 @@
       <c r="AA50" s="12" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="51" spans="19:28">
+      <c r="AD50" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+    </row>
+    <row r="51" spans="19:32">
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
@@ -7598,8 +7602,13 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
-    </row>
-    <row r="52" spans="19:28">
+      <c r="AD51" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+    </row>
+    <row r="52" spans="19:32">
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
@@ -7615,8 +7624,13 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
-    </row>
-    <row r="53" spans="19:28">
+      <c r="AD52" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="10"/>
+    </row>
+    <row r="53" spans="19:32">
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
@@ -7626,6 +7640,18 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
+      <c r="AD53" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="10"/>
+    </row>
+    <row r="54" spans="19:32">
+      <c r="AD54" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7633,9 +7659,9 @@
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AJ17:AP17"/>
-    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AD38:AF38"/>
     <mergeCell ref="V29:AB29"/>
-    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ26:AP26"/>
     <mergeCell ref="V42:AB42"/>
     <mergeCell ref="AD4:AH4"/>
@@ -8583,7 +8609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1243">
   <si>
     <t>AWACS</t>
   </si>
@@ -3744,6 +3744,15 @@
   </si>
   <si>
     <t>281.77</t>
+  </si>
+  <si>
+    <t>Tactical freq 1</t>
+  </si>
+  <si>
+    <t>Tactical freq 2</t>
+  </si>
+  <si>
+    <t>MAROON 10</t>
   </si>
 </sst>
 </file>
@@ -4227,7 +4236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -5395,11 +5404,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6112,12 +6132,22 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6127,13 +6157,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6145,50 +6211,35 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6199,36 +6250,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6289,6 +6310,42 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6307,42 +6364,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6415,6 +6436,57 @@
     <xf numFmtId="0" fontId="33" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6433,58 +6505,7 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6797,8 +6818,8 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6975,9 +6996,9 @@
         <v>429</v>
       </c>
       <c r="Q3" s="11"/>
-      <c r="R3" s="296"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="296"/>
+      <c r="R3" s="301"/>
+      <c r="S3" s="301"/>
+      <c r="T3" s="301"/>
       <c r="V3" s="119" t="s">
         <v>331</v>
       </c>
@@ -7681,18 +7702,14 @@
       <c r="R11" s="116"/>
       <c r="S11" s="117"/>
       <c r="T11" s="2"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113" t="s">
-        <v>223</v>
-      </c>
-      <c r="X11" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y11" s="113" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z11" s="113" t="s">
-        <v>285</v>
+      <c r="V11" s="421" t="s">
+        <v>1240</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="X11" s="421" t="s">
+        <v>1242</v>
       </c>
       <c r="AA11" s="36"/>
       <c r="AB11" s="35"/>
@@ -7781,18 +7798,8 @@
       <c r="R12" s="116"/>
       <c r="S12" s="117"/>
       <c r="T12" s="11"/>
-      <c r="V12" s="420" t="s">
-        <v>283</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>1238</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="9" t="s">
-        <v>1236</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>602</v>
+      <c r="V12" s="421" t="s">
+        <v>1241</v>
       </c>
       <c r="AA12" s="35"/>
       <c r="AD12" s="3" t="s">
@@ -7883,13 +7890,19 @@
       <c r="R13" s="116"/>
       <c r="S13" s="117"/>
       <c r="T13" s="11"/>
-      <c r="V13" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="X13" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y13" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z13" s="113" t="s">
+        <v>285</v>
+      </c>
       <c r="AA13" s="11"/>
       <c r="AD13" s="3" t="s">
         <v>439</v>
@@ -7979,13 +7992,19 @@
       <c r="R14" s="118"/>
       <c r="S14" s="117"/>
       <c r="T14" s="11"/>
-      <c r="V14" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="W14" s="3"/>
+      <c r="V14" s="296" t="s">
+        <v>283</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>1238</v>
+      </c>
       <c r="X14" s="3"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
+      <c r="Y14" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>602</v>
+      </c>
       <c r="AA14" s="11"/>
       <c r="AD14" s="43"/>
       <c r="AE14" s="43"/>
@@ -8063,19 +8082,13 @@
       <c r="R15" s="118"/>
       <c r="S15" s="117"/>
       <c r="T15" s="11"/>
-      <c r="V15" s="420" t="s">
-        <v>1235</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>1239</v>
-      </c>
+      <c r="V15" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="W15" s="9"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="9" t="s">
-        <v>1237</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>601</v>
-      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
       <c r="AA15" s="11"/>
       <c r="AD15" s="3" t="s">
         <v>440</v>
@@ -8142,6 +8155,13 @@
       <c r="R16" s="118"/>
       <c r="S16" s="117"/>
       <c r="T16" s="11"/>
+      <c r="V16" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
       <c r="AD16" s="3" t="s">
         <v>441</v>
       </c>
@@ -8207,6 +8227,19 @@
       <c r="R17" s="11"/>
       <c r="S17" s="117"/>
       <c r="T17" s="11"/>
+      <c r="V17" s="296" t="s">
+        <v>1235</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>601</v>
+      </c>
       <c r="AD17" s="9" t="s">
         <v>442</v>
       </c>
@@ -8254,7 +8287,7 @@
       <c r="J18" s="127" t="s">
         <v>405</v>
       </c>
-      <c r="K18" s="127" t="s">
+      <c r="K18" s="13" t="s">
         <v>188</v>
       </c>
       <c r="L18" s="13" t="s">
@@ -8426,9 +8459,9 @@
       <c r="O20" s="34"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="296"/>
-      <c r="S20" s="296"/>
-      <c r="T20" s="296"/>
+      <c r="R20" s="301"/>
+      <c r="S20" s="301"/>
+      <c r="T20" s="301"/>
       <c r="U20" s="2"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
@@ -9401,11 +9434,11 @@
       </c>
       <c r="AA38" s="112"/>
       <c r="AB38" s="112"/>
-      <c r="AD38" s="298" t="s">
+      <c r="AD38" s="302" t="s">
         <v>261</v>
       </c>
-      <c r="AE38" s="299"/>
-      <c r="AF38" s="300"/>
+      <c r="AE38" s="303"/>
+      <c r="AF38" s="304"/>
       <c r="AG38" s="11"/>
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
@@ -9584,15 +9617,15 @@
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
-      <c r="V48" s="301" t="s">
+      <c r="V48" s="298" t="s">
         <v>476</v>
       </c>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="302"/>
-      <c r="AB48" s="303"/>
+      <c r="W48" s="299"/>
+      <c r="X48" s="299"/>
+      <c r="Y48" s="299"/>
+      <c r="Z48" s="299"/>
+      <c r="AA48" s="299"/>
+      <c r="AB48" s="300"/>
       <c r="AD48" s="3" t="s">
         <v>262</v>
       </c>
@@ -10217,11 +10250,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -10230,6 +10258,11 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ30:AP30"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10257,40 +10290,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="386" t="s">
         <v>490</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="387"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="388"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="388"/>
-      <c r="B2" s="389"/>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
-      <c r="E2" s="389"/>
-      <c r="F2" s="389"/>
-      <c r="G2" s="389"/>
-      <c r="H2" s="390"/>
+      <c r="A2" s="389"/>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="391"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="391" t="s">
+      <c r="A3" s="392" t="s">
         <v>754</v>
       </c>
-      <c r="B3" s="392"/>
-      <c r="C3" s="392"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="391" t="s">
+      <c r="B3" s="393"/>
+      <c r="C3" s="393"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="392" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="392"/>
-      <c r="G3" s="392"/>
-      <c r="H3" s="393"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="394"/>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="189">
@@ -10763,18 +10796,18 @@
       <c r="H24" s="169"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A25" s="394" t="s">
+      <c r="A25" s="395" t="s">
         <v>316</v>
       </c>
-      <c r="B25" s="395"/>
-      <c r="C25" s="395"/>
-      <c r="D25" s="396"/>
-      <c r="E25" s="394" t="s">
+      <c r="B25" s="396"/>
+      <c r="C25" s="396"/>
+      <c r="D25" s="397"/>
+      <c r="E25" s="395" t="s">
         <v>804</v>
       </c>
-      <c r="F25" s="395"/>
-      <c r="G25" s="395"/>
-      <c r="H25" s="396"/>
+      <c r="F25" s="396"/>
+      <c r="G25" s="396"/>
+      <c r="H25" s="397"/>
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="178">
@@ -11189,40 +11222,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="398" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="414"/>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="414"/>
-      <c r="H1" s="414"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="G1" s="398"/>
+      <c r="H1" s="398"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="415"/>
-      <c r="B2" s="415"/>
-      <c r="C2" s="415"/>
-      <c r="D2" s="415"/>
-      <c r="E2" s="415"/>
-      <c r="F2" s="415"/>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
+      <c r="A2" s="399"/>
+      <c r="B2" s="399"/>
+      <c r="C2" s="399"/>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
+      <c r="F2" s="399"/>
+      <c r="G2" s="399"/>
+      <c r="H2" s="399"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="400" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="418"/>
-      <c r="D3" s="419"/>
-      <c r="E3" s="416" t="s">
+      <c r="B3" s="401"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="403"/>
+      <c r="E3" s="400" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="417"/>
-      <c r="G3" s="418"/>
-      <c r="H3" s="419"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="403"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="44">
@@ -11515,114 +11548,114 @@
       <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="416" t="s">
+      <c r="A25" s="400" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="417"/>
-      <c r="C25" s="418"/>
-      <c r="D25" s="419"/>
-      <c r="E25" s="416" t="s">
+      <c r="B25" s="401"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="400" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="417"/>
-      <c r="G25" s="418"/>
-      <c r="H25" s="419"/>
+      <c r="F25" s="401"/>
+      <c r="G25" s="402"/>
+      <c r="H25" s="403"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="403"/>
-      <c r="C26" s="404"/>
-      <c r="D26" s="405"/>
+      <c r="B26" s="404"/>
+      <c r="C26" s="405"/>
+      <c r="D26" s="406"/>
       <c r="E26" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="F26" s="411"/>
-      <c r="G26" s="412"/>
-      <c r="H26" s="413"/>
+      <c r="F26" s="407"/>
+      <c r="G26" s="408"/>
+      <c r="H26" s="409"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="406"/>
-      <c r="C27" s="407"/>
-      <c r="D27" s="409"/>
+      <c r="B27" s="410"/>
+      <c r="C27" s="411"/>
+      <c r="D27" s="412"/>
       <c r="E27" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="F27" s="403"/>
-      <c r="G27" s="404"/>
-      <c r="H27" s="410"/>
+      <c r="F27" s="404"/>
+      <c r="G27" s="405"/>
+      <c r="H27" s="413"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="B28" s="403"/>
-      <c r="C28" s="404"/>
-      <c r="D28" s="405"/>
+      <c r="B28" s="404"/>
+      <c r="C28" s="405"/>
+      <c r="D28" s="406"/>
       <c r="E28" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="406"/>
-      <c r="G28" s="407"/>
-      <c r="H28" s="408"/>
+      <c r="F28" s="410"/>
+      <c r="G28" s="411"/>
+      <c r="H28" s="414"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="B29" s="406"/>
-      <c r="C29" s="407"/>
-      <c r="D29" s="409"/>
+      <c r="B29" s="410"/>
+      <c r="C29" s="411"/>
+      <c r="D29" s="412"/>
       <c r="E29" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="F29" s="403"/>
-      <c r="G29" s="404"/>
-      <c r="H29" s="410"/>
+      <c r="F29" s="404"/>
+      <c r="G29" s="405"/>
+      <c r="H29" s="413"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B30" s="403"/>
-      <c r="C30" s="404"/>
-      <c r="D30" s="405"/>
+      <c r="B30" s="404"/>
+      <c r="C30" s="405"/>
+      <c r="D30" s="406"/>
       <c r="E30" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="F30" s="406"/>
-      <c r="G30" s="407"/>
-      <c r="H30" s="408"/>
+      <c r="F30" s="410"/>
+      <c r="G30" s="411"/>
+      <c r="H30" s="414"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="406"/>
-      <c r="C31" s="407"/>
-      <c r="D31" s="409"/>
+      <c r="B31" s="410"/>
+      <c r="C31" s="411"/>
+      <c r="D31" s="412"/>
       <c r="E31" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="F31" s="403"/>
-      <c r="G31" s="404"/>
-      <c r="H31" s="410"/>
+      <c r="F31" s="404"/>
+      <c r="G31" s="405"/>
+      <c r="H31" s="413"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="B32" s="403"/>
-      <c r="C32" s="404"/>
-      <c r="D32" s="405"/>
+      <c r="B32" s="404"/>
+      <c r="C32" s="405"/>
+      <c r="D32" s="406"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="406"/>
-      <c r="G32" s="407"/>
-      <c r="H32" s="408" t="s">
+      <c r="F32" s="410"/>
+      <c r="G32" s="411"/>
+      <c r="H32" s="414" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11630,13 +11663,13 @@
       <c r="A33" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="B33" s="406"/>
-      <c r="C33" s="407"/>
-      <c r="D33" s="409"/>
+      <c r="B33" s="410"/>
+      <c r="C33" s="411"/>
+      <c r="D33" s="412"/>
       <c r="E33" s="48"/>
-      <c r="F33" s="403"/>
-      <c r="G33" s="404"/>
-      <c r="H33" s="410" t="s">
+      <c r="F33" s="404"/>
+      <c r="G33" s="405"/>
+      <c r="H33" s="413" t="s">
         <v>286</v>
       </c>
     </row>
@@ -11644,13 +11677,13 @@
       <c r="A34" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="B34" s="403"/>
-      <c r="C34" s="404"/>
-      <c r="D34" s="405"/>
+      <c r="B34" s="404"/>
+      <c r="C34" s="405"/>
+      <c r="D34" s="406"/>
       <c r="E34" s="56"/>
-      <c r="F34" s="406"/>
-      <c r="G34" s="407"/>
-      <c r="H34" s="408" t="s">
+      <c r="F34" s="410"/>
+      <c r="G34" s="411"/>
+      <c r="H34" s="414" t="s">
         <v>287</v>
       </c>
     </row>
@@ -11658,13 +11691,13 @@
       <c r="A35" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="B35" s="406"/>
-      <c r="C35" s="407"/>
-      <c r="D35" s="409"/>
+      <c r="B35" s="410"/>
+      <c r="C35" s="411"/>
+      <c r="D35" s="412"/>
       <c r="E35" s="48"/>
-      <c r="F35" s="403"/>
-      <c r="G35" s="404"/>
-      <c r="H35" s="410" t="s">
+      <c r="F35" s="404"/>
+      <c r="G35" s="405"/>
+      <c r="H35" s="413" t="s">
         <v>288</v>
       </c>
     </row>
@@ -11672,13 +11705,13 @@
       <c r="A36" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="403"/>
-      <c r="C36" s="404"/>
-      <c r="D36" s="405"/>
+      <c r="B36" s="404"/>
+      <c r="C36" s="405"/>
+      <c r="D36" s="406"/>
       <c r="E36" s="56"/>
-      <c r="F36" s="406"/>
-      <c r="G36" s="407"/>
-      <c r="H36" s="408" t="s">
+      <c r="F36" s="410"/>
+      <c r="G36" s="411"/>
+      <c r="H36" s="414" t="s">
         <v>289</v>
       </c>
     </row>
@@ -11686,13 +11719,13 @@
       <c r="A37" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="B37" s="406"/>
-      <c r="C37" s="407"/>
-      <c r="D37" s="409"/>
+      <c r="B37" s="410"/>
+      <c r="C37" s="411"/>
+      <c r="D37" s="412"/>
       <c r="E37" s="48"/>
-      <c r="F37" s="403"/>
-      <c r="G37" s="404"/>
-      <c r="H37" s="410" t="s">
+      <c r="F37" s="404"/>
+      <c r="G37" s="405"/>
+      <c r="H37" s="413" t="s">
         <v>290</v>
       </c>
     </row>
@@ -11700,13 +11733,13 @@
       <c r="A38" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="B38" s="403"/>
-      <c r="C38" s="404"/>
-      <c r="D38" s="405"/>
+      <c r="B38" s="404"/>
+      <c r="C38" s="405"/>
+      <c r="D38" s="406"/>
       <c r="E38" s="56"/>
-      <c r="F38" s="406"/>
-      <c r="G38" s="407"/>
-      <c r="H38" s="408" t="s">
+      <c r="F38" s="410"/>
+      <c r="G38" s="411"/>
+      <c r="H38" s="414" t="s">
         <v>242</v>
       </c>
     </row>
@@ -11714,13 +11747,13 @@
       <c r="A39" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="406"/>
-      <c r="C39" s="407"/>
-      <c r="D39" s="409"/>
+      <c r="B39" s="410"/>
+      <c r="C39" s="411"/>
+      <c r="D39" s="412"/>
       <c r="E39" s="48"/>
-      <c r="F39" s="403"/>
-      <c r="G39" s="404"/>
-      <c r="H39" s="410" t="s">
+      <c r="F39" s="404"/>
+      <c r="G39" s="405"/>
+      <c r="H39" s="413" t="s">
         <v>243</v>
       </c>
     </row>
@@ -11728,57 +11761,28 @@
       <c r="A40" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="B40" s="403"/>
-      <c r="C40" s="404"/>
-      <c r="D40" s="405"/>
+      <c r="B40" s="404"/>
+      <c r="C40" s="405"/>
+      <c r="D40" s="406"/>
       <c r="E40" s="56"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="407"/>
-      <c r="H40" s="408"/>
+      <c r="F40" s="410"/>
+      <c r="G40" s="411"/>
+      <c r="H40" s="414"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="B41" s="397"/>
-      <c r="C41" s="398"/>
-      <c r="D41" s="399"/>
+      <c r="B41" s="415"/>
+      <c r="C41" s="416"/>
+      <c r="D41" s="417"/>
       <c r="E41" s="73"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="401"/>
-      <c r="H41" s="402"/>
+      <c r="F41" s="418"/>
+      <c r="G41" s="419"/>
+      <c r="H41" s="420"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -11787,6 +11791,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13875,39 +13908,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="317" t="s">
         <v>1149</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="315"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="319"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="314" t="s">
         <v>1150</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="312"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="316"/>
       <c r="D2" s="285"/>
-      <c r="E2" s="310" t="s">
+      <c r="E2" s="314" t="s">
         <v>1058</v>
       </c>
-      <c r="F2" s="311"/>
-      <c r="G2" s="312"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="316"/>
       <c r="H2" s="285"/>
-      <c r="I2" s="310" t="s">
+      <c r="I2" s="314" t="s">
         <v>1057</v>
       </c>
-      <c r="J2" s="311"/>
-      <c r="K2" s="312"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="316"/>
       <c r="L2" s="145"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
@@ -13943,7 +13976,7 @@
       <c r="L3" s="145"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="320" t="s">
         <v>327</v>
       </c>
       <c r="B4" s="155" t="s">
@@ -13953,7 +13986,7 @@
         <v>708</v>
       </c>
       <c r="D4" s="279"/>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="311" t="s">
         <v>978</v>
       </c>
       <c r="F4" s="155" t="s">
@@ -13963,7 +13996,7 @@
         <v>1031</v>
       </c>
       <c r="H4" s="148"/>
-      <c r="I4" s="307" t="s">
+      <c r="I4" s="311" t="s">
         <v>1060</v>
       </c>
       <c r="J4" s="155" t="s">
@@ -13975,7 +14008,7 @@
       <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:12" ht="18.75">
-      <c r="A5" s="305"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="154" t="s">
         <v>324</v>
       </c>
@@ -13983,7 +14016,7 @@
         <v>709</v>
       </c>
       <c r="D5" s="279"/>
-      <c r="E5" s="308"/>
+      <c r="E5" s="312"/>
       <c r="F5" s="154" t="s">
         <v>1005</v>
       </c>
@@ -13991,7 +14024,7 @@
         <v>1032</v>
       </c>
       <c r="H5" s="148"/>
-      <c r="I5" s="308"/>
+      <c r="I5" s="312"/>
       <c r="J5" s="154" t="s">
         <v>1095</v>
       </c>
@@ -14001,7 +14034,7 @@
       <c r="L5" s="145"/>
     </row>
     <row r="6" spans="1:12" ht="18.75">
-      <c r="A6" s="305"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="154" t="s">
         <v>325</v>
       </c>
@@ -14009,7 +14042,7 @@
         <v>710</v>
       </c>
       <c r="D6" s="279"/>
-      <c r="E6" s="308"/>
+      <c r="E6" s="312"/>
       <c r="F6" s="154" t="s">
         <v>1006</v>
       </c>
@@ -14017,7 +14050,7 @@
         <v>1033</v>
       </c>
       <c r="H6" s="148"/>
-      <c r="I6" s="308"/>
+      <c r="I6" s="312"/>
       <c r="J6" s="154" t="s">
         <v>1096</v>
       </c>
@@ -14027,7 +14060,7 @@
       <c r="L6" s="145"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A7" s="306"/>
+      <c r="A7" s="322"/>
       <c r="B7" s="158" t="s">
         <v>326</v>
       </c>
@@ -14035,7 +14068,7 @@
         <v>711</v>
       </c>
       <c r="D7" s="279"/>
-      <c r="E7" s="309"/>
+      <c r="E7" s="313"/>
       <c r="F7" s="158" t="s">
         <v>1007</v>
       </c>
@@ -14043,7 +14076,7 @@
         <v>1034</v>
       </c>
       <c r="H7" s="148"/>
-      <c r="I7" s="309"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="158" t="s">
         <v>1097</v>
       </c>
@@ -14053,7 +14086,7 @@
       <c r="L7" s="145"/>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="304" t="s">
+      <c r="A8" s="320" t="s">
         <v>670</v>
       </c>
       <c r="B8" s="155" t="s">
@@ -14063,7 +14096,7 @@
         <v>712</v>
       </c>
       <c r="D8" s="279"/>
-      <c r="E8" s="307" t="s">
+      <c r="E8" s="311" t="s">
         <v>977</v>
       </c>
       <c r="F8" s="155" t="s">
@@ -14073,7 +14106,7 @@
         <v>1035</v>
       </c>
       <c r="H8" s="148"/>
-      <c r="I8" s="307" t="s">
+      <c r="I8" s="311" t="s">
         <v>1061</v>
       </c>
       <c r="J8" s="155" t="s">
@@ -14085,7 +14118,7 @@
       <c r="L8" s="145"/>
     </row>
     <row r="9" spans="1:12" ht="18.75">
-      <c r="A9" s="305"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="154" t="s">
         <v>661</v>
       </c>
@@ -14093,7 +14126,7 @@
         <v>713</v>
       </c>
       <c r="D9" s="279"/>
-      <c r="E9" s="308"/>
+      <c r="E9" s="312"/>
       <c r="F9" s="154" t="s">
         <v>1009</v>
       </c>
@@ -14101,7 +14134,7 @@
         <v>1036</v>
       </c>
       <c r="H9" s="148"/>
-      <c r="I9" s="308"/>
+      <c r="I9" s="312"/>
       <c r="J9" s="154" t="s">
         <v>1098</v>
       </c>
@@ -14111,7 +14144,7 @@
       <c r="L9" s="145"/>
     </row>
     <row r="10" spans="1:12" ht="18.75">
-      <c r="A10" s="305"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="154" t="s">
         <v>662</v>
       </c>
@@ -14119,7 +14152,7 @@
         <v>714</v>
       </c>
       <c r="D10" s="279"/>
-      <c r="E10" s="308"/>
+      <c r="E10" s="312"/>
       <c r="F10" s="154" t="s">
         <v>1011</v>
       </c>
@@ -14127,7 +14160,7 @@
         <v>1037</v>
       </c>
       <c r="H10" s="148"/>
-      <c r="I10" s="308"/>
+      <c r="I10" s="312"/>
       <c r="J10" s="154" t="s">
         <v>1099</v>
       </c>
@@ -14137,7 +14170,7 @@
       <c r="L10" s="145"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A11" s="306"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="158" t="s">
         <v>663</v>
       </c>
@@ -14145,7 +14178,7 @@
         <v>715</v>
       </c>
       <c r="D11" s="279"/>
-      <c r="E11" s="309"/>
+      <c r="E11" s="313"/>
       <c r="F11" s="158" t="s">
         <v>1012</v>
       </c>
@@ -14153,7 +14186,7 @@
         <v>1038</v>
       </c>
       <c r="H11" s="148"/>
-      <c r="I11" s="309"/>
+      <c r="I11" s="313"/>
       <c r="J11" s="158" t="s">
         <v>1100</v>
       </c>
@@ -14163,7 +14196,7 @@
       <c r="L11" s="145"/>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="304" t="s">
+      <c r="A12" s="320" t="s">
         <v>668</v>
       </c>
       <c r="B12" s="155" t="s">
@@ -14173,7 +14206,7 @@
         <v>716</v>
       </c>
       <c r="D12" s="279"/>
-      <c r="E12" s="307" t="s">
+      <c r="E12" s="311" t="s">
         <v>976</v>
       </c>
       <c r="F12" s="155" t="s">
@@ -14183,7 +14216,7 @@
         <v>1039</v>
       </c>
       <c r="H12" s="148"/>
-      <c r="I12" s="307" t="s">
+      <c r="I12" s="311" t="s">
         <v>1062</v>
       </c>
       <c r="J12" s="155" t="s">
@@ -14195,7 +14228,7 @@
       <c r="L12" s="145"/>
     </row>
     <row r="13" spans="1:12" ht="18.75">
-      <c r="A13" s="305"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="154" t="s">
         <v>665</v>
       </c>
@@ -14203,7 +14236,7 @@
         <v>717</v>
       </c>
       <c r="D13" s="279"/>
-      <c r="E13" s="308"/>
+      <c r="E13" s="312"/>
       <c r="F13" s="154" t="s">
         <v>1014</v>
       </c>
@@ -14211,7 +14244,7 @@
         <v>1040</v>
       </c>
       <c r="H13" s="148"/>
-      <c r="I13" s="308"/>
+      <c r="I13" s="312"/>
       <c r="J13" s="154" t="s">
         <v>1102</v>
       </c>
@@ -14221,7 +14254,7 @@
       <c r="L13" s="145"/>
     </row>
     <row r="14" spans="1:12" ht="18.75">
-      <c r="A14" s="305"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="154" t="s">
         <v>666</v>
       </c>
@@ -14229,7 +14262,7 @@
         <v>718</v>
       </c>
       <c r="D14" s="279"/>
-      <c r="E14" s="308"/>
+      <c r="E14" s="312"/>
       <c r="F14" s="154" t="s">
         <v>1015</v>
       </c>
@@ -14237,7 +14270,7 @@
         <v>1041</v>
       </c>
       <c r="H14" s="148"/>
-      <c r="I14" s="308"/>
+      <c r="I14" s="312"/>
       <c r="J14" s="154" t="s">
         <v>1103</v>
       </c>
@@ -14247,7 +14280,7 @@
       <c r="L14" s="145"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="306"/>
+      <c r="A15" s="322"/>
       <c r="B15" s="158" t="s">
         <v>667</v>
       </c>
@@ -14255,7 +14288,7 @@
         <v>719</v>
       </c>
       <c r="D15" s="279"/>
-      <c r="E15" s="309"/>
+      <c r="E15" s="313"/>
       <c r="F15" s="158" t="s">
         <v>1016</v>
       </c>
@@ -14263,7 +14296,7 @@
         <v>1042</v>
       </c>
       <c r="H15" s="148"/>
-      <c r="I15" s="309"/>
+      <c r="I15" s="313"/>
       <c r="J15" s="158" t="s">
         <v>1104</v>
       </c>
@@ -14273,7 +14306,7 @@
       <c r="L15" s="145"/>
     </row>
     <row r="16" spans="1:12" ht="18.75">
-      <c r="A16" s="304" t="s">
+      <c r="A16" s="320" t="s">
         <v>669</v>
       </c>
       <c r="B16" s="155" t="s">
@@ -14283,7 +14316,7 @@
         <v>720</v>
       </c>
       <c r="D16" s="279"/>
-      <c r="E16" s="307" t="s">
+      <c r="E16" s="311" t="s">
         <v>975</v>
       </c>
       <c r="F16" s="155" t="s">
@@ -14293,7 +14326,7 @@
         <v>1043</v>
       </c>
       <c r="H16" s="148"/>
-      <c r="I16" s="307" t="s">
+      <c r="I16" s="311" t="s">
         <v>1063</v>
       </c>
       <c r="J16" s="155" t="s">
@@ -14305,7 +14338,7 @@
       <c r="L16" s="145"/>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="305"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="154" t="s">
         <v>672</v>
       </c>
@@ -14313,7 +14346,7 @@
         <v>721</v>
       </c>
       <c r="D17" s="279"/>
-      <c r="E17" s="308"/>
+      <c r="E17" s="312"/>
       <c r="F17" s="154" t="s">
         <v>1018</v>
       </c>
@@ -14321,7 +14354,7 @@
         <v>1044</v>
       </c>
       <c r="H17" s="148"/>
-      <c r="I17" s="308"/>
+      <c r="I17" s="312"/>
       <c r="J17" s="154" t="s">
         <v>1106</v>
       </c>
@@ -14331,7 +14364,7 @@
       <c r="L17" s="145"/>
     </row>
     <row r="18" spans="1:12" ht="18.75">
-      <c r="A18" s="305"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="154" t="s">
         <v>673</v>
       </c>
@@ -14339,7 +14372,7 @@
         <v>722</v>
       </c>
       <c r="D18" s="279"/>
-      <c r="E18" s="308"/>
+      <c r="E18" s="312"/>
       <c r="F18" s="154" t="s">
         <v>1019</v>
       </c>
@@ -14347,7 +14380,7 @@
         <v>1045</v>
       </c>
       <c r="H18" s="148"/>
-      <c r="I18" s="308"/>
+      <c r="I18" s="312"/>
       <c r="J18" s="154" t="s">
         <v>1107</v>
       </c>
@@ -14357,7 +14390,7 @@
       <c r="L18" s="145"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A19" s="306"/>
+      <c r="A19" s="322"/>
       <c r="B19" s="158" t="s">
         <v>674</v>
       </c>
@@ -14365,7 +14398,7 @@
         <v>723</v>
       </c>
       <c r="D19" s="279"/>
-      <c r="E19" s="309"/>
+      <c r="E19" s="313"/>
       <c r="F19" s="158" t="s">
         <v>1020</v>
       </c>
@@ -14373,7 +14406,7 @@
         <v>1046</v>
       </c>
       <c r="H19" s="148"/>
-      <c r="I19" s="309"/>
+      <c r="I19" s="313"/>
       <c r="J19" s="158" t="s">
         <v>1108</v>
       </c>
@@ -14387,7 +14420,7 @@
       <c r="B20" s="148"/>
       <c r="C20" s="148"/>
       <c r="D20" s="148"/>
-      <c r="E20" s="307" t="s">
+      <c r="E20" s="311" t="s">
         <v>563</v>
       </c>
       <c r="F20" s="155" t="s">
@@ -14397,7 +14430,7 @@
         <v>1047</v>
       </c>
       <c r="H20" s="148"/>
-      <c r="I20" s="307" t="s">
+      <c r="I20" s="311" t="s">
         <v>1064</v>
       </c>
       <c r="J20" s="155" t="s">
@@ -14413,7 +14446,7 @@
       <c r="B21" s="148"/>
       <c r="C21" s="148"/>
       <c r="D21" s="148"/>
-      <c r="E21" s="308"/>
+      <c r="E21" s="312"/>
       <c r="F21" s="154" t="s">
         <v>1022</v>
       </c>
@@ -14421,7 +14454,7 @@
         <v>1048</v>
       </c>
       <c r="H21" s="148"/>
-      <c r="I21" s="308"/>
+      <c r="I21" s="312"/>
       <c r="J21" s="154" t="s">
         <v>1110</v>
       </c>
@@ -14435,7 +14468,7 @@
       <c r="B22" s="148"/>
       <c r="C22" s="148"/>
       <c r="D22" s="148"/>
-      <c r="E22" s="308"/>
+      <c r="E22" s="312"/>
       <c r="F22" s="154" t="s">
         <v>1023</v>
       </c>
@@ -14443,7 +14476,7 @@
         <v>1049</v>
       </c>
       <c r="H22" s="148"/>
-      <c r="I22" s="308"/>
+      <c r="I22" s="312"/>
       <c r="J22" s="154" t="s">
         <v>1111</v>
       </c>
@@ -14459,7 +14492,7 @@
       <c r="B23" s="282"/>
       <c r="C23" s="283"/>
       <c r="D23" s="148"/>
-      <c r="E23" s="309"/>
+      <c r="E23" s="313"/>
       <c r="F23" s="158" t="s">
         <v>1024</v>
       </c>
@@ -14467,7 +14500,7 @@
         <v>1050</v>
       </c>
       <c r="H23" s="148"/>
-      <c r="I23" s="309"/>
+      <c r="I23" s="313"/>
       <c r="J23" s="158" t="s">
         <v>1112</v>
       </c>
@@ -14487,7 +14520,7 @@
         <v>323</v>
       </c>
       <c r="D24" s="148"/>
-      <c r="E24" s="307" t="s">
+      <c r="E24" s="311" t="s">
         <v>752</v>
       </c>
       <c r="F24" s="155" t="s">
@@ -14497,7 +14530,7 @@
         <v>1051</v>
       </c>
       <c r="H24" s="148"/>
-      <c r="I24" s="307" t="s">
+      <c r="I24" s="311" t="s">
         <v>1065</v>
       </c>
       <c r="J24" s="155" t="s">
@@ -14509,7 +14542,7 @@
       <c r="L24" s="145"/>
     </row>
     <row r="25" spans="1:12" ht="18.75">
-      <c r="A25" s="319" t="s">
+      <c r="A25" s="305" t="s">
         <v>496</v>
       </c>
       <c r="B25" s="155" t="s">
@@ -14519,7 +14552,7 @@
         <v>724</v>
       </c>
       <c r="D25" s="148"/>
-      <c r="E25" s="308"/>
+      <c r="E25" s="312"/>
       <c r="F25" s="154" t="s">
         <v>1026</v>
       </c>
@@ -14527,7 +14560,7 @@
         <v>1052</v>
       </c>
       <c r="H25" s="148"/>
-      <c r="I25" s="308"/>
+      <c r="I25" s="312"/>
       <c r="J25" s="154" t="s">
         <v>1114</v>
       </c>
@@ -14537,7 +14570,7 @@
       <c r="L25" s="145"/>
     </row>
     <row r="26" spans="1:12" ht="18.75">
-      <c r="A26" s="320"/>
+      <c r="A26" s="306"/>
       <c r="B26" s="154" t="s">
         <v>682</v>
       </c>
@@ -14545,7 +14578,7 @@
         <v>725</v>
       </c>
       <c r="D26" s="148"/>
-      <c r="E26" s="308"/>
+      <c r="E26" s="312"/>
       <c r="F26" s="154" t="s">
         <v>1027</v>
       </c>
@@ -14553,7 +14586,7 @@
         <v>1053</v>
       </c>
       <c r="H26" s="148"/>
-      <c r="I26" s="308"/>
+      <c r="I26" s="312"/>
       <c r="J26" s="154" t="s">
         <v>1115</v>
       </c>
@@ -14563,7 +14596,7 @@
       <c r="L26" s="145"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A27" s="320"/>
+      <c r="A27" s="306"/>
       <c r="B27" s="154" t="s">
         <v>683</v>
       </c>
@@ -14571,7 +14604,7 @@
         <v>726</v>
       </c>
       <c r="D27" s="148"/>
-      <c r="E27" s="309"/>
+      <c r="E27" s="313"/>
       <c r="F27" s="158" t="s">
         <v>1028</v>
       </c>
@@ -14579,7 +14612,7 @@
         <v>1054</v>
       </c>
       <c r="H27" s="148"/>
-      <c r="I27" s="309"/>
+      <c r="I27" s="313"/>
       <c r="J27" s="158" t="s">
         <v>1116</v>
       </c>
@@ -14589,7 +14622,7 @@
       <c r="L27" s="145"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A28" s="321"/>
+      <c r="A28" s="307"/>
       <c r="B28" s="158" t="s">
         <v>684</v>
       </c>
@@ -14597,7 +14630,7 @@
         <v>727</v>
       </c>
       <c r="D28" s="148"/>
-      <c r="E28" s="307" t="s">
+      <c r="E28" s="311" t="s">
         <v>565</v>
       </c>
       <c r="F28" s="155" t="s">
@@ -14607,7 +14640,7 @@
         <v>1055</v>
       </c>
       <c r="H28" s="148"/>
-      <c r="I28" s="307" t="s">
+      <c r="I28" s="311" t="s">
         <v>1066</v>
       </c>
       <c r="J28" s="155" t="s">
@@ -14619,7 +14652,7 @@
       <c r="L28" s="145"/>
     </row>
     <row r="29" spans="1:12" ht="18.75">
-      <c r="A29" s="319" t="s">
+      <c r="A29" s="305" t="s">
         <v>690</v>
       </c>
       <c r="B29" s="155" t="s">
@@ -14629,7 +14662,7 @@
         <v>728</v>
       </c>
       <c r="D29" s="279"/>
-      <c r="E29" s="308"/>
+      <c r="E29" s="312"/>
       <c r="F29" s="154" t="s">
         <v>1030</v>
       </c>
@@ -14637,7 +14670,7 @@
         <v>1056</v>
       </c>
       <c r="H29" s="148"/>
-      <c r="I29" s="308"/>
+      <c r="I29" s="312"/>
       <c r="J29" s="154" t="s">
         <v>1118</v>
       </c>
@@ -14647,7 +14680,7 @@
       <c r="L29" s="145"/>
     </row>
     <row r="30" spans="1:12" ht="18.75">
-      <c r="A30" s="320"/>
+      <c r="A30" s="306"/>
       <c r="B30" s="154" t="s">
         <v>687</v>
       </c>
@@ -14655,11 +14688,11 @@
         <v>729</v>
       </c>
       <c r="D30" s="279"/>
-      <c r="E30" s="308"/>
+      <c r="E30" s="312"/>
       <c r="F30" s="154"/>
       <c r="G30" s="276"/>
       <c r="H30" s="148"/>
-      <c r="I30" s="308"/>
+      <c r="I30" s="312"/>
       <c r="J30" s="154" t="s">
         <v>1119</v>
       </c>
@@ -14669,7 +14702,7 @@
       <c r="L30" s="145"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="320"/>
+      <c r="A31" s="306"/>
       <c r="B31" s="154" t="s">
         <v>688</v>
       </c>
@@ -14677,11 +14710,11 @@
         <v>730</v>
       </c>
       <c r="D31" s="279"/>
-      <c r="E31" s="309"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="158"/>
       <c r="G31" s="277"/>
       <c r="H31" s="148"/>
-      <c r="I31" s="309"/>
+      <c r="I31" s="313"/>
       <c r="J31" s="158" t="s">
         <v>1120</v>
       </c>
@@ -14691,7 +14724,7 @@
       <c r="L31" s="145"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A32" s="321"/>
+      <c r="A32" s="307"/>
       <c r="B32" s="158" t="s">
         <v>689</v>
       </c>
@@ -14709,7 +14742,7 @@
       <c r="L32" s="145"/>
     </row>
     <row r="33" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A33" s="319" t="s">
+      <c r="A33" s="305" t="s">
         <v>694</v>
       </c>
       <c r="B33" s="155" t="s">
@@ -14719,21 +14752,21 @@
         <v>732</v>
       </c>
       <c r="D33" s="279"/>
-      <c r="E33" s="316" t="s">
+      <c r="E33" s="308" t="s">
         <v>1152</v>
       </c>
-      <c r="F33" s="317"/>
-      <c r="G33" s="318"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="310"/>
       <c r="H33" s="147"/>
-      <c r="I33" s="316" t="s">
+      <c r="I33" s="308" t="s">
         <v>1151</v>
       </c>
-      <c r="J33" s="317"/>
-      <c r="K33" s="318"/>
+      <c r="J33" s="309"/>
+      <c r="K33" s="310"/>
       <c r="L33" s="145"/>
     </row>
     <row r="34" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A34" s="320"/>
+      <c r="A34" s="306"/>
       <c r="B34" s="154" t="s">
         <v>696</v>
       </c>
@@ -14763,7 +14796,7 @@
       <c r="L34" s="145"/>
     </row>
     <row r="35" spans="1:12" ht="18.75">
-      <c r="A35" s="320"/>
+      <c r="A35" s="306"/>
       <c r="B35" s="154" t="s">
         <v>697</v>
       </c>
@@ -14771,7 +14804,7 @@
         <v>734</v>
       </c>
       <c r="D35" s="279"/>
-      <c r="E35" s="319" t="s">
+      <c r="E35" s="305" t="s">
         <v>497</v>
       </c>
       <c r="F35" s="155" t="s">
@@ -14781,7 +14814,7 @@
         <v>11311</v>
       </c>
       <c r="H35" s="147"/>
-      <c r="I35" s="319" t="s">
+      <c r="I35" s="305" t="s">
         <v>958</v>
       </c>
       <c r="J35" s="155" t="s">
@@ -14793,7 +14826,7 @@
       <c r="L35" s="145"/>
     </row>
     <row r="36" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A36" s="321"/>
+      <c r="A36" s="307"/>
       <c r="B36" s="158" t="s">
         <v>698</v>
       </c>
@@ -14801,7 +14834,7 @@
         <v>735</v>
       </c>
       <c r="D36" s="279"/>
-      <c r="E36" s="320"/>
+      <c r="E36" s="306"/>
       <c r="F36" s="154" t="s">
         <v>961</v>
       </c>
@@ -14809,7 +14842,7 @@
         <v>11312</v>
       </c>
       <c r="H36" s="147"/>
-      <c r="I36" s="320"/>
+      <c r="I36" s="306"/>
       <c r="J36" s="154" t="s">
         <v>968</v>
       </c>
@@ -14819,7 +14852,7 @@
       <c r="L36" s="145"/>
     </row>
     <row r="37" spans="1:12" ht="18.75">
-      <c r="A37" s="319" t="s">
+      <c r="A37" s="305" t="s">
         <v>701</v>
       </c>
       <c r="B37" s="155" t="s">
@@ -14829,7 +14862,7 @@
         <v>11441</v>
       </c>
       <c r="D37" s="279"/>
-      <c r="E37" s="320"/>
+      <c r="E37" s="306"/>
       <c r="F37" s="154" t="s">
         <v>962</v>
       </c>
@@ -14837,7 +14870,7 @@
         <v>11313</v>
       </c>
       <c r="H37" s="147"/>
-      <c r="I37" s="320"/>
+      <c r="I37" s="306"/>
       <c r="J37" s="154" t="s">
         <v>969</v>
       </c>
@@ -14847,7 +14880,7 @@
       <c r="L37" s="145"/>
     </row>
     <row r="38" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A38" s="320"/>
+      <c r="A38" s="306"/>
       <c r="B38" s="154" t="s">
         <v>703</v>
       </c>
@@ -14855,7 +14888,7 @@
         <v>11442</v>
       </c>
       <c r="D38" s="279"/>
-      <c r="E38" s="321"/>
+      <c r="E38" s="307"/>
       <c r="F38" s="158" t="s">
         <v>962</v>
       </c>
@@ -14863,7 +14896,7 @@
         <v>11314</v>
       </c>
       <c r="H38" s="147"/>
-      <c r="I38" s="321"/>
+      <c r="I38" s="307"/>
       <c r="J38" s="158" t="s">
         <v>970</v>
       </c>
@@ -14873,7 +14906,7 @@
       <c r="L38" s="145"/>
     </row>
     <row r="39" spans="1:12" ht="18.75">
-      <c r="A39" s="320"/>
+      <c r="A39" s="306"/>
       <c r="B39" s="154" t="s">
         <v>704</v>
       </c>
@@ -14881,7 +14914,7 @@
         <v>11443</v>
       </c>
       <c r="D39" s="279"/>
-      <c r="E39" s="319" t="s">
+      <c r="E39" s="305" t="s">
         <v>957</v>
       </c>
       <c r="F39" s="155" t="s">
@@ -14891,7 +14924,7 @@
         <v>11321</v>
       </c>
       <c r="H39" s="147"/>
-      <c r="I39" s="319" t="s">
+      <c r="I39" s="305" t="s">
         <v>959</v>
       </c>
       <c r="J39" s="155" t="s">
@@ -14903,7 +14936,7 @@
       <c r="L39" s="145"/>
     </row>
     <row r="40" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A40" s="321"/>
+      <c r="A40" s="307"/>
       <c r="B40" s="158" t="s">
         <v>705</v>
       </c>
@@ -14911,7 +14944,7 @@
         <v>11444</v>
       </c>
       <c r="D40" s="279"/>
-      <c r="E40" s="320"/>
+      <c r="E40" s="306"/>
       <c r="F40" s="154" t="s">
         <v>964</v>
       </c>
@@ -14919,7 +14952,7 @@
         <v>11322</v>
       </c>
       <c r="H40" s="147"/>
-      <c r="I40" s="320"/>
+      <c r="I40" s="306"/>
       <c r="J40" s="154" t="s">
         <v>972</v>
       </c>
@@ -14933,7 +14966,7 @@
       <c r="B41" s="148"/>
       <c r="C41" s="279"/>
       <c r="D41" s="279"/>
-      <c r="E41" s="320"/>
+      <c r="E41" s="306"/>
       <c r="F41" s="154" t="s">
         <v>965</v>
       </c>
@@ -14941,7 +14974,7 @@
         <v>11323</v>
       </c>
       <c r="H41" s="147"/>
-      <c r="I41" s="320"/>
+      <c r="I41" s="306"/>
       <c r="J41" s="154" t="s">
         <v>973</v>
       </c>
@@ -14955,7 +14988,7 @@
       <c r="B42" s="148"/>
       <c r="C42" s="279"/>
       <c r="D42" s="279"/>
-      <c r="E42" s="321"/>
+      <c r="E42" s="307"/>
       <c r="F42" s="158" t="s">
         <v>966</v>
       </c>
@@ -14963,7 +14996,7 @@
         <v>11324</v>
       </c>
       <c r="H42" s="147"/>
-      <c r="I42" s="321"/>
+      <c r="I42" s="307"/>
       <c r="J42" s="158" t="s">
         <v>974</v>
       </c>
@@ -15016,16 +15049,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I8:I11"/>
@@ -15036,18 +15071,16 @@
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15078,40 +15111,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="323" t="s">
         <v>1154</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="328"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="325"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="329"/>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="331"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="328"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="332" t="s">
+      <c r="A3" s="329" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="334"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="331"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="19">
@@ -15645,11 +15678,11 @@
       <c r="C27" s="140" t="s">
         <v>597</v>
       </c>
-      <c r="D27" s="325" t="s">
+      <c r="D27" s="332" t="s">
         <v>573</v>
       </c>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
+      <c r="E27" s="332"/>
+      <c r="F27" s="332"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
     </row>
@@ -15661,11 +15694,11 @@
       <c r="C28" s="140" t="s">
         <v>601</v>
       </c>
-      <c r="D28" s="325" t="s">
+      <c r="D28" s="332" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="325"/>
-      <c r="F28" s="325"/>
+      <c r="E28" s="332"/>
+      <c r="F28" s="332"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
     </row>
@@ -15677,11 +15710,11 @@
       <c r="C29" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="D29" s="325" t="s">
+      <c r="D29" s="332" t="s">
         <v>574</v>
       </c>
-      <c r="E29" s="325"/>
-      <c r="F29" s="325"/>
+      <c r="E29" s="332"/>
+      <c r="F29" s="332"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
     </row>
@@ -15693,11 +15726,11 @@
       <c r="C30" s="140" t="s">
         <v>603</v>
       </c>
-      <c r="D30" s="325" t="s">
+      <c r="D30" s="332" t="s">
         <v>575</v>
       </c>
-      <c r="E30" s="325"/>
-      <c r="F30" s="325"/>
+      <c r="E30" s="332"/>
+      <c r="F30" s="332"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
     </row>
@@ -15709,11 +15742,11 @@
       <c r="C31" s="140" t="s">
         <v>604</v>
       </c>
-      <c r="D31" s="325" t="s">
+      <c r="D31" s="332" t="s">
         <v>576</v>
       </c>
-      <c r="E31" s="325"/>
-      <c r="F31" s="325"/>
+      <c r="E31" s="332"/>
+      <c r="F31" s="332"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
     </row>
@@ -15725,11 +15758,11 @@
       <c r="C32" s="140" t="s">
         <v>605</v>
       </c>
-      <c r="D32" s="325" t="s">
+      <c r="D32" s="332" t="s">
         <v>577</v>
       </c>
-      <c r="E32" s="325"/>
-      <c r="F32" s="325"/>
+      <c r="E32" s="332"/>
+      <c r="F32" s="332"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
     </row>
@@ -15741,11 +15774,11 @@
       <c r="C33" s="140" t="s">
         <v>617</v>
       </c>
-      <c r="D33" s="325" t="s">
+      <c r="D33" s="332" t="s">
         <v>485</v>
       </c>
-      <c r="E33" s="325"/>
-      <c r="F33" s="325"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
     </row>
@@ -15757,11 +15790,11 @@
       <c r="C34" s="140" t="s">
         <v>618</v>
       </c>
-      <c r="D34" s="325" t="s">
+      <c r="D34" s="332" t="s">
         <v>578</v>
       </c>
-      <c r="E34" s="325"/>
-      <c r="F34" s="325"/>
+      <c r="E34" s="332"/>
+      <c r="F34" s="332"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
     </row>
@@ -15773,11 +15806,11 @@
       <c r="C35" s="140" t="s">
         <v>619</v>
       </c>
-      <c r="D35" s="325" t="s">
+      <c r="D35" s="332" t="s">
         <v>579</v>
       </c>
-      <c r="E35" s="325"/>
-      <c r="F35" s="325"/>
+      <c r="E35" s="332"/>
+      <c r="F35" s="332"/>
       <c r="G35" s="24"/>
       <c r="H35" s="25"/>
     </row>
@@ -15787,11 +15820,11 @@
       <c r="C36" s="140" t="s">
         <v>654</v>
       </c>
-      <c r="D36" s="322" t="s">
+      <c r="D36" s="333" t="s">
         <v>594</v>
       </c>
-      <c r="E36" s="323"/>
-      <c r="F36" s="324"/>
+      <c r="E36" s="334"/>
+      <c r="F36" s="335"/>
       <c r="G36" s="24"/>
       <c r="H36" s="25"/>
     </row>
@@ -15801,11 +15834,11 @@
       <c r="C37" s="140" t="s">
         <v>657</v>
       </c>
-      <c r="D37" s="322" t="s">
+      <c r="D37" s="333" t="s">
         <v>655</v>
       </c>
-      <c r="E37" s="323"/>
-      <c r="F37" s="324"/>
+      <c r="E37" s="334"/>
+      <c r="F37" s="335"/>
       <c r="G37" s="24"/>
       <c r="H37" s="25"/>
     </row>
@@ -15815,11 +15848,11 @@
       <c r="C38" s="140" t="s">
         <v>656</v>
       </c>
-      <c r="D38" s="322" t="s">
+      <c r="D38" s="333" t="s">
         <v>658</v>
       </c>
-      <c r="E38" s="323"/>
-      <c r="F38" s="324"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="335"/>
       <c r="G38" s="24"/>
       <c r="H38" s="25"/>
     </row>
@@ -15827,9 +15860,9 @@
       <c r="A39" s="23"/>
       <c r="B39" s="142"/>
       <c r="C39" s="140"/>
-      <c r="D39" s="322"/>
-      <c r="E39" s="323"/>
-      <c r="F39" s="324"/>
+      <c r="D39" s="333"/>
+      <c r="E39" s="334"/>
+      <c r="F39" s="335"/>
       <c r="G39" s="24"/>
       <c r="H39" s="25"/>
     </row>
@@ -15927,6 +15960,13 @@
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -15936,13 +15976,6 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15970,28 +16003,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="345" t="s">
         <v>1187</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="338" t="s">
+      <c r="A2" s="339" t="s">
         <v>1155</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="340"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="341"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="5"/>
@@ -16310,16 +16343,16 @@
       <c r="H17" s="291"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="341" t="s">
+      <c r="A18" s="342" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="342"/>
-      <c r="C18" s="342"/>
-      <c r="D18" s="342"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="342"/>
-      <c r="G18" s="342"/>
-      <c r="H18" s="343"/>
+      <c r="B18" s="343"/>
+      <c r="C18" s="343"/>
+      <c r="D18" s="343"/>
+      <c r="E18" s="343"/>
+      <c r="F18" s="343"/>
+      <c r="G18" s="343"/>
+      <c r="H18" s="344"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="292"/>
@@ -16575,16 +16608,16 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="338" t="s">
+      <c r="A31" s="339" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="339"/>
-      <c r="C31" s="339"/>
-      <c r="D31" s="339"/>
-      <c r="E31" s="339"/>
-      <c r="F31" s="339"/>
-      <c r="G31" s="339"/>
-      <c r="H31" s="340"/>
+      <c r="B31" s="340"/>
+      <c r="C31" s="340"/>
+      <c r="D31" s="340"/>
+      <c r="E31" s="340"/>
+      <c r="F31" s="340"/>
+      <c r="G31" s="340"/>
+      <c r="H31" s="341"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="5"/>
@@ -16810,18 +16843,18 @@
     </row>
     <row r="43" spans="1:8" ht="10.5" customHeight="1"/>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="335" t="s">
+      <c r="A44" s="336" t="s">
         <v>1178</v>
       </c>
-      <c r="B44" s="336"/>
-      <c r="C44" s="336"/>
-      <c r="D44" s="337"/>
-      <c r="E44" s="335" t="s">
+      <c r="B44" s="337"/>
+      <c r="C44" s="337"/>
+      <c r="D44" s="338"/>
+      <c r="E44" s="336" t="s">
         <v>1178</v>
       </c>
-      <c r="F44" s="336"/>
-      <c r="G44" s="336"/>
-      <c r="H44" s="337"/>
+      <c r="F44" s="337"/>
+      <c r="G44" s="337"/>
+      <c r="H44" s="338"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3"/>
@@ -16939,40 +16972,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="346" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="347"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="348"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="348"/>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="350"/>
+      <c r="A2" s="349"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="351"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="352" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="352"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="351" t="s">
+      <c r="B3" s="353"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="352" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="353"/>
-      <c r="H3" s="354"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="355"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="15">
@@ -17409,28 +17442,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="368" t="s">
         <v>955</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="E1" s="356"/>
-      <c r="F1" s="357"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="370"/>
       <c r="G1" s="199"/>
       <c r="H1" s="199"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="358" t="s">
+      <c r="A2" s="371" t="s">
         <v>843</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="358" t="s">
+      <c r="B2" s="372"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="371" t="s">
         <v>844</v>
       </c>
-      <c r="E2" s="359"/>
-      <c r="F2" s="360"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="373"/>
       <c r="G2" s="199"/>
       <c r="H2" s="199"/>
     </row>
@@ -17454,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="199"/>
-      <c r="H3" s="361" t="s">
+      <c r="H3" s="365" t="s">
         <v>847</v>
       </c>
     </row>
@@ -17478,7 +17511,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="199"/>
-      <c r="H4" s="362"/>
+      <c r="H4" s="366"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="200">
@@ -17500,7 +17533,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="199"/>
-      <c r="H5" s="362"/>
+      <c r="H5" s="366"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="203">
@@ -17522,7 +17555,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="199"/>
-      <c r="H6" s="362"/>
+      <c r="H6" s="366"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="203">
@@ -17544,7 +17577,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="199"/>
-      <c r="H7" s="362"/>
+      <c r="H7" s="366"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="206">
@@ -17566,7 +17599,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="199"/>
-      <c r="H8" s="362"/>
+      <c r="H8" s="366"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="206">
@@ -17588,7 +17621,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="199"/>
-      <c r="H9" s="362"/>
+      <c r="H9" s="366"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="209">
@@ -17610,7 +17643,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="199"/>
-      <c r="H10" s="363"/>
+      <c r="H10" s="367"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="212">
@@ -17632,7 +17665,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="199"/>
-      <c r="H11" s="364" t="s">
+      <c r="H11" s="356" t="s">
         <v>859</v>
       </c>
     </row>
@@ -17656,7 +17689,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="199"/>
-      <c r="H12" s="365"/>
+      <c r="H12" s="357"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="215">
@@ -17678,7 +17711,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="199"/>
-      <c r="H13" s="365"/>
+      <c r="H13" s="357"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="215">
@@ -17700,7 +17733,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="199"/>
-      <c r="H14" s="365"/>
+      <c r="H14" s="357"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="219">
@@ -17722,7 +17755,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="199"/>
-      <c r="H15" s="365"/>
+      <c r="H15" s="357"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="219">
@@ -17744,7 +17777,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="199"/>
-      <c r="H16" s="365"/>
+      <c r="H16" s="357"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="219">
@@ -17766,7 +17799,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="199"/>
-      <c r="H17" s="365"/>
+      <c r="H17" s="357"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="219">
@@ -17788,7 +17821,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="199"/>
-      <c r="H18" s="365"/>
+      <c r="H18" s="357"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="219">
@@ -17810,7 +17843,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="199"/>
-      <c r="H19" s="365"/>
+      <c r="H19" s="357"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="222">
@@ -17832,7 +17865,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="199"/>
-      <c r="H20" s="365"/>
+      <c r="H20" s="357"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="222">
@@ -17854,7 +17887,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="199"/>
-      <c r="H21" s="365"/>
+      <c r="H21" s="357"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="225">
@@ -17876,7 +17909,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="199"/>
-      <c r="H22" s="366"/>
+      <c r="H22" s="358"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1"/>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
@@ -17894,28 +17927,28 @@
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1"/>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="367" t="s">
+      <c r="A38" s="359" t="s">
         <v>956</v>
       </c>
-      <c r="B38" s="368"/>
-      <c r="C38" s="368"/>
-      <c r="D38" s="368"/>
-      <c r="E38" s="368"/>
-      <c r="F38" s="369"/>
+      <c r="B38" s="360"/>
+      <c r="C38" s="360"/>
+      <c r="D38" s="360"/>
+      <c r="E38" s="360"/>
+      <c r="F38" s="361"/>
       <c r="G38" s="199"/>
       <c r="H38" s="199"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="370" t="s">
+      <c r="A39" s="362" t="s">
         <v>843</v>
       </c>
-      <c r="B39" s="371"/>
-      <c r="C39" s="372"/>
-      <c r="D39" s="370" t="s">
+      <c r="B39" s="363"/>
+      <c r="C39" s="364"/>
+      <c r="D39" s="362" t="s">
         <v>844</v>
       </c>
-      <c r="E39" s="371"/>
-      <c r="F39" s="372"/>
+      <c r="E39" s="363"/>
+      <c r="F39" s="364"/>
       <c r="G39" s="199"/>
       <c r="H39" s="199"/>
     </row>
@@ -17939,7 +17972,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="199"/>
-      <c r="H40" s="361" t="s">
+      <c r="H40" s="365" t="s">
         <v>847</v>
       </c>
     </row>
@@ -17963,7 +17996,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="199"/>
-      <c r="H41" s="362"/>
+      <c r="H41" s="366"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="228">
@@ -17985,7 +18018,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="199"/>
-      <c r="H42" s="362"/>
+      <c r="H42" s="366"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="230">
@@ -18007,7 +18040,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="199"/>
-      <c r="H43" s="362"/>
+      <c r="H43" s="366"/>
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="230">
@@ -18029,7 +18062,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="199"/>
-      <c r="H44" s="362"/>
+      <c r="H44" s="366"/>
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="232">
@@ -18051,7 +18084,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="199"/>
-      <c r="H45" s="362"/>
+      <c r="H45" s="366"/>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="232">
@@ -18073,7 +18106,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="199"/>
-      <c r="H46" s="362"/>
+      <c r="H46" s="366"/>
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="234">
@@ -18095,7 +18128,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="199"/>
-      <c r="H47" s="363"/>
+      <c r="H47" s="367"/>
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="237">
@@ -18117,7 +18150,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="199"/>
-      <c r="H48" s="364" t="s">
+      <c r="H48" s="356" t="s">
         <v>859</v>
       </c>
     </row>
@@ -18141,7 +18174,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="199"/>
-      <c r="H49" s="365"/>
+      <c r="H49" s="357"/>
     </row>
     <row r="50" spans="1:8" ht="16.5" thickBot="1">
       <c r="A50" s="239">
@@ -18163,7 +18196,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="199"/>
-      <c r="H50" s="365"/>
+      <c r="H50" s="357"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" thickBot="1">
       <c r="A51" s="242">
@@ -18185,7 +18218,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="199"/>
-      <c r="H51" s="365"/>
+      <c r="H51" s="357"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1">
       <c r="A52" s="242">
@@ -18207,7 +18240,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="199"/>
-      <c r="H52" s="365"/>
+      <c r="H52" s="357"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" thickBot="1">
       <c r="A53" s="242">
@@ -18229,7 +18262,7 @@
         <v>14</v>
       </c>
       <c r="G53" s="199"/>
-      <c r="H53" s="365"/>
+      <c r="H53" s="357"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" thickBot="1">
       <c r="A54" s="242">
@@ -18251,7 +18284,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="199"/>
-      <c r="H54" s="365"/>
+      <c r="H54" s="357"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" thickBot="1">
       <c r="A55" s="242">
@@ -18273,7 +18306,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="199"/>
-      <c r="H55" s="365"/>
+      <c r="H55" s="357"/>
     </row>
     <row r="56" spans="1:8" ht="16.5" thickBot="1">
       <c r="A56" s="242">
@@ -18295,7 +18328,7 @@
         <v>17</v>
       </c>
       <c r="G56" s="199"/>
-      <c r="H56" s="365"/>
+      <c r="H56" s="357"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" thickBot="1">
       <c r="A57" s="244">
@@ -18317,7 +18350,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="199"/>
-      <c r="H57" s="365"/>
+      <c r="H57" s="357"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" thickBot="1">
       <c r="A58" s="244">
@@ -18339,7 +18372,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="199"/>
-      <c r="H58" s="365"/>
+      <c r="H58" s="357"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" thickBot="1">
       <c r="A59" s="246">
@@ -18361,21 +18394,21 @@
         <v>20</v>
       </c>
       <c r="G59" s="199"/>
-      <c r="H59" s="366"/>
+      <c r="H59" s="358"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H3:H10"/>
+    <mergeCell ref="H11:H22"/>
     <mergeCell ref="H48:H59"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="H40:H47"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="H11:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18404,40 +18437,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="379" t="s">
+      <c r="A1" s="380" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="381"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
+      <c r="G1" s="381"/>
+      <c r="H1" s="382"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="382"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
-      <c r="H2" s="384"/>
+      <c r="A2" s="383"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
+      <c r="H2" s="385"/>
     </row>
     <row r="3" spans="1:8" ht="21" thickBot="1">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="374" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="374"/>
-      <c r="C3" s="374"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="373" t="s">
+      <c r="B3" s="375"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="374" t="s">
         <v>316</v>
       </c>
-      <c r="F3" s="374"/>
-      <c r="G3" s="374"/>
-      <c r="H3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="376"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="91">
@@ -18654,18 +18687,18 @@
       <c r="H21" s="83"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A22" s="376" t="s">
+      <c r="A22" s="377" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="377"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="378"/>
-      <c r="E22" s="376" t="s">
+      <c r="B22" s="378"/>
+      <c r="C22" s="378"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="377" t="s">
         <v>318</v>
       </c>
-      <c r="F22" s="377"/>
-      <c r="G22" s="377"/>
-      <c r="H22" s="378"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="378"/>
+      <c r="H22" s="379"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="76">
@@ -18942,40 +18975,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="323" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="328"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="325"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="329"/>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="331"/>
+      <c r="A2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="328"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="332" t="s">
+      <c r="A3" s="329" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="334"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="331"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="19">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7462AF86-BCC8-4505-8F80-75F10C03CE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21405" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21405" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
     <sheet name="OH-58 Presets" sheetId="20" r:id="rId10"/>
     <sheet name="FA-18 Hornet Presets old" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1248">
   <si>
     <t>AWACS</t>
   </si>
@@ -3760,17 +3759,26 @@
   </si>
   <si>
     <t>E2 OVERLORD (AI)</t>
+  </si>
+  <si>
+    <t>London (range 14)</t>
+  </si>
+  <si>
+    <t>282.77</t>
+  </si>
+  <si>
+    <t>127.33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5426,7 +5434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6110,12 +6118,21 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6125,13 +6142,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6143,50 +6196,35 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6197,36 +6235,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6287,6 +6295,42 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6305,42 +6349,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6413,6 +6421,57 @@
     <xf numFmtId="0" fontId="33" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6431,57 +6490,7 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6507,9 +6516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6547,7 +6556,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6581,7 +6590,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6616,10 +6624,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6792,15 +6799,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="16" max="16" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="1.85546875" customWidth="1"/>
@@ -6821,7 +6828,7 @@
     <col min="39" max="39" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="A1" s="116"/>
       <c r="B1" s="116">
         <v>1</v>
@@ -6861,7 +6868,7 @@
       </c>
       <c r="N1" s="116"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" s="116" t="s">
         <v>333</v>
       </c>
@@ -6904,15 +6911,15 @@
       <c r="N2" s="116" t="s">
         <v>333</v>
       </c>
-      <c r="V2" s="280" t="s">
+      <c r="V2" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Y2" s="280"/>
-      <c r="Z2" s="280"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="W2" s="279"/>
+      <c r="X2" s="279"/>
+      <c r="Y2" s="279"/>
+      <c r="Z2" s="279"/>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="116" t="s">
         <v>334</v>
       </c>
@@ -6959,9 +6966,9 @@
       <c r="P3" t="s">
         <v>429</v>
       </c>
-      <c r="R3" s="279"/>
-      <c r="S3" s="279"/>
-      <c r="T3" s="279"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="283"/>
+      <c r="T3" s="283"/>
       <c r="V3" s="110" t="s">
         <v>331</v>
       </c>
@@ -6983,7 +6990,7 @@
       <c r="AD3" s="32"/>
       <c r="AE3" s="32"/>
     </row>
-    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="15.75">
       <c r="A4" s="116" t="s">
         <v>335</v>
       </c>
@@ -7043,24 +7050,24 @@
       <c r="AA4" s="31"/>
       <c r="AB4" s="31"/>
       <c r="AC4" s="31"/>
-      <c r="AD4" s="280" t="s">
+      <c r="AD4" s="279" t="s">
         <v>432</v>
       </c>
-      <c r="AE4" s="280"/>
-      <c r="AF4" s="280"/>
-      <c r="AG4" s="280"/>
-      <c r="AH4" s="280"/>
-      <c r="AJ4" s="280" t="s">
+      <c r="AE4" s="279"/>
+      <c r="AF4" s="279"/>
+      <c r="AG4" s="279"/>
+      <c r="AH4" s="279"/>
+      <c r="AJ4" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="280"/>
-      <c r="AL4" s="280"/>
-      <c r="AM4" s="280"/>
-      <c r="AN4" s="280"/>
-      <c r="AO4" s="280"/>
-      <c r="AP4" s="280"/>
-    </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK4" s="279"/>
+      <c r="AL4" s="279"/>
+      <c r="AM4" s="279"/>
+      <c r="AN4" s="279"/>
+      <c r="AO4" s="279"/>
+      <c r="AP4" s="279"/>
+    </row>
+    <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="116" t="s">
         <v>336</v>
       </c>
@@ -7158,7 +7165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="15.75">
       <c r="A6" s="116" t="s">
         <v>337</v>
       </c>
@@ -7246,7 +7253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="15.75">
       <c r="A7" s="116" t="s">
         <v>338</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="15.75">
       <c r="A8" s="116" t="s">
         <v>339</v>
       </c>
@@ -7406,7 +7413,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="15.75">
       <c r="A9" s="116" t="s">
         <v>340</v>
       </c>
@@ -7496,7 +7503,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="15.75">
       <c r="A10" s="116" t="s">
         <v>341</v>
       </c>
@@ -7594,7 +7601,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15.75">
       <c r="A11" s="116" t="s">
         <v>342</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="15.75">
       <c r="A12" s="116"/>
       <c r="B12" s="116">
         <v>1</v>
@@ -7781,7 +7788,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15.75">
       <c r="A13" s="116" t="s">
         <v>343</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="15.75">
       <c r="A14" s="116" t="s">
         <v>344</v>
       </c>
@@ -7971,7 +7978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="15.75">
       <c r="A15" s="116" t="s">
         <v>345</v>
       </c>
@@ -8041,7 +8048,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="15.75">
       <c r="A16" s="116" t="s">
         <v>346</v>
       </c>
@@ -8111,7 +8118,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="15.75">
       <c r="A17" s="116" t="s">
         <v>347</v>
       </c>
@@ -8186,7 +8193,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="116" t="s">
         <v>348</v>
       </c>
@@ -8234,11 +8241,11 @@
       <c r="R18" s="32"/>
       <c r="S18" s="108"/>
       <c r="T18" s="32"/>
-      <c r="V18" s="125" t="s">
+      <c r="V18" s="403" t="s">
         <v>1244</v>
       </c>
-      <c r="W18" s="3">
-        <v>282.77</v>
+      <c r="W18" s="3" t="s">
+        <v>1246</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
@@ -8262,17 +8269,17 @@
       <c r="AH18" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="AJ18" s="280" t="s">
+      <c r="AJ18" s="279" t="s">
         <v>275</v>
       </c>
-      <c r="AK18" s="280"/>
-      <c r="AL18" s="280"/>
-      <c r="AM18" s="280"/>
-      <c r="AN18" s="280"/>
-      <c r="AO18" s="280"/>
-      <c r="AP18" s="280"/>
-    </row>
-    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK18" s="279"/>
+      <c r="AL18" s="279"/>
+      <c r="AM18" s="279"/>
+      <c r="AN18" s="279"/>
+      <c r="AO18" s="279"/>
+      <c r="AP18" s="279"/>
+    </row>
+    <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="116" t="s">
         <v>349</v>
       </c>
@@ -8349,7 +8356,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42">
       <c r="A20" s="116" t="s">
         <v>350</v>
       </c>
@@ -8392,9 +8399,9 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="279"/>
-      <c r="S20" s="279"/>
-      <c r="T20" s="279"/>
+      <c r="R20" s="283"/>
+      <c r="S20" s="283"/>
+      <c r="T20" s="283"/>
       <c r="U20" s="2"/>
       <c r="X20" s="2"/>
       <c r="AD20" s="3" t="s">
@@ -8434,7 +8441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42">
       <c r="A21" s="116" t="s">
         <v>351</v>
       </c>
@@ -8523,7 +8530,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42">
       <c r="A22" s="116" t="s">
         <v>352</v>
       </c>
@@ -8605,7 +8612,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42">
       <c r="A23" s="116"/>
       <c r="B23" s="116">
         <v>1</v>
@@ -8683,7 +8690,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42">
       <c r="A24" s="116" t="s">
         <v>353</v>
       </c>
@@ -8750,7 +8757,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42">
       <c r="A25" s="116" t="s">
         <v>354</v>
       </c>
@@ -8797,13 +8804,13 @@
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="X25" s="2"/>
-      <c r="AD25" s="280" t="s">
+      <c r="AD25" s="279" t="s">
         <v>489</v>
       </c>
-      <c r="AE25" s="280"/>
-      <c r="AF25" s="280"/>
-      <c r="AG25" s="280"/>
-      <c r="AH25" s="280"/>
+      <c r="AE25" s="279"/>
+      <c r="AF25" s="279"/>
+      <c r="AG25" s="279"/>
+      <c r="AH25" s="279"/>
       <c r="AJ25" s="125" t="s">
         <v>558</v>
       </c>
@@ -8826,7 +8833,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42">
       <c r="A26" s="116" t="s">
         <v>355</v>
       </c>
@@ -8905,7 +8912,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42">
       <c r="A27" s="116" t="s">
         <v>356</v>
       </c>
@@ -8966,7 +8973,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42">
       <c r="A28" s="116" t="s">
         <v>357</v>
       </c>
@@ -9010,7 +9017,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42">
       <c r="A29" s="116" t="s">
         <v>358</v>
       </c>
@@ -9053,17 +9060,17 @@
       <c r="N29" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="V29" s="280" t="s">
+      <c r="V29" s="279" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="280"/>
-      <c r="X29" s="280"/>
-      <c r="Y29" s="280"/>
-      <c r="Z29" s="280"/>
-      <c r="AA29" s="280"/>
-      <c r="AB29" s="280"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="W29" s="279"/>
+      <c r="X29" s="279"/>
+      <c r="Y29" s="279"/>
+      <c r="Z29" s="279"/>
+      <c r="AA29" s="279"/>
+      <c r="AB29" s="279"/>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="116"/>
       <c r="B30" s="116">
         <v>1</v>
@@ -9117,17 +9124,17 @@
       </c>
       <c r="AA30" s="37"/>
       <c r="AB30" s="37"/>
-      <c r="AJ30" s="280" t="s">
+      <c r="AJ30" s="279" t="s">
         <v>834</v>
       </c>
-      <c r="AK30" s="280"/>
-      <c r="AL30" s="280"/>
-      <c r="AM30" s="280"/>
-      <c r="AN30" s="280"/>
-      <c r="AO30" s="280"/>
-      <c r="AP30" s="280"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AK30" s="279"/>
+      <c r="AL30" s="279"/>
+      <c r="AM30" s="279"/>
+      <c r="AN30" s="279"/>
+      <c r="AO30" s="279"/>
+      <c r="AP30" s="279"/>
+    </row>
+    <row r="31" spans="1:42">
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
@@ -9144,9 +9151,13 @@
       <c r="P31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
+      <c r="V31" s="32" t="s">
+        <v>1245</v>
+      </c>
       <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
+      <c r="X31" s="32" t="s">
+        <v>1247</v>
+      </c>
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AJ31" s="37" t="s">
@@ -9171,7 +9182,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42">
       <c r="T32" s="32"/>
       <c r="U32" s="32"/>
       <c r="V32" s="32"/>
@@ -9201,24 +9212,24 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="22:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="22:36">
       <c r="AG34" s="31"/>
       <c r="AH34" s="31"/>
       <c r="AI34" s="31"/>
       <c r="AJ34" s="31"/>
     </row>
-    <row r="37" spans="22:36" x14ac:dyDescent="0.25">
-      <c r="V37" s="280" t="s">
+    <row r="37" spans="22:36">
+      <c r="V37" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="280"/>
-      <c r="X37" s="280"/>
-      <c r="Y37" s="280"/>
-      <c r="Z37" s="280"/>
-      <c r="AA37" s="280"/>
-      <c r="AB37" s="280"/>
-    </row>
-    <row r="38" spans="22:36" x14ac:dyDescent="0.25">
+      <c r="W37" s="279"/>
+      <c r="X37" s="279"/>
+      <c r="Y37" s="279"/>
+      <c r="Z37" s="279"/>
+      <c r="AA37" s="279"/>
+      <c r="AB37" s="279"/>
+    </row>
+    <row r="38" spans="22:36">
       <c r="V38" s="37" t="s">
         <v>218</v>
       </c>
@@ -9236,13 +9247,13 @@
       </c>
       <c r="AA38" s="37"/>
       <c r="AB38" s="37"/>
-      <c r="AD38" s="281" t="s">
+      <c r="AD38" s="284" t="s">
         <v>261</v>
       </c>
-      <c r="AE38" s="282"/>
-      <c r="AF38" s="283"/>
-    </row>
-    <row r="39" spans="22:36" x14ac:dyDescent="0.25">
+      <c r="AE38" s="285"/>
+      <c r="AF38" s="286"/>
+    </row>
+    <row r="39" spans="22:36">
       <c r="V39" s="3" t="s">
         <v>332</v>
       </c>
@@ -9262,37 +9273,37 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="22:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="22:36">
       <c r="AD40" s="3" t="s">
         <v>253</v>
       </c>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="22:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="22:36">
       <c r="AD41" s="3" t="s">
         <v>254</v>
       </c>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="22:36" x14ac:dyDescent="0.25">
-      <c r="V42" s="280" t="s">
+    <row r="42" spans="22:36">
+      <c r="V42" s="279" t="s">
         <v>245</v>
       </c>
-      <c r="W42" s="280"/>
-      <c r="X42" s="280"/>
-      <c r="Y42" s="280"/>
-      <c r="Z42" s="280"/>
-      <c r="AA42" s="280"/>
-      <c r="AB42" s="280"/>
+      <c r="W42" s="279"/>
+      <c r="X42" s="279"/>
+      <c r="Y42" s="279"/>
+      <c r="Z42" s="279"/>
+      <c r="AA42" s="279"/>
+      <c r="AB42" s="279"/>
       <c r="AD42" s="3" t="s">
         <v>255</v>
       </c>
       <c r="AE42" s="9"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="22:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="22:36">
       <c r="V43" s="37" t="s">
         <v>431</v>
       </c>
@@ -9318,7 +9329,7 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="22:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="22:36">
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -9332,14 +9343,14 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="22:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="22:36">
       <c r="AD45" s="3" t="s">
         <v>258</v>
       </c>
       <c r="AE45" s="9"/>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="22:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="22:36">
       <c r="Z46" s="32"/>
       <c r="AD46" s="3" t="s">
         <v>259</v>
@@ -9347,30 +9358,30 @@
       <c r="AE46" s="9"/>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="22:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="22:36" ht="15.75" thickBot="1">
       <c r="AD47" s="3" t="s">
         <v>260</v>
       </c>
       <c r="AE47" s="9"/>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="22:36" x14ac:dyDescent="0.25">
-      <c r="V48" s="284" t="s">
+    <row r="48" spans="22:36">
+      <c r="V48" s="280" t="s">
         <v>476</v>
       </c>
-      <c r="W48" s="285"/>
-      <c r="X48" s="285"/>
-      <c r="Y48" s="285"/>
-      <c r="Z48" s="285"/>
-      <c r="AA48" s="285"/>
-      <c r="AB48" s="286"/>
+      <c r="W48" s="281"/>
+      <c r="X48" s="281"/>
+      <c r="Y48" s="281"/>
+      <c r="Z48" s="281"/>
+      <c r="AA48" s="281"/>
+      <c r="AB48" s="282"/>
       <c r="AD48" s="3" t="s">
         <v>262</v>
       </c>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="22:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="22:32" ht="15.75" thickBot="1">
       <c r="V49" s="242" t="s">
         <v>279</v>
       </c>
@@ -9396,7 +9407,7 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="22:32">
       <c r="V50" s="234" t="s">
         <v>478</v>
       </c>
@@ -9420,7 +9431,7 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="22:32">
       <c r="V51" s="237" t="s">
         <v>478</v>
       </c>
@@ -9440,7 +9451,7 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="22:32">
       <c r="V52" s="237" t="s">
         <v>478</v>
       </c>
@@ -9460,7 +9471,7 @@
       <c r="AE52" s="9"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="22:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="22:32" ht="15.75" thickBot="1">
       <c r="V53" s="239" t="s">
         <v>910</v>
       </c>
@@ -9482,7 +9493,7 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="22:32">
       <c r="V54" s="234" t="s">
         <v>691</v>
       </c>
@@ -9506,7 +9517,7 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="22:32">
       <c r="V55" s="237" t="s">
         <v>691</v>
       </c>
@@ -9521,7 +9532,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="238"/>
     </row>
-    <row r="56" spans="22:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="22:32" ht="15.75" thickBot="1">
       <c r="V56" s="239" t="s">
         <v>691</v>
       </c>
@@ -9538,7 +9549,7 @@
       <c r="AA56" s="240"/>
       <c r="AB56" s="241"/>
     </row>
-    <row r="57" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="22:32">
       <c r="V57" s="234" t="s">
         <v>908</v>
       </c>
@@ -9555,7 +9566,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="58" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="22:32">
       <c r="V58" s="237" t="s">
         <v>908</v>
       </c>
@@ -9570,7 +9581,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="238"/>
     </row>
-    <row r="59" spans="22:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="22:32" ht="15.75" thickBot="1">
       <c r="V59" s="239" t="s">
         <v>908</v>
       </c>
@@ -9583,7 +9594,7 @@
       <c r="AA59" s="240"/>
       <c r="AB59" s="241"/>
     </row>
-    <row r="60" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="22:32">
       <c r="V60" s="234" t="s">
         <v>932</v>
       </c>
@@ -9600,7 +9611,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="61" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="22:32">
       <c r="V61" s="237" t="s">
         <v>932</v>
       </c>
@@ -9615,7 +9626,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="238"/>
     </row>
-    <row r="62" spans="22:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="22:32" ht="15.75" thickBot="1">
       <c r="V62" s="239" t="s">
         <v>932</v>
       </c>
@@ -9628,7 +9639,7 @@
       <c r="AA62" s="240"/>
       <c r="AB62" s="241"/>
     </row>
-    <row r="63" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="22:32">
       <c r="V63" s="234" t="s">
         <v>699</v>
       </c>
@@ -9645,7 +9656,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="64" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="22:32">
       <c r="V64" s="237" t="s">
         <v>699</v>
       </c>
@@ -9660,7 +9671,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="238"/>
     </row>
-    <row r="65" spans="22:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="22:28" ht="15.75" thickBot="1">
       <c r="V65" s="239" t="s">
         <v>699</v>
       </c>
@@ -9677,7 +9688,7 @@
       <c r="AA65" s="240"/>
       <c r="AB65" s="241"/>
     </row>
-    <row r="66" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="22:28">
       <c r="V66" s="234" t="s">
         <v>912</v>
       </c>
@@ -9694,7 +9705,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="67" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="22:28">
       <c r="V67" s="237" t="s">
         <v>912</v>
       </c>
@@ -9709,7 +9720,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="238"/>
     </row>
-    <row r="68" spans="22:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="22:28" ht="15.75" thickBot="1">
       <c r="V68" s="239" t="s">
         <v>912</v>
       </c>
@@ -9726,7 +9737,7 @@
       <c r="AA68" s="240"/>
       <c r="AB68" s="241"/>
     </row>
-    <row r="69" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="22:28">
       <c r="V69" s="234" t="s">
         <v>913</v>
       </c>
@@ -9743,7 +9754,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="70" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="22:28">
       <c r="V70" s="237" t="s">
         <v>913</v>
       </c>
@@ -9758,7 +9769,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="238"/>
     </row>
-    <row r="71" spans="22:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="22:28" ht="15.75" thickBot="1">
       <c r="V71" s="239" t="s">
         <v>913</v>
       </c>
@@ -9775,7 +9786,7 @@
       <c r="AA71" s="240"/>
       <c r="AB71" s="241"/>
     </row>
-    <row r="72" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="22:28">
       <c r="V72" s="234" t="s">
         <v>702</v>
       </c>
@@ -9792,7 +9803,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="73" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="22:28">
       <c r="V73" s="237" t="s">
         <v>702</v>
       </c>
@@ -9807,7 +9818,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="238"/>
     </row>
-    <row r="74" spans="22:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="22:28" ht="15.75" thickBot="1">
       <c r="V74" s="239" t="s">
         <v>702</v>
       </c>
@@ -9824,7 +9835,7 @@
       <c r="AA74" s="240"/>
       <c r="AB74" s="241"/>
     </row>
-    <row r="75" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="22:28">
       <c r="V75" s="234" t="s">
         <v>914</v>
       </c>
@@ -9841,7 +9852,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="76" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="22:28">
       <c r="V76" s="237" t="s">
         <v>914</v>
       </c>
@@ -9856,7 +9867,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="238"/>
     </row>
-    <row r="77" spans="22:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="22:28" ht="15.75" thickBot="1">
       <c r="V77" s="239" t="s">
         <v>914</v>
       </c>
@@ -9873,7 +9884,7 @@
       <c r="AA77" s="240"/>
       <c r="AB77" s="241"/>
     </row>
-    <row r="78" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="22:28">
       <c r="V78" s="234" t="s">
         <v>915</v>
       </c>
@@ -9890,7 +9901,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="79" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="22:28">
       <c r="V79" s="237" t="s">
         <v>915</v>
       </c>
@@ -9905,7 +9916,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="238"/>
     </row>
-    <row r="80" spans="22:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="22:28" ht="15.75" thickBot="1">
       <c r="V80" s="239" t="s">
         <v>915</v>
       </c>
@@ -9922,7 +9933,7 @@
       <c r="AA80" s="240"/>
       <c r="AB80" s="241"/>
     </row>
-    <row r="81" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="22:28">
       <c r="V81" s="234" t="s">
         <v>916</v>
       </c>
@@ -9939,7 +9950,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="82" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="22:28">
       <c r="V82" s="237" t="s">
         <v>916</v>
       </c>
@@ -9954,7 +9965,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="238"/>
     </row>
-    <row r="83" spans="22:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="22:28" ht="15.75" thickBot="1">
       <c r="V83" s="239" t="s">
         <v>916</v>
       </c>
@@ -9973,11 +9984,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -9986,6 +9992,11 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ30:AP30"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9993,14 +10004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -10012,7 +10023,7 @@
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="368" t="s">
         <v>490</v>
       </c>
@@ -10024,7 +10035,7 @@
       <c r="G1" s="369"/>
       <c r="H1" s="370"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="371"/>
       <c r="B2" s="372"/>
       <c r="C2" s="372"/>
@@ -10034,7 +10045,7 @@
       <c r="G2" s="372"/>
       <c r="H2" s="373"/>
     </row>
-    <row r="3" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="21" thickBot="1">
       <c r="A3" s="374" t="s">
         <v>754</v>
       </c>
@@ -10048,7 +10059,7 @@
       <c r="G3" s="375"/>
       <c r="H3" s="376"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="175">
         <v>1</v>
       </c>
@@ -10070,7 +10081,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="180">
         <v>2</v>
       </c>
@@ -10092,7 +10103,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="180">
         <v>3</v>
       </c>
@@ -10114,7 +10125,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="180">
         <v>4</v>
       </c>
@@ -10138,7 +10149,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="180">
         <v>5</v>
       </c>
@@ -10162,7 +10173,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="180">
         <v>6</v>
       </c>
@@ -10186,7 +10197,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="180">
         <v>7</v>
       </c>
@@ -10210,7 +10221,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="180">
         <v>8</v>
       </c>
@@ -10234,7 +10245,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="180">
         <v>9</v>
       </c>
@@ -10258,7 +10269,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="180">
         <v>10</v>
       </c>
@@ -10280,7 +10291,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="180">
         <v>11</v>
       </c>
@@ -10298,7 +10309,7 @@
       <c r="G14" s="151"/>
       <c r="H14" s="181"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="180">
         <v>12</v>
       </c>
@@ -10322,7 +10333,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="180">
         <v>13</v>
       </c>
@@ -10346,7 +10357,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="180">
         <v>14</v>
       </c>
@@ -10370,7 +10381,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="180">
         <v>15</v>
       </c>
@@ -10394,7 +10405,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="180">
         <v>16</v>
       </c>
@@ -10418,7 +10429,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="180">
         <v>17</v>
       </c>
@@ -10442,7 +10453,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="180">
         <v>18</v>
       </c>
@@ -10466,7 +10477,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="180">
         <v>19</v>
       </c>
@@ -10490,7 +10501,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="180" t="s">
         <v>801</v>
       </c>
@@ -10508,7 +10519,7 @@
       <c r="G23" s="152"/>
       <c r="H23" s="181"/>
     </row>
-    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17.25" thickBot="1">
       <c r="A24" s="161"/>
       <c r="B24" s="153"/>
       <c r="C24" s="153"/>
@@ -10518,7 +10529,7 @@
       <c r="G24" s="163"/>
       <c r="H24" s="155"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="20.25" thickBot="1">
       <c r="A25" s="377" t="s">
         <v>316</v>
       </c>
@@ -10532,7 +10543,7 @@
       <c r="G25" s="378"/>
       <c r="H25" s="379"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="164">
         <v>1</v>
       </c>
@@ -10556,7 +10567,7 @@
       </c>
       <c r="H26" s="165"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="166">
         <v>2</v>
       </c>
@@ -10574,7 +10585,7 @@
       </c>
       <c r="H27" s="167"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="166">
         <v>3</v>
       </c>
@@ -10592,7 +10603,7 @@
       </c>
       <c r="H28" s="167"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="166">
         <v>4</v>
       </c>
@@ -10610,7 +10621,7 @@
       </c>
       <c r="H29" s="167"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="166">
         <v>5</v>
       </c>
@@ -10628,7 +10639,7 @@
       </c>
       <c r="H30" s="167"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="166">
         <v>6</v>
       </c>
@@ -10646,7 +10657,7 @@
       </c>
       <c r="H31" s="167"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="166">
         <v>7</v>
       </c>
@@ -10664,7 +10675,7 @@
       </c>
       <c r="H32" s="167"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="166">
         <v>8</v>
       </c>
@@ -10682,7 +10693,7 @@
       </c>
       <c r="H33" s="167"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="166">
         <v>9</v>
       </c>
@@ -10700,7 +10711,7 @@
       </c>
       <c r="H34" s="167"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="166">
         <v>10</v>
       </c>
@@ -10718,7 +10729,7 @@
       </c>
       <c r="H35" s="167"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="166">
         <v>11</v>
       </c>
@@ -10736,7 +10747,7 @@
       </c>
       <c r="H36" s="167"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="166">
         <v>12</v>
       </c>
@@ -10756,7 +10767,7 @@
       <c r="G37" s="158"/>
       <c r="H37" s="167"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="166">
         <v>13</v>
       </c>
@@ -10776,7 +10787,7 @@
       <c r="G38" s="158"/>
       <c r="H38" s="168"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="166">
         <v>14</v>
       </c>
@@ -10796,7 +10807,7 @@
       <c r="G39" s="158"/>
       <c r="H39" s="168"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="166">
         <v>15</v>
       </c>
@@ -10816,7 +10827,7 @@
       <c r="G40" s="158"/>
       <c r="H40" s="168"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="166">
         <v>16</v>
       </c>
@@ -10836,7 +10847,7 @@
       <c r="G41" s="158"/>
       <c r="H41" s="168"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="166">
         <v>17</v>
       </c>
@@ -10856,7 +10867,7 @@
       <c r="G42" s="158"/>
       <c r="H42" s="168"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="166">
         <v>18</v>
       </c>
@@ -10876,7 +10887,7 @@
       <c r="G43" s="158"/>
       <c r="H43" s="168"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="166">
         <v>19</v>
       </c>
@@ -10896,7 +10907,7 @@
       <c r="G44" s="158"/>
       <c r="H44" s="168"/>
     </row>
-    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="169" t="s">
         <v>801</v>
       </c>
@@ -10924,14 +10935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -10944,43 +10955,43 @@
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="397" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="380" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="398"/>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="399" t="s">
+      <c r="B1" s="380"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
+      <c r="F1" s="380"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="381"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" thickBot="1">
+      <c r="A3" s="382" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="401"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="399" t="s">
+      <c r="B3" s="383"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="382" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="400"/>
-      <c r="G3" s="401"/>
-      <c r="H3" s="402"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="F3" s="383"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="385"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="39">
         <v>1</v>
       </c>
@@ -10994,7 +11005,7 @@
       <c r="G4" s="45"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18">
       <c r="A5" s="47">
         <v>2</v>
       </c>
@@ -11008,7 +11019,7 @@
       <c r="G5" s="53"/>
       <c r="H5" s="54"/>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" s="51">
         <v>3</v>
       </c>
@@ -11022,7 +11033,7 @@
       <c r="G6" s="49"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18">
       <c r="A7" s="47">
         <v>4</v>
       </c>
@@ -11036,7 +11047,7 @@
       <c r="G7" s="53"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18">
       <c r="A8" s="51">
         <v>5</v>
       </c>
@@ -11050,7 +11061,7 @@
       <c r="G8" s="49"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18">
       <c r="A9" s="47">
         <v>6</v>
       </c>
@@ -11064,7 +11075,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18">
       <c r="A10" s="51">
         <v>7</v>
       </c>
@@ -11078,7 +11089,7 @@
       <c r="G10" s="49"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="47">
         <v>8</v>
       </c>
@@ -11092,7 +11103,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="51">
         <v>9</v>
       </c>
@@ -11106,7 +11117,7 @@
       <c r="G12" s="49"/>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" s="47">
         <v>10</v>
       </c>
@@ -11120,7 +11131,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="51">
         <v>11</v>
       </c>
@@ -11134,7 +11145,7 @@
       <c r="G14" s="49"/>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18">
       <c r="A15" s="47">
         <v>12</v>
       </c>
@@ -11148,7 +11159,7 @@
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18">
       <c r="A16" s="51">
         <v>13</v>
       </c>
@@ -11162,7 +11173,7 @@
       <c r="G16" s="49"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="47">
         <v>14</v>
       </c>
@@ -11176,7 +11187,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="54"/>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="51">
         <v>15</v>
       </c>
@@ -11190,7 +11201,7 @@
       <c r="G18" s="49"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="47">
         <v>16</v>
       </c>
@@ -11204,7 +11215,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18">
       <c r="A20" s="51">
         <v>17</v>
       </c>
@@ -11218,7 +11229,7 @@
       <c r="G20" s="49"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18">
       <c r="A21" s="47">
         <v>18</v>
       </c>
@@ -11232,7 +11243,7 @@
       <c r="G21" s="53"/>
       <c r="H21" s="54"/>
     </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18">
       <c r="A22" s="51">
         <v>19</v>
       </c>
@@ -11246,7 +11257,7 @@
       <c r="G22" s="49"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="59">
         <v>20</v>
       </c>
@@ -11260,7 +11271,7 @@
       <c r="G23" s="65"/>
       <c r="H23" s="66"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="67"/>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -11270,21 +11281,21 @@
       <c r="G24" s="67"/>
       <c r="H24" s="67"/>
     </row>
-    <row r="25" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="399" t="s">
+    <row r="25" spans="1:8" ht="24" thickBot="1">
+      <c r="A25" s="382" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="400"/>
-      <c r="C25" s="401"/>
-      <c r="D25" s="402"/>
-      <c r="E25" s="399" t="s">
+      <c r="B25" s="383"/>
+      <c r="C25" s="384"/>
+      <c r="D25" s="385"/>
+      <c r="E25" s="382" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="400"/>
-      <c r="G25" s="401"/>
-      <c r="H25" s="402"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="383"/>
+      <c r="G25" s="384"/>
+      <c r="H25" s="385"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="43" t="s">
         <v>293</v>
       </c>
@@ -11294,25 +11305,25 @@
       <c r="E26" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="F26" s="394"/>
-      <c r="G26" s="395"/>
-      <c r="H26" s="396"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="389"/>
+      <c r="G26" s="390"/>
+      <c r="H26" s="391"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="389"/>
-      <c r="C27" s="390"/>
-      <c r="D27" s="392"/>
+      <c r="B27" s="392"/>
+      <c r="C27" s="393"/>
+      <c r="D27" s="394"/>
       <c r="E27" s="43" t="s">
         <v>296</v>
       </c>
       <c r="F27" s="386"/>
       <c r="G27" s="387"/>
-      <c r="H27" s="393"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="395"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="43" t="s">
         <v>297</v>
       </c>
@@ -11322,25 +11333,25 @@
       <c r="E28" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="F28" s="389"/>
-      <c r="G28" s="390"/>
-      <c r="H28" s="391"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="392"/>
+      <c r="G28" s="393"/>
+      <c r="H28" s="396"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="B29" s="389"/>
-      <c r="C29" s="390"/>
-      <c r="D29" s="392"/>
+      <c r="B29" s="392"/>
+      <c r="C29" s="393"/>
+      <c r="D29" s="394"/>
       <c r="E29" s="43" t="s">
         <v>300</v>
       </c>
       <c r="F29" s="386"/>
       <c r="G29" s="387"/>
-      <c r="H29" s="393"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="395"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="43" t="s">
         <v>301</v>
       </c>
@@ -11350,25 +11361,25 @@
       <c r="E30" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="F30" s="389"/>
-      <c r="G30" s="390"/>
-      <c r="H30" s="391"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="392"/>
+      <c r="G30" s="393"/>
+      <c r="H30" s="396"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="389"/>
-      <c r="C31" s="390"/>
-      <c r="D31" s="392"/>
+      <c r="B31" s="392"/>
+      <c r="C31" s="393"/>
+      <c r="D31" s="394"/>
       <c r="E31" s="43" t="s">
         <v>304</v>
       </c>
       <c r="F31" s="386"/>
       <c r="G31" s="387"/>
-      <c r="H31" s="393"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="395"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="43" t="s">
         <v>305</v>
       </c>
@@ -11376,27 +11387,27 @@
       <c r="C32" s="387"/>
       <c r="D32" s="388"/>
       <c r="E32" s="51"/>
-      <c r="F32" s="389"/>
-      <c r="G32" s="390"/>
-      <c r="H32" s="391" t="s">
+      <c r="F32" s="392"/>
+      <c r="G32" s="393"/>
+      <c r="H32" s="396" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
       <c r="A33" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="B33" s="389"/>
-      <c r="C33" s="390"/>
-      <c r="D33" s="392"/>
+      <c r="B33" s="392"/>
+      <c r="C33" s="393"/>
+      <c r="D33" s="394"/>
       <c r="E33" s="43"/>
       <c r="F33" s="386"/>
       <c r="G33" s="387"/>
-      <c r="H33" s="393" t="s">
+      <c r="H33" s="395" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="18.75" thickBot="1">
       <c r="A34" s="43" t="s">
         <v>307</v>
       </c>
@@ -11404,27 +11415,27 @@
       <c r="C34" s="387"/>
       <c r="D34" s="388"/>
       <c r="E34" s="51"/>
-      <c r="F34" s="389"/>
-      <c r="G34" s="390"/>
-      <c r="H34" s="391" t="s">
+      <c r="F34" s="392"/>
+      <c r="G34" s="393"/>
+      <c r="H34" s="396" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18.75" thickBot="1">
       <c r="A35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="B35" s="389"/>
-      <c r="C35" s="390"/>
-      <c r="D35" s="392"/>
+      <c r="B35" s="392"/>
+      <c r="C35" s="393"/>
+      <c r="D35" s="394"/>
       <c r="E35" s="43"/>
       <c r="F35" s="386"/>
       <c r="G35" s="387"/>
-      <c r="H35" s="393" t="s">
+      <c r="H35" s="395" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="18.75" thickBot="1">
       <c r="A36" s="43" t="s">
         <v>309</v>
       </c>
@@ -11432,27 +11443,27 @@
       <c r="C36" s="387"/>
       <c r="D36" s="388"/>
       <c r="E36" s="51"/>
-      <c r="F36" s="389"/>
-      <c r="G36" s="390"/>
-      <c r="H36" s="391" t="s">
+      <c r="F36" s="392"/>
+      <c r="G36" s="393"/>
+      <c r="H36" s="396" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="18.75" thickBot="1">
       <c r="A37" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="B37" s="389"/>
-      <c r="C37" s="390"/>
-      <c r="D37" s="392"/>
+      <c r="B37" s="392"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="394"/>
       <c r="E37" s="43"/>
       <c r="F37" s="386"/>
       <c r="G37" s="387"/>
-      <c r="H37" s="393" t="s">
+      <c r="H37" s="395" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="18.75" thickBot="1">
       <c r="A38" s="43" t="s">
         <v>311</v>
       </c>
@@ -11460,27 +11471,27 @@
       <c r="C38" s="387"/>
       <c r="D38" s="388"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="389"/>
-      <c r="G38" s="390"/>
-      <c r="H38" s="391" t="s">
+      <c r="F38" s="392"/>
+      <c r="G38" s="393"/>
+      <c r="H38" s="396" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18.75" thickBot="1">
       <c r="A39" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="389"/>
-      <c r="C39" s="390"/>
-      <c r="D39" s="392"/>
+      <c r="B39" s="392"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="394"/>
       <c r="E39" s="43"/>
       <c r="F39" s="386"/>
       <c r="G39" s="387"/>
-      <c r="H39" s="393" t="s">
+      <c r="H39" s="395" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="18.75" thickBot="1">
       <c r="A40" s="43" t="s">
         <v>313</v>
       </c>
@@ -11488,53 +11499,24 @@
       <c r="C40" s="387"/>
       <c r="D40" s="388"/>
       <c r="E40" s="51"/>
-      <c r="F40" s="389"/>
-      <c r="G40" s="390"/>
-      <c r="H40" s="391"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="392"/>
+      <c r="G40" s="393"/>
+      <c r="H40" s="396"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="B41" s="380"/>
-      <c r="C41" s="381"/>
-      <c r="D41" s="382"/>
+      <c r="B41" s="397"/>
+      <c r="C41" s="398"/>
+      <c r="D41" s="399"/>
       <c r="E41" s="68"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="384"/>
-      <c r="H41" s="385"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="401"/>
+      <c r="H41" s="402"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -11543,6 +11525,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11550,14 +11561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
@@ -11576,7 +11587,7 @@
     <col min="31" max="31" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:42">
       <c r="D1" t="s">
         <v>827</v>
       </c>
@@ -11596,58 +11607,58 @@
         <v>832</v>
       </c>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B2" s="280" t="s">
+    <row r="2" spans="2:42">
+      <c r="B2" s="279" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="H2" s="280" t="s">
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="H2" s="279" t="s">
         <v>1058</v>
       </c>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="N2" s="280" t="s">
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
+      <c r="K2" s="279"/>
+      <c r="L2" s="279"/>
+      <c r="N2" s="279" t="s">
         <v>1057</v>
       </c>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
-      <c r="R2" s="280"/>
-      <c r="T2" s="280" t="s">
+      <c r="O2" s="279"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="279"/>
+      <c r="T2" s="279" t="s">
         <v>237</v>
       </c>
-      <c r="U2" s="280"/>
-      <c r="V2" s="280"/>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Z2" s="280" t="s">
+      <c r="U2" s="279"/>
+      <c r="V2" s="279"/>
+      <c r="W2" s="279"/>
+      <c r="X2" s="279"/>
+      <c r="Z2" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="AA2" s="280"/>
-      <c r="AB2" s="280"/>
-      <c r="AC2" s="280"/>
-      <c r="AD2" s="280"/>
-      <c r="AF2" s="280" t="s">
+      <c r="AA2" s="279"/>
+      <c r="AB2" s="279"/>
+      <c r="AC2" s="279"/>
+      <c r="AD2" s="279"/>
+      <c r="AF2" s="279" t="s">
         <v>319</v>
       </c>
-      <c r="AG2" s="280"/>
-      <c r="AH2" s="280"/>
-      <c r="AI2" s="280"/>
-      <c r="AJ2" s="280"/>
-      <c r="AL2" s="280" t="s">
+      <c r="AG2" s="279"/>
+      <c r="AH2" s="279"/>
+      <c r="AI2" s="279"/>
+      <c r="AJ2" s="279"/>
+      <c r="AL2" s="279" t="s">
         <v>494</v>
       </c>
-      <c r="AM2" s="280"/>
-      <c r="AN2" s="280"/>
-      <c r="AO2" s="280"/>
-      <c r="AP2" s="280"/>
-    </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AM2" s="279"/>
+      <c r="AN2" s="279"/>
+      <c r="AO2" s="279"/>
+      <c r="AP2" s="279"/>
+    </row>
+    <row r="3" spans="2:42">
       <c r="B3" s="110" t="s">
         <v>218</v>
       </c>
@@ -11754,7 +11765,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:42">
       <c r="B4" s="3" t="s">
         <v>327</v>
       </c>
@@ -11840,7 +11851,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:42">
       <c r="B5" s="3" t="s">
         <v>675</v>
       </c>
@@ -11893,7 +11904,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:42">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="113" t="s">
@@ -11942,7 +11953,7 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:42">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="113" t="s">
@@ -11991,7 +12002,7 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:42">
       <c r="B8" s="254"/>
       <c r="C8" s="254"/>
       <c r="D8" s="255"/>
@@ -12034,7 +12045,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:42">
       <c r="B9" s="3" t="s">
         <v>670</v>
       </c>
@@ -12101,7 +12112,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:42">
       <c r="B10" s="3" t="s">
         <v>675</v>
       </c>
@@ -12152,7 +12163,7 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:42">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="113" t="s">
@@ -12201,7 +12212,7 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:42">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="113" t="s">
@@ -12268,7 +12279,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:42">
       <c r="B13" s="254"/>
       <c r="C13" s="254"/>
       <c r="D13" s="255"/>
@@ -12295,7 +12306,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:42">
       <c r="B14" s="3" t="s">
         <v>668</v>
       </c>
@@ -12362,7 +12373,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:42">
       <c r="B15" s="3" t="s">
         <v>676</v>
       </c>
@@ -12415,7 +12426,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:42">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="113" t="s">
@@ -12461,7 +12472,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="113" t="s">
@@ -12507,7 +12518,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="256"/>
       <c r="B18" s="254"/>
       <c r="C18" s="254"/>
@@ -12530,7 +12541,7 @@
       <c r="W18" s="255"/>
       <c r="X18" s="255"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="B19" s="3" t="s">
         <v>669</v>
       </c>
@@ -12595,7 +12606,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="B20" s="3" t="s">
         <v>676</v>
       </c>
@@ -12646,7 +12657,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="113" t="s">
@@ -12682,7 +12693,7 @@
       </c>
       <c r="X21" s="67"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="113" t="s">
@@ -12718,7 +12729,7 @@
       </c>
       <c r="X22" s="67"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="D23" s="67"/>
       <c r="F23" s="67"/>
       <c r="H23" s="254"/>
@@ -12733,7 +12744,7 @@
       <c r="R23" s="255"/>
       <c r="X23" s="67"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="D24" s="67"/>
       <c r="F24" s="67"/>
       <c r="H24" s="3" t="s">
@@ -12768,7 +12779,7 @@
       </c>
       <c r="X24" s="67"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="113" t="s">
@@ -12793,7 +12804,7 @@
       </c>
       <c r="X25" s="67"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="113" t="s">
@@ -12818,7 +12829,7 @@
       </c>
       <c r="X26" s="67"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="113" t="s">
@@ -12843,7 +12854,7 @@
       </c>
       <c r="X27" s="67"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="H28" s="254"/>
       <c r="I28" s="254"/>
       <c r="J28" s="255"/>
@@ -12856,7 +12867,7 @@
       <c r="R28" s="255"/>
       <c r="X28" s="67"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="H29" s="3" t="s">
         <v>752</v>
       </c>
@@ -12889,7 +12900,7 @@
       </c>
       <c r="X29" s="67"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="113" t="s">
@@ -12914,7 +12925,7 @@
       </c>
       <c r="X30" s="67"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="113" t="s">
@@ -12939,7 +12950,7 @@
       </c>
       <c r="X31" s="67"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="113" t="s">
@@ -12964,7 +12975,7 @@
       </c>
       <c r="X32" s="67"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24">
       <c r="H33" s="254"/>
       <c r="I33" s="254"/>
       <c r="J33" s="255"/>
@@ -12977,7 +12988,7 @@
       <c r="R33" s="255"/>
       <c r="X33" s="67"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24">
       <c r="H34" s="3" t="s">
         <v>565</v>
       </c>
@@ -13010,7 +13021,7 @@
       </c>
       <c r="X34" s="67"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24">
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="113" t="s">
@@ -13035,7 +13046,7 @@
       </c>
       <c r="X35" s="67"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24">
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="113"/>
@@ -13054,7 +13065,7 @@
       </c>
       <c r="X36" s="67"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24">
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="113" t="s">
@@ -13068,29 +13079,29 @@
       </c>
       <c r="X37" s="67"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24">
       <c r="X38" s="67"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24">
       <c r="X39" s="67"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="280" t="s">
+    <row r="41" spans="2:24">
+      <c r="B41" s="279" t="s">
         <v>700</v>
       </c>
-      <c r="C41" s="280"/>
-      <c r="D41" s="280"/>
-      <c r="E41" s="280"/>
-      <c r="F41" s="280"/>
-      <c r="H41" s="280" t="s">
+      <c r="C41" s="279"/>
+      <c r="D41" s="279"/>
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="H41" s="279" t="s">
         <v>753</v>
       </c>
-      <c r="I41" s="280"/>
-      <c r="J41" s="280"/>
-      <c r="K41" s="280"/>
-      <c r="L41" s="280"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="I41" s="279"/>
+      <c r="J41" s="279"/>
+      <c r="K41" s="279"/>
+      <c r="L41" s="279"/>
+    </row>
+    <row r="42" spans="2:24">
       <c r="B42" s="110" t="s">
         <v>218</v>
       </c>
@@ -13122,7 +13133,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24">
       <c r="B43" s="3" t="s">
         <v>496</v>
       </c>
@@ -13154,7 +13165,7 @@
         <v>11311</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="113" t="s">
@@ -13178,7 +13189,7 @@
         <v>11312</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="113" t="s">
@@ -13202,7 +13213,7 @@
         <v>11313</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="113" t="s">
@@ -13226,7 +13237,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="113"/>
@@ -13238,7 +13249,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24">
       <c r="B48" s="3" t="s">
         <v>690</v>
       </c>
@@ -13270,7 +13281,7 @@
         <v>11321</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="113">
@@ -13294,7 +13305,7 @@
         <v>11322</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="113">
@@ -13318,7 +13329,7 @@
         <v>11323</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="113">
@@ -13342,7 +13353,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="113"/>
@@ -13354,7 +13365,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53" s="3" t="s">
         <v>694</v>
       </c>
@@ -13386,7 +13397,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="113" t="s">
@@ -13410,7 +13421,7 @@
         <v>11332</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="113">
@@ -13434,7 +13445,7 @@
         <v>11333</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="113">
@@ -13458,7 +13469,7 @@
         <v>11334</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -13470,7 +13481,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="B58" s="3" t="s">
         <v>701</v>
       </c>
@@ -13502,7 +13513,7 @@
         <v>11341</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="113">
@@ -13526,7 +13537,7 @@
         <v>11342</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="113">
@@ -13550,7 +13561,7 @@
         <v>11343</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="113">
@@ -13595,14 +13606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -13624,43 +13635,43 @@
     <col min="27" max="27" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="296" t="s">
+    <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
+      <c r="A1" s="299" t="s">
         <v>1149</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="298"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="293" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="301"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A2" s="296" t="s">
         <v>1150</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="295"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="298"/>
       <c r="D2" s="268"/>
-      <c r="E2" s="293" t="s">
+      <c r="E2" s="296" t="s">
         <v>1058</v>
       </c>
-      <c r="F2" s="294"/>
-      <c r="G2" s="295"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="298"/>
       <c r="H2" s="268"/>
-      <c r="I2" s="293" t="s">
+      <c r="I2" s="296" t="s">
         <v>1057</v>
       </c>
-      <c r="J2" s="294"/>
-      <c r="K2" s="295"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="298"/>
       <c r="L2" s="131"/>
     </row>
-    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="19.5" thickBot="1">
       <c r="A3" s="257" t="s">
         <v>218</v>
       </c>
@@ -13692,8 +13703,8 @@
       </c>
       <c r="L3" s="131"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="287" t="s">
+    <row r="4" spans="1:12" ht="18.75">
+      <c r="A4" s="302" t="s">
         <v>327</v>
       </c>
       <c r="B4" s="141" t="s">
@@ -13703,7 +13714,7 @@
         <v>708</v>
       </c>
       <c r="D4" s="262"/>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="293" t="s">
         <v>978</v>
       </c>
       <c r="F4" s="141" t="s">
@@ -13713,7 +13724,7 @@
         <v>1031</v>
       </c>
       <c r="H4" s="134"/>
-      <c r="I4" s="290" t="s">
+      <c r="I4" s="293" t="s">
         <v>1060</v>
       </c>
       <c r="J4" s="141" t="s">
@@ -13724,8 +13735,8 @@
       </c>
       <c r="L4" s="131"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="288"/>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="A5" s="303"/>
       <c r="B5" s="140" t="s">
         <v>324</v>
       </c>
@@ -13733,7 +13744,7 @@
         <v>709</v>
       </c>
       <c r="D5" s="262"/>
-      <c r="E5" s="291"/>
+      <c r="E5" s="294"/>
       <c r="F5" s="140" t="s">
         <v>1005</v>
       </c>
@@ -13741,7 +13752,7 @@
         <v>1032</v>
       </c>
       <c r="H5" s="134"/>
-      <c r="I5" s="291"/>
+      <c r="I5" s="294"/>
       <c r="J5" s="140" t="s">
         <v>1095</v>
       </c>
@@ -13750,8 +13761,8 @@
       </c>
       <c r="L5" s="131"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="288"/>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="A6" s="303"/>
       <c r="B6" s="140" t="s">
         <v>325</v>
       </c>
@@ -13759,7 +13770,7 @@
         <v>710</v>
       </c>
       <c r="D6" s="262"/>
-      <c r="E6" s="291"/>
+      <c r="E6" s="294"/>
       <c r="F6" s="140" t="s">
         <v>1006</v>
       </c>
@@ -13767,7 +13778,7 @@
         <v>1033</v>
       </c>
       <c r="H6" s="134"/>
-      <c r="I6" s="291"/>
+      <c r="I6" s="294"/>
       <c r="J6" s="140" t="s">
         <v>1096</v>
       </c>
@@ -13776,8 +13787,8 @@
       </c>
       <c r="L6" s="131"/>
     </row>
-    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="289"/>
+    <row r="7" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A7" s="304"/>
       <c r="B7" s="144" t="s">
         <v>326</v>
       </c>
@@ -13785,7 +13796,7 @@
         <v>711</v>
       </c>
       <c r="D7" s="262"/>
-      <c r="E7" s="292"/>
+      <c r="E7" s="295"/>
       <c r="F7" s="144" t="s">
         <v>1007</v>
       </c>
@@ -13793,7 +13804,7 @@
         <v>1034</v>
       </c>
       <c r="H7" s="134"/>
-      <c r="I7" s="292"/>
+      <c r="I7" s="295"/>
       <c r="J7" s="144" t="s">
         <v>1097</v>
       </c>
@@ -13802,8 +13813,8 @@
       </c>
       <c r="L7" s="131"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="287" t="s">
+    <row r="8" spans="1:12" ht="18.75">
+      <c r="A8" s="302" t="s">
         <v>670</v>
       </c>
       <c r="B8" s="141" t="s">
@@ -13813,7 +13824,7 @@
         <v>712</v>
       </c>
       <c r="D8" s="262"/>
-      <c r="E8" s="290" t="s">
+      <c r="E8" s="293" t="s">
         <v>977</v>
       </c>
       <c r="F8" s="141" t="s">
@@ -13823,7 +13834,7 @@
         <v>1035</v>
       </c>
       <c r="H8" s="134"/>
-      <c r="I8" s="290" t="s">
+      <c r="I8" s="293" t="s">
         <v>1061</v>
       </c>
       <c r="J8" s="141" t="s">
@@ -13834,8 +13845,8 @@
       </c>
       <c r="L8" s="131"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="288"/>
+    <row r="9" spans="1:12" ht="18.75">
+      <c r="A9" s="303"/>
       <c r="B9" s="140" t="s">
         <v>661</v>
       </c>
@@ -13843,7 +13854,7 @@
         <v>713</v>
       </c>
       <c r="D9" s="262"/>
-      <c r="E9" s="291"/>
+      <c r="E9" s="294"/>
       <c r="F9" s="140" t="s">
         <v>1009</v>
       </c>
@@ -13851,7 +13862,7 @@
         <v>1036</v>
       </c>
       <c r="H9" s="134"/>
-      <c r="I9" s="291"/>
+      <c r="I9" s="294"/>
       <c r="J9" s="140" t="s">
         <v>1098</v>
       </c>
@@ -13860,8 +13871,8 @@
       </c>
       <c r="L9" s="131"/>
     </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="288"/>
+    <row r="10" spans="1:12" ht="18.75">
+      <c r="A10" s="303"/>
       <c r="B10" s="140" t="s">
         <v>662</v>
       </c>
@@ -13869,7 +13880,7 @@
         <v>714</v>
       </c>
       <c r="D10" s="262"/>
-      <c r="E10" s="291"/>
+      <c r="E10" s="294"/>
       <c r="F10" s="140" t="s">
         <v>1011</v>
       </c>
@@ -13877,7 +13888,7 @@
         <v>1037</v>
       </c>
       <c r="H10" s="134"/>
-      <c r="I10" s="291"/>
+      <c r="I10" s="294"/>
       <c r="J10" s="140" t="s">
         <v>1099</v>
       </c>
@@ -13886,8 +13897,8 @@
       </c>
       <c r="L10" s="131"/>
     </row>
-    <row r="11" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="289"/>
+    <row r="11" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A11" s="304"/>
       <c r="B11" s="144" t="s">
         <v>663</v>
       </c>
@@ -13895,7 +13906,7 @@
         <v>715</v>
       </c>
       <c r="D11" s="262"/>
-      <c r="E11" s="292"/>
+      <c r="E11" s="295"/>
       <c r="F11" s="144" t="s">
         <v>1012</v>
       </c>
@@ -13903,7 +13914,7 @@
         <v>1038</v>
       </c>
       <c r="H11" s="134"/>
-      <c r="I11" s="292"/>
+      <c r="I11" s="295"/>
       <c r="J11" s="144" t="s">
         <v>1100</v>
       </c>
@@ -13912,8 +13923,8 @@
       </c>
       <c r="L11" s="131"/>
     </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="287" t="s">
+    <row r="12" spans="1:12" ht="18.75">
+      <c r="A12" s="302" t="s">
         <v>668</v>
       </c>
       <c r="B12" s="141" t="s">
@@ -13923,7 +13934,7 @@
         <v>716</v>
       </c>
       <c r="D12" s="262"/>
-      <c r="E12" s="290" t="s">
+      <c r="E12" s="293" t="s">
         <v>976</v>
       </c>
       <c r="F12" s="141" t="s">
@@ -13933,7 +13944,7 @@
         <v>1039</v>
       </c>
       <c r="H12" s="134"/>
-      <c r="I12" s="290" t="s">
+      <c r="I12" s="293" t="s">
         <v>1062</v>
       </c>
       <c r="J12" s="141" t="s">
@@ -13944,8 +13955,8 @@
       </c>
       <c r="L12" s="131"/>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="288"/>
+    <row r="13" spans="1:12" ht="18.75">
+      <c r="A13" s="303"/>
       <c r="B13" s="140" t="s">
         <v>665</v>
       </c>
@@ -13953,7 +13964,7 @@
         <v>717</v>
       </c>
       <c r="D13" s="262"/>
-      <c r="E13" s="291"/>
+      <c r="E13" s="294"/>
       <c r="F13" s="140" t="s">
         <v>1014</v>
       </c>
@@ -13961,7 +13972,7 @@
         <v>1040</v>
       </c>
       <c r="H13" s="134"/>
-      <c r="I13" s="291"/>
+      <c r="I13" s="294"/>
       <c r="J13" s="140" t="s">
         <v>1102</v>
       </c>
@@ -13970,8 +13981,8 @@
       </c>
       <c r="L13" s="131"/>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="288"/>
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="A14" s="303"/>
       <c r="B14" s="140" t="s">
         <v>666</v>
       </c>
@@ -13979,7 +13990,7 @@
         <v>718</v>
       </c>
       <c r="D14" s="262"/>
-      <c r="E14" s="291"/>
+      <c r="E14" s="294"/>
       <c r="F14" s="140" t="s">
         <v>1015</v>
       </c>
@@ -13987,7 +13998,7 @@
         <v>1041</v>
       </c>
       <c r="H14" s="134"/>
-      <c r="I14" s="291"/>
+      <c r="I14" s="294"/>
       <c r="J14" s="140" t="s">
         <v>1103</v>
       </c>
@@ -13996,8 +14007,8 @@
       </c>
       <c r="L14" s="131"/>
     </row>
-    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="289"/>
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A15" s="304"/>
       <c r="B15" s="144" t="s">
         <v>667</v>
       </c>
@@ -14005,7 +14016,7 @@
         <v>719</v>
       </c>
       <c r="D15" s="262"/>
-      <c r="E15" s="292"/>
+      <c r="E15" s="295"/>
       <c r="F15" s="144" t="s">
         <v>1016</v>
       </c>
@@ -14013,7 +14024,7 @@
         <v>1042</v>
       </c>
       <c r="H15" s="134"/>
-      <c r="I15" s="292"/>
+      <c r="I15" s="295"/>
       <c r="J15" s="144" t="s">
         <v>1104</v>
       </c>
@@ -14022,8 +14033,8 @@
       </c>
       <c r="L15" s="131"/>
     </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="287" t="s">
+    <row r="16" spans="1:12" ht="18.75">
+      <c r="A16" s="302" t="s">
         <v>669</v>
       </c>
       <c r="B16" s="141" t="s">
@@ -14033,7 +14044,7 @@
         <v>720</v>
       </c>
       <c r="D16" s="262"/>
-      <c r="E16" s="290" t="s">
+      <c r="E16" s="293" t="s">
         <v>975</v>
       </c>
       <c r="F16" s="141" t="s">
@@ -14043,7 +14054,7 @@
         <v>1043</v>
       </c>
       <c r="H16" s="134"/>
-      <c r="I16" s="290" t="s">
+      <c r="I16" s="293" t="s">
         <v>1063</v>
       </c>
       <c r="J16" s="141" t="s">
@@ -14054,8 +14065,8 @@
       </c>
       <c r="L16" s="131"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="288"/>
+    <row r="17" spans="1:12" ht="18.75">
+      <c r="A17" s="303"/>
       <c r="B17" s="140" t="s">
         <v>672</v>
       </c>
@@ -14063,7 +14074,7 @@
         <v>721</v>
       </c>
       <c r="D17" s="262"/>
-      <c r="E17" s="291"/>
+      <c r="E17" s="294"/>
       <c r="F17" s="140" t="s">
         <v>1018</v>
       </c>
@@ -14071,7 +14082,7 @@
         <v>1044</v>
       </c>
       <c r="H17" s="134"/>
-      <c r="I17" s="291"/>
+      <c r="I17" s="294"/>
       <c r="J17" s="140" t="s">
         <v>1106</v>
       </c>
@@ -14080,8 +14091,8 @@
       </c>
       <c r="L17" s="131"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="288"/>
+    <row r="18" spans="1:12" ht="18.75">
+      <c r="A18" s="303"/>
       <c r="B18" s="140" t="s">
         <v>673</v>
       </c>
@@ -14089,7 +14100,7 @@
         <v>722</v>
       </c>
       <c r="D18" s="262"/>
-      <c r="E18" s="291"/>
+      <c r="E18" s="294"/>
       <c r="F18" s="140" t="s">
         <v>1019</v>
       </c>
@@ -14097,7 +14108,7 @@
         <v>1045</v>
       </c>
       <c r="H18" s="134"/>
-      <c r="I18" s="291"/>
+      <c r="I18" s="294"/>
       <c r="J18" s="140" t="s">
         <v>1107</v>
       </c>
@@ -14106,8 +14117,8 @@
       </c>
       <c r="L18" s="131"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="289"/>
+    <row r="19" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A19" s="304"/>
       <c r="B19" s="144" t="s">
         <v>674</v>
       </c>
@@ -14115,7 +14126,7 @@
         <v>723</v>
       </c>
       <c r="D19" s="262"/>
-      <c r="E19" s="292"/>
+      <c r="E19" s="295"/>
       <c r="F19" s="144" t="s">
         <v>1020</v>
       </c>
@@ -14123,7 +14134,7 @@
         <v>1046</v>
       </c>
       <c r="H19" s="134"/>
-      <c r="I19" s="292"/>
+      <c r="I19" s="295"/>
       <c r="J19" s="144" t="s">
         <v>1108</v>
       </c>
@@ -14132,12 +14143,12 @@
       </c>
       <c r="L19" s="131"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18.75">
       <c r="A20" s="135"/>
       <c r="B20" s="134"/>
       <c r="C20" s="134"/>
       <c r="D20" s="134"/>
-      <c r="E20" s="290" t="s">
+      <c r="E20" s="293" t="s">
         <v>563</v>
       </c>
       <c r="F20" s="141" t="s">
@@ -14147,7 +14158,7 @@
         <v>1047</v>
       </c>
       <c r="H20" s="134"/>
-      <c r="I20" s="290" t="s">
+      <c r="I20" s="293" t="s">
         <v>1064</v>
       </c>
       <c r="J20" s="141" t="s">
@@ -14158,12 +14169,12 @@
       </c>
       <c r="L20" s="131"/>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18.75">
       <c r="A21" s="135"/>
       <c r="B21" s="134"/>
       <c r="C21" s="134"/>
       <c r="D21" s="134"/>
-      <c r="E21" s="291"/>
+      <c r="E21" s="294"/>
       <c r="F21" s="140" t="s">
         <v>1022</v>
       </c>
@@ -14171,7 +14182,7 @@
         <v>1048</v>
       </c>
       <c r="H21" s="134"/>
-      <c r="I21" s="291"/>
+      <c r="I21" s="294"/>
       <c r="J21" s="140" t="s">
         <v>1110</v>
       </c>
@@ -14180,12 +14191,12 @@
       </c>
       <c r="L21" s="131"/>
     </row>
-    <row r="22" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1">
       <c r="A22" s="135"/>
       <c r="B22" s="134"/>
       <c r="C22" s="134"/>
       <c r="D22" s="134"/>
-      <c r="E22" s="291"/>
+      <c r="E22" s="294"/>
       <c r="F22" s="140" t="s">
         <v>1023</v>
       </c>
@@ -14193,7 +14204,7 @@
         <v>1049</v>
       </c>
       <c r="H22" s="134"/>
-      <c r="I22" s="291"/>
+      <c r="I22" s="294"/>
       <c r="J22" s="140" t="s">
         <v>1111</v>
       </c>
@@ -14202,14 +14213,14 @@
       </c>
       <c r="L22" s="131"/>
     </row>
-    <row r="23" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="19.5" thickBot="1">
       <c r="A23" s="264" t="s">
         <v>707</v>
       </c>
       <c r="B23" s="265"/>
       <c r="C23" s="266"/>
       <c r="D23" s="134"/>
-      <c r="E23" s="292"/>
+      <c r="E23" s="295"/>
       <c r="F23" s="144" t="s">
         <v>1024</v>
       </c>
@@ -14217,7 +14228,7 @@
         <v>1050</v>
       </c>
       <c r="H23" s="134"/>
-      <c r="I23" s="292"/>
+      <c r="I23" s="295"/>
       <c r="J23" s="144" t="s">
         <v>1112</v>
       </c>
@@ -14226,7 +14237,7 @@
       </c>
       <c r="L23" s="131"/>
     </row>
-    <row r="24" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1">
       <c r="A24" s="257" t="s">
         <v>218</v>
       </c>
@@ -14237,7 +14248,7 @@
         <v>323</v>
       </c>
       <c r="D24" s="134"/>
-      <c r="E24" s="290" t="s">
+      <c r="E24" s="293" t="s">
         <v>752</v>
       </c>
       <c r="F24" s="141" t="s">
@@ -14247,7 +14258,7 @@
         <v>1051</v>
       </c>
       <c r="H24" s="134"/>
-      <c r="I24" s="290" t="s">
+      <c r="I24" s="293" t="s">
         <v>1065</v>
       </c>
       <c r="J24" s="141" t="s">
@@ -14258,8 +14269,8 @@
       </c>
       <c r="L24" s="131"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="302" t="s">
+    <row r="25" spans="1:12" ht="18.75">
+      <c r="A25" s="287" t="s">
         <v>496</v>
       </c>
       <c r="B25" s="141" t="s">
@@ -14269,7 +14280,7 @@
         <v>724</v>
       </c>
       <c r="D25" s="134"/>
-      <c r="E25" s="291"/>
+      <c r="E25" s="294"/>
       <c r="F25" s="140" t="s">
         <v>1026</v>
       </c>
@@ -14277,7 +14288,7 @@
         <v>1052</v>
       </c>
       <c r="H25" s="134"/>
-      <c r="I25" s="291"/>
+      <c r="I25" s="294"/>
       <c r="J25" s="140" t="s">
         <v>1114</v>
       </c>
@@ -14286,8 +14297,8 @@
       </c>
       <c r="L25" s="131"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="303"/>
+    <row r="26" spans="1:12" ht="18.75">
+      <c r="A26" s="288"/>
       <c r="B26" s="140" t="s">
         <v>682</v>
       </c>
@@ -14295,7 +14306,7 @@
         <v>725</v>
       </c>
       <c r="D26" s="134"/>
-      <c r="E26" s="291"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="140" t="s">
         <v>1027</v>
       </c>
@@ -14303,7 +14314,7 @@
         <v>1053</v>
       </c>
       <c r="H26" s="134"/>
-      <c r="I26" s="291"/>
+      <c r="I26" s="294"/>
       <c r="J26" s="140" t="s">
         <v>1115</v>
       </c>
@@ -14312,8 +14323,8 @@
       </c>
       <c r="L26" s="131"/>
     </row>
-    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="303"/>
+    <row r="27" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A27" s="288"/>
       <c r="B27" s="140" t="s">
         <v>683</v>
       </c>
@@ -14321,7 +14332,7 @@
         <v>726</v>
       </c>
       <c r="D27" s="134"/>
-      <c r="E27" s="292"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="144" t="s">
         <v>1028</v>
       </c>
@@ -14329,7 +14340,7 @@
         <v>1054</v>
       </c>
       <c r="H27" s="134"/>
-      <c r="I27" s="292"/>
+      <c r="I27" s="295"/>
       <c r="J27" s="144" t="s">
         <v>1116</v>
       </c>
@@ -14338,8 +14349,8 @@
       </c>
       <c r="L27" s="131"/>
     </row>
-    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="304"/>
+    <row r="28" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A28" s="289"/>
       <c r="B28" s="144" t="s">
         <v>684</v>
       </c>
@@ -14347,7 +14358,7 @@
         <v>727</v>
       </c>
       <c r="D28" s="134"/>
-      <c r="E28" s="290" t="s">
+      <c r="E28" s="293" t="s">
         <v>565</v>
       </c>
       <c r="F28" s="141" t="s">
@@ -14357,7 +14368,7 @@
         <v>1055</v>
       </c>
       <c r="H28" s="134"/>
-      <c r="I28" s="290" t="s">
+      <c r="I28" s="293" t="s">
         <v>1066</v>
       </c>
       <c r="J28" s="141" t="s">
@@ -14368,8 +14379,8 @@
       </c>
       <c r="L28" s="131"/>
     </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="302" t="s">
+    <row r="29" spans="1:12" ht="18.75">
+      <c r="A29" s="287" t="s">
         <v>690</v>
       </c>
       <c r="B29" s="141" t="s">
@@ -14379,7 +14390,7 @@
         <v>728</v>
       </c>
       <c r="D29" s="262"/>
-      <c r="E29" s="291"/>
+      <c r="E29" s="294"/>
       <c r="F29" s="140" t="s">
         <v>1030</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>1056</v>
       </c>
       <c r="H29" s="134"/>
-      <c r="I29" s="291"/>
+      <c r="I29" s="294"/>
       <c r="J29" s="140" t="s">
         <v>1118</v>
       </c>
@@ -14396,8 +14407,8 @@
       </c>
       <c r="L29" s="131"/>
     </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="303"/>
+    <row r="30" spans="1:12" ht="18.75">
+      <c r="A30" s="288"/>
       <c r="B30" s="140" t="s">
         <v>687</v>
       </c>
@@ -14405,11 +14416,11 @@
         <v>729</v>
       </c>
       <c r="D30" s="262"/>
-      <c r="E30" s="291"/>
+      <c r="E30" s="294"/>
       <c r="F30" s="140"/>
       <c r="G30" s="259"/>
       <c r="H30" s="134"/>
-      <c r="I30" s="291"/>
+      <c r="I30" s="294"/>
       <c r="J30" s="140" t="s">
         <v>1119</v>
       </c>
@@ -14418,8 +14429,8 @@
       </c>
       <c r="L30" s="131"/>
     </row>
-    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="303"/>
+    <row r="31" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A31" s="288"/>
       <c r="B31" s="140" t="s">
         <v>688</v>
       </c>
@@ -14427,11 +14438,11 @@
         <v>730</v>
       </c>
       <c r="D31" s="262"/>
-      <c r="E31" s="292"/>
+      <c r="E31" s="295"/>
       <c r="F31" s="144"/>
       <c r="G31" s="260"/>
       <c r="H31" s="134"/>
-      <c r="I31" s="292"/>
+      <c r="I31" s="295"/>
       <c r="J31" s="144" t="s">
         <v>1120</v>
       </c>
@@ -14440,8 +14451,8 @@
       </c>
       <c r="L31" s="131"/>
     </row>
-    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="304"/>
+    <row r="32" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A32" s="289"/>
       <c r="B32" s="144" t="s">
         <v>689</v>
       </c>
@@ -14458,8 +14469,8 @@
       <c r="K32" s="133"/>
       <c r="L32" s="131"/>
     </row>
-    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="302" t="s">
+    <row r="33" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A33" s="287" t="s">
         <v>694</v>
       </c>
       <c r="B33" s="141" t="s">
@@ -14469,21 +14480,21 @@
         <v>732</v>
       </c>
       <c r="D33" s="262"/>
-      <c r="E33" s="299" t="s">
+      <c r="E33" s="290" t="s">
         <v>1152</v>
       </c>
-      <c r="F33" s="300"/>
-      <c r="G33" s="301"/>
+      <c r="F33" s="291"/>
+      <c r="G33" s="292"/>
       <c r="H33" s="133"/>
-      <c r="I33" s="299" t="s">
+      <c r="I33" s="290" t="s">
         <v>1151</v>
       </c>
-      <c r="J33" s="300"/>
-      <c r="K33" s="301"/>
+      <c r="J33" s="291"/>
+      <c r="K33" s="292"/>
       <c r="L33" s="131"/>
     </row>
-    <row r="34" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="303"/>
+    <row r="34" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A34" s="288"/>
       <c r="B34" s="140" t="s">
         <v>696</v>
       </c>
@@ -14512,8 +14523,8 @@
       </c>
       <c r="L34" s="131"/>
     </row>
-    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="303"/>
+    <row r="35" spans="1:12" ht="18.75">
+      <c r="A35" s="288"/>
       <c r="B35" s="140" t="s">
         <v>697</v>
       </c>
@@ -14521,7 +14532,7 @@
         <v>734</v>
       </c>
       <c r="D35" s="262"/>
-      <c r="E35" s="302" t="s">
+      <c r="E35" s="287" t="s">
         <v>497</v>
       </c>
       <c r="F35" s="141" t="s">
@@ -14531,7 +14542,7 @@
         <v>11311</v>
       </c>
       <c r="H35" s="133"/>
-      <c r="I35" s="302" t="s">
+      <c r="I35" s="287" t="s">
         <v>958</v>
       </c>
       <c r="J35" s="141" t="s">
@@ -14542,8 +14553,8 @@
       </c>
       <c r="L35" s="131"/>
     </row>
-    <row r="36" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="304"/>
+    <row r="36" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A36" s="289"/>
       <c r="B36" s="144" t="s">
         <v>698</v>
       </c>
@@ -14551,7 +14562,7 @@
         <v>735</v>
       </c>
       <c r="D36" s="262"/>
-      <c r="E36" s="303"/>
+      <c r="E36" s="288"/>
       <c r="F36" s="140" t="s">
         <v>961</v>
       </c>
@@ -14559,7 +14570,7 @@
         <v>11312</v>
       </c>
       <c r="H36" s="133"/>
-      <c r="I36" s="303"/>
+      <c r="I36" s="288"/>
       <c r="J36" s="140" t="s">
         <v>968</v>
       </c>
@@ -14568,8 +14579,8 @@
       </c>
       <c r="L36" s="131"/>
     </row>
-    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="302" t="s">
+    <row r="37" spans="1:12" ht="18.75">
+      <c r="A37" s="287" t="s">
         <v>701</v>
       </c>
       <c r="B37" s="141" t="s">
@@ -14579,7 +14590,7 @@
         <v>11441</v>
       </c>
       <c r="D37" s="262"/>
-      <c r="E37" s="303"/>
+      <c r="E37" s="288"/>
       <c r="F37" s="140" t="s">
         <v>962</v>
       </c>
@@ -14587,7 +14598,7 @@
         <v>11313</v>
       </c>
       <c r="H37" s="133"/>
-      <c r="I37" s="303"/>
+      <c r="I37" s="288"/>
       <c r="J37" s="140" t="s">
         <v>969</v>
       </c>
@@ -14596,8 +14607,8 @@
       </c>
       <c r="L37" s="131"/>
     </row>
-    <row r="38" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="303"/>
+    <row r="38" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A38" s="288"/>
       <c r="B38" s="140" t="s">
         <v>703</v>
       </c>
@@ -14605,7 +14616,7 @@
         <v>11442</v>
       </c>
       <c r="D38" s="262"/>
-      <c r="E38" s="304"/>
+      <c r="E38" s="289"/>
       <c r="F38" s="144" t="s">
         <v>962</v>
       </c>
@@ -14613,7 +14624,7 @@
         <v>11314</v>
       </c>
       <c r="H38" s="133"/>
-      <c r="I38" s="304"/>
+      <c r="I38" s="289"/>
       <c r="J38" s="144" t="s">
         <v>970</v>
       </c>
@@ -14622,8 +14633,8 @@
       </c>
       <c r="L38" s="131"/>
     </row>
-    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="303"/>
+    <row r="39" spans="1:12" ht="18.75">
+      <c r="A39" s="288"/>
       <c r="B39" s="140" t="s">
         <v>704</v>
       </c>
@@ -14631,7 +14642,7 @@
         <v>11443</v>
       </c>
       <c r="D39" s="262"/>
-      <c r="E39" s="302" t="s">
+      <c r="E39" s="287" t="s">
         <v>957</v>
       </c>
       <c r="F39" s="141" t="s">
@@ -14641,7 +14652,7 @@
         <v>11321</v>
       </c>
       <c r="H39" s="133"/>
-      <c r="I39" s="302" t="s">
+      <c r="I39" s="287" t="s">
         <v>959</v>
       </c>
       <c r="J39" s="141" t="s">
@@ -14652,8 +14663,8 @@
       </c>
       <c r="L39" s="131"/>
     </row>
-    <row r="40" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="304"/>
+    <row r="40" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A40" s="289"/>
       <c r="B40" s="144" t="s">
         <v>705</v>
       </c>
@@ -14661,7 +14672,7 @@
         <v>11444</v>
       </c>
       <c r="D40" s="262"/>
-      <c r="E40" s="303"/>
+      <c r="E40" s="288"/>
       <c r="F40" s="140" t="s">
         <v>964</v>
       </c>
@@ -14669,7 +14680,7 @@
         <v>11322</v>
       </c>
       <c r="H40" s="133"/>
-      <c r="I40" s="303"/>
+      <c r="I40" s="288"/>
       <c r="J40" s="140" t="s">
         <v>972</v>
       </c>
@@ -14678,12 +14689,12 @@
       </c>
       <c r="L40" s="131"/>
     </row>
-    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="18.75">
       <c r="A41" s="267"/>
       <c r="B41" s="134"/>
       <c r="C41" s="262"/>
       <c r="D41" s="262"/>
-      <c r="E41" s="303"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="140" t="s">
         <v>965</v>
       </c>
@@ -14691,7 +14702,7 @@
         <v>11323</v>
       </c>
       <c r="H41" s="133"/>
-      <c r="I41" s="303"/>
+      <c r="I41" s="288"/>
       <c r="J41" s="140" t="s">
         <v>973</v>
       </c>
@@ -14700,12 +14711,12 @@
       </c>
       <c r="L41" s="131"/>
     </row>
-    <row r="42" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="19.5" thickBot="1">
       <c r="A42" s="267"/>
       <c r="B42" s="134"/>
       <c r="C42" s="262"/>
       <c r="D42" s="262"/>
-      <c r="E42" s="304"/>
+      <c r="E42" s="289"/>
       <c r="F42" s="144" t="s">
         <v>966</v>
       </c>
@@ -14713,7 +14724,7 @@
         <v>11324</v>
       </c>
       <c r="H42" s="133"/>
-      <c r="I42" s="304"/>
+      <c r="I42" s="289"/>
       <c r="J42" s="144" t="s">
         <v>974</v>
       </c>
@@ -14722,7 +14733,7 @@
       </c>
       <c r="L42" s="131"/>
     </row>
-    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="18.75">
       <c r="A43" s="267"/>
       <c r="B43" s="134"/>
       <c r="C43" s="263"/>
@@ -14736,7 +14747,7 @@
       <c r="K43" s="133"/>
       <c r="L43" s="131"/>
     </row>
-    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="18.75">
       <c r="A44" s="267"/>
       <c r="B44" s="134"/>
       <c r="C44" s="263"/>
@@ -14750,7 +14761,7 @@
       <c r="K44" s="136"/>
       <c r="L44" s="131"/>
     </row>
-    <row r="45" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="21" customHeight="1" thickBot="1">
       <c r="A45" s="137"/>
       <c r="B45" s="138"/>
       <c r="C45" s="138"/>
@@ -14766,16 +14777,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I8:I11"/>
@@ -14786,18 +14799,16 @@
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14808,14 +14819,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -14827,43 +14838,43 @@
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="305" t="s">
         <v>1154</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="311"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="312"/>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="314"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="315" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="307"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="308"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="310"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="311" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316" t="s">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="317"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="313"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -14881,7 +14892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -14905,7 +14916,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -14923,7 +14934,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -14941,7 +14952,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -14967,7 +14978,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -14993,7 +15004,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -15019,7 +15030,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -15045,7 +15056,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -15071,7 +15082,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -15097,7 +15108,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -15123,7 +15134,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -15149,7 +15160,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -15175,7 +15186,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -15201,7 +15212,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -15227,7 +15238,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -15253,7 +15264,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -15279,7 +15290,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -15305,7 +15316,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -15331,7 +15342,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="16">
         <v>20</v>
       </c>
@@ -15357,7 +15368,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -15367,7 +15378,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -15377,7 +15388,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -15387,7 +15398,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18">
       <c r="A27" s="20"/>
       <c r="B27" s="128" t="s">
         <v>537</v>
@@ -15395,15 +15406,15 @@
       <c r="C27" s="127" t="s">
         <v>597</v>
       </c>
-      <c r="D27" s="308" t="s">
+      <c r="D27" s="314" t="s">
         <v>573</v>
       </c>
-      <c r="E27" s="308"/>
-      <c r="F27" s="308"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="314"/>
       <c r="G27" s="21"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="20"/>
       <c r="B28" s="128" t="s">
         <v>239</v>
@@ -15411,15 +15422,15 @@
       <c r="C28" s="127" t="s">
         <v>601</v>
       </c>
-      <c r="D28" s="308" t="s">
+      <c r="D28" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="308"/>
-      <c r="F28" s="308"/>
+      <c r="E28" s="314"/>
+      <c r="F28" s="314"/>
       <c r="G28" s="21"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="20"/>
       <c r="B29" s="128" t="s">
         <v>240</v>
@@ -15427,15 +15438,15 @@
       <c r="C29" s="127" t="s">
         <v>602</v>
       </c>
-      <c r="D29" s="308" t="s">
+      <c r="D29" s="314" t="s">
         <v>574</v>
       </c>
-      <c r="E29" s="308"/>
-      <c r="F29" s="308"/>
+      <c r="E29" s="314"/>
+      <c r="F29" s="314"/>
       <c r="G29" s="21"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18">
       <c r="A30" s="20"/>
       <c r="B30" s="128" t="s">
         <v>449</v>
@@ -15443,15 +15454,15 @@
       <c r="C30" s="127" t="s">
         <v>603</v>
       </c>
-      <c r="D30" s="308" t="s">
+      <c r="D30" s="314" t="s">
         <v>575</v>
       </c>
-      <c r="E30" s="308"/>
-      <c r="F30" s="308"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="314"/>
       <c r="G30" s="21"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18">
       <c r="A31" s="20"/>
       <c r="B31" s="128" t="s">
         <v>450</v>
@@ -15459,15 +15470,15 @@
       <c r="C31" s="127" t="s">
         <v>604</v>
       </c>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="314" t="s">
         <v>576</v>
       </c>
-      <c r="E31" s="308"/>
-      <c r="F31" s="308"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="314"/>
       <c r="G31" s="21"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18">
       <c r="A32" s="20"/>
       <c r="B32" s="128" t="s">
         <v>244</v>
@@ -15475,15 +15486,15 @@
       <c r="C32" s="127" t="s">
         <v>605</v>
       </c>
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="314" t="s">
         <v>577</v>
       </c>
-      <c r="E32" s="308"/>
-      <c r="F32" s="308"/>
+      <c r="E32" s="314"/>
+      <c r="F32" s="314"/>
       <c r="G32" s="21"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" s="20"/>
       <c r="B33" s="128" t="s">
         <v>487</v>
@@ -15491,15 +15502,15 @@
       <c r="C33" s="127" t="s">
         <v>617</v>
       </c>
-      <c r="D33" s="308" t="s">
+      <c r="D33" s="314" t="s">
         <v>485</v>
       </c>
-      <c r="E33" s="308"/>
-      <c r="F33" s="308"/>
+      <c r="E33" s="314"/>
+      <c r="F33" s="314"/>
       <c r="G33" s="21"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="20"/>
       <c r="B34" s="128" t="s">
         <v>453</v>
@@ -15507,15 +15518,15 @@
       <c r="C34" s="127" t="s">
         <v>618</v>
       </c>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="314" t="s">
         <v>578</v>
       </c>
-      <c r="E34" s="308"/>
-      <c r="F34" s="308"/>
+      <c r="E34" s="314"/>
+      <c r="F34" s="314"/>
       <c r="G34" s="21"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="18">
       <c r="A35" s="20"/>
       <c r="B35" s="128" t="s">
         <v>454</v>
@@ -15523,67 +15534,67 @@
       <c r="C35" s="127" t="s">
         <v>619</v>
       </c>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="314" t="s">
         <v>579</v>
       </c>
-      <c r="E35" s="308"/>
-      <c r="F35" s="308"/>
+      <c r="E35" s="314"/>
+      <c r="F35" s="314"/>
       <c r="G35" s="21"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="20"/>
       <c r="B36" s="127"/>
       <c r="C36" s="127" t="s">
         <v>654</v>
       </c>
-      <c r="D36" s="305" t="s">
+      <c r="D36" s="315" t="s">
         <v>594</v>
       </c>
-      <c r="E36" s="306"/>
-      <c r="F36" s="307"/>
+      <c r="E36" s="316"/>
+      <c r="F36" s="317"/>
       <c r="G36" s="21"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="20"/>
       <c r="B37" s="129"/>
       <c r="C37" s="127" t="s">
         <v>657</v>
       </c>
-      <c r="D37" s="305" t="s">
+      <c r="D37" s="315" t="s">
         <v>655</v>
       </c>
-      <c r="E37" s="306"/>
-      <c r="F37" s="307"/>
+      <c r="E37" s="316"/>
+      <c r="F37" s="317"/>
       <c r="G37" s="21"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="18">
       <c r="A38" s="20"/>
       <c r="B38" s="129"/>
       <c r="C38" s="127" t="s">
         <v>656</v>
       </c>
-      <c r="D38" s="305" t="s">
+      <c r="D38" s="315" t="s">
         <v>658</v>
       </c>
-      <c r="E38" s="306"/>
-      <c r="F38" s="307"/>
+      <c r="E38" s="316"/>
+      <c r="F38" s="317"/>
       <c r="G38" s="21"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="20"/>
       <c r="B39" s="129"/>
       <c r="C39" s="127"/>
-      <c r="D39" s="305"/>
-      <c r="E39" s="306"/>
-      <c r="F39" s="307"/>
+      <c r="D39" s="315"/>
+      <c r="E39" s="316"/>
+      <c r="F39" s="317"/>
       <c r="G39" s="21"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -15593,7 +15604,7 @@
       <c r="G40" s="21"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -15603,7 +15614,7 @@
       <c r="G41" s="21"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -15613,7 +15624,7 @@
       <c r="G42" s="21"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -15623,7 +15634,7 @@
       <c r="G43" s="21"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -15633,7 +15644,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -15643,7 +15654,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -15653,7 +15664,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -15663,7 +15674,7 @@
       <c r="G47" s="21"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -15673,10 +15684,17 @@
       <c r="G48" s="24"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="51" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="10.5" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -15686,13 +15704,6 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15700,14 +15711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -15719,7 +15730,7 @@
     <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="327" t="s">
         <v>1187</v>
       </c>
@@ -15731,7 +15742,7 @@
       <c r="G1" s="327"/>
       <c r="H1" s="327"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="321" t="s">
         <v>1155</v>
       </c>
@@ -15743,7 +15754,7 @@
       <c r="G2" s="322"/>
       <c r="H2" s="323"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>222</v>
@@ -15765,7 +15776,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="271">
         <v>1</v>
       </c>
@@ -15787,7 +15798,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="271">
         <v>2</v>
       </c>
@@ -15809,7 +15820,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="271">
         <v>3</v>
       </c>
@@ -15831,7 +15842,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="271">
         <v>4</v>
       </c>
@@ -15853,7 +15864,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="271">
         <v>5</v>
       </c>
@@ -15875,7 +15886,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="271">
         <v>6</v>
       </c>
@@ -15897,7 +15908,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="271">
         <v>7</v>
       </c>
@@ -15919,7 +15930,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="271">
         <v>8</v>
       </c>
@@ -15942,7 +15953,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="271">
         <v>9</v>
       </c>
@@ -15964,7 +15975,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="271">
         <v>10</v>
       </c>
@@ -15986,7 +15997,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="271">
         <v>11</v>
       </c>
@@ -16008,7 +16019,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="271">
         <v>12</v>
       </c>
@@ -16030,7 +16041,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="271">
         <v>13</v>
       </c>
@@ -16046,7 +16057,7 @@
       <c r="G16" s="272"/>
       <c r="H16" s="272"/>
     </row>
-    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="7.5" customHeight="1">
       <c r="A17" s="273"/>
       <c r="B17" s="273"/>
       <c r="C17" s="273"/>
@@ -16056,7 +16067,7 @@
       <c r="G17" s="273"/>
       <c r="H17" s="273"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="324" t="s">
         <v>224</v>
       </c>
@@ -16068,7 +16079,7 @@
       <c r="G18" s="325"/>
       <c r="H18" s="326"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="274"/>
       <c r="B19" s="275" t="s">
         <v>222</v>
@@ -16090,7 +16101,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="271">
         <v>1</v>
       </c>
@@ -16113,7 +16124,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="271">
         <v>2</v>
       </c>
@@ -16135,7 +16146,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="271">
         <v>3</v>
       </c>
@@ -16157,7 +16168,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="271">
         <v>4</v>
       </c>
@@ -16179,7 +16190,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="271">
         <v>5</v>
       </c>
@@ -16201,7 +16212,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="271">
         <v>6</v>
       </c>
@@ -16223,7 +16234,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="271">
         <v>7</v>
       </c>
@@ -16245,7 +16256,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="271">
         <v>8</v>
       </c>
@@ -16267,7 +16278,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="271">
         <v>9</v>
       </c>
@@ -16289,7 +16300,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="271">
         <v>10</v>
       </c>
@@ -16311,7 +16322,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="8.25" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -16321,7 +16332,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="321" t="s">
         <v>225</v>
       </c>
@@ -16333,7 +16344,7 @@
       <c r="G31" s="322"/>
       <c r="H31" s="323"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>222</v>
@@ -16355,7 +16366,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -16377,7 +16388,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="6">
         <v>2</v>
       </c>
@@ -16399,7 +16410,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="6">
         <v>3</v>
       </c>
@@ -16421,7 +16432,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="6">
         <v>4</v>
       </c>
@@ -16441,7 +16452,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="6">
         <v>5</v>
       </c>
@@ -16461,7 +16472,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="6">
         <v>6</v>
       </c>
@@ -16481,7 +16492,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="6">
         <v>7</v>
       </c>
@@ -16499,7 +16510,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="6">
         <v>8</v>
       </c>
@@ -16517,7 +16528,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="6">
         <v>9</v>
       </c>
@@ -16535,7 +16546,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="6">
         <v>10</v>
       </c>
@@ -16555,8 +16566,8 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="10.5" customHeight="1"/>
+    <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="318" t="s">
         <v>1178</v>
       </c>
@@ -16570,7 +16581,7 @@
       <c r="G44" s="319"/>
       <c r="H44" s="320"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3"/>
       <c r="B45" s="272">
         <v>248</v>
@@ -16588,7 +16599,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="3"/>
       <c r="B46" s="272">
         <v>229</v>
@@ -16606,7 +16617,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="3"/>
       <c r="B47" s="272">
         <v>236.5</v>
@@ -16624,7 +16635,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="3"/>
       <c r="B48" s="272">
         <v>248.5</v>
@@ -16642,8 +16653,8 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="54" spans="2:4" ht="15.75">
       <c r="B54" s="273"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -16663,14 +16674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -16685,7 +16696,7 @@
     <col min="11" max="11" width="0.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="328" t="s">
         <v>328</v>
       </c>
@@ -16697,7 +16708,7 @@
       <c r="G1" s="329"/>
       <c r="H1" s="330"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="331"/>
       <c r="B2" s="332"/>
       <c r="C2" s="332"/>
@@ -16707,7 +16718,7 @@
       <c r="G2" s="332"/>
       <c r="H2" s="333"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="334" t="s">
         <v>227</v>
       </c>
@@ -16721,7 +16732,7 @@
       <c r="G3" s="336"/>
       <c r="H3" s="337"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -16739,7 +16750,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -16753,7 +16764,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -16767,7 +16778,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -16781,7 +16792,7 @@
       <c r="G7" s="69"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -16795,7 +16806,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -16809,7 +16820,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -16823,7 +16834,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -16837,7 +16848,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -16851,7 +16862,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -16865,7 +16876,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -16879,7 +16890,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -16893,7 +16904,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -16907,7 +16918,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -16921,7 +16932,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -16935,7 +16946,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -16949,7 +16960,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -16963,7 +16974,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -16977,7 +16988,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -16991,7 +17002,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -17005,7 +17016,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18.75" thickBot="1">
       <c r="A24" s="27"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -17017,7 +17028,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18.75" thickBot="1">
       <c r="A25" s="27"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -17029,7 +17040,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -17041,7 +17052,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -17053,7 +17064,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -17065,7 +17076,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -17077,7 +17088,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -17089,7 +17100,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -17101,7 +17112,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -17113,7 +17124,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -17137,14 +17148,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
@@ -17155,33 +17166,33 @@
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="338" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="350" t="s">
         <v>955</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="340"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="352"/>
       <c r="G1" s="184"/>
       <c r="H1" s="184"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="341" t="s">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="353" t="s">
         <v>843</v>
       </c>
-      <c r="B2" s="342"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="341" t="s">
+      <c r="B2" s="354"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="353" t="s">
         <v>844</v>
       </c>
-      <c r="E2" s="342"/>
-      <c r="F2" s="343"/>
+      <c r="E2" s="354"/>
+      <c r="F2" s="355"/>
       <c r="G2" s="184"/>
       <c r="H2" s="184"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="185">
         <v>1</v>
       </c>
@@ -17201,11 +17212,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="184"/>
-      <c r="H3" s="344" t="s">
+      <c r="H3" s="347" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="185">
         <v>2</v>
       </c>
@@ -17225,9 +17236,9 @@
         <v>2</v>
       </c>
       <c r="G4" s="184"/>
-      <c r="H4" s="345"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="348"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="185">
         <v>3</v>
       </c>
@@ -17247,9 +17258,9 @@
         <v>3</v>
       </c>
       <c r="G5" s="184"/>
-      <c r="H5" s="345"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="348"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="188">
         <v>4</v>
       </c>
@@ -17269,9 +17280,9 @@
         <v>4</v>
       </c>
       <c r="G6" s="184"/>
-      <c r="H6" s="345"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="348"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="188">
         <v>5</v>
       </c>
@@ -17291,9 +17302,9 @@
         <v>5</v>
       </c>
       <c r="G7" s="184"/>
-      <c r="H7" s="345"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="348"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="191">
         <v>6</v>
       </c>
@@ -17313,9 +17324,9 @@
         <v>6</v>
       </c>
       <c r="G8" s="184"/>
-      <c r="H8" s="345"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="348"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="191">
         <v>7</v>
       </c>
@@ -17335,9 +17346,9 @@
         <v>7</v>
       </c>
       <c r="G9" s="184"/>
-      <c r="H9" s="345"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="348"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="194">
         <v>8</v>
       </c>
@@ -17357,9 +17368,9 @@
         <v>8</v>
       </c>
       <c r="G10" s="184"/>
-      <c r="H10" s="346"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="349"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="197">
         <v>9</v>
       </c>
@@ -17379,11 +17390,11 @@
         <v>9</v>
       </c>
       <c r="G11" s="184"/>
-      <c r="H11" s="347" t="s">
+      <c r="H11" s="338" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A12" s="200">
         <v>10</v>
       </c>
@@ -17403,9 +17414,9 @@
         <v>10</v>
       </c>
       <c r="G12" s="184"/>
-      <c r="H12" s="348"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="339"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="200">
         <v>11</v>
       </c>
@@ -17425,9 +17436,9 @@
         <v>11</v>
       </c>
       <c r="G13" s="184"/>
-      <c r="H13" s="348"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="339"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="200">
         <v>12</v>
       </c>
@@ -17447,9 +17458,9 @@
         <v>12</v>
       </c>
       <c r="G14" s="184"/>
-      <c r="H14" s="348"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="339"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="204">
         <v>13</v>
       </c>
@@ -17469,9 +17480,9 @@
         <v>13</v>
       </c>
       <c r="G15" s="184"/>
-      <c r="H15" s="348"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="339"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="204">
         <v>14</v>
       </c>
@@ -17491,9 +17502,9 @@
         <v>14</v>
       </c>
       <c r="G16" s="184"/>
-      <c r="H16" s="348"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="339"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="204">
         <v>15</v>
       </c>
@@ -17513,9 +17524,9 @@
         <v>15</v>
       </c>
       <c r="G17" s="184"/>
-      <c r="H17" s="348"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="339"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="204">
         <v>16</v>
       </c>
@@ -17535,9 +17546,9 @@
         <v>16</v>
       </c>
       <c r="G18" s="184"/>
-      <c r="H18" s="348"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="339"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="204">
         <v>17</v>
       </c>
@@ -17557,9 +17568,9 @@
         <v>17</v>
       </c>
       <c r="G19" s="184"/>
-      <c r="H19" s="348"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="339"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="207">
         <v>18</v>
       </c>
@@ -17579,9 +17590,9 @@
         <v>18</v>
       </c>
       <c r="G20" s="184"/>
-      <c r="H20" s="348"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="339"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="207">
         <v>19</v>
       </c>
@@ -17601,9 +17612,9 @@
         <v>19</v>
       </c>
       <c r="G21" s="184"/>
-      <c r="H21" s="348"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="339"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="210">
         <v>20</v>
       </c>
@@ -17623,50 +17634,50 @@
         <v>20</v>
       </c>
       <c r="G22" s="184"/>
-      <c r="H22" s="349"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="350" t="s">
+      <c r="H22" s="340"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1"/>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A38" s="341" t="s">
         <v>956</v>
       </c>
-      <c r="B38" s="351"/>
-      <c r="C38" s="351"/>
-      <c r="D38" s="351"/>
-      <c r="E38" s="351"/>
-      <c r="F38" s="352"/>
+      <c r="B38" s="342"/>
+      <c r="C38" s="342"/>
+      <c r="D38" s="342"/>
+      <c r="E38" s="342"/>
+      <c r="F38" s="343"/>
       <c r="G38" s="184"/>
       <c r="H38" s="184"/>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="353" t="s">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A39" s="344" t="s">
         <v>843</v>
       </c>
-      <c r="B39" s="354"/>
-      <c r="C39" s="355"/>
-      <c r="D39" s="353" t="s">
+      <c r="B39" s="345"/>
+      <c r="C39" s="346"/>
+      <c r="D39" s="344" t="s">
         <v>844</v>
       </c>
-      <c r="E39" s="354"/>
-      <c r="F39" s="355"/>
+      <c r="E39" s="345"/>
+      <c r="F39" s="346"/>
       <c r="G39" s="184"/>
       <c r="H39" s="184"/>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="213">
         <v>1</v>
       </c>
@@ -17686,11 +17697,11 @@
         <v>1</v>
       </c>
       <c r="G40" s="184"/>
-      <c r="H40" s="344" t="s">
+      <c r="H40" s="347" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="213">
         <v>2</v>
       </c>
@@ -17710,9 +17721,9 @@
         <v>2</v>
       </c>
       <c r="G41" s="184"/>
-      <c r="H41" s="345"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="348"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="213">
         <v>3</v>
       </c>
@@ -17732,9 +17743,9 @@
         <v>3</v>
       </c>
       <c r="G42" s="184"/>
-      <c r="H42" s="345"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="348"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="215">
         <v>4</v>
       </c>
@@ -17754,9 +17765,9 @@
         <v>4</v>
       </c>
       <c r="G43" s="184"/>
-      <c r="H43" s="345"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="348"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="215">
         <v>5</v>
       </c>
@@ -17776,9 +17787,9 @@
         <v>5</v>
       </c>
       <c r="G44" s="184"/>
-      <c r="H44" s="345"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="348"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="217">
         <v>6</v>
       </c>
@@ -17798,9 +17809,9 @@
         <v>6</v>
       </c>
       <c r="G45" s="184"/>
-      <c r="H45" s="345"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="348"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="217">
         <v>7</v>
       </c>
@@ -17820,9 +17831,9 @@
         <v>7</v>
       </c>
       <c r="G46" s="184"/>
-      <c r="H46" s="345"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="348"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="219">
         <v>8</v>
       </c>
@@ -17842,9 +17853,9 @@
         <v>8</v>
       </c>
       <c r="G47" s="184"/>
-      <c r="H47" s="346"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="349"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="222">
         <v>9</v>
       </c>
@@ -17864,11 +17875,11 @@
         <v>9</v>
       </c>
       <c r="G48" s="184"/>
-      <c r="H48" s="347" t="s">
+      <c r="H48" s="338" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="224">
         <v>10</v>
       </c>
@@ -17888,9 +17899,9 @@
         <v>10</v>
       </c>
       <c r="G49" s="184"/>
-      <c r="H49" s="348"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="339"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickBot="1">
       <c r="A50" s="224">
         <v>11</v>
       </c>
@@ -17910,9 +17921,9 @@
         <v>11</v>
       </c>
       <c r="G50" s="184"/>
-      <c r="H50" s="348"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="339"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickBot="1">
       <c r="A51" s="227">
         <v>12</v>
       </c>
@@ -17932,9 +17943,9 @@
         <v>12</v>
       </c>
       <c r="G51" s="184"/>
-      <c r="H51" s="348"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="339"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickBot="1">
       <c r="A52" s="227">
         <v>13</v>
       </c>
@@ -17954,9 +17965,9 @@
         <v>13</v>
       </c>
       <c r="G52" s="184"/>
-      <c r="H52" s="348"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="339"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickBot="1">
       <c r="A53" s="227">
         <v>14</v>
       </c>
@@ -17976,9 +17987,9 @@
         <v>14</v>
       </c>
       <c r="G53" s="184"/>
-      <c r="H53" s="348"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="339"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1">
       <c r="A54" s="227">
         <v>15</v>
       </c>
@@ -17998,9 +18009,9 @@
         <v>15</v>
       </c>
       <c r="G54" s="184"/>
-      <c r="H54" s="348"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="339"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickBot="1">
       <c r="A55" s="227">
         <v>16</v>
       </c>
@@ -18020,9 +18031,9 @@
         <v>16</v>
       </c>
       <c r="G55" s="184"/>
-      <c r="H55" s="348"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="339"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickBot="1">
       <c r="A56" s="227">
         <v>17</v>
       </c>
@@ -18042,9 +18053,9 @@
         <v>17</v>
       </c>
       <c r="G56" s="184"/>
-      <c r="H56" s="348"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="339"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickBot="1">
       <c r="A57" s="229">
         <v>18</v>
       </c>
@@ -18064,9 +18075,9 @@
         <v>18</v>
       </c>
       <c r="G57" s="184"/>
-      <c r="H57" s="348"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="339"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickBot="1">
       <c r="A58" s="229">
         <v>19</v>
       </c>
@@ -18086,9 +18097,9 @@
         <v>19</v>
       </c>
       <c r="G58" s="184"/>
-      <c r="H58" s="348"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="339"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickBot="1">
       <c r="A59" s="231">
         <v>20</v>
       </c>
@@ -18108,21 +18119,21 @@
         <v>20</v>
       </c>
       <c r="G59" s="184"/>
-      <c r="H59" s="349"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H59" s="340"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H3:H10"/>
+    <mergeCell ref="H11:H22"/>
     <mergeCell ref="H48:H59"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="H40:H47"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="H11:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18130,14 +18141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -18150,7 +18161,7 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="362" t="s">
         <v>330</v>
       </c>
@@ -18162,7 +18173,7 @@
       <c r="G1" s="363"/>
       <c r="H1" s="364"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="365"/>
       <c r="B2" s="366"/>
       <c r="C2" s="366"/>
@@ -18172,7 +18183,7 @@
       <c r="G2" s="366"/>
       <c r="H2" s="367"/>
     </row>
-    <row r="3" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="21" thickBot="1">
       <c r="A3" s="356" t="s">
         <v>221</v>
       </c>
@@ -18186,7 +18197,7 @@
       <c r="G3" s="357"/>
       <c r="H3" s="358"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="86">
         <v>1</v>
       </c>
@@ -18200,7 +18211,7 @@
       <c r="G4" s="87"/>
       <c r="H4" s="88"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="86">
         <v>2</v>
       </c>
@@ -18214,7 +18225,7 @@
       <c r="G5" s="87"/>
       <c r="H5" s="88"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="86">
         <v>3</v>
       </c>
@@ -18228,7 +18239,7 @@
       <c r="G6" s="87"/>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="86">
         <v>4</v>
       </c>
@@ -18242,7 +18253,7 @@
       <c r="G7" s="87"/>
       <c r="H7" s="88"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17.25" thickBot="1">
       <c r="A8" s="86">
         <v>5</v>
       </c>
@@ -18256,7 +18267,7 @@
       <c r="G8" s="87"/>
       <c r="H8" s="88"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="86">
         <v>6</v>
       </c>
@@ -18270,7 +18281,7 @@
       <c r="G9" s="87"/>
       <c r="H9" s="88"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="86">
         <v>7</v>
       </c>
@@ -18284,7 +18295,7 @@
       <c r="G10" s="87"/>
       <c r="H10" s="88"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="87"/>
@@ -18296,7 +18307,7 @@
       <c r="G11" s="87"/>
       <c r="H11" s="88"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="87"/>
@@ -18308,7 +18319,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="88"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="87"/>
@@ -18320,7 +18331,7 @@
       <c r="G13" s="87"/>
       <c r="H13" s="88"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="89"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82"/>
@@ -18330,7 +18341,7 @@
       <c r="G14" s="84"/>
       <c r="H14" s="90"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="89"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
@@ -18340,7 +18351,7 @@
       <c r="G15" s="84"/>
       <c r="H15" s="79"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="89"/>
       <c r="B16" s="81"/>
       <c r="C16" s="82"/>
@@ -18350,7 +18361,7 @@
       <c r="G16" s="82"/>
       <c r="H16" s="78"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="89"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
@@ -18360,7 +18371,7 @@
       <c r="G17" s="82"/>
       <c r="H17" s="78"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="89"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
@@ -18370,7 +18381,7 @@
       <c r="G18" s="82"/>
       <c r="H18" s="78"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="89"/>
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
@@ -18380,7 +18391,7 @@
       <c r="G19" s="82"/>
       <c r="H19" s="78"/>
     </row>
-    <row r="20" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="78.75" customHeight="1">
       <c r="A20" s="89"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82"/>
@@ -18390,7 +18401,7 @@
       <c r="G20" s="82"/>
       <c r="H20" s="78"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="89"/>
       <c r="B21" s="81"/>
       <c r="C21" s="82"/>
@@ -18400,7 +18411,7 @@
       <c r="G21" s="82"/>
       <c r="H21" s="78"/>
     </row>
-    <row r="22" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="20.25" thickBot="1">
       <c r="A22" s="359" t="s">
         <v>317</v>
       </c>
@@ -18414,7 +18425,7 @@
       <c r="G22" s="360"/>
       <c r="H22" s="361"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="71">
         <v>1</v>
       </c>
@@ -18428,7 +18439,7 @@
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="16.5" thickBot="1">
       <c r="A24" s="71">
         <v>2</v>
       </c>
@@ -18442,7 +18453,7 @@
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="16.5" thickBot="1">
       <c r="A25" s="71">
         <v>3</v>
       </c>
@@ -18456,7 +18467,7 @@
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1">
       <c r="A26" s="71">
         <v>4</v>
       </c>
@@ -18470,7 +18481,7 @@
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1">
       <c r="A27" s="71">
         <v>5</v>
       </c>
@@ -18484,7 +18495,7 @@
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
       <c r="A28" s="71">
         <v>6</v>
       </c>
@@ -18498,7 +18509,7 @@
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5" thickBot="1">
       <c r="A29" s="71">
         <v>7</v>
       </c>
@@ -18512,7 +18523,7 @@
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5" thickBot="1">
       <c r="A30" s="71">
         <v>8</v>
       </c>
@@ -18526,7 +18537,7 @@
       <c r="G30" s="76"/>
       <c r="H30" s="74"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5" thickBot="1">
       <c r="A31" s="71">
         <v>9</v>
       </c>
@@ -18540,7 +18551,7 @@
       <c r="G31" s="76"/>
       <c r="H31" s="74"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1">
       <c r="A32" s="95">
         <v>10</v>
       </c>
@@ -18554,7 +18565,7 @@
       <c r="G32" s="76"/>
       <c r="H32" s="74"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="89"/>
       <c r="B33" s="92"/>
       <c r="C33" s="93"/>
@@ -18564,7 +18575,7 @@
       <c r="G33" s="93"/>
       <c r="H33" s="78"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="89"/>
       <c r="B34" s="92"/>
       <c r="C34" s="93"/>
@@ -18574,7 +18585,7 @@
       <c r="G34" s="93"/>
       <c r="H34" s="78"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="89"/>
       <c r="B35" s="92"/>
       <c r="C35" s="93"/>
@@ -18584,7 +18595,7 @@
       <c r="G35" s="93"/>
       <c r="H35" s="78"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="89"/>
       <c r="B36" s="92"/>
       <c r="C36" s="93"/>
@@ -18594,7 +18605,7 @@
       <c r="G36" s="93"/>
       <c r="H36" s="78"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="89"/>
       <c r="B37" s="92"/>
       <c r="C37" s="93"/>
@@ -18604,7 +18615,7 @@
       <c r="G37" s="93"/>
       <c r="H37" s="78"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="89"/>
       <c r="B38" s="92"/>
       <c r="C38" s="93"/>
@@ -18614,7 +18625,7 @@
       <c r="G38" s="93"/>
       <c r="H38" s="78"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="89"/>
       <c r="B39" s="92"/>
       <c r="C39" s="93"/>
@@ -18624,7 +18635,7 @@
       <c r="G39" s="93"/>
       <c r="H39" s="78"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="89"/>
       <c r="B40" s="92"/>
       <c r="C40" s="93"/>
@@ -18634,7 +18645,7 @@
       <c r="G40" s="93"/>
       <c r="H40" s="78"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="89"/>
       <c r="B41" s="92"/>
       <c r="C41" s="93"/>
@@ -18644,7 +18655,7 @@
       <c r="G41" s="93"/>
       <c r="H41" s="78"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
       <c r="C42" s="98"/>
@@ -18668,14 +18679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
@@ -18688,43 +18699,43 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="305" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="311"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="312"/>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="314"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="315" t="s">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="307"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="308"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="310"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="311" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316" t="s">
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="317"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="313"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -18742,7 +18753,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -18756,7 +18767,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -18770,7 +18781,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -18784,7 +18795,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -18798,7 +18809,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -18812,7 +18823,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -18826,7 +18837,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -18840,7 +18851,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -18854,7 +18865,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -18868,7 +18879,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -18882,7 +18893,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -18896,7 +18907,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -18910,7 +18921,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -18924,7 +18935,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -18938,7 +18949,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -18952,7 +18963,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -18966,7 +18977,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -18980,7 +18991,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -18994,7 +19005,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="16">
         <v>20</v>
       </c>
@@ -19008,7 +19019,7 @@
       <c r="G23" s="105"/>
       <c r="H23" s="104"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18.75" thickBot="1">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -19020,7 +19031,7 @@
       <c r="G24" s="106"/>
       <c r="H24" s="102"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -19032,7 +19043,7 @@
       <c r="G25" s="106"/>
       <c r="H25" s="102"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -19044,7 +19055,7 @@
       <c r="G26" s="106"/>
       <c r="H26" s="102"/>
     </row>
-    <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -19056,7 +19067,7 @@
       <c r="G27" s="106"/>
       <c r="H27" s="102"/>
     </row>
-    <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -19068,7 +19079,7 @@
       <c r="G28" s="106"/>
       <c r="H28" s="102"/>
     </row>
-    <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -19080,7 +19091,7 @@
       <c r="G29" s="106"/>
       <c r="H29" s="102"/>
     </row>
-    <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -19092,7 +19103,7 @@
       <c r="G30" s="106"/>
       <c r="H30" s="102"/>
     </row>
-    <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -19104,7 +19115,7 @@
       <c r="G31" s="106"/>
       <c r="H31" s="102"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -19116,7 +19127,7 @@
       <c r="G32" s="106"/>
       <c r="H32" s="102"/>
     </row>
-    <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -19128,7 +19139,7 @@
       <c r="G33" s="106"/>
       <c r="H33" s="102"/>
     </row>
-    <row r="34" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="18.75" thickBot="1">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -19140,7 +19151,7 @@
       <c r="G34" s="106"/>
       <c r="H34" s="102"/>
     </row>
-    <row r="35" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18.75" thickBot="1">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -19152,7 +19163,7 @@
       <c r="G35" s="106"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="18.75" thickBot="1">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -19164,7 +19175,7 @@
       <c r="G36" s="106"/>
       <c r="H36" s="102"/>
     </row>
-    <row r="37" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="18.75" thickBot="1">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -19176,7 +19187,7 @@
       <c r="G37" s="106"/>
       <c r="H37" s="102"/>
     </row>
-    <row r="38" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="18.75" thickBot="1">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -19188,7 +19199,7 @@
       <c r="G38" s="106"/>
       <c r="H38" s="102"/>
     </row>
-    <row r="39" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18.75" thickBot="1">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -19200,7 +19211,7 @@
       <c r="G39" s="106"/>
       <c r="H39" s="102"/>
     </row>
-    <row r="40" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="18.75" thickBot="1">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -19212,7 +19223,7 @@
       <c r="G40" s="106"/>
       <c r="H40" s="102"/>
     </row>
-    <row r="41" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -19224,7 +19235,7 @@
       <c r="G41" s="106"/>
       <c r="H41" s="102"/>
     </row>
-    <row r="42" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="18.75" thickBot="1">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -19236,7 +19247,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="18.75" thickBot="1">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -19248,7 +19259,7 @@
       <c r="G43" s="106"/>
       <c r="H43" s="102"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -19258,7 +19269,7 @@
       <c r="G44" s="21"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -19268,7 +19279,7 @@
       <c r="G45" s="21"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -19278,7 +19289,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC87CC9-1BC2-4253-A7F2-44B9BC310F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1316">
   <si>
     <t>AWACS</t>
   </si>
@@ -3967,17 +3966,23 @@
   </si>
   <si>
     <t>269</t>
+  </si>
+  <si>
+    <t>150.25</t>
+  </si>
+  <si>
+    <t>149.75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6567,348 +6572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="46" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6944,15 +6607,6 @@
     </xf>
     <xf numFmtId="49" fontId="46" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="48" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6967,60 +6621,411 @@
     <xf numFmtId="49" fontId="43" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="47" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="31" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="31" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="31" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="31" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="45" fillId="31" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="31" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="45" fillId="31" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="31" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="31" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="31" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7043,7 +7048,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7085,7 +7090,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7117,27 +7122,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7169,24 +7156,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7362,36 +7331,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="1.88671875" customWidth="1"/>
-    <col min="18" max="18" width="0.6640625" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" customWidth="1"/>
-    <col min="20" max="20" width="1.33203125" customWidth="1"/>
-    <col min="21" max="21" width="0.109375" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" customWidth="1"/>
+    <col min="18" max="18" width="0.7109375" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" customWidth="1"/>
+    <col min="20" max="20" width="1.28515625" customWidth="1"/>
+    <col min="21" max="21" width="0.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.33203125" customWidth="1"/>
+    <col min="33" max="33" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.28515625" customWidth="1"/>
     <col min="36" max="36" width="23" customWidth="1"/>
-    <col min="39" max="39" width="12.88671875" customWidth="1"/>
+    <col min="39" max="39" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42">
       <c r="A1" s="107"/>
       <c r="B1" s="107">
         <v>1</v>
@@ -7431,7 +7400,7 @@
       </c>
       <c r="N1" s="107"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42">
       <c r="A2" s="107" t="s">
         <v>330</v>
       </c>
@@ -7474,15 +7443,15 @@
       <c r="N2" s="107" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="273" t="s">
+      <c r="V2" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="294"/>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3" s="107" t="s">
         <v>331</v>
       </c>
@@ -7529,9 +7498,9 @@
       <c r="P3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" s="277"/>
-      <c r="S3" s="277"/>
-      <c r="T3" s="277"/>
+      <c r="R3" s="293"/>
+      <c r="S3" s="293"/>
+      <c r="T3" s="293"/>
       <c r="V3" s="101" t="s">
         <v>328</v>
       </c>
@@ -7553,7 +7522,7 @@
       <c r="AD3" s="24"/>
       <c r="AE3" s="24"/>
     </row>
-    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75">
       <c r="A4" s="107" t="s">
         <v>332</v>
       </c>
@@ -7613,24 +7582,24 @@
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
-      <c r="AD4" s="273" t="s">
+      <c r="AD4" s="294" t="s">
         <v>429</v>
       </c>
-      <c r="AE4" s="273"/>
-      <c r="AF4" s="273"/>
-      <c r="AG4" s="273"/>
-      <c r="AH4" s="273"/>
-      <c r="AJ4" s="273" t="s">
+      <c r="AE4" s="294"/>
+      <c r="AF4" s="294"/>
+      <c r="AG4" s="294"/>
+      <c r="AH4" s="294"/>
+      <c r="AJ4" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="273"/>
-      <c r="AL4" s="273"/>
-      <c r="AM4" s="273"/>
-      <c r="AN4" s="273"/>
-      <c r="AO4" s="273"/>
-      <c r="AP4" s="273"/>
-    </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AK4" s="294"/>
+      <c r="AL4" s="294"/>
+      <c r="AM4" s="294"/>
+      <c r="AN4" s="294"/>
+      <c r="AO4" s="294"/>
+      <c r="AP4" s="294"/>
+    </row>
+    <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="107" t="s">
         <v>333</v>
       </c>
@@ -7728,7 +7697,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15.75">
       <c r="A6" s="107" t="s">
         <v>334</v>
       </c>
@@ -7816,7 +7785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15.75">
       <c r="A7" s="107" t="s">
         <v>335</v>
       </c>
@@ -7896,7 +7865,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15.75">
       <c r="A8" s="107" t="s">
         <v>336</v>
       </c>
@@ -7976,7 +7945,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15.75">
       <c r="A9" s="107" t="s">
         <v>337</v>
       </c>
@@ -8066,7 +8035,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15.75">
       <c r="A10" s="107" t="s">
         <v>338</v>
       </c>
@@ -8164,7 +8133,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75">
       <c r="A11" s="107" t="s">
         <v>339</v>
       </c>
@@ -8264,7 +8233,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15.75">
       <c r="A12" s="107"/>
       <c r="B12" s="107">
         <v>1</v>
@@ -8351,7 +8320,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75">
       <c r="A13" s="107" t="s">
         <v>340</v>
       </c>
@@ -8451,7 +8420,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75">
       <c r="A14" s="107" t="s">
         <v>341</v>
       </c>
@@ -8541,7 +8510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75">
       <c r="A15" s="107" t="s">
         <v>342</v>
       </c>
@@ -8617,7 +8586,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="15.75">
       <c r="A16" s="107" t="s">
         <v>343</v>
       </c>
@@ -8693,7 +8662,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="15.75">
       <c r="A17" s="107" t="s">
         <v>344</v>
       </c>
@@ -8768,7 +8737,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75">
       <c r="A18" s="107" t="s">
         <v>345</v>
       </c>
@@ -8844,17 +8813,17 @@
       <c r="AH18" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="AJ18" s="273" t="s">
+      <c r="AJ18" s="294" t="s">
         <v>274</v>
       </c>
-      <c r="AK18" s="273"/>
-      <c r="AL18" s="273"/>
-      <c r="AM18" s="273"/>
-      <c r="AN18" s="273"/>
-      <c r="AO18" s="273"/>
-      <c r="AP18" s="273"/>
-    </row>
-    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AK18" s="294"/>
+      <c r="AL18" s="294"/>
+      <c r="AM18" s="294"/>
+      <c r="AN18" s="294"/>
+      <c r="AO18" s="294"/>
+      <c r="AP18" s="294"/>
+    </row>
+    <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="107" t="s">
         <v>346</v>
       </c>
@@ -8942,7 +8911,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42">
       <c r="A20" s="107" t="s">
         <v>347</v>
       </c>
@@ -8985,9 +8954,9 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="277"/>
-      <c r="S20" s="277"/>
-      <c r="T20" s="277"/>
+      <c r="R20" s="293"/>
+      <c r="S20" s="293"/>
+      <c r="T20" s="293"/>
       <c r="U20" s="2"/>
       <c r="V20" s="272" t="s">
         <v>1253</v>
@@ -9039,7 +9008,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42">
       <c r="A21" s="107" t="s">
         <v>348</v>
       </c>
@@ -9128,7 +9097,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42">
       <c r="A22" s="107" t="s">
         <v>349</v>
       </c>
@@ -9210,7 +9179,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42">
       <c r="A23" s="107"/>
       <c r="B23" s="107">
         <v>1</v>
@@ -9288,7 +9257,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42">
       <c r="A24" s="107" t="s">
         <v>350</v>
       </c>
@@ -9355,7 +9324,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42">
       <c r="A25" s="107" t="s">
         <v>351</v>
       </c>
@@ -9402,13 +9371,13 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="X25" s="2"/>
-      <c r="AD25" s="273" t="s">
+      <c r="AD25" s="294" t="s">
         <v>486</v>
       </c>
-      <c r="AE25" s="273"/>
-      <c r="AF25" s="273"/>
-      <c r="AG25" s="273"/>
-      <c r="AH25" s="273"/>
+      <c r="AE25" s="294"/>
+      <c r="AF25" s="294"/>
+      <c r="AG25" s="294"/>
+      <c r="AH25" s="294"/>
       <c r="AJ25" s="116" t="s">
         <v>555</v>
       </c>
@@ -9431,7 +9400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42">
       <c r="A26" s="107" t="s">
         <v>352</v>
       </c>
@@ -9510,7 +9479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42">
       <c r="A27" s="107" t="s">
         <v>353</v>
       </c>
@@ -9571,7 +9540,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42">
       <c r="A28" s="107" t="s">
         <v>354</v>
       </c>
@@ -9615,7 +9584,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42">
       <c r="A29" s="107" t="s">
         <v>355</v>
       </c>
@@ -9658,17 +9627,17 @@
       <c r="N29" s="107" t="s">
         <v>355</v>
       </c>
-      <c r="V29" s="273" t="s">
+      <c r="V29" s="294" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="273"/>
-      <c r="X29" s="273"/>
-      <c r="Y29" s="273"/>
-      <c r="Z29" s="273"/>
-      <c r="AA29" s="273"/>
-      <c r="AB29" s="273"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="W29" s="294"/>
+      <c r="X29" s="294"/>
+      <c r="Y29" s="294"/>
+      <c r="Z29" s="294"/>
+      <c r="AA29" s="294"/>
+      <c r="AB29" s="294"/>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="107"/>
       <c r="B30" s="107">
         <v>1</v>
@@ -9722,17 +9691,17 @@
       </c>
       <c r="AA30" s="29"/>
       <c r="AB30" s="29"/>
-      <c r="AJ30" s="273" t="s">
+      <c r="AJ30" s="294" t="s">
         <v>831</v>
       </c>
-      <c r="AK30" s="273"/>
-      <c r="AL30" s="273"/>
-      <c r="AM30" s="273"/>
-      <c r="AN30" s="273"/>
-      <c r="AO30" s="273"/>
-      <c r="AP30" s="273"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="AK30" s="294"/>
+      <c r="AL30" s="294"/>
+      <c r="AM30" s="294"/>
+      <c r="AN30" s="294"/>
+      <c r="AO30" s="294"/>
+      <c r="AP30" s="294"/>
+    </row>
+    <row r="31" spans="1:42">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -9780,7 +9749,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42">
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
       <c r="V32" s="24"/>
@@ -9810,24 +9779,24 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="22:36">
       <c r="AG34" s="23"/>
       <c r="AH34" s="23"/>
       <c r="AI34" s="23"/>
       <c r="AJ34" s="23"/>
     </row>
-    <row r="37" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="V37" s="273" t="s">
+    <row r="37" spans="22:36">
+      <c r="V37" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="273"/>
-      <c r="X37" s="273"/>
-      <c r="Y37" s="273"/>
-      <c r="Z37" s="273"/>
-      <c r="AA37" s="273"/>
-      <c r="AB37" s="273"/>
-    </row>
-    <row r="38" spans="22:36" x14ac:dyDescent="0.3">
+      <c r="W37" s="294"/>
+      <c r="X37" s="294"/>
+      <c r="Y37" s="294"/>
+      <c r="Z37" s="294"/>
+      <c r="AA37" s="294"/>
+      <c r="AB37" s="294"/>
+    </row>
+    <row r="38" spans="22:36">
       <c r="V38" s="29" t="s">
         <v>218</v>
       </c>
@@ -9845,13 +9814,13 @@
       </c>
       <c r="AA38" s="29"/>
       <c r="AB38" s="29"/>
-      <c r="AD38" s="278" t="s">
+      <c r="AD38" s="295" t="s">
         <v>260</v>
       </c>
-      <c r="AE38" s="279"/>
-      <c r="AF38" s="280"/>
-    </row>
-    <row r="39" spans="22:36" x14ac:dyDescent="0.3">
+      <c r="AE38" s="296"/>
+      <c r="AF38" s="297"/>
+    </row>
+    <row r="39" spans="22:36">
       <c r="V39" s="3" t="s">
         <v>329</v>
       </c>
@@ -9871,37 +9840,37 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="22:36">
       <c r="AD40" s="3" t="s">
         <v>252</v>
       </c>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="22:36">
       <c r="AD41" s="3" t="s">
         <v>253</v>
       </c>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="V42" s="273" t="s">
+    <row r="42" spans="22:36">
+      <c r="V42" s="294" t="s">
         <v>244</v>
       </c>
-      <c r="W42" s="273"/>
-      <c r="X42" s="273"/>
-      <c r="Y42" s="273"/>
-      <c r="Z42" s="273"/>
-      <c r="AA42" s="273"/>
-      <c r="AB42" s="273"/>
+      <c r="W42" s="294"/>
+      <c r="X42" s="294"/>
+      <c r="Y42" s="294"/>
+      <c r="Z42" s="294"/>
+      <c r="AA42" s="294"/>
+      <c r="AB42" s="294"/>
       <c r="AD42" s="3" t="s">
         <v>254</v>
       </c>
       <c r="AE42" s="9"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="22:36">
       <c r="V43" s="29" t="s">
         <v>428</v>
       </c>
@@ -9927,7 +9896,7 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="22:36">
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -9941,14 +9910,14 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="22:36">
       <c r="AD45" s="3" t="s">
         <v>257</v>
       </c>
       <c r="AE45" s="9"/>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="22:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="22:36">
       <c r="Z46" s="24"/>
       <c r="AD46" s="3" t="s">
         <v>258</v>
@@ -9956,30 +9925,30 @@
       <c r="AE46" s="9"/>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="22:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="22:36" ht="15.75" thickBot="1">
       <c r="AD47" s="3" t="s">
         <v>259</v>
       </c>
       <c r="AE47" s="9"/>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="22:36" x14ac:dyDescent="0.3">
-      <c r="V48" s="274" t="s">
+    <row r="48" spans="22:36">
+      <c r="V48" s="298" t="s">
         <v>473</v>
       </c>
-      <c r="W48" s="275"/>
-      <c r="X48" s="275"/>
-      <c r="Y48" s="275"/>
-      <c r="Z48" s="275"/>
-      <c r="AA48" s="275"/>
-      <c r="AB48" s="276"/>
+      <c r="W48" s="299"/>
+      <c r="X48" s="299"/>
+      <c r="Y48" s="299"/>
+      <c r="Z48" s="299"/>
+      <c r="AA48" s="299"/>
+      <c r="AB48" s="300"/>
       <c r="AD48" s="3" t="s">
         <v>261</v>
       </c>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="22:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="22:32" ht="15.75" thickBot="1">
       <c r="V49" s="233" t="s">
         <v>278</v>
       </c>
@@ -10005,7 +9974,7 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="22:32">
       <c r="V50" s="225" t="s">
         <v>475</v>
       </c>
@@ -10029,7 +9998,7 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="22:32">
       <c r="V51" s="228" t="s">
         <v>475</v>
       </c>
@@ -10049,7 +10018,7 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="22:32">
       <c r="V52" s="228" t="s">
         <v>475</v>
       </c>
@@ -10069,7 +10038,7 @@
       <c r="AE52" s="9"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="22:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="22:32" ht="15.75" thickBot="1">
       <c r="V53" s="230" t="s">
         <v>907</v>
       </c>
@@ -10091,7 +10060,7 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="22:32">
       <c r="V54" s="225" t="s">
         <v>688</v>
       </c>
@@ -10115,7 +10084,7 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="22:32">
       <c r="V55" s="228" t="s">
         <v>688</v>
       </c>
@@ -10130,7 +10099,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="229"/>
     </row>
-    <row r="56" spans="22:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="22:32" ht="15.75" thickBot="1">
       <c r="V56" s="230" t="s">
         <v>688</v>
       </c>
@@ -10147,7 +10116,7 @@
       <c r="AA56" s="231"/>
       <c r="AB56" s="232"/>
     </row>
-    <row r="57" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="22:32">
       <c r="V57" s="225" t="s">
         <v>905</v>
       </c>
@@ -10164,7 +10133,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="58" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="22:32">
       <c r="V58" s="228" t="s">
         <v>905</v>
       </c>
@@ -10179,7 +10148,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="229"/>
     </row>
-    <row r="59" spans="22:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="22:32" ht="15.75" thickBot="1">
       <c r="V59" s="230" t="s">
         <v>905</v>
       </c>
@@ -10192,7 +10161,7 @@
       <c r="AA59" s="231"/>
       <c r="AB59" s="232"/>
     </row>
-    <row r="60" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="22:32">
       <c r="V60" s="225" t="s">
         <v>929</v>
       </c>
@@ -10209,7 +10178,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="61" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="22:32">
       <c r="V61" s="228" t="s">
         <v>929</v>
       </c>
@@ -10224,7 +10193,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="229"/>
     </row>
-    <row r="62" spans="22:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="22:32" ht="15.75" thickBot="1">
       <c r="V62" s="230" t="s">
         <v>929</v>
       </c>
@@ -10237,7 +10206,7 @@
       <c r="AA62" s="231"/>
       <c r="AB62" s="232"/>
     </row>
-    <row r="63" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="22:32">
       <c r="V63" s="225" t="s">
         <v>696</v>
       </c>
@@ -10245,7 +10214,7 @@
         <v>906</v>
       </c>
       <c r="X63" s="226" t="s">
-        <v>628</v>
+        <v>1314</v>
       </c>
       <c r="Y63" s="226"/>
       <c r="Z63" s="226"/>
@@ -10254,7 +10223,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="64" spans="22:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="22:32">
       <c r="V64" s="228" t="s">
         <v>696</v>
       </c>
@@ -10262,14 +10231,14 @@
         <v>249</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>918</v>
+        <v>1315</v>
       </c>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="229"/>
     </row>
-    <row r="65" spans="22:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="22:28" ht="15.75" thickBot="1">
       <c r="V65" s="230" t="s">
         <v>696</v>
       </c>
@@ -10286,7 +10255,7 @@
       <c r="AA65" s="231"/>
       <c r="AB65" s="232"/>
     </row>
-    <row r="66" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="22:28">
       <c r="V66" s="225" t="s">
         <v>909</v>
       </c>
@@ -10303,7 +10272,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="67" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="22:28">
       <c r="V67" s="228" t="s">
         <v>909</v>
       </c>
@@ -10318,7 +10287,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="229"/>
     </row>
-    <row r="68" spans="22:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="22:28" ht="15.75" thickBot="1">
       <c r="V68" s="230" t="s">
         <v>909</v>
       </c>
@@ -10335,7 +10304,7 @@
       <c r="AA68" s="231"/>
       <c r="AB68" s="232"/>
     </row>
-    <row r="69" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="22:28">
       <c r="V69" s="225" t="s">
         <v>910</v>
       </c>
@@ -10352,7 +10321,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="70" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="22:28">
       <c r="V70" s="228" t="s">
         <v>910</v>
       </c>
@@ -10367,7 +10336,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="229"/>
     </row>
-    <row r="71" spans="22:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="22:28" ht="15.75" thickBot="1">
       <c r="V71" s="230" t="s">
         <v>910</v>
       </c>
@@ -10384,7 +10353,7 @@
       <c r="AA71" s="231"/>
       <c r="AB71" s="232"/>
     </row>
-    <row r="72" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="22:28">
       <c r="V72" s="225" t="s">
         <v>699</v>
       </c>
@@ -10401,7 +10370,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="73" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="22:28">
       <c r="V73" s="228" t="s">
         <v>699</v>
       </c>
@@ -10416,7 +10385,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="229"/>
     </row>
-    <row r="74" spans="22:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="22:28" ht="15.75" thickBot="1">
       <c r="V74" s="230" t="s">
         <v>699</v>
       </c>
@@ -10433,7 +10402,7 @@
       <c r="AA74" s="231"/>
       <c r="AB74" s="232"/>
     </row>
-    <row r="75" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="22:28">
       <c r="V75" s="225" t="s">
         <v>911</v>
       </c>
@@ -10450,7 +10419,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="76" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="22:28">
       <c r="V76" s="228" t="s">
         <v>911</v>
       </c>
@@ -10465,7 +10434,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="229"/>
     </row>
-    <row r="77" spans="22:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="22:28" ht="15.75" thickBot="1">
       <c r="V77" s="230" t="s">
         <v>911</v>
       </c>
@@ -10482,7 +10451,7 @@
       <c r="AA77" s="231"/>
       <c r="AB77" s="232"/>
     </row>
-    <row r="78" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="22:28">
       <c r="V78" s="225" t="s">
         <v>912</v>
       </c>
@@ -10499,7 +10468,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="79" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="22:28">
       <c r="V79" s="228" t="s">
         <v>912</v>
       </c>
@@ -10514,7 +10483,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="229"/>
     </row>
-    <row r="80" spans="22:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="22:28" ht="15.75" thickBot="1">
       <c r="V80" s="230" t="s">
         <v>912</v>
       </c>
@@ -10531,7 +10500,7 @@
       <c r="AA80" s="231"/>
       <c r="AB80" s="232"/>
     </row>
-    <row r="81" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="22:28">
       <c r="V81" s="225" t="s">
         <v>913</v>
       </c>
@@ -10548,7 +10517,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="82" spans="22:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="22:28">
       <c r="V82" s="228" t="s">
         <v>913</v>
       </c>
@@ -10563,7 +10532,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="229"/>
     </row>
-    <row r="83" spans="22:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="22:28" ht="15.75" thickBot="1">
       <c r="V83" s="230" t="s">
         <v>913</v>
       </c>
@@ -10582,6 +10551,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -10590,11 +10564,6 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ30:AP30"/>
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10602,62 +10571,62 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="352" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="391" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="354"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="355"/>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="357"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="358" t="s">
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="393"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="394"/>
+      <c r="B2" s="395"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="395"/>
+      <c r="H2" s="396"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" thickBot="1">
+      <c r="A3" s="397" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="358" t="s">
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="397" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
-      <c r="H3" s="360"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="399"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="166">
         <v>1</v>
       </c>
@@ -10679,7 +10648,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="171">
         <v>2</v>
       </c>
@@ -10701,7 +10670,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="171">
         <v>3</v>
       </c>
@@ -10723,7 +10692,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="171">
         <v>4</v>
       </c>
@@ -10747,7 +10716,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="171">
         <v>5</v>
       </c>
@@ -10771,7 +10740,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="171">
         <v>6</v>
       </c>
@@ -10795,7 +10764,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="171">
         <v>7</v>
       </c>
@@ -10819,7 +10788,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="171">
         <v>8</v>
       </c>
@@ -10843,7 +10812,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="171">
         <v>9</v>
       </c>
@@ -10867,7 +10836,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="171">
         <v>10</v>
       </c>
@@ -10889,7 +10858,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="171">
         <v>11</v>
       </c>
@@ -10907,7 +10876,7 @@
       <c r="G14" s="142"/>
       <c r="H14" s="172"/>
     </row>
-    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="171">
         <v>12</v>
       </c>
@@ -10931,7 +10900,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="171">
         <v>13</v>
       </c>
@@ -10955,7 +10924,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="171">
         <v>14</v>
       </c>
@@ -10979,7 +10948,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="171">
         <v>15</v>
       </c>
@@ -11003,7 +10972,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="171">
         <v>16</v>
       </c>
@@ -11027,7 +10996,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="171">
         <v>17</v>
       </c>
@@ -11051,7 +11020,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="171">
         <v>18</v>
       </c>
@@ -11075,7 +11044,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="171">
         <v>19</v>
       </c>
@@ -11099,7 +11068,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="171" t="s">
         <v>798</v>
       </c>
@@ -11117,7 +11086,7 @@
       <c r="G23" s="143"/>
       <c r="H23" s="172"/>
     </row>
-    <row r="24" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="17.25" thickBot="1">
       <c r="A24" s="152"/>
       <c r="B24" s="144"/>
       <c r="C24" s="144"/>
@@ -11127,21 +11096,21 @@
       <c r="G24" s="154"/>
       <c r="H24" s="146"/>
     </row>
-    <row r="25" spans="1:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="361" t="s">
+    <row r="25" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A25" s="400" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="362"/>
-      <c r="C25" s="362"/>
-      <c r="D25" s="363"/>
-      <c r="E25" s="361" t="s">
+      <c r="B25" s="401"/>
+      <c r="C25" s="401"/>
+      <c r="D25" s="402"/>
+      <c r="E25" s="400" t="s">
         <v>801</v>
       </c>
-      <c r="F25" s="362"/>
-      <c r="G25" s="362"/>
-      <c r="H25" s="363"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="F25" s="401"/>
+      <c r="G25" s="401"/>
+      <c r="H25" s="402"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="155">
         <v>1</v>
       </c>
@@ -11165,7 +11134,7 @@
       </c>
       <c r="H26" s="156"/>
     </row>
-    <row r="27" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="157">
         <v>2</v>
       </c>
@@ -11183,7 +11152,7 @@
       </c>
       <c r="H27" s="158"/>
     </row>
-    <row r="28" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="157">
         <v>3</v>
       </c>
@@ -11201,7 +11170,7 @@
       </c>
       <c r="H28" s="158"/>
     </row>
-    <row r="29" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="157">
         <v>4</v>
       </c>
@@ -11219,7 +11188,7 @@
       </c>
       <c r="H29" s="158"/>
     </row>
-    <row r="30" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="157">
         <v>5</v>
       </c>
@@ -11237,7 +11206,7 @@
       </c>
       <c r="H30" s="158"/>
     </row>
-    <row r="31" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="157">
         <v>6</v>
       </c>
@@ -11255,7 +11224,7 @@
       </c>
       <c r="H31" s="158"/>
     </row>
-    <row r="32" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="157">
         <v>7</v>
       </c>
@@ -11273,7 +11242,7 @@
       </c>
       <c r="H32" s="158"/>
     </row>
-    <row r="33" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="157">
         <v>8</v>
       </c>
@@ -11291,7 +11260,7 @@
       </c>
       <c r="H33" s="158"/>
     </row>
-    <row r="34" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="157">
         <v>9</v>
       </c>
@@ -11309,7 +11278,7 @@
       </c>
       <c r="H34" s="158"/>
     </row>
-    <row r="35" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="157">
         <v>10</v>
       </c>
@@ -11327,7 +11296,7 @@
       </c>
       <c r="H35" s="158"/>
     </row>
-    <row r="36" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="157">
         <v>11</v>
       </c>
@@ -11345,7 +11314,7 @@
       </c>
       <c r="H36" s="158"/>
     </row>
-    <row r="37" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="157">
         <v>12</v>
       </c>
@@ -11365,7 +11334,7 @@
       <c r="G37" s="149"/>
       <c r="H37" s="158"/>
     </row>
-    <row r="38" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="157">
         <v>13</v>
       </c>
@@ -11385,7 +11354,7 @@
       <c r="G38" s="149"/>
       <c r="H38" s="159"/>
     </row>
-    <row r="39" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="157">
         <v>14</v>
       </c>
@@ -11405,7 +11374,7 @@
       <c r="G39" s="149"/>
       <c r="H39" s="159"/>
     </row>
-    <row r="40" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="157">
         <v>15</v>
       </c>
@@ -11425,7 +11394,7 @@
       <c r="G40" s="149"/>
       <c r="H40" s="159"/>
     </row>
-    <row r="41" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="157">
         <v>16</v>
       </c>
@@ -11445,7 +11414,7 @@
       <c r="G41" s="149"/>
       <c r="H41" s="159"/>
     </row>
-    <row r="42" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="157">
         <v>17</v>
       </c>
@@ -11465,7 +11434,7 @@
       <c r="G42" s="149"/>
       <c r="H42" s="159"/>
     </row>
-    <row r="43" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="157">
         <v>18</v>
       </c>
@@ -11485,7 +11454,7 @@
       <c r="G43" s="149"/>
       <c r="H43" s="159"/>
     </row>
-    <row r="44" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="157">
         <v>19</v>
       </c>
@@ -11505,7 +11474,7 @@
       <c r="G44" s="149"/>
       <c r="H44" s="159"/>
     </row>
-    <row r="45" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="160" t="s">
         <v>798</v>
       </c>
@@ -11533,63 +11502,63 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="364" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="420" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
-      <c r="G1" s="364"/>
-      <c r="H1" s="364"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="365"/>
-      <c r="B2" s="365"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365"/>
-      <c r="H2" s="365"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="366" t="s">
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="420"/>
+      <c r="G1" s="420"/>
+      <c r="H1" s="420"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="421"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="421"/>
+      <c r="F2" s="421"/>
+      <c r="G2" s="421"/>
+      <c r="H2" s="421"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" thickBot="1">
+      <c r="A3" s="422" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="367"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="366" t="s">
+      <c r="B3" s="423"/>
+      <c r="C3" s="424"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="422" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="367"/>
-      <c r="G3" s="368"/>
-      <c r="H3" s="369"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F3" s="423"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="425"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -11603,7 +11572,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="38"/>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18">
       <c r="A5" s="39">
         <v>2</v>
       </c>
@@ -11617,7 +11586,7 @@
       <c r="G5" s="45"/>
       <c r="H5" s="46"/>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -11631,7 +11600,7 @@
       <c r="G6" s="41"/>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18">
       <c r="A7" s="39">
         <v>4</v>
       </c>
@@ -11645,7 +11614,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18">
       <c r="A8" s="43">
         <v>5</v>
       </c>
@@ -11659,7 +11628,7 @@
       <c r="G8" s="41"/>
       <c r="H8" s="48"/>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18">
       <c r="A9" s="39">
         <v>6</v>
       </c>
@@ -11673,7 +11642,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="46"/>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18">
       <c r="A10" s="43">
         <v>7</v>
       </c>
@@ -11687,7 +11656,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="48"/>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18">
       <c r="A11" s="39">
         <v>8</v>
       </c>
@@ -11701,7 +11670,7 @@
       <c r="G11" s="45"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="43">
         <v>9</v>
       </c>
@@ -11715,7 +11684,7 @@
       <c r="G12" s="41"/>
       <c r="H12" s="48"/>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18">
       <c r="A13" s="39">
         <v>10</v>
       </c>
@@ -11729,7 +11698,7 @@
       <c r="G13" s="45"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18">
       <c r="A14" s="43">
         <v>11</v>
       </c>
@@ -11743,7 +11712,7 @@
       <c r="G14" s="41"/>
       <c r="H14" s="48"/>
     </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18">
       <c r="A15" s="39">
         <v>12</v>
       </c>
@@ -11757,7 +11726,7 @@
       <c r="G15" s="45"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18">
       <c r="A16" s="43">
         <v>13</v>
       </c>
@@ -11771,7 +11740,7 @@
       <c r="G16" s="41"/>
       <c r="H16" s="48"/>
     </row>
-    <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="39">
         <v>14</v>
       </c>
@@ -11785,7 +11754,7 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="43">
         <v>15</v>
       </c>
@@ -11799,7 +11768,7 @@
       <c r="G18" s="41"/>
       <c r="H18" s="48"/>
     </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="39">
         <v>16</v>
       </c>
@@ -11813,7 +11782,7 @@
       <c r="G19" s="45"/>
       <c r="H19" s="46"/>
     </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18">
       <c r="A20" s="43">
         <v>17</v>
       </c>
@@ -11827,7 +11796,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="48"/>
     </row>
-    <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18">
       <c r="A21" s="39">
         <v>18</v>
       </c>
@@ -11841,7 +11810,7 @@
       <c r="G21" s="45"/>
       <c r="H21" s="46"/>
     </row>
-    <row r="22" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18">
       <c r="A22" s="43">
         <v>19</v>
       </c>
@@ -11855,7 +11824,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="48"/>
     </row>
-    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="51">
         <v>20</v>
       </c>
@@ -11869,7 +11838,7 @@
       <c r="G23" s="57"/>
       <c r="H23" s="58"/>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -11879,242 +11848,271 @@
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="366" t="s">
+    <row r="25" spans="1:8" ht="24" thickBot="1">
+      <c r="A25" s="422" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="367"/>
-      <c r="C25" s="368"/>
-      <c r="D25" s="369"/>
-      <c r="E25" s="366" t="s">
+      <c r="B25" s="423"/>
+      <c r="C25" s="424"/>
+      <c r="D25" s="425"/>
+      <c r="E25" s="422" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="367"/>
-      <c r="G25" s="368"/>
-      <c r="H25" s="369"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="423"/>
+      <c r="G25" s="424"/>
+      <c r="H25" s="425"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="B26" s="370"/>
-      <c r="C26" s="371"/>
-      <c r="D26" s="372"/>
+      <c r="B26" s="409"/>
+      <c r="C26" s="410"/>
+      <c r="D26" s="411"/>
       <c r="E26" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="373"/>
-      <c r="G26" s="374"/>
-      <c r="H26" s="375"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="417"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="376"/>
-      <c r="C27" s="377"/>
-      <c r="D27" s="378"/>
+      <c r="B27" s="412"/>
+      <c r="C27" s="413"/>
+      <c r="D27" s="415"/>
       <c r="E27" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="F27" s="370"/>
-      <c r="G27" s="371"/>
-      <c r="H27" s="379"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="409"/>
+      <c r="G27" s="410"/>
+      <c r="H27" s="416"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="370"/>
-      <c r="C28" s="371"/>
-      <c r="D28" s="372"/>
+      <c r="B28" s="409"/>
+      <c r="C28" s="410"/>
+      <c r="D28" s="411"/>
       <c r="E28" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="376"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="380"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="412"/>
+      <c r="G28" s="413"/>
+      <c r="H28" s="414"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B29" s="376"/>
-      <c r="C29" s="377"/>
-      <c r="D29" s="378"/>
+      <c r="B29" s="412"/>
+      <c r="C29" s="413"/>
+      <c r="D29" s="415"/>
       <c r="E29" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="F29" s="370"/>
-      <c r="G29" s="371"/>
-      <c r="H29" s="379"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="409"/>
+      <c r="G29" s="410"/>
+      <c r="H29" s="416"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="370"/>
-      <c r="C30" s="371"/>
-      <c r="D30" s="372"/>
+      <c r="B30" s="409"/>
+      <c r="C30" s="410"/>
+      <c r="D30" s="411"/>
       <c r="E30" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="376"/>
-      <c r="G30" s="377"/>
-      <c r="H30" s="380"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="412"/>
+      <c r="G30" s="413"/>
+      <c r="H30" s="414"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="376"/>
-      <c r="C31" s="377"/>
-      <c r="D31" s="378"/>
+      <c r="B31" s="412"/>
+      <c r="C31" s="413"/>
+      <c r="D31" s="415"/>
       <c r="E31" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="370"/>
-      <c r="G31" s="371"/>
-      <c r="H31" s="379"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="409"/>
+      <c r="G31" s="410"/>
+      <c r="H31" s="416"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="B32" s="370"/>
-      <c r="C32" s="371"/>
-      <c r="D32" s="372"/>
+      <c r="B32" s="409"/>
+      <c r="C32" s="410"/>
+      <c r="D32" s="411"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="376"/>
-      <c r="G32" s="377"/>
-      <c r="H32" s="380" t="s">
+      <c r="F32" s="412"/>
+      <c r="G32" s="413"/>
+      <c r="H32" s="414" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
       <c r="A33" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="376"/>
-      <c r="C33" s="377"/>
-      <c r="D33" s="378"/>
+      <c r="B33" s="412"/>
+      <c r="C33" s="413"/>
+      <c r="D33" s="415"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="371"/>
-      <c r="H33" s="379" t="s">
+      <c r="F33" s="409"/>
+      <c r="G33" s="410"/>
+      <c r="H33" s="416" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="18.75" thickBot="1">
       <c r="A34" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="370"/>
-      <c r="C34" s="371"/>
-      <c r="D34" s="372"/>
+      <c r="B34" s="409"/>
+      <c r="C34" s="410"/>
+      <c r="D34" s="411"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="376"/>
-      <c r="G34" s="377"/>
-      <c r="H34" s="380" t="s">
+      <c r="F34" s="412"/>
+      <c r="G34" s="413"/>
+      <c r="H34" s="414" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="18.75" thickBot="1">
       <c r="A35" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="376"/>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
+      <c r="B35" s="412"/>
+      <c r="C35" s="413"/>
+      <c r="D35" s="415"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="370"/>
-      <c r="G35" s="371"/>
-      <c r="H35" s="379" t="s">
+      <c r="F35" s="409"/>
+      <c r="G35" s="410"/>
+      <c r="H35" s="416" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="18.75" thickBot="1">
       <c r="A36" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="370"/>
-      <c r="C36" s="371"/>
-      <c r="D36" s="372"/>
+      <c r="B36" s="409"/>
+      <c r="C36" s="410"/>
+      <c r="D36" s="411"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="376"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="380" t="s">
+      <c r="F36" s="412"/>
+      <c r="G36" s="413"/>
+      <c r="H36" s="414" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="18.75" thickBot="1">
       <c r="A37" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="376"/>
-      <c r="C37" s="377"/>
-      <c r="D37" s="378"/>
+      <c r="B37" s="412"/>
+      <c r="C37" s="413"/>
+      <c r="D37" s="415"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="370"/>
-      <c r="G37" s="371"/>
-      <c r="H37" s="379" t="s">
+      <c r="F37" s="409"/>
+      <c r="G37" s="410"/>
+      <c r="H37" s="416" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="18.75" thickBot="1">
       <c r="A38" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="370"/>
-      <c r="C38" s="371"/>
-      <c r="D38" s="372"/>
+      <c r="B38" s="409"/>
+      <c r="C38" s="410"/>
+      <c r="D38" s="411"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="376"/>
-      <c r="G38" s="377"/>
-      <c r="H38" s="380" t="s">
+      <c r="F38" s="412"/>
+      <c r="G38" s="413"/>
+      <c r="H38" s="414" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="18.75" thickBot="1">
       <c r="A39" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="376"/>
-      <c r="C39" s="377"/>
-      <c r="D39" s="378"/>
+      <c r="B39" s="412"/>
+      <c r="C39" s="413"/>
+      <c r="D39" s="415"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="370"/>
-      <c r="G39" s="371"/>
-      <c r="H39" s="379" t="s">
+      <c r="F39" s="409"/>
+      <c r="G39" s="410"/>
+      <c r="H39" s="416" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="18.75" thickBot="1">
       <c r="A40" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="B40" s="370"/>
-      <c r="C40" s="371"/>
-      <c r="D40" s="372"/>
+      <c r="B40" s="409"/>
+      <c r="C40" s="410"/>
+      <c r="D40" s="411"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="376"/>
-      <c r="G40" s="377"/>
-      <c r="H40" s="380"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="412"/>
+      <c r="G40" s="413"/>
+      <c r="H40" s="414"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="381"/>
-      <c r="C41" s="382"/>
-      <c r="D41" s="383"/>
+      <c r="B41" s="403"/>
+      <c r="C41" s="404"/>
+      <c r="D41" s="405"/>
       <c r="E41" s="60"/>
-      <c r="F41" s="384"/>
-      <c r="G41" s="385"/>
-      <c r="H41" s="386"/>
+      <c r="F41" s="406"/>
+      <c r="G41" s="407"/>
+      <c r="H41" s="408"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -12123,35 +12121,6 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12159,33 +12128,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="7" max="7" width="2.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="59"/>
-    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="59"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" customWidth="1"/>
-    <col min="19" max="19" width="1.5546875" customWidth="1"/>
-    <col min="25" max="25" width="1.5546875" customWidth="1"/>
-    <col min="30" max="30" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="1.44140625" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="1.5703125" customWidth="1"/>
+    <col min="25" max="25" width="1.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:42">
       <c r="D1" t="s">
         <v>824</v>
       </c>
@@ -12205,58 +12174,58 @@
         <v>829</v>
       </c>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B2" s="273" t="s">
+    <row r="2" spans="2:42">
+      <c r="B2" s="294" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="H2" s="273" t="s">
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="H2" s="294" t="s">
         <v>1055</v>
       </c>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="N2" s="273" t="s">
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="N2" s="294" t="s">
         <v>1054</v>
       </c>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="T2" s="273" t="s">
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="294"/>
+      <c r="T2" s="294" t="s">
         <v>236</v>
       </c>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Z2" s="273" t="s">
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Z2" s="294" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AF2" s="273" t="s">
+      <c r="AA2" s="294"/>
+      <c r="AB2" s="294"/>
+      <c r="AC2" s="294"/>
+      <c r="AD2" s="294"/>
+      <c r="AF2" s="294" t="s">
         <v>317</v>
       </c>
-      <c r="AG2" s="273"/>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="273"/>
-      <c r="AJ2" s="273"/>
-      <c r="AL2" s="273" t="s">
+      <c r="AG2" s="294"/>
+      <c r="AH2" s="294"/>
+      <c r="AI2" s="294"/>
+      <c r="AJ2" s="294"/>
+      <c r="AL2" s="294" t="s">
         <v>491</v>
       </c>
-      <c r="AM2" s="273"/>
-      <c r="AN2" s="273"/>
-      <c r="AO2" s="273"/>
-      <c r="AP2" s="273"/>
-    </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="AM2" s="294"/>
+      <c r="AN2" s="294"/>
+      <c r="AO2" s="294"/>
+      <c r="AP2" s="294"/>
+    </row>
+    <row r="3" spans="2:42">
       <c r="B3" s="101" t="s">
         <v>218</v>
       </c>
@@ -12363,7 +12332,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:42">
       <c r="B4" s="3" t="s">
         <v>325</v>
       </c>
@@ -12449,7 +12418,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:42">
       <c r="B5" s="3" t="s">
         <v>672</v>
       </c>
@@ -12502,7 +12471,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:42">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="104" t="s">
@@ -12551,7 +12520,7 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:42">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="104" t="s">
@@ -12600,7 +12569,7 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:42">
       <c r="B8" s="245"/>
       <c r="C8" s="245"/>
       <c r="D8" s="246"/>
@@ -12643,7 +12612,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:42">
       <c r="B9" s="3" t="s">
         <v>667</v>
       </c>
@@ -12710,7 +12679,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:42">
       <c r="B10" s="3" t="s">
         <v>672</v>
       </c>
@@ -12761,7 +12730,7 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:42">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="104" t="s">
@@ -12810,7 +12779,7 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:42">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="104" t="s">
@@ -12877,7 +12846,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:42">
       <c r="B13" s="245"/>
       <c r="C13" s="245"/>
       <c r="D13" s="246"/>
@@ -12904,7 +12873,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:42">
       <c r="B14" s="3" t="s">
         <v>665</v>
       </c>
@@ -12971,7 +12940,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:42">
       <c r="B15" s="3" t="s">
         <v>673</v>
       </c>
@@ -13024,7 +12993,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:42">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="104" t="s">
@@ -13070,7 +13039,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="104" t="s">
@@ -13116,7 +13085,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26">
       <c r="A18" s="247"/>
       <c r="B18" s="245"/>
       <c r="C18" s="245"/>
@@ -13139,7 +13108,7 @@
       <c r="W18" s="246"/>
       <c r="X18" s="246"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26">
       <c r="B19" s="3" t="s">
         <v>666</v>
       </c>
@@ -13204,7 +13173,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26">
       <c r="B20" s="3" t="s">
         <v>673</v>
       </c>
@@ -13255,7 +13224,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="104" t="s">
@@ -13291,7 +13260,7 @@
       </c>
       <c r="X21" s="59"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="104" t="s">
@@ -13327,7 +13296,7 @@
       </c>
       <c r="X22" s="59"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26">
       <c r="D23" s="59"/>
       <c r="F23" s="59"/>
       <c r="H23" s="245"/>
@@ -13342,7 +13311,7 @@
       <c r="R23" s="246"/>
       <c r="X23" s="59"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26">
       <c r="D24" s="59"/>
       <c r="F24" s="59"/>
       <c r="H24" s="3" t="s">
@@ -13377,7 +13346,7 @@
       </c>
       <c r="X24" s="59"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="104" t="s">
@@ -13402,7 +13371,7 @@
       </c>
       <c r="X25" s="59"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="104" t="s">
@@ -13427,7 +13396,7 @@
       </c>
       <c r="X26" s="59"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="104" t="s">
@@ -13452,7 +13421,7 @@
       </c>
       <c r="X27" s="59"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26">
       <c r="H28" s="245"/>
       <c r="I28" s="245"/>
       <c r="J28" s="246"/>
@@ -13465,7 +13434,7 @@
       <c r="R28" s="246"/>
       <c r="X28" s="59"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26">
       <c r="H29" s="3" t="s">
         <v>749</v>
       </c>
@@ -13498,7 +13467,7 @@
       </c>
       <c r="X29" s="59"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="104" t="s">
@@ -13523,7 +13492,7 @@
       </c>
       <c r="X30" s="59"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26">
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="104" t="s">
@@ -13548,7 +13517,7 @@
       </c>
       <c r="X31" s="59"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26">
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="104" t="s">
@@ -13573,7 +13542,7 @@
       </c>
       <c r="X32" s="59"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24">
       <c r="H33" s="245"/>
       <c r="I33" s="245"/>
       <c r="J33" s="246"/>
@@ -13586,7 +13555,7 @@
       <c r="R33" s="246"/>
       <c r="X33" s="59"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24">
       <c r="H34" s="3" t="s">
         <v>562</v>
       </c>
@@ -13619,7 +13588,7 @@
       </c>
       <c r="X34" s="59"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24">
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="104" t="s">
@@ -13644,7 +13613,7 @@
       </c>
       <c r="X35" s="59"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24">
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="104"/>
@@ -13663,7 +13632,7 @@
       </c>
       <c r="X36" s="59"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24">
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="104" t="s">
@@ -13677,29 +13646,29 @@
       </c>
       <c r="X37" s="59"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24">
       <c r="X38" s="59"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24">
       <c r="X39" s="59"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B41" s="273" t="s">
+    <row r="41" spans="2:24">
+      <c r="B41" s="294" t="s">
         <v>697</v>
       </c>
-      <c r="C41" s="273"/>
-      <c r="D41" s="273"/>
-      <c r="E41" s="273"/>
-      <c r="F41" s="273"/>
-      <c r="H41" s="273" t="s">
+      <c r="C41" s="294"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="294"/>
+      <c r="H41" s="294" t="s">
         <v>750</v>
       </c>
-      <c r="I41" s="273"/>
-      <c r="J41" s="273"/>
-      <c r="K41" s="273"/>
-      <c r="L41" s="273"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="294"/>
+      <c r="L41" s="294"/>
+    </row>
+    <row r="42" spans="2:24">
       <c r="B42" s="101" t="s">
         <v>218</v>
       </c>
@@ -13731,7 +13700,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24">
       <c r="B43" s="3" t="s">
         <v>493</v>
       </c>
@@ -13763,7 +13732,7 @@
         <v>11311</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="104" t="s">
@@ -13787,7 +13756,7 @@
         <v>11312</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="104" t="s">
@@ -13811,7 +13780,7 @@
         <v>11313</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="104" t="s">
@@ -13835,7 +13804,7 @@
         <v>11314</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="104"/>
@@ -13847,7 +13816,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:24">
       <c r="B48" s="3" t="s">
         <v>687</v>
       </c>
@@ -13879,7 +13848,7 @@
         <v>11321</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="104">
@@ -13903,7 +13872,7 @@
         <v>11322</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="104">
@@ -13927,7 +13896,7 @@
         <v>11323</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="104">
@@ -13951,7 +13920,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="104"/>
@@ -13963,7 +13932,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12">
       <c r="B53" s="3" t="s">
         <v>691</v>
       </c>
@@ -13995,7 +13964,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="104" t="s">
@@ -14019,7 +13988,7 @@
         <v>11332</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="104">
@@ -14043,7 +14012,7 @@
         <v>11333</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="104">
@@ -14067,7 +14036,7 @@
         <v>11334</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -14079,7 +14048,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12">
       <c r="B58" s="3" t="s">
         <v>698</v>
       </c>
@@ -14111,7 +14080,7 @@
         <v>11341</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="104">
@@ -14135,7 +14104,7 @@
         <v>11342</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="104">
@@ -14159,7 +14128,7 @@
         <v>11343</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="104">
@@ -14204,72 +14173,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="59" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
-    <col min="20" max="20" width="1.5546875" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="1.44140625" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="59" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="20" max="20" width="1.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="1.42578125" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="293" t="s">
+    <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
+      <c r="A1" s="310" t="s">
         <v>1146</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="295"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="290" t="s">
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="312"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A2" s="307" t="s">
         <v>1147</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="292"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="309"/>
       <c r="D2" s="259"/>
-      <c r="E2" s="290" t="s">
+      <c r="E2" s="307" t="s">
         <v>1055</v>
       </c>
-      <c r="F2" s="291"/>
-      <c r="G2" s="292"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="309"/>
       <c r="H2" s="259"/>
-      <c r="I2" s="290" t="s">
+      <c r="I2" s="307" t="s">
         <v>1054</v>
       </c>
-      <c r="J2" s="291"/>
-      <c r="K2" s="292"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="309"/>
       <c r="L2" s="122"/>
     </row>
-    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="19.5" thickBot="1">
       <c r="A3" s="248" t="s">
         <v>218</v>
       </c>
@@ -14301,8 +14270,8 @@
       </c>
       <c r="L3" s="122"/>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="296" t="s">
+    <row r="4" spans="1:12" ht="18.75">
+      <c r="A4" s="301" t="s">
         <v>325</v>
       </c>
       <c r="B4" s="132" t="s">
@@ -14312,7 +14281,7 @@
         <v>705</v>
       </c>
       <c r="D4" s="253"/>
-      <c r="E4" s="287" t="s">
+      <c r="E4" s="304" t="s">
         <v>975</v>
       </c>
       <c r="F4" s="132" t="s">
@@ -14322,7 +14291,7 @@
         <v>1028</v>
       </c>
       <c r="H4" s="125"/>
-      <c r="I4" s="287" t="s">
+      <c r="I4" s="304" t="s">
         <v>1057</v>
       </c>
       <c r="J4" s="132" t="s">
@@ -14333,8 +14302,8 @@
       </c>
       <c r="L4" s="122"/>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="297"/>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="A5" s="302"/>
       <c r="B5" s="131" t="s">
         <v>322</v>
       </c>
@@ -14342,7 +14311,7 @@
         <v>706</v>
       </c>
       <c r="D5" s="253"/>
-      <c r="E5" s="288"/>
+      <c r="E5" s="305"/>
       <c r="F5" s="131" t="s">
         <v>1002</v>
       </c>
@@ -14350,7 +14319,7 @@
         <v>1029</v>
       </c>
       <c r="H5" s="125"/>
-      <c r="I5" s="288"/>
+      <c r="I5" s="305"/>
       <c r="J5" s="131" t="s">
         <v>1092</v>
       </c>
@@ -14359,8 +14328,8 @@
       </c>
       <c r="L5" s="122"/>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="297"/>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="A6" s="302"/>
       <c r="B6" s="131" t="s">
         <v>323</v>
       </c>
@@ -14368,7 +14337,7 @@
         <v>707</v>
       </c>
       <c r="D6" s="253"/>
-      <c r="E6" s="288"/>
+      <c r="E6" s="305"/>
       <c r="F6" s="131" t="s">
         <v>1003</v>
       </c>
@@ -14376,7 +14345,7 @@
         <v>1030</v>
       </c>
       <c r="H6" s="125"/>
-      <c r="I6" s="288"/>
+      <c r="I6" s="305"/>
       <c r="J6" s="131" t="s">
         <v>1093</v>
       </c>
@@ -14385,8 +14354,8 @@
       </c>
       <c r="L6" s="122"/>
     </row>
-    <row r="7" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="298"/>
+    <row r="7" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A7" s="303"/>
       <c r="B7" s="135" t="s">
         <v>324</v>
       </c>
@@ -14394,7 +14363,7 @@
         <v>708</v>
       </c>
       <c r="D7" s="253"/>
-      <c r="E7" s="289"/>
+      <c r="E7" s="306"/>
       <c r="F7" s="135" t="s">
         <v>1004</v>
       </c>
@@ -14402,7 +14371,7 @@
         <v>1031</v>
       </c>
       <c r="H7" s="125"/>
-      <c r="I7" s="289"/>
+      <c r="I7" s="306"/>
       <c r="J7" s="135" t="s">
         <v>1094</v>
       </c>
@@ -14411,8 +14380,8 @@
       </c>
       <c r="L7" s="122"/>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="296" t="s">
+    <row r="8" spans="1:12" ht="18.75">
+      <c r="A8" s="301" t="s">
         <v>667</v>
       </c>
       <c r="B8" s="132" t="s">
@@ -14422,7 +14391,7 @@
         <v>709</v>
       </c>
       <c r="D8" s="253"/>
-      <c r="E8" s="287" t="s">
+      <c r="E8" s="304" t="s">
         <v>974</v>
       </c>
       <c r="F8" s="132" t="s">
@@ -14432,7 +14401,7 @@
         <v>1032</v>
       </c>
       <c r="H8" s="125"/>
-      <c r="I8" s="287" t="s">
+      <c r="I8" s="304" t="s">
         <v>1058</v>
       </c>
       <c r="J8" s="132" t="s">
@@ -14443,8 +14412,8 @@
       </c>
       <c r="L8" s="122"/>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="297"/>
+    <row r="9" spans="1:12" ht="18.75">
+      <c r="A9" s="302"/>
       <c r="B9" s="131" t="s">
         <v>658</v>
       </c>
@@ -14452,7 +14421,7 @@
         <v>710</v>
       </c>
       <c r="D9" s="253"/>
-      <c r="E9" s="288"/>
+      <c r="E9" s="305"/>
       <c r="F9" s="131" t="s">
         <v>1006</v>
       </c>
@@ -14460,7 +14429,7 @@
         <v>1033</v>
       </c>
       <c r="H9" s="125"/>
-      <c r="I9" s="288"/>
+      <c r="I9" s="305"/>
       <c r="J9" s="131" t="s">
         <v>1095</v>
       </c>
@@ -14469,8 +14438,8 @@
       </c>
       <c r="L9" s="122"/>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="297"/>
+    <row r="10" spans="1:12" ht="18.75">
+      <c r="A10" s="302"/>
       <c r="B10" s="131" t="s">
         <v>659</v>
       </c>
@@ -14478,7 +14447,7 @@
         <v>711</v>
       </c>
       <c r="D10" s="253"/>
-      <c r="E10" s="288"/>
+      <c r="E10" s="305"/>
       <c r="F10" s="131" t="s">
         <v>1008</v>
       </c>
@@ -14486,7 +14455,7 @@
         <v>1034</v>
       </c>
       <c r="H10" s="125"/>
-      <c r="I10" s="288"/>
+      <c r="I10" s="305"/>
       <c r="J10" s="131" t="s">
         <v>1096</v>
       </c>
@@ -14495,8 +14464,8 @@
       </c>
       <c r="L10" s="122"/>
     </row>
-    <row r="11" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="298"/>
+    <row r="11" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A11" s="303"/>
       <c r="B11" s="135" t="s">
         <v>660</v>
       </c>
@@ -14504,7 +14473,7 @@
         <v>712</v>
       </c>
       <c r="D11" s="253"/>
-      <c r="E11" s="289"/>
+      <c r="E11" s="306"/>
       <c r="F11" s="135" t="s">
         <v>1009</v>
       </c>
@@ -14512,7 +14481,7 @@
         <v>1035</v>
       </c>
       <c r="H11" s="125"/>
-      <c r="I11" s="289"/>
+      <c r="I11" s="306"/>
       <c r="J11" s="135" t="s">
         <v>1097</v>
       </c>
@@ -14521,8 +14490,8 @@
       </c>
       <c r="L11" s="122"/>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="296" t="s">
+    <row r="12" spans="1:12" ht="18.75">
+      <c r="A12" s="301" t="s">
         <v>665</v>
       </c>
       <c r="B12" s="132" t="s">
@@ -14532,7 +14501,7 @@
         <v>713</v>
       </c>
       <c r="D12" s="253"/>
-      <c r="E12" s="287" t="s">
+      <c r="E12" s="304" t="s">
         <v>973</v>
       </c>
       <c r="F12" s="132" t="s">
@@ -14542,7 +14511,7 @@
         <v>1036</v>
       </c>
       <c r="H12" s="125"/>
-      <c r="I12" s="287" t="s">
+      <c r="I12" s="304" t="s">
         <v>1059</v>
       </c>
       <c r="J12" s="132" t="s">
@@ -14553,8 +14522,8 @@
       </c>
       <c r="L12" s="122"/>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="297"/>
+    <row r="13" spans="1:12" ht="18.75">
+      <c r="A13" s="302"/>
       <c r="B13" s="131" t="s">
         <v>662</v>
       </c>
@@ -14562,7 +14531,7 @@
         <v>714</v>
       </c>
       <c r="D13" s="253"/>
-      <c r="E13" s="288"/>
+      <c r="E13" s="305"/>
       <c r="F13" s="131" t="s">
         <v>1011</v>
       </c>
@@ -14570,7 +14539,7 @@
         <v>1037</v>
       </c>
       <c r="H13" s="125"/>
-      <c r="I13" s="288"/>
+      <c r="I13" s="305"/>
       <c r="J13" s="131" t="s">
         <v>1099</v>
       </c>
@@ -14579,8 +14548,8 @@
       </c>
       <c r="L13" s="122"/>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="297"/>
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="A14" s="302"/>
       <c r="B14" s="131" t="s">
         <v>663</v>
       </c>
@@ -14588,7 +14557,7 @@
         <v>715</v>
       </c>
       <c r="D14" s="253"/>
-      <c r="E14" s="288"/>
+      <c r="E14" s="305"/>
       <c r="F14" s="131" t="s">
         <v>1012</v>
       </c>
@@ -14596,7 +14565,7 @@
         <v>1038</v>
       </c>
       <c r="H14" s="125"/>
-      <c r="I14" s="288"/>
+      <c r="I14" s="305"/>
       <c r="J14" s="131" t="s">
         <v>1100</v>
       </c>
@@ -14605,8 +14574,8 @@
       </c>
       <c r="L14" s="122"/>
     </row>
-    <row r="15" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="298"/>
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A15" s="303"/>
       <c r="B15" s="135" t="s">
         <v>664</v>
       </c>
@@ -14614,7 +14583,7 @@
         <v>716</v>
       </c>
       <c r="D15" s="253"/>
-      <c r="E15" s="289"/>
+      <c r="E15" s="306"/>
       <c r="F15" s="135" t="s">
         <v>1013</v>
       </c>
@@ -14622,7 +14591,7 @@
         <v>1039</v>
       </c>
       <c r="H15" s="125"/>
-      <c r="I15" s="289"/>
+      <c r="I15" s="306"/>
       <c r="J15" s="135" t="s">
         <v>1101</v>
       </c>
@@ -14631,8 +14600,8 @@
       </c>
       <c r="L15" s="122"/>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="296" t="s">
+    <row r="16" spans="1:12" ht="18.75">
+      <c r="A16" s="301" t="s">
         <v>666</v>
       </c>
       <c r="B16" s="132" t="s">
@@ -14642,7 +14611,7 @@
         <v>717</v>
       </c>
       <c r="D16" s="253"/>
-      <c r="E16" s="287" t="s">
+      <c r="E16" s="304" t="s">
         <v>972</v>
       </c>
       <c r="F16" s="132" t="s">
@@ -14652,7 +14621,7 @@
         <v>1040</v>
       </c>
       <c r="H16" s="125"/>
-      <c r="I16" s="287" t="s">
+      <c r="I16" s="304" t="s">
         <v>1060</v>
       </c>
       <c r="J16" s="132" t="s">
@@ -14663,8 +14632,8 @@
       </c>
       <c r="L16" s="122"/>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="297"/>
+    <row r="17" spans="1:12" ht="18.75">
+      <c r="A17" s="302"/>
       <c r="B17" s="131" t="s">
         <v>669</v>
       </c>
@@ -14672,7 +14641,7 @@
         <v>718</v>
       </c>
       <c r="D17" s="253"/>
-      <c r="E17" s="288"/>
+      <c r="E17" s="305"/>
       <c r="F17" s="131" t="s">
         <v>1015</v>
       </c>
@@ -14680,7 +14649,7 @@
         <v>1041</v>
       </c>
       <c r="H17" s="125"/>
-      <c r="I17" s="288"/>
+      <c r="I17" s="305"/>
       <c r="J17" s="131" t="s">
         <v>1103</v>
       </c>
@@ -14689,8 +14658,8 @@
       </c>
       <c r="L17" s="122"/>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="297"/>
+    <row r="18" spans="1:12" ht="18.75">
+      <c r="A18" s="302"/>
       <c r="B18" s="131" t="s">
         <v>670</v>
       </c>
@@ -14698,7 +14667,7 @@
         <v>719</v>
       </c>
       <c r="D18" s="253"/>
-      <c r="E18" s="288"/>
+      <c r="E18" s="305"/>
       <c r="F18" s="131" t="s">
         <v>1016</v>
       </c>
@@ -14706,7 +14675,7 @@
         <v>1042</v>
       </c>
       <c r="H18" s="125"/>
-      <c r="I18" s="288"/>
+      <c r="I18" s="305"/>
       <c r="J18" s="131" t="s">
         <v>1104</v>
       </c>
@@ -14715,8 +14684,8 @@
       </c>
       <c r="L18" s="122"/>
     </row>
-    <row r="19" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="298"/>
+    <row r="19" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A19" s="303"/>
       <c r="B19" s="135" t="s">
         <v>671</v>
       </c>
@@ -14724,7 +14693,7 @@
         <v>720</v>
       </c>
       <c r="D19" s="253"/>
-      <c r="E19" s="289"/>
+      <c r="E19" s="306"/>
       <c r="F19" s="135" t="s">
         <v>1017</v>
       </c>
@@ -14732,7 +14701,7 @@
         <v>1043</v>
       </c>
       <c r="H19" s="125"/>
-      <c r="I19" s="289"/>
+      <c r="I19" s="306"/>
       <c r="J19" s="135" t="s">
         <v>1105</v>
       </c>
@@ -14741,12 +14710,12 @@
       </c>
       <c r="L19" s="122"/>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="18.75">
       <c r="A20" s="126"/>
       <c r="B20" s="125"/>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
-      <c r="E20" s="287" t="s">
+      <c r="E20" s="304" t="s">
         <v>560</v>
       </c>
       <c r="F20" s="132" t="s">
@@ -14756,7 +14725,7 @@
         <v>1044</v>
       </c>
       <c r="H20" s="125"/>
-      <c r="I20" s="287" t="s">
+      <c r="I20" s="304" t="s">
         <v>1061</v>
       </c>
       <c r="J20" s="132" t="s">
@@ -14767,12 +14736,12 @@
       </c>
       <c r="L20" s="122"/>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="18.75">
       <c r="A21" s="126"/>
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
-      <c r="E21" s="288"/>
+      <c r="E21" s="305"/>
       <c r="F21" s="131" t="s">
         <v>1019</v>
       </c>
@@ -14780,7 +14749,7 @@
         <v>1045</v>
       </c>
       <c r="H21" s="125"/>
-      <c r="I21" s="288"/>
+      <c r="I21" s="305"/>
       <c r="J21" s="131" t="s">
         <v>1107</v>
       </c>
@@ -14789,12 +14758,12 @@
       </c>
       <c r="L21" s="122"/>
     </row>
-    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="19.5" thickBot="1">
       <c r="A22" s="126"/>
       <c r="B22" s="125"/>
       <c r="C22" s="125"/>
       <c r="D22" s="125"/>
-      <c r="E22" s="288"/>
+      <c r="E22" s="305"/>
       <c r="F22" s="131" t="s">
         <v>1020</v>
       </c>
@@ -14802,7 +14771,7 @@
         <v>1046</v>
       </c>
       <c r="H22" s="125"/>
-      <c r="I22" s="288"/>
+      <c r="I22" s="305"/>
       <c r="J22" s="131" t="s">
         <v>1108</v>
       </c>
@@ -14811,14 +14780,14 @@
       </c>
       <c r="L22" s="122"/>
     </row>
-    <row r="23" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="19.5" thickBot="1">
       <c r="A23" s="255" t="s">
         <v>704</v>
       </c>
       <c r="B23" s="256"/>
       <c r="C23" s="257"/>
       <c r="D23" s="125"/>
-      <c r="E23" s="289"/>
+      <c r="E23" s="306"/>
       <c r="F23" s="135" t="s">
         <v>1021</v>
       </c>
@@ -14826,7 +14795,7 @@
         <v>1047</v>
       </c>
       <c r="H23" s="125"/>
-      <c r="I23" s="289"/>
+      <c r="I23" s="306"/>
       <c r="J23" s="135" t="s">
         <v>1109</v>
       </c>
@@ -14835,7 +14804,7 @@
       </c>
       <c r="L23" s="122"/>
     </row>
-    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="19.5" thickBot="1">
       <c r="A24" s="248" t="s">
         <v>218</v>
       </c>
@@ -14846,7 +14815,7 @@
         <v>321</v>
       </c>
       <c r="D24" s="125"/>
-      <c r="E24" s="287" t="s">
+      <c r="E24" s="304" t="s">
         <v>749</v>
       </c>
       <c r="F24" s="132" t="s">
@@ -14856,7 +14825,7 @@
         <v>1048</v>
       </c>
       <c r="H24" s="125"/>
-      <c r="I24" s="287" t="s">
+      <c r="I24" s="304" t="s">
         <v>1062</v>
       </c>
       <c r="J24" s="132" t="s">
@@ -14867,8 +14836,8 @@
       </c>
       <c r="L24" s="122"/>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="281" t="s">
+    <row r="25" spans="1:12" ht="18.75">
+      <c r="A25" s="316" t="s">
         <v>493</v>
       </c>
       <c r="B25" s="132" t="s">
@@ -14878,7 +14847,7 @@
         <v>721</v>
       </c>
       <c r="D25" s="125"/>
-      <c r="E25" s="288"/>
+      <c r="E25" s="305"/>
       <c r="F25" s="131" t="s">
         <v>1023</v>
       </c>
@@ -14886,7 +14855,7 @@
         <v>1049</v>
       </c>
       <c r="H25" s="125"/>
-      <c r="I25" s="288"/>
+      <c r="I25" s="305"/>
       <c r="J25" s="131" t="s">
         <v>1111</v>
       </c>
@@ -14895,8 +14864,8 @@
       </c>
       <c r="L25" s="122"/>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="282"/>
+    <row r="26" spans="1:12" ht="18.75">
+      <c r="A26" s="317"/>
       <c r="B26" s="131" t="s">
         <v>679</v>
       </c>
@@ -14904,7 +14873,7 @@
         <v>722</v>
       </c>
       <c r="D26" s="125"/>
-      <c r="E26" s="288"/>
+      <c r="E26" s="305"/>
       <c r="F26" s="131" t="s">
         <v>1024</v>
       </c>
@@ -14912,7 +14881,7 @@
         <v>1050</v>
       </c>
       <c r="H26" s="125"/>
-      <c r="I26" s="288"/>
+      <c r="I26" s="305"/>
       <c r="J26" s="131" t="s">
         <v>1112</v>
       </c>
@@ -14921,8 +14890,8 @@
       </c>
       <c r="L26" s="122"/>
     </row>
-    <row r="27" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="282"/>
+    <row r="27" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A27" s="317"/>
       <c r="B27" s="131" t="s">
         <v>680</v>
       </c>
@@ -14930,7 +14899,7 @@
         <v>723</v>
       </c>
       <c r="D27" s="125"/>
-      <c r="E27" s="289"/>
+      <c r="E27" s="306"/>
       <c r="F27" s="135" t="s">
         <v>1025</v>
       </c>
@@ -14938,7 +14907,7 @@
         <v>1051</v>
       </c>
       <c r="H27" s="125"/>
-      <c r="I27" s="289"/>
+      <c r="I27" s="306"/>
       <c r="J27" s="135" t="s">
         <v>1113</v>
       </c>
@@ -14947,8 +14916,8 @@
       </c>
       <c r="L27" s="122"/>
     </row>
-    <row r="28" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="283"/>
+    <row r="28" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A28" s="318"/>
       <c r="B28" s="135" t="s">
         <v>681</v>
       </c>
@@ -14956,7 +14925,7 @@
         <v>724</v>
       </c>
       <c r="D28" s="125"/>
-      <c r="E28" s="287" t="s">
+      <c r="E28" s="304" t="s">
         <v>562</v>
       </c>
       <c r="F28" s="132" t="s">
@@ -14966,7 +14935,7 @@
         <v>1052</v>
       </c>
       <c r="H28" s="125"/>
-      <c r="I28" s="287" t="s">
+      <c r="I28" s="304" t="s">
         <v>1063</v>
       </c>
       <c r="J28" s="132" t="s">
@@ -14977,8 +14946,8 @@
       </c>
       <c r="L28" s="122"/>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="281" t="s">
+    <row r="29" spans="1:12" ht="18.75">
+      <c r="A29" s="316" t="s">
         <v>687</v>
       </c>
       <c r="B29" s="132" t="s">
@@ -14988,7 +14957,7 @@
         <v>725</v>
       </c>
       <c r="D29" s="253"/>
-      <c r="E29" s="288"/>
+      <c r="E29" s="305"/>
       <c r="F29" s="131" t="s">
         <v>1027</v>
       </c>
@@ -14996,7 +14965,7 @@
         <v>1053</v>
       </c>
       <c r="H29" s="125"/>
-      <c r="I29" s="288"/>
+      <c r="I29" s="305"/>
       <c r="J29" s="131" t="s">
         <v>1115</v>
       </c>
@@ -15005,8 +14974,8 @@
       </c>
       <c r="L29" s="122"/>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="282"/>
+    <row r="30" spans="1:12" ht="18.75">
+      <c r="A30" s="317"/>
       <c r="B30" s="131" t="s">
         <v>684</v>
       </c>
@@ -15014,11 +14983,11 @@
         <v>726</v>
       </c>
       <c r="D30" s="253"/>
-      <c r="E30" s="288"/>
+      <c r="E30" s="305"/>
       <c r="F30" s="131"/>
       <c r="G30" s="250"/>
       <c r="H30" s="125"/>
-      <c r="I30" s="288"/>
+      <c r="I30" s="305"/>
       <c r="J30" s="131" t="s">
         <v>1116</v>
       </c>
@@ -15027,8 +14996,8 @@
       </c>
       <c r="L30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="282"/>
+    <row r="31" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A31" s="317"/>
       <c r="B31" s="131" t="s">
         <v>685</v>
       </c>
@@ -15036,11 +15005,11 @@
         <v>727</v>
       </c>
       <c r="D31" s="253"/>
-      <c r="E31" s="289"/>
+      <c r="E31" s="306"/>
       <c r="F31" s="135"/>
       <c r="G31" s="251"/>
       <c r="H31" s="125"/>
-      <c r="I31" s="289"/>
+      <c r="I31" s="306"/>
       <c r="J31" s="135" t="s">
         <v>1117</v>
       </c>
@@ -15049,8 +15018,8 @@
       </c>
       <c r="L31" s="122"/>
     </row>
-    <row r="32" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="283"/>
+    <row r="32" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A32" s="318"/>
       <c r="B32" s="135" t="s">
         <v>686</v>
       </c>
@@ -15067,8 +15036,8 @@
       <c r="K32" s="124"/>
       <c r="L32" s="122"/>
     </row>
-    <row r="33" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="281" t="s">
+    <row r="33" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A33" s="316" t="s">
         <v>691</v>
       </c>
       <c r="B33" s="132" t="s">
@@ -15078,21 +15047,21 @@
         <v>729</v>
       </c>
       <c r="D33" s="253"/>
-      <c r="E33" s="284" t="s">
+      <c r="E33" s="313" t="s">
         <v>1149</v>
       </c>
-      <c r="F33" s="285"/>
-      <c r="G33" s="286"/>
+      <c r="F33" s="314"/>
+      <c r="G33" s="315"/>
       <c r="H33" s="124"/>
-      <c r="I33" s="284" t="s">
+      <c r="I33" s="313" t="s">
         <v>1148</v>
       </c>
-      <c r="J33" s="285"/>
-      <c r="K33" s="286"/>
+      <c r="J33" s="314"/>
+      <c r="K33" s="315"/>
       <c r="L33" s="122"/>
     </row>
-    <row r="34" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="282"/>
+    <row r="34" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A34" s="317"/>
       <c r="B34" s="131" t="s">
         <v>693</v>
       </c>
@@ -15121,8 +15090,8 @@
       </c>
       <c r="L34" s="122"/>
     </row>
-    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="282"/>
+    <row r="35" spans="1:12" ht="18.75">
+      <c r="A35" s="317"/>
       <c r="B35" s="131" t="s">
         <v>694</v>
       </c>
@@ -15130,7 +15099,7 @@
         <v>731</v>
       </c>
       <c r="D35" s="253"/>
-      <c r="E35" s="281" t="s">
+      <c r="E35" s="316" t="s">
         <v>494</v>
       </c>
       <c r="F35" s="132" t="s">
@@ -15140,7 +15109,7 @@
         <v>11311</v>
       </c>
       <c r="H35" s="124"/>
-      <c r="I35" s="281" t="s">
+      <c r="I35" s="316" t="s">
         <v>955</v>
       </c>
       <c r="J35" s="132" t="s">
@@ -15151,8 +15120,8 @@
       </c>
       <c r="L35" s="122"/>
     </row>
-    <row r="36" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="283"/>
+    <row r="36" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A36" s="318"/>
       <c r="B36" s="135" t="s">
         <v>695</v>
       </c>
@@ -15160,7 +15129,7 @@
         <v>732</v>
       </c>
       <c r="D36" s="253"/>
-      <c r="E36" s="282"/>
+      <c r="E36" s="317"/>
       <c r="F36" s="131" t="s">
         <v>958</v>
       </c>
@@ -15168,7 +15137,7 @@
         <v>11312</v>
       </c>
       <c r="H36" s="124"/>
-      <c r="I36" s="282"/>
+      <c r="I36" s="317"/>
       <c r="J36" s="131" t="s">
         <v>965</v>
       </c>
@@ -15177,8 +15146,8 @@
       </c>
       <c r="L36" s="122"/>
     </row>
-    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="281" t="s">
+    <row r="37" spans="1:12" ht="18.75">
+      <c r="A37" s="316" t="s">
         <v>698</v>
       </c>
       <c r="B37" s="132" t="s">
@@ -15188,7 +15157,7 @@
         <v>11441</v>
       </c>
       <c r="D37" s="253"/>
-      <c r="E37" s="282"/>
+      <c r="E37" s="317"/>
       <c r="F37" s="131" t="s">
         <v>959</v>
       </c>
@@ -15196,7 +15165,7 @@
         <v>11313</v>
       </c>
       <c r="H37" s="124"/>
-      <c r="I37" s="282"/>
+      <c r="I37" s="317"/>
       <c r="J37" s="131" t="s">
         <v>966</v>
       </c>
@@ -15205,8 +15174,8 @@
       </c>
       <c r="L37" s="122"/>
     </row>
-    <row r="38" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="282"/>
+    <row r="38" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A38" s="317"/>
       <c r="B38" s="131" t="s">
         <v>700</v>
       </c>
@@ -15214,7 +15183,7 @@
         <v>11442</v>
       </c>
       <c r="D38" s="253"/>
-      <c r="E38" s="283"/>
+      <c r="E38" s="318"/>
       <c r="F38" s="135" t="s">
         <v>959</v>
       </c>
@@ -15222,7 +15191,7 @@
         <v>11314</v>
       </c>
       <c r="H38" s="124"/>
-      <c r="I38" s="283"/>
+      <c r="I38" s="318"/>
       <c r="J38" s="135" t="s">
         <v>967</v>
       </c>
@@ -15231,8 +15200,8 @@
       </c>
       <c r="L38" s="122"/>
     </row>
-    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="282"/>
+    <row r="39" spans="1:12" ht="18.75">
+      <c r="A39" s="317"/>
       <c r="B39" s="131" t="s">
         <v>701</v>
       </c>
@@ -15240,7 +15209,7 @@
         <v>11443</v>
       </c>
       <c r="D39" s="253"/>
-      <c r="E39" s="281" t="s">
+      <c r="E39" s="316" t="s">
         <v>954</v>
       </c>
       <c r="F39" s="132" t="s">
@@ -15250,7 +15219,7 @@
         <v>11321</v>
       </c>
       <c r="H39" s="124"/>
-      <c r="I39" s="281" t="s">
+      <c r="I39" s="316" t="s">
         <v>956</v>
       </c>
       <c r="J39" s="132" t="s">
@@ -15261,8 +15230,8 @@
       </c>
       <c r="L39" s="122"/>
     </row>
-    <row r="40" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="283"/>
+    <row r="40" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A40" s="318"/>
       <c r="B40" s="135" t="s">
         <v>702</v>
       </c>
@@ -15270,7 +15239,7 @@
         <v>11444</v>
       </c>
       <c r="D40" s="253"/>
-      <c r="E40" s="282"/>
+      <c r="E40" s="317"/>
       <c r="F40" s="131" t="s">
         <v>961</v>
       </c>
@@ -15278,7 +15247,7 @@
         <v>11322</v>
       </c>
       <c r="H40" s="124"/>
-      <c r="I40" s="282"/>
+      <c r="I40" s="317"/>
       <c r="J40" s="131" t="s">
         <v>969</v>
       </c>
@@ -15287,12 +15256,12 @@
       </c>
       <c r="L40" s="122"/>
     </row>
-    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="18.75">
       <c r="A41" s="258"/>
       <c r="B41" s="125"/>
       <c r="C41" s="253"/>
       <c r="D41" s="253"/>
-      <c r="E41" s="282"/>
+      <c r="E41" s="317"/>
       <c r="F41" s="131" t="s">
         <v>962</v>
       </c>
@@ -15300,7 +15269,7 @@
         <v>11323</v>
       </c>
       <c r="H41" s="124"/>
-      <c r="I41" s="282"/>
+      <c r="I41" s="317"/>
       <c r="J41" s="131" t="s">
         <v>970</v>
       </c>
@@ -15309,12 +15278,12 @@
       </c>
       <c r="L41" s="122"/>
     </row>
-    <row r="42" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="19.5" thickBot="1">
       <c r="A42" s="258"/>
       <c r="B42" s="125"/>
       <c r="C42" s="253"/>
       <c r="D42" s="253"/>
-      <c r="E42" s="283"/>
+      <c r="E42" s="318"/>
       <c r="F42" s="135" t="s">
         <v>963</v>
       </c>
@@ -15322,7 +15291,7 @@
         <v>11324</v>
       </c>
       <c r="H42" s="124"/>
-      <c r="I42" s="283"/>
+      <c r="I42" s="318"/>
       <c r="J42" s="135" t="s">
         <v>971</v>
       </c>
@@ -15331,7 +15300,7 @@
       </c>
       <c r="L42" s="122"/>
     </row>
-    <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="18.75">
       <c r="A43" s="258"/>
       <c r="B43" s="125"/>
       <c r="C43" s="254"/>
@@ -15345,7 +15314,7 @@
       <c r="K43" s="124"/>
       <c r="L43" s="122"/>
     </row>
-    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="18.75">
       <c r="A44" s="258"/>
       <c r="B44" s="125"/>
       <c r="C44" s="254"/>
@@ -15359,7 +15328,7 @@
       <c r="K44" s="127"/>
       <c r="L44" s="122"/>
     </row>
-    <row r="45" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="21" customHeight="1" thickBot="1">
       <c r="A45" s="128"/>
       <c r="B45" s="129"/>
       <c r="C45" s="129"/>
@@ -15375,18 +15344,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I42"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I8:I11"/>
@@ -15397,16 +15364,18 @@
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15417,62 +15386,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="299" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="323" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="301"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="302"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="304"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="305" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="325"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="328"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="329" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="307"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="331"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -15490,7 +15459,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -15514,7 +15483,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -15532,7 +15501,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -15550,7 +15519,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -15576,7 +15545,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -15602,7 +15571,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -15628,7 +15597,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -15654,7 +15623,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -15680,7 +15649,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -15706,7 +15675,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -15732,7 +15701,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -15758,7 +15727,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -15784,7 +15753,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -15810,7 +15779,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -15836,7 +15805,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -15862,7 +15831,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -15888,7 +15857,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -15914,7 +15883,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -15940,7 +15909,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -15966,7 +15935,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -15976,7 +15945,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -15986,7 +15955,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -15996,7 +15965,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18">
       <c r="A27" s="16"/>
       <c r="B27" s="119" t="s">
         <v>534</v>
@@ -16004,15 +15973,15 @@
       <c r="C27" s="118" t="s">
         <v>594</v>
       </c>
-      <c r="D27" s="308" t="s">
+      <c r="D27" s="322" t="s">
         <v>570</v>
       </c>
-      <c r="E27" s="308"/>
-      <c r="F27" s="308"/>
+      <c r="E27" s="322"/>
+      <c r="F27" s="322"/>
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="16"/>
       <c r="B28" s="119" t="s">
         <v>238</v>
@@ -16020,15 +15989,15 @@
       <c r="C28" s="118" t="s">
         <v>598</v>
       </c>
-      <c r="D28" s="308" t="s">
+      <c r="D28" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="308"/>
-      <c r="F28" s="308"/>
+      <c r="E28" s="322"/>
+      <c r="F28" s="322"/>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="16"/>
       <c r="B29" s="119" t="s">
         <v>239</v>
@@ -16036,15 +16005,15 @@
       <c r="C29" s="118" t="s">
         <v>599</v>
       </c>
-      <c r="D29" s="308" t="s">
+      <c r="D29" s="322" t="s">
         <v>571</v>
       </c>
-      <c r="E29" s="308"/>
-      <c r="F29" s="308"/>
+      <c r="E29" s="322"/>
+      <c r="F29" s="322"/>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="18">
       <c r="A30" s="16"/>
       <c r="B30" s="119" t="s">
         <v>446</v>
@@ -16052,15 +16021,15 @@
       <c r="C30" s="118" t="s">
         <v>600</v>
       </c>
-      <c r="D30" s="308" t="s">
+      <c r="D30" s="322" t="s">
         <v>572</v>
       </c>
-      <c r="E30" s="308"/>
-      <c r="F30" s="308"/>
+      <c r="E30" s="322"/>
+      <c r="F30" s="322"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18">
       <c r="A31" s="16"/>
       <c r="B31" s="119" t="s">
         <v>447</v>
@@ -16068,15 +16037,15 @@
       <c r="C31" s="118" t="s">
         <v>601</v>
       </c>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="322" t="s">
         <v>573</v>
       </c>
-      <c r="E31" s="308"/>
-      <c r="F31" s="308"/>
+      <c r="E31" s="322"/>
+      <c r="F31" s="322"/>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="18">
       <c r="A32" s="16"/>
       <c r="B32" s="119" t="s">
         <v>243</v>
@@ -16084,15 +16053,15 @@
       <c r="C32" s="118" t="s">
         <v>602</v>
       </c>
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="322" t="s">
         <v>574</v>
       </c>
-      <c r="E32" s="308"/>
-      <c r="F32" s="308"/>
+      <c r="E32" s="322"/>
+      <c r="F32" s="322"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" s="16"/>
       <c r="B33" s="119" t="s">
         <v>484</v>
@@ -16100,15 +16069,15 @@
       <c r="C33" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="D33" s="308" t="s">
+      <c r="D33" s="322" t="s">
         <v>482</v>
       </c>
-      <c r="E33" s="308"/>
-      <c r="F33" s="308"/>
+      <c r="E33" s="322"/>
+      <c r="F33" s="322"/>
       <c r="G33" s="17"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="16"/>
       <c r="B34" s="119" t="s">
         <v>450</v>
@@ -16116,15 +16085,15 @@
       <c r="C34" s="118" t="s">
         <v>615</v>
       </c>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="322" t="s">
         <v>575</v>
       </c>
-      <c r="E34" s="308"/>
-      <c r="F34" s="308"/>
+      <c r="E34" s="322"/>
+      <c r="F34" s="322"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18">
       <c r="A35" s="16"/>
       <c r="B35" s="119" t="s">
         <v>451</v>
@@ -16132,67 +16101,67 @@
       <c r="C35" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="322" t="s">
         <v>576</v>
       </c>
-      <c r="E35" s="308"/>
-      <c r="F35" s="308"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="322"/>
       <c r="G35" s="17"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="16"/>
       <c r="B36" s="118"/>
       <c r="C36" s="118" t="s">
         <v>651</v>
       </c>
-      <c r="D36" s="309" t="s">
+      <c r="D36" s="319" t="s">
         <v>591</v>
       </c>
-      <c r="E36" s="310"/>
-      <c r="F36" s="311"/>
+      <c r="E36" s="320"/>
+      <c r="F36" s="321"/>
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="16"/>
       <c r="B37" s="120"/>
       <c r="C37" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="D37" s="309" t="s">
+      <c r="D37" s="319" t="s">
         <v>652</v>
       </c>
-      <c r="E37" s="310"/>
-      <c r="F37" s="311"/>
+      <c r="E37" s="320"/>
+      <c r="F37" s="321"/>
       <c r="G37" s="17"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="18">
       <c r="A38" s="16"/>
       <c r="B38" s="120"/>
       <c r="C38" s="118" t="s">
         <v>653</v>
       </c>
-      <c r="D38" s="309" t="s">
+      <c r="D38" s="319" t="s">
         <v>655</v>
       </c>
-      <c r="E38" s="310"/>
-      <c r="F38" s="311"/>
+      <c r="E38" s="320"/>
+      <c r="F38" s="321"/>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="16"/>
       <c r="B39" s="120"/>
       <c r="C39" s="118"/>
-      <c r="D39" s="309"/>
-      <c r="E39" s="310"/>
-      <c r="F39" s="311"/>
+      <c r="D39" s="319"/>
+      <c r="E39" s="320"/>
+      <c r="F39" s="321"/>
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -16202,7 +16171,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -16212,7 +16181,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -16222,7 +16191,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -16232,7 +16201,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -16242,7 +16211,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -16252,7 +16221,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -16262,7 +16231,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -16272,7 +16241,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -16282,17 +16251,10 @@
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
     </row>
-    <row r="51" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="10.5" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -16302,6 +16264,13 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16309,50 +16278,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="321" t="s">
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="341" t="s">
         <v>1184</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="315" t="s">
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="335" t="s">
         <v>1152</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="317"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="337"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>222</v>
@@ -16374,7 +16343,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="262">
         <v>1</v>
       </c>
@@ -16396,7 +16365,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="262">
         <v>2</v>
       </c>
@@ -16418,7 +16387,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="262">
         <v>3</v>
       </c>
@@ -16440,7 +16409,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="262">
         <v>4</v>
       </c>
@@ -16462,7 +16431,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="262">
         <v>5</v>
       </c>
@@ -16484,7 +16453,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="262">
         <v>6</v>
       </c>
@@ -16506,7 +16475,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="262">
         <v>7</v>
       </c>
@@ -16528,7 +16497,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="262">
         <v>8</v>
       </c>
@@ -16551,7 +16520,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="262">
         <v>9</v>
       </c>
@@ -16573,7 +16542,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="262">
         <v>10</v>
       </c>
@@ -16595,7 +16564,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="262">
         <v>11</v>
       </c>
@@ -16617,7 +16586,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="262">
         <v>12</v>
       </c>
@@ -16639,7 +16608,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="262">
         <v>13</v>
       </c>
@@ -16655,7 +16624,7 @@
       <c r="G16" s="263"/>
       <c r="H16" s="263"/>
     </row>
-    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="7.5" customHeight="1">
       <c r="A17" s="264"/>
       <c r="B17" s="264"/>
       <c r="C17" s="264"/>
@@ -16665,19 +16634,19 @@
       <c r="G17" s="264"/>
       <c r="H17" s="264"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="318" t="s">
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="338" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="319"/>
-      <c r="C18" s="319"/>
-      <c r="D18" s="319"/>
-      <c r="E18" s="319"/>
-      <c r="F18" s="319"/>
-      <c r="G18" s="319"/>
-      <c r="H18" s="320"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="339"/>
+      <c r="C18" s="339"/>
+      <c r="D18" s="339"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="339"/>
+      <c r="G18" s="339"/>
+      <c r="H18" s="340"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="265"/>
       <c r="B19" s="266" t="s">
         <v>222</v>
@@ -16699,7 +16668,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="262">
         <v>1</v>
       </c>
@@ -16722,7 +16691,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="262">
         <v>2</v>
       </c>
@@ -16744,7 +16713,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="262">
         <v>3</v>
       </c>
@@ -16766,7 +16735,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="262">
         <v>4</v>
       </c>
@@ -16788,7 +16757,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="262">
         <v>5</v>
       </c>
@@ -16810,7 +16779,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="262">
         <v>6</v>
       </c>
@@ -16832,7 +16801,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="262">
         <v>7</v>
       </c>
@@ -16854,7 +16823,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="262">
         <v>8</v>
       </c>
@@ -16876,7 +16845,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="262">
         <v>9</v>
       </c>
@@ -16898,7 +16867,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="262">
         <v>10</v>
       </c>
@@ -16920,7 +16889,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="8.25" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -16930,19 +16899,19 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="315" t="s">
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="335" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="316"/>
-      <c r="C31" s="316"/>
-      <c r="D31" s="316"/>
-      <c r="E31" s="316"/>
-      <c r="F31" s="316"/>
-      <c r="G31" s="316"/>
-      <c r="H31" s="317"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="336"/>
+      <c r="C31" s="336"/>
+      <c r="D31" s="336"/>
+      <c r="E31" s="336"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="336"/>
+      <c r="H31" s="337"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>222</v>
@@ -16964,7 +16933,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -16986,7 +16955,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="6">
         <v>2</v>
       </c>
@@ -17008,7 +16977,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="6">
         <v>3</v>
       </c>
@@ -17030,7 +16999,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="6">
         <v>4</v>
       </c>
@@ -17050,7 +17019,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="6">
         <v>5</v>
       </c>
@@ -17070,7 +17039,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="6">
         <v>6</v>
       </c>
@@ -17090,7 +17059,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="6">
         <v>7</v>
       </c>
@@ -17108,7 +17077,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="6">
         <v>8</v>
       </c>
@@ -17126,7 +17095,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="6">
         <v>9</v>
       </c>
@@ -17144,7 +17113,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="6">
         <v>10</v>
       </c>
@@ -17164,22 +17133,22 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="312" t="s">
+    <row r="43" spans="1:8" ht="10.5" customHeight="1"/>
+    <row r="44" spans="1:8" ht="15.75">
+      <c r="A44" s="332" t="s">
         <v>1175</v>
       </c>
-      <c r="B44" s="313"/>
-      <c r="C44" s="313"/>
-      <c r="D44" s="314"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="333"/>
+      <c r="C44" s="333"/>
+      <c r="D44" s="334"/>
+      <c r="E44" s="332" t="s">
         <v>1175</v>
       </c>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="314"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="334"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="3"/>
       <c r="B45" s="263">
         <v>248</v>
@@ -17197,7 +17166,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="3"/>
       <c r="B46" s="263">
         <v>229</v>
@@ -17215,7 +17184,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="3"/>
       <c r="B47" s="263">
         <v>236.5</v>
@@ -17233,7 +17202,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="3"/>
       <c r="B48" s="263">
         <v>248.5</v>
@@ -17251,8 +17220,8 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="54" spans="2:4" ht="15.75">
       <c r="B54" s="264"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -17272,761 +17241,761 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="0.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="0.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="419" t="s">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A1" s="345" t="s">
         <v>1297</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="G1" s="420"/>
-      <c r="H1" s="421"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="422"/>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
-      <c r="D2" s="423"/>
-      <c r="E2" s="423"/>
-      <c r="F2" s="423"/>
-      <c r="G2" s="423"/>
-      <c r="H2" s="424"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="417" t="s">
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="H1" s="347"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="348"/>
+      <c r="B2" s="349"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="350"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25">
+      <c r="A3" s="351" t="s">
         <v>1257</v>
       </c>
-      <c r="B3" s="415"/>
-      <c r="C3" s="415"/>
-      <c r="D3" s="418"/>
-      <c r="E3" s="414" t="s">
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="354" t="s">
         <v>1258</v>
       </c>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="416"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="412" t="s">
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="355"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A4" s="356" t="s">
         <v>1259</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="409" t="s">
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="359" t="s">
         <v>1260</v>
       </c>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="411"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="387">
+      <c r="F4" s="357"/>
+      <c r="G4" s="357"/>
+      <c r="H4" s="360"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A5" s="273">
         <v>1</v>
       </c>
-      <c r="B5" s="388"/>
-      <c r="C5" s="389" t="s">
+      <c r="B5" s="274"/>
+      <c r="C5" s="275" t="s">
         <v>1300</v>
       </c>
-      <c r="D5" s="389" t="s">
+      <c r="D5" s="275" t="s">
         <v>1261</v>
       </c>
-      <c r="E5" s="387">
+      <c r="E5" s="273">
         <v>1</v>
       </c>
-      <c r="F5" s="390"/>
-      <c r="G5" s="389" t="s">
+      <c r="F5" s="276"/>
+      <c r="G5" s="275" t="s">
         <v>843</v>
       </c>
-      <c r="H5" s="391" t="s">
+      <c r="H5" s="277" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="387">
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A6" s="273">
         <v>2</v>
       </c>
-      <c r="B6" s="388"/>
-      <c r="C6" s="389" t="s">
+      <c r="B6" s="274"/>
+      <c r="C6" s="275" t="s">
         <v>1301</v>
       </c>
-      <c r="D6" s="389" t="s">
+      <c r="D6" s="275" t="s">
         <v>1263</v>
       </c>
-      <c r="E6" s="387">
+      <c r="E6" s="273">
         <v>2</v>
       </c>
-      <c r="F6" s="390"/>
-      <c r="G6" s="389" t="s">
+      <c r="F6" s="276"/>
+      <c r="G6" s="275" t="s">
         <v>846</v>
       </c>
-      <c r="H6" s="391" t="s">
+      <c r="H6" s="277" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="387">
+    <row r="7" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A7" s="273">
         <v>3</v>
       </c>
-      <c r="B7" s="388"/>
-      <c r="C7" s="389" t="s">
+      <c r="B7" s="274"/>
+      <c r="C7" s="275" t="s">
         <v>1302</v>
       </c>
-      <c r="D7" s="389" t="s">
+      <c r="D7" s="275" t="s">
         <v>1264</v>
       </c>
-      <c r="E7" s="387">
+      <c r="E7" s="273">
         <v>3</v>
       </c>
-      <c r="F7" s="390" t="s">
+      <c r="F7" s="276" t="s">
         <v>1265</v>
       </c>
-      <c r="G7" s="389" t="s">
+      <c r="G7" s="275" t="s">
         <v>379</v>
       </c>
-      <c r="H7" s="391" t="s">
+      <c r="H7" s="277" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="387">
+    <row r="8" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A8" s="273">
         <v>4</v>
       </c>
-      <c r="B8" s="388"/>
-      <c r="C8" s="389" t="s">
+      <c r="B8" s="274"/>
+      <c r="C8" s="275" t="s">
         <v>1303</v>
       </c>
-      <c r="D8" s="389" t="s">
+      <c r="D8" s="275" t="s">
         <v>1266</v>
       </c>
-      <c r="E8" s="387">
+      <c r="E8" s="273">
         <v>4</v>
       </c>
-      <c r="F8" s="390" t="s">
+      <c r="F8" s="276" t="s">
         <v>1299</v>
       </c>
-      <c r="G8" s="389" t="s">
+      <c r="G8" s="275" t="s">
         <v>510</v>
       </c>
-      <c r="H8" s="392" t="s">
+      <c r="H8" s="278" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="387">
+    <row r="9" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A9" s="273">
         <v>5</v>
       </c>
-      <c r="B9" s="388"/>
-      <c r="C9" s="389" t="s">
+      <c r="B9" s="274"/>
+      <c r="C9" s="275" t="s">
         <v>1304</v>
       </c>
-      <c r="D9" s="389" t="s">
+      <c r="D9" s="275" t="s">
         <v>1268</v>
       </c>
-      <c r="E9" s="387">
+      <c r="E9" s="273">
         <v>5</v>
       </c>
-      <c r="F9" s="390"/>
-      <c r="G9" s="389" t="s">
+      <c r="F9" s="276"/>
+      <c r="G9" s="275" t="s">
         <v>476</v>
       </c>
-      <c r="H9" s="393" t="s">
+      <c r="H9" s="279" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="387">
+    <row r="10" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A10" s="273">
         <v>6</v>
       </c>
-      <c r="B10" s="390" t="s">
+      <c r="B10" s="276" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="389" t="s">
+      <c r="C10" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="394" t="s">
+      <c r="D10" s="280" t="s">
         <v>1269</v>
       </c>
-      <c r="E10" s="387">
+      <c r="E10" s="273">
         <v>6</v>
       </c>
-      <c r="F10" s="390"/>
-      <c r="G10" s="389" t="s">
+      <c r="F10" s="276"/>
+      <c r="G10" s="275" t="s">
         <v>477</v>
       </c>
-      <c r="H10" s="393" t="s">
+      <c r="H10" s="279" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="387">
+    <row r="11" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A11" s="273">
         <v>7</v>
       </c>
-      <c r="B11" s="390" t="s">
+      <c r="B11" s="276" t="s">
         <v>1239</v>
       </c>
-      <c r="C11" s="389" t="s">
+      <c r="C11" s="275" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="394" t="s">
+      <c r="D11" s="280" t="s">
         <v>1271</v>
       </c>
-      <c r="E11" s="387">
+      <c r="E11" s="273">
         <v>7</v>
       </c>
-      <c r="F11" s="390"/>
-      <c r="G11" s="389" t="s">
+      <c r="F11" s="276"/>
+      <c r="G11" s="275" t="s">
         <v>479</v>
       </c>
-      <c r="H11" s="393" t="s">
+      <c r="H11" s="279" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="387">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A12" s="273">
         <v>8</v>
       </c>
-      <c r="B12" s="388"/>
-      <c r="C12" s="389" t="s">
+      <c r="B12" s="274"/>
+      <c r="C12" s="275" t="s">
         <v>1305</v>
       </c>
-      <c r="D12" s="394" t="s">
+      <c r="D12" s="280" t="s">
         <v>1273</v>
       </c>
-      <c r="E12" s="387">
+      <c r="E12" s="273">
         <v>8</v>
       </c>
-      <c r="F12" s="390" t="s">
+      <c r="F12" s="276" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="389" t="s">
+      <c r="G12" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="395" t="s">
+      <c r="H12" s="281" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="387">
+    <row r="13" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A13" s="273">
         <v>9</v>
       </c>
-      <c r="B13" s="388"/>
-      <c r="C13" s="389" t="s">
+      <c r="B13" s="274"/>
+      <c r="C13" s="275" t="s">
         <v>1306</v>
       </c>
-      <c r="D13" s="396" t="s">
+      <c r="D13" s="282" t="s">
         <v>1274</v>
       </c>
-      <c r="E13" s="387">
+      <c r="E13" s="273">
         <v>9</v>
       </c>
-      <c r="F13" s="390"/>
-      <c r="G13" s="389" t="s">
+      <c r="F13" s="276"/>
+      <c r="G13" s="275" t="s">
         <v>1306</v>
       </c>
-      <c r="H13" s="396" t="s">
+      <c r="H13" s="282" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="387">
+    <row r="14" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A14" s="273">
         <v>10</v>
       </c>
-      <c r="B14" s="388"/>
-      <c r="C14" s="389" t="s">
+      <c r="B14" s="274"/>
+      <c r="C14" s="275" t="s">
         <v>1307</v>
       </c>
-      <c r="D14" s="396" t="s">
+      <c r="D14" s="282" t="s">
         <v>1274</v>
       </c>
-      <c r="E14" s="387">
+      <c r="E14" s="273">
         <v>10</v>
       </c>
-      <c r="F14" s="390" t="s">
+      <c r="F14" s="276" t="s">
         <v>480</v>
       </c>
-      <c r="G14" s="389" t="s">
+      <c r="G14" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="394" t="s">
+      <c r="H14" s="280" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="387">
+    <row r="15" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A15" s="273">
         <v>11</v>
       </c>
-      <c r="B15" s="388"/>
-      <c r="C15" s="389" t="s">
+      <c r="B15" s="274"/>
+      <c r="C15" s="275" t="s">
         <v>1308</v>
       </c>
-      <c r="D15" s="389" t="s">
+      <c r="D15" s="275" t="s">
         <v>1277</v>
       </c>
-      <c r="E15" s="387">
+      <c r="E15" s="273">
         <v>11</v>
       </c>
-      <c r="F15" s="390"/>
-      <c r="G15" s="389" t="s">
+      <c r="F15" s="276"/>
+      <c r="G15" s="275" t="s">
         <v>1308</v>
       </c>
-      <c r="H15" s="396" t="s">
+      <c r="H15" s="282" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="387">
+    <row r="16" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A16" s="273">
         <v>12</v>
       </c>
-      <c r="B16" s="388"/>
-      <c r="C16" s="389" t="s">
+      <c r="B16" s="274"/>
+      <c r="C16" s="275" t="s">
         <v>1309</v>
       </c>
-      <c r="D16" s="389" t="s">
+      <c r="D16" s="275" t="s">
         <v>1278</v>
       </c>
-      <c r="E16" s="387">
+      <c r="E16" s="273">
         <v>12</v>
       </c>
-      <c r="F16" s="390" t="s">
+      <c r="F16" s="276" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="389" t="s">
+      <c r="G16" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="394" t="s">
+      <c r="H16" s="280" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="387">
+    <row r="17" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A17" s="273">
         <v>13</v>
       </c>
-      <c r="B17" s="388"/>
-      <c r="C17" s="389" t="s">
+      <c r="B17" s="274"/>
+      <c r="C17" s="275" t="s">
         <v>1311</v>
       </c>
-      <c r="D17" s="389" t="s">
+      <c r="D17" s="275" t="s">
         <v>1279</v>
       </c>
-      <c r="E17" s="387">
+      <c r="E17" s="273">
         <v>13</v>
       </c>
-      <c r="F17" s="390" t="s">
+      <c r="F17" s="276" t="s">
         <v>1239</v>
       </c>
-      <c r="G17" s="389" t="s">
+      <c r="G17" s="275" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="394" t="s">
+      <c r="H17" s="280" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="387">
+    <row r="18" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A18" s="273">
         <v>14</v>
       </c>
-      <c r="B18" s="388"/>
-      <c r="C18" s="389" t="s">
+      <c r="B18" s="274"/>
+      <c r="C18" s="275" t="s">
         <v>1310</v>
       </c>
-      <c r="D18" s="389" t="s">
+      <c r="D18" s="275" t="s">
         <v>1280</v>
       </c>
-      <c r="E18" s="387">
+      <c r="E18" s="273">
         <v>14</v>
       </c>
-      <c r="F18" s="390"/>
-      <c r="G18" s="389" t="s">
+      <c r="F18" s="276"/>
+      <c r="G18" s="275" t="s">
         <v>1310</v>
       </c>
-      <c r="H18" s="394" t="s">
+      <c r="H18" s="280" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="387">
+    <row r="19" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A19" s="273">
         <v>15</v>
       </c>
-      <c r="B19" s="388"/>
-      <c r="C19" s="389" t="s">
+      <c r="B19" s="274"/>
+      <c r="C19" s="275" t="s">
         <v>1312</v>
       </c>
-      <c r="D19" s="389" t="s">
+      <c r="D19" s="275" t="s">
         <v>1281</v>
       </c>
-      <c r="E19" s="387">
+      <c r="E19" s="273">
         <v>15</v>
       </c>
-      <c r="F19" s="390" t="s">
+      <c r="F19" s="276" t="s">
         <v>1282</v>
       </c>
-      <c r="G19" s="389" t="s">
+      <c r="G19" s="275" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="394" t="s">
+      <c r="H19" s="280" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="387">
+    <row r="20" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A20" s="273">
         <v>16</v>
       </c>
-      <c r="B20" s="390" t="s">
+      <c r="B20" s="276" t="s">
         <v>1282</v>
       </c>
-      <c r="C20" s="389" t="s">
+      <c r="C20" s="275" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="394" t="s">
+      <c r="D20" s="280" t="s">
         <v>765</v>
       </c>
-      <c r="E20" s="387">
+      <c r="E20" s="273">
         <v>16</v>
       </c>
-      <c r="F20" s="390" t="s">
+      <c r="F20" s="276" t="s">
         <v>446</v>
       </c>
-      <c r="G20" s="389" t="s">
+      <c r="G20" s="275" t="s">
         <v>171</v>
       </c>
-      <c r="H20" s="394" t="s">
+      <c r="H20" s="280" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="387">
+    <row r="21" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A21" s="273">
         <v>17</v>
       </c>
-      <c r="B21" s="390" t="s">
+      <c r="B21" s="276" t="s">
         <v>446</v>
       </c>
-      <c r="C21" s="389" t="s">
+      <c r="C21" s="275" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="394" t="s">
+      <c r="D21" s="280" t="s">
         <v>1283</v>
       </c>
-      <c r="E21" s="387">
+      <c r="E21" s="273">
         <v>17</v>
       </c>
-      <c r="F21" s="390" t="s">
+      <c r="F21" s="276" t="s">
         <v>447</v>
       </c>
-      <c r="G21" s="389" t="s">
+      <c r="G21" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="394" t="s">
+      <c r="H21" s="280" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="387">
+    <row r="22" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A22" s="273">
         <v>18</v>
       </c>
-      <c r="B22" s="390" t="s">
+      <c r="B22" s="276" t="s">
         <v>447</v>
       </c>
-      <c r="C22" s="389" t="s">
+      <c r="C22" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="394" t="s">
+      <c r="D22" s="280" t="s">
         <v>1284</v>
       </c>
-      <c r="E22" s="387">
+      <c r="E22" s="273">
         <v>18</v>
       </c>
-      <c r="F22" s="390" t="s">
+      <c r="F22" s="276" t="s">
         <v>243</v>
       </c>
-      <c r="G22" s="389" t="s">
+      <c r="G22" s="275" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="394" t="s">
+      <c r="H22" s="280" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="387">
+    <row r="23" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A23" s="273">
         <v>19</v>
       </c>
-      <c r="B23" s="390" t="s">
+      <c r="B23" s="276" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="389" t="s">
+      <c r="C23" s="275" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="394" t="s">
+      <c r="D23" s="280" t="s">
         <v>1285</v>
       </c>
-      <c r="E23" s="387">
+      <c r="E23" s="273">
         <v>19</v>
       </c>
-      <c r="F23" s="390" t="s">
+      <c r="F23" s="276" t="s">
         <v>515</v>
       </c>
-      <c r="G23" s="389" t="s">
+      <c r="G23" s="275" t="s">
         <v>507</v>
       </c>
-      <c r="H23" s="390" t="s">
+      <c r="H23" s="276" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="397">
+    <row r="24" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A24" s="283">
         <v>20</v>
       </c>
-      <c r="B24" s="398"/>
-      <c r="C24" s="425" t="s">
+      <c r="B24" s="284"/>
+      <c r="C24" s="292" t="s">
         <v>1313</v>
       </c>
-      <c r="D24" s="398" t="s">
+      <c r="D24" s="284" t="s">
         <v>1287</v>
       </c>
-      <c r="E24" s="387">
+      <c r="E24" s="273">
         <v>20</v>
       </c>
-      <c r="F24" s="390" t="s">
+      <c r="F24" s="276" t="s">
         <v>540</v>
       </c>
-      <c r="G24" s="389" t="s">
+      <c r="G24" s="275" t="s">
         <v>506</v>
       </c>
-      <c r="H24" s="390" t="s">
+      <c r="H24" s="276" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="399" t="s">
+    <row r="25" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A25" s="342" t="s">
         <v>1289</v>
       </c>
-      <c r="B25" s="400"/>
-      <c r="C25" s="400"/>
-      <c r="D25" s="401"/>
-      <c r="E25" s="388">
+      <c r="B25" s="343"/>
+      <c r="C25" s="343"/>
+      <c r="D25" s="344"/>
+      <c r="E25" s="274">
         <v>21</v>
       </c>
-      <c r="F25" s="390" t="s">
+      <c r="F25" s="276" t="s">
         <v>545</v>
       </c>
-      <c r="G25" s="389" t="s">
+      <c r="G25" s="275" t="s">
         <v>505</v>
       </c>
-      <c r="H25" s="390" t="s">
+      <c r="H25" s="276" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="402"/>
-      <c r="B26" s="402"/>
-      <c r="C26" s="403" t="s">
+    <row r="26" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A26" s="285"/>
+      <c r="B26" s="285"/>
+      <c r="C26" s="286" t="s">
         <v>1235</v>
       </c>
-      <c r="D26" s="404" t="s">
+      <c r="D26" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="388">
+      <c r="E26" s="274">
         <v>22</v>
       </c>
-      <c r="F26" s="390" t="s">
+      <c r="F26" s="276" t="s">
         <v>546</v>
       </c>
-      <c r="G26" s="389" t="s">
+      <c r="G26" s="275" t="s">
         <v>504</v>
       </c>
-      <c r="H26" s="392" t="s">
+      <c r="H26" s="278" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="402"/>
-      <c r="B27" s="402"/>
-      <c r="C27" s="403" t="s">
+    <row r="27" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A27" s="285"/>
+      <c r="B27" s="285"/>
+      <c r="C27" s="286" t="s">
         <v>1249</v>
       </c>
-      <c r="D27" s="405" t="s">
+      <c r="D27" s="288" t="s">
         <v>1248</v>
       </c>
-      <c r="E27" s="388">
+      <c r="E27" s="274">
         <v>23</v>
       </c>
-      <c r="F27" s="390" t="s">
+      <c r="F27" s="276" t="s">
         <v>834</v>
       </c>
-      <c r="G27" s="389" t="s">
+      <c r="G27" s="275" t="s">
         <v>860</v>
       </c>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="276" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="402"/>
-      <c r="B28" s="402"/>
-      <c r="C28" s="402" t="s">
+    <row r="28" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A28" s="285"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="285" t="s">
         <v>1251</v>
       </c>
-      <c r="D28" s="405" t="s">
+      <c r="D28" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="388">
+      <c r="E28" s="274">
         <v>24</v>
       </c>
-      <c r="F28" s="390" t="s">
+      <c r="F28" s="276" t="s">
         <v>456</v>
       </c>
-      <c r="G28" s="389" t="s">
+      <c r="G28" s="275" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="390" t="s">
+      <c r="H28" s="276" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="402"/>
-      <c r="B29" s="402"/>
-      <c r="C29" s="402" t="s">
+    <row r="29" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A29" s="285"/>
+      <c r="B29" s="285"/>
+      <c r="C29" s="285" t="s">
         <v>1236</v>
       </c>
-      <c r="D29" s="404" t="s">
+      <c r="D29" s="287" t="s">
         <v>1232</v>
       </c>
-      <c r="E29" s="388">
+      <c r="E29" s="274">
         <v>25</v>
       </c>
-      <c r="F29" s="390" t="s">
+      <c r="F29" s="276" t="s">
         <v>460</v>
       </c>
-      <c r="G29" s="389" t="s">
+      <c r="G29" s="275" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="390" t="s">
+      <c r="H29" s="276" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="402"/>
-      <c r="B30" s="402"/>
-      <c r="C30" s="402" t="s">
+    <row r="30" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A30" s="285"/>
+      <c r="B30" s="285"/>
+      <c r="C30" s="285" t="s">
         <v>1242</v>
       </c>
-      <c r="D30" s="405" t="s">
+      <c r="D30" s="288" t="s">
         <v>1247</v>
       </c>
-      <c r="E30" s="388">
+      <c r="E30" s="274">
         <v>26</v>
       </c>
-      <c r="F30" s="390" t="s">
+      <c r="F30" s="276" t="s">
         <v>240</v>
       </c>
-      <c r="G30" s="389" t="s">
+      <c r="G30" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="395" t="s">
+      <c r="H30" s="281" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="402"/>
-      <c r="B31" s="402"/>
-      <c r="C31" s="402" t="s">
+    <row r="31" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A31" s="285"/>
+      <c r="B31" s="285"/>
+      <c r="C31" s="285" t="s">
         <v>1244</v>
       </c>
-      <c r="D31" s="404" t="s">
+      <c r="D31" s="287" t="s">
         <v>1245</v>
       </c>
-      <c r="E31" s="388">
+      <c r="E31" s="274">
         <v>27</v>
       </c>
-      <c r="F31" s="390" t="s">
+      <c r="F31" s="276" t="s">
         <v>838</v>
       </c>
-      <c r="G31" s="389" t="s">
+      <c r="G31" s="275" t="s">
         <v>371</v>
       </c>
-      <c r="H31" s="390" t="s">
+      <c r="H31" s="276" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="402"/>
-      <c r="B32" s="402"/>
-      <c r="C32" s="402" t="s">
+    <row r="32" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A32" s="285"/>
+      <c r="B32" s="285"/>
+      <c r="C32" s="285" t="s">
         <v>1254</v>
       </c>
-      <c r="D32" s="405" t="s">
+      <c r="D32" s="288" t="s">
         <v>1253</v>
       </c>
-      <c r="E32" s="388">
+      <c r="E32" s="274">
         <v>28</v>
       </c>
-      <c r="F32" s="406" t="s">
+      <c r="F32" s="289" t="s">
         <v>556</v>
       </c>
-      <c r="G32" s="407" t="s">
+      <c r="G32" s="290" t="s">
         <v>503</v>
       </c>
-      <c r="H32" s="406" t="s">
+      <c r="H32" s="289" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="402"/>
-      <c r="B33" s="402"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="408"/>
-      <c r="E33" s="388">
+    <row r="33" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A33" s="285"/>
+      <c r="B33" s="285"/>
+      <c r="C33" s="285"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="274">
         <v>29</v>
       </c>
-      <c r="F33" s="406" t="s">
+      <c r="F33" s="289" t="s">
         <v>557</v>
       </c>
-      <c r="G33" s="407" t="s">
+      <c r="G33" s="290" t="s">
         <v>888</v>
       </c>
-      <c r="H33" s="406" t="s">
+      <c r="H33" s="289" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="402"/>
-      <c r="B34" s="402"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="408"/>
-      <c r="E34" s="388">
+    <row r="34" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A34" s="285"/>
+      <c r="B34" s="285"/>
+      <c r="C34" s="285"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="274">
         <v>30</v>
       </c>
-      <c r="F34" s="406" t="s">
+      <c r="F34" s="289" t="s">
         <v>1230</v>
       </c>
-      <c r="G34" s="407" t="s">
+      <c r="G34" s="290" t="s">
         <v>1295</v>
       </c>
-      <c r="H34" s="406" t="s">
+      <c r="H34" s="289" t="s">
         <v>1296</v>
       </c>
     </row>
@@ -18045,51 +18014,51 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="334" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="361" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="336"/>
+      <c r="B1" s="362"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="362"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="363"/>
       <c r="G1" s="175"/>
       <c r="H1" s="175"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="337" t="s">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="364" t="s">
         <v>840</v>
       </c>
-      <c r="B2" s="338"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="337" t="s">
+      <c r="B2" s="365"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="364" t="s">
         <v>841</v>
       </c>
-      <c r="E2" s="338"/>
-      <c r="F2" s="339"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="366"/>
       <c r="G2" s="175"/>
       <c r="H2" s="175"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="176">
         <v>1</v>
       </c>
@@ -18109,11 +18078,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="175"/>
-      <c r="H3" s="331" t="s">
+      <c r="H3" s="367" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="176">
         <v>2</v>
       </c>
@@ -18133,9 +18102,9 @@
         <v>2</v>
       </c>
       <c r="G4" s="175"/>
-      <c r="H4" s="332"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="368"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="176">
         <v>3</v>
       </c>
@@ -18155,9 +18124,9 @@
         <v>3</v>
       </c>
       <c r="G5" s="175"/>
-      <c r="H5" s="332"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="368"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="179">
         <v>4</v>
       </c>
@@ -18177,9 +18146,9 @@
         <v>4</v>
       </c>
       <c r="G6" s="175"/>
-      <c r="H6" s="332"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="368"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="179">
         <v>5</v>
       </c>
@@ -18199,9 +18168,9 @@
         <v>5</v>
       </c>
       <c r="G7" s="175"/>
-      <c r="H7" s="332"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="368"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="182">
         <v>6</v>
       </c>
@@ -18221,9 +18190,9 @@
         <v>6</v>
       </c>
       <c r="G8" s="175"/>
-      <c r="H8" s="332"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="368"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="182">
         <v>7</v>
       </c>
@@ -18243,9 +18212,9 @@
         <v>7</v>
       </c>
       <c r="G9" s="175"/>
-      <c r="H9" s="332"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="368"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="185">
         <v>8</v>
       </c>
@@ -18265,9 +18234,9 @@
         <v>8</v>
       </c>
       <c r="G10" s="175"/>
-      <c r="H10" s="333"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="369"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="188">
         <v>9</v>
       </c>
@@ -18287,11 +18256,11 @@
         <v>9</v>
       </c>
       <c r="G11" s="175"/>
-      <c r="H11" s="322" t="s">
+      <c r="H11" s="370" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A12" s="191">
         <v>10</v>
       </c>
@@ -18311,9 +18280,9 @@
         <v>10</v>
       </c>
       <c r="G12" s="175"/>
-      <c r="H12" s="323"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="371"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="191">
         <v>11</v>
       </c>
@@ -18333,9 +18302,9 @@
         <v>11</v>
       </c>
       <c r="G13" s="175"/>
-      <c r="H13" s="323"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="371"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="191">
         <v>12</v>
       </c>
@@ -18355,9 +18324,9 @@
         <v>12</v>
       </c>
       <c r="G14" s="175"/>
-      <c r="H14" s="323"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="371"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="195">
         <v>13</v>
       </c>
@@ -18377,9 +18346,9 @@
         <v>13</v>
       </c>
       <c r="G15" s="175"/>
-      <c r="H15" s="323"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="371"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="195">
         <v>14</v>
       </c>
@@ -18399,9 +18368,9 @@
         <v>14</v>
       </c>
       <c r="G16" s="175"/>
-      <c r="H16" s="323"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="371"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="195">
         <v>15</v>
       </c>
@@ -18421,9 +18390,9 @@
         <v>15</v>
       </c>
       <c r="G17" s="175"/>
-      <c r="H17" s="323"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="371"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="195">
         <v>16</v>
       </c>
@@ -18443,9 +18412,9 @@
         <v>16</v>
       </c>
       <c r="G18" s="175"/>
-      <c r="H18" s="323"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="371"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="195">
         <v>17</v>
       </c>
@@ -18465,9 +18434,9 @@
         <v>17</v>
       </c>
       <c r="G19" s="175"/>
-      <c r="H19" s="323"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="371"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="198">
         <v>18</v>
       </c>
@@ -18487,9 +18456,9 @@
         <v>18</v>
       </c>
       <c r="G20" s="175"/>
-      <c r="H20" s="323"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="371"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="198">
         <v>19</v>
       </c>
@@ -18509,9 +18478,9 @@
         <v>19</v>
       </c>
       <c r="G21" s="175"/>
-      <c r="H21" s="323"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="371"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="201">
         <v>20</v>
       </c>
@@ -18531,50 +18500,50 @@
         <v>20</v>
       </c>
       <c r="G22" s="175"/>
-      <c r="H22" s="324"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="325" t="s">
+      <c r="H22" s="372"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1"/>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A38" s="373" t="s">
         <v>953</v>
       </c>
-      <c r="B38" s="326"/>
-      <c r="C38" s="326"/>
-      <c r="D38" s="326"/>
-      <c r="E38" s="326"/>
-      <c r="F38" s="327"/>
+      <c r="B38" s="374"/>
+      <c r="C38" s="374"/>
+      <c r="D38" s="374"/>
+      <c r="E38" s="374"/>
+      <c r="F38" s="375"/>
       <c r="G38" s="175"/>
       <c r="H38" s="175"/>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="328" t="s">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A39" s="376" t="s">
         <v>840</v>
       </c>
-      <c r="B39" s="329"/>
-      <c r="C39" s="330"/>
-      <c r="D39" s="328" t="s">
+      <c r="B39" s="377"/>
+      <c r="C39" s="378"/>
+      <c r="D39" s="376" t="s">
         <v>841</v>
       </c>
-      <c r="E39" s="329"/>
-      <c r="F39" s="330"/>
+      <c r="E39" s="377"/>
+      <c r="F39" s="378"/>
       <c r="G39" s="175"/>
       <c r="H39" s="175"/>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="204">
         <v>1</v>
       </c>
@@ -18594,11 +18563,11 @@
         <v>1</v>
       </c>
       <c r="G40" s="175"/>
-      <c r="H40" s="331" t="s">
+      <c r="H40" s="367" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="204">
         <v>2</v>
       </c>
@@ -18618,9 +18587,9 @@
         <v>2</v>
       </c>
       <c r="G41" s="175"/>
-      <c r="H41" s="332"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="368"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="204">
         <v>3</v>
       </c>
@@ -18640,9 +18609,9 @@
         <v>3</v>
       </c>
       <c r="G42" s="175"/>
-      <c r="H42" s="332"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="368"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="206">
         <v>4</v>
       </c>
@@ -18662,9 +18631,9 @@
         <v>4</v>
       </c>
       <c r="G43" s="175"/>
-      <c r="H43" s="332"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H43" s="368"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="206">
         <v>5</v>
       </c>
@@ -18684,9 +18653,9 @@
         <v>5</v>
       </c>
       <c r="G44" s="175"/>
-      <c r="H44" s="332"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H44" s="368"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="208">
         <v>6</v>
       </c>
@@ -18706,9 +18675,9 @@
         <v>6</v>
       </c>
       <c r="G45" s="175"/>
-      <c r="H45" s="332"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="368"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="208">
         <v>7</v>
       </c>
@@ -18728,9 +18697,9 @@
         <v>7</v>
       </c>
       <c r="G46" s="175"/>
-      <c r="H46" s="332"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H46" s="368"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="210">
         <v>8</v>
       </c>
@@ -18750,9 +18719,9 @@
         <v>8</v>
       </c>
       <c r="G47" s="175"/>
-      <c r="H47" s="333"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="369"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="213">
         <v>9</v>
       </c>
@@ -18772,11 +18741,11 @@
         <v>9</v>
       </c>
       <c r="G48" s="175"/>
-      <c r="H48" s="322" t="s">
+      <c r="H48" s="370" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="215">
         <v>10</v>
       </c>
@@ -18796,9 +18765,9 @@
         <v>10</v>
       </c>
       <c r="G49" s="175"/>
-      <c r="H49" s="323"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H49" s="371"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickBot="1">
       <c r="A50" s="215">
         <v>11</v>
       </c>
@@ -18818,9 +18787,9 @@
         <v>11</v>
       </c>
       <c r="G50" s="175"/>
-      <c r="H50" s="323"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H50" s="371"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickBot="1">
       <c r="A51" s="218">
         <v>12</v>
       </c>
@@ -18840,9 +18809,9 @@
         <v>12</v>
       </c>
       <c r="G51" s="175"/>
-      <c r="H51" s="323"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H51" s="371"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickBot="1">
       <c r="A52" s="218">
         <v>13</v>
       </c>
@@ -18862,9 +18831,9 @@
         <v>13</v>
       </c>
       <c r="G52" s="175"/>
-      <c r="H52" s="323"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H52" s="371"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickBot="1">
       <c r="A53" s="218">
         <v>14</v>
       </c>
@@ -18884,9 +18853,9 @@
         <v>14</v>
       </c>
       <c r="G53" s="175"/>
-      <c r="H53" s="323"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H53" s="371"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1">
       <c r="A54" s="218">
         <v>15</v>
       </c>
@@ -18906,9 +18875,9 @@
         <v>15</v>
       </c>
       <c r="G54" s="175"/>
-      <c r="H54" s="323"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H54" s="371"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickBot="1">
       <c r="A55" s="218">
         <v>16</v>
       </c>
@@ -18928,9 +18897,9 @@
         <v>16</v>
       </c>
       <c r="G55" s="175"/>
-      <c r="H55" s="323"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H55" s="371"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickBot="1">
       <c r="A56" s="218">
         <v>17</v>
       </c>
@@ -18950,9 +18919,9 @@
         <v>17</v>
       </c>
       <c r="G56" s="175"/>
-      <c r="H56" s="323"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="371"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickBot="1">
       <c r="A57" s="220">
         <v>18</v>
       </c>
@@ -18972,9 +18941,9 @@
         <v>18</v>
       </c>
       <c r="G57" s="175"/>
-      <c r="H57" s="323"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H57" s="371"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickBot="1">
       <c r="A58" s="220">
         <v>19</v>
       </c>
@@ -18994,9 +18963,9 @@
         <v>19</v>
       </c>
       <c r="G58" s="175"/>
-      <c r="H58" s="323"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H58" s="371"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickBot="1">
       <c r="A59" s="222">
         <v>20</v>
       </c>
@@ -19016,21 +18985,21 @@
         <v>20</v>
       </c>
       <c r="G59" s="175"/>
-      <c r="H59" s="324"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H59" s="372"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H48:H59"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H40:H47"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H3:H10"/>
     <mergeCell ref="H11:H22"/>
-    <mergeCell ref="H48:H59"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H40:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19038,63 +19007,63 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="346" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="385" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="348"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="349"/>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="350"/>
-      <c r="H2" s="351"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="340" t="s">
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="387"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="388"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="390"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" thickBot="1">
+      <c r="A3" s="379" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="340" t="s">
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="379" t="s">
         <v>314</v>
       </c>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="342"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="381"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="77">
         <v>1</v>
       </c>
@@ -19108,7 +19077,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="79"/>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="77">
         <v>2</v>
       </c>
@@ -19122,7 +19091,7 @@
       <c r="G5" s="78"/>
       <c r="H5" s="79"/>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="77">
         <v>3</v>
       </c>
@@ -19136,7 +19105,7 @@
       <c r="G6" s="78"/>
       <c r="H6" s="79"/>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="77">
         <v>4</v>
       </c>
@@ -19150,7 +19119,7 @@
       <c r="G7" s="78"/>
       <c r="H7" s="79"/>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="17.25" thickBot="1">
       <c r="A8" s="77">
         <v>5</v>
       </c>
@@ -19164,7 +19133,7 @@
       <c r="G8" s="78"/>
       <c r="H8" s="79"/>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="77">
         <v>6</v>
       </c>
@@ -19178,7 +19147,7 @@
       <c r="G9" s="78"/>
       <c r="H9" s="79"/>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="77">
         <v>7</v>
       </c>
@@ -19192,7 +19161,7 @@
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="77"/>
       <c r="B11" s="76"/>
       <c r="C11" s="78"/>
@@ -19204,7 +19173,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="79"/>
     </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
       <c r="A12" s="77"/>
       <c r="B12" s="76"/>
       <c r="C12" s="78"/>
@@ -19216,7 +19185,7 @@
       <c r="G12" s="78"/>
       <c r="H12" s="79"/>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="77"/>
       <c r="B13" s="76"/>
       <c r="C13" s="78"/>
@@ -19228,7 +19197,7 @@
       <c r="G13" s="78"/>
       <c r="H13" s="79"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="80"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
@@ -19238,7 +19207,7 @@
       <c r="G14" s="75"/>
       <c r="H14" s="81"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="80"/>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
@@ -19248,7 +19217,7 @@
       <c r="G15" s="75"/>
       <c r="H15" s="70"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="80"/>
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
@@ -19258,7 +19227,7 @@
       <c r="G16" s="73"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="80"/>
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
@@ -19268,7 +19237,7 @@
       <c r="G17" s="73"/>
       <c r="H17" s="69"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="80"/>
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
@@ -19278,7 +19247,7 @@
       <c r="G18" s="73"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="80"/>
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
@@ -19288,7 +19257,7 @@
       <c r="G19" s="73"/>
       <c r="H19" s="69"/>
     </row>
-    <row r="20" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="78.75" customHeight="1">
       <c r="A20" s="80"/>
       <c r="B20" s="72"/>
       <c r="C20" s="73"/>
@@ -19298,7 +19267,7 @@
       <c r="G20" s="73"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="80"/>
       <c r="B21" s="72"/>
       <c r="C21" s="73"/>
@@ -19308,21 +19277,21 @@
       <c r="G21" s="73"/>
       <c r="H21" s="69"/>
     </row>
-    <row r="22" spans="1:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="343" t="s">
+    <row r="22" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A22" s="382" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="344"/>
-      <c r="C22" s="344"/>
-      <c r="D22" s="345"/>
-      <c r="E22" s="343" t="s">
+      <c r="B22" s="383"/>
+      <c r="C22" s="383"/>
+      <c r="D22" s="384"/>
+      <c r="E22" s="382" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="344"/>
-      <c r="G22" s="344"/>
-      <c r="H22" s="345"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="383"/>
+      <c r="G22" s="383"/>
+      <c r="H22" s="384"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1">
       <c r="A23" s="62">
         <v>1</v>
       </c>
@@ -19336,7 +19305,7 @@
       <c r="G23" s="67"/>
       <c r="H23" s="68"/>
     </row>
-    <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.5" thickBot="1">
       <c r="A24" s="62">
         <v>2</v>
       </c>
@@ -19350,7 +19319,7 @@
       <c r="G24" s="67"/>
       <c r="H24" s="68"/>
     </row>
-    <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16.5" thickBot="1">
       <c r="A25" s="62">
         <v>3</v>
       </c>
@@ -19364,7 +19333,7 @@
       <c r="G25" s="67"/>
       <c r="H25" s="68"/>
     </row>
-    <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16.5" thickBot="1">
       <c r="A26" s="62">
         <v>4</v>
       </c>
@@ -19378,7 +19347,7 @@
       <c r="G26" s="67"/>
       <c r="H26" s="68"/>
     </row>
-    <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16.5" thickBot="1">
       <c r="A27" s="62">
         <v>5</v>
       </c>
@@ -19392,7 +19361,7 @@
       <c r="G27" s="67"/>
       <c r="H27" s="68"/>
     </row>
-    <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16.5" thickBot="1">
       <c r="A28" s="62">
         <v>6</v>
       </c>
@@ -19406,7 +19375,7 @@
       <c r="G28" s="67"/>
       <c r="H28" s="68"/>
     </row>
-    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="16.5" thickBot="1">
       <c r="A29" s="62">
         <v>7</v>
       </c>
@@ -19420,7 +19389,7 @@
       <c r="G29" s="67"/>
       <c r="H29" s="68"/>
     </row>
-    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.5" thickBot="1">
       <c r="A30" s="62">
         <v>8</v>
       </c>
@@ -19434,7 +19403,7 @@
       <c r="G30" s="67"/>
       <c r="H30" s="65"/>
     </row>
-    <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16.5" thickBot="1">
       <c r="A31" s="62">
         <v>9</v>
       </c>
@@ -19448,7 +19417,7 @@
       <c r="G31" s="67"/>
       <c r="H31" s="65"/>
     </row>
-    <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16.5" thickBot="1">
       <c r="A32" s="86">
         <v>10</v>
       </c>
@@ -19462,7 +19431,7 @@
       <c r="G32" s="67"/>
       <c r="H32" s="65"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="80"/>
       <c r="B33" s="83"/>
       <c r="C33" s="84"/>
@@ -19472,7 +19441,7 @@
       <c r="G33" s="84"/>
       <c r="H33" s="69"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="80"/>
       <c r="B34" s="83"/>
       <c r="C34" s="84"/>
@@ -19482,7 +19451,7 @@
       <c r="G34" s="84"/>
       <c r="H34" s="69"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="80"/>
       <c r="B35" s="83"/>
       <c r="C35" s="84"/>
@@ -19492,7 +19461,7 @@
       <c r="G35" s="84"/>
       <c r="H35" s="69"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="80"/>
       <c r="B36" s="83"/>
       <c r="C36" s="84"/>
@@ -19502,7 +19471,7 @@
       <c r="G36" s="84"/>
       <c r="H36" s="69"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="80"/>
       <c r="B37" s="83"/>
       <c r="C37" s="84"/>
@@ -19512,7 +19481,7 @@
       <c r="G37" s="84"/>
       <c r="H37" s="69"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="80"/>
       <c r="B38" s="83"/>
       <c r="C38" s="84"/>
@@ -19522,7 +19491,7 @@
       <c r="G38" s="84"/>
       <c r="H38" s="69"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="80"/>
       <c r="B39" s="83"/>
       <c r="C39" s="84"/>
@@ -19532,7 +19501,7 @@
       <c r="G39" s="84"/>
       <c r="H39" s="69"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="80"/>
       <c r="B40" s="83"/>
       <c r="C40" s="84"/>
@@ -19542,7 +19511,7 @@
       <c r="G40" s="84"/>
       <c r="H40" s="69"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="80"/>
       <c r="B41" s="83"/>
       <c r="C41" s="84"/>
@@ -19552,7 +19521,7 @@
       <c r="G41" s="84"/>
       <c r="H41" s="69"/>
     </row>
-    <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16.5" thickBot="1">
       <c r="A42" s="87"/>
       <c r="B42" s="88"/>
       <c r="C42" s="89"/>
@@ -19576,63 +19545,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="299" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="323" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="301"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="302"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="304"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="305" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="325"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="326"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="328"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="329" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="307"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="331"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -19650,7 +19619,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" thickBot="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -19664,7 +19633,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" thickBot="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -19678,7 +19647,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" thickBot="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -19692,7 +19661,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" thickBot="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -19706,7 +19675,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" thickBot="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -19720,7 +19689,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" thickBot="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -19734,7 +19703,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.75" thickBot="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -19748,7 +19717,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.75" thickBot="1">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -19762,7 +19731,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18.75" thickBot="1">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -19776,7 +19745,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -19790,7 +19759,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18.75" thickBot="1">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -19804,7 +19773,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18.75" thickBot="1">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -19818,7 +19787,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18.75" thickBot="1">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -19832,7 +19801,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18.75" thickBot="1">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -19846,7 +19815,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18.75" thickBot="1">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -19860,7 +19829,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18.75" thickBot="1">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -19874,7 +19843,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18.75" thickBot="1">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -19888,7 +19857,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18.75" thickBot="1">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -19902,7 +19871,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18.75" thickBot="1">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -19916,7 +19885,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="95"/>
     </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="18.75" thickBot="1">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -19928,7 +19897,7 @@
       <c r="G24" s="97"/>
       <c r="H24" s="93"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -19940,7 +19909,7 @@
       <c r="G25" s="97"/>
       <c r="H25" s="93"/>
     </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -19952,7 +19921,7 @@
       <c r="G26" s="97"/>
       <c r="H26" s="93"/>
     </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -19964,7 +19933,7 @@
       <c r="G27" s="97"/>
       <c r="H27" s="93"/>
     </row>
-    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -19976,7 +19945,7 @@
       <c r="G28" s="97"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -19988,7 +19957,7 @@
       <c r="G29" s="97"/>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -20000,7 +19969,7 @@
       <c r="G30" s="97"/>
       <c r="H30" s="93"/>
     </row>
-    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -20012,7 +19981,7 @@
       <c r="G31" s="97"/>
       <c r="H31" s="93"/>
     </row>
-    <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -20024,7 +19993,7 @@
       <c r="G32" s="97"/>
       <c r="H32" s="93"/>
     </row>
-    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="18.75" thickBot="1">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -20036,7 +20005,7 @@
       <c r="G33" s="97"/>
       <c r="H33" s="93"/>
     </row>
-    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="18.75" thickBot="1">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -20048,7 +20017,7 @@
       <c r="G34" s="97"/>
       <c r="H34" s="93"/>
     </row>
-    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="18.75" thickBot="1">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -20060,7 +20029,7 @@
       <c r="G35" s="97"/>
       <c r="H35" s="93"/>
     </row>
-    <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="18.75" thickBot="1">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -20072,7 +20041,7 @@
       <c r="G36" s="97"/>
       <c r="H36" s="93"/>
     </row>
-    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="18.75" thickBot="1">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -20084,7 +20053,7 @@
       <c r="G37" s="97"/>
       <c r="H37" s="93"/>
     </row>
-    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="18.75" thickBot="1">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -20096,7 +20065,7 @@
       <c r="G38" s="97"/>
       <c r="H38" s="93"/>
     </row>
-    <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="18.75" thickBot="1">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -20108,7 +20077,7 @@
       <c r="G39" s="97"/>
       <c r="H39" s="93"/>
     </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="18.75" thickBot="1">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -20120,7 +20089,7 @@
       <c r="G40" s="97"/>
       <c r="H40" s="93"/>
     </row>
-    <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -20132,7 +20101,7 @@
       <c r="G41" s="97"/>
       <c r="H41" s="93"/>
     </row>
-    <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="18.75" thickBot="1">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -20144,7 +20113,7 @@
       <c r="G42" s="15"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="18.75" thickBot="1">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -20156,7 +20125,7 @@
       <c r="G43" s="97"/>
       <c r="H43" s="93"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -20166,7 +20135,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -20176,7 +20145,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -20186,7 +20155,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1337">
   <si>
     <t>AWACS</t>
   </si>
@@ -3972,6 +3972,69 @@
   </si>
   <si>
     <t>149.75</t>
+  </si>
+  <si>
+    <t>UZI</t>
+  </si>
+  <si>
+    <t>UI51</t>
+  </si>
+  <si>
+    <t>UI52</t>
+  </si>
+  <si>
+    <t>UI53</t>
+  </si>
+  <si>
+    <t>UI54</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>SPRINGFIELD</t>
+  </si>
+  <si>
+    <t>SD61</t>
+  </si>
+  <si>
+    <t>SD62</t>
+  </si>
+  <si>
+    <t>SD63</t>
+  </si>
+  <si>
+    <t>SD64</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>Sioux</t>
+  </si>
+  <si>
+    <t>WRATH</t>
+  </si>
+  <si>
+    <t>JOKKMOKK</t>
   </si>
 </sst>
 </file>
@@ -5904,7 +5967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="426">
+  <cellXfs count="427">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6624,12 +6687,21 @@
     <xf numFmtId="49" fontId="47" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6639,13 +6711,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6657,50 +6765,35 @@
     <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6711,36 +6804,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6828,6 +6891,42 @@
     <xf numFmtId="49" fontId="45" fillId="31" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6846,42 +6945,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6954,6 +7017,57 @@
     <xf numFmtId="0" fontId="32" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6972,57 +7086,7 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7335,7 +7399,7 @@
   <sheetPr codeName="Ark1"/>
   <dimension ref="A1:AP83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
@@ -7443,13 +7507,13 @@
       <c r="N2" s="107" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="294" t="s">
+      <c r="V2" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="294"/>
+      <c r="W2" s="293"/>
+      <c r="X2" s="293"/>
+      <c r="Y2" s="293"/>
+      <c r="Z2" s="293"/>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="107" t="s">
@@ -7498,9 +7562,9 @@
       <c r="P3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" s="293"/>
-      <c r="S3" s="293"/>
-      <c r="T3" s="293"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="297"/>
       <c r="V3" s="101" t="s">
         <v>328</v>
       </c>
@@ -7582,22 +7646,22 @@
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
-      <c r="AD4" s="294" t="s">
+      <c r="AD4" s="293" t="s">
         <v>429</v>
       </c>
-      <c r="AE4" s="294"/>
-      <c r="AF4" s="294"/>
-      <c r="AG4" s="294"/>
-      <c r="AH4" s="294"/>
-      <c r="AJ4" s="294" t="s">
+      <c r="AE4" s="293"/>
+      <c r="AF4" s="293"/>
+      <c r="AG4" s="293"/>
+      <c r="AH4" s="293"/>
+      <c r="AJ4" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="294"/>
-      <c r="AL4" s="294"/>
-      <c r="AM4" s="294"/>
-      <c r="AN4" s="294"/>
-      <c r="AO4" s="294"/>
-      <c r="AP4" s="294"/>
+      <c r="AK4" s="293"/>
+      <c r="AL4" s="293"/>
+      <c r="AM4" s="293"/>
+      <c r="AN4" s="293"/>
+      <c r="AO4" s="293"/>
+      <c r="AP4" s="293"/>
     </row>
     <row r="5" spans="1:42" ht="15.75">
       <c r="A5" s="107" t="s">
@@ -8813,15 +8877,15 @@
       <c r="AH18" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="AJ18" s="294" t="s">
+      <c r="AJ18" s="293" t="s">
         <v>274</v>
       </c>
-      <c r="AK18" s="294"/>
-      <c r="AL18" s="294"/>
-      <c r="AM18" s="294"/>
-      <c r="AN18" s="294"/>
-      <c r="AO18" s="294"/>
-      <c r="AP18" s="294"/>
+      <c r="AK18" s="293"/>
+      <c r="AL18" s="293"/>
+      <c r="AM18" s="293"/>
+      <c r="AN18" s="293"/>
+      <c r="AO18" s="293"/>
+      <c r="AP18" s="293"/>
     </row>
     <row r="19" spans="1:42" ht="15.75">
       <c r="A19" s="107" t="s">
@@ -8954,9 +9018,9 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="293"/>
-      <c r="S20" s="293"/>
-      <c r="T20" s="293"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="297"/>
+      <c r="T20" s="297"/>
       <c r="U20" s="2"/>
       <c r="V20" s="272" t="s">
         <v>1253</v>
@@ -9371,13 +9435,13 @@
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="X25" s="2"/>
-      <c r="AD25" s="294" t="s">
+      <c r="AD25" s="293" t="s">
         <v>486</v>
       </c>
-      <c r="AE25" s="294"/>
-      <c r="AF25" s="294"/>
-      <c r="AG25" s="294"/>
-      <c r="AH25" s="294"/>
+      <c r="AE25" s="293"/>
+      <c r="AF25" s="293"/>
+      <c r="AG25" s="293"/>
+      <c r="AH25" s="293"/>
       <c r="AJ25" s="116" t="s">
         <v>555</v>
       </c>
@@ -9627,15 +9691,15 @@
       <c r="N29" s="107" t="s">
         <v>355</v>
       </c>
-      <c r="V29" s="294" t="s">
+      <c r="V29" s="293" t="s">
         <v>212</v>
       </c>
-      <c r="W29" s="294"/>
-      <c r="X29" s="294"/>
-      <c r="Y29" s="294"/>
-      <c r="Z29" s="294"/>
-      <c r="AA29" s="294"/>
-      <c r="AB29" s="294"/>
+      <c r="W29" s="293"/>
+      <c r="X29" s="293"/>
+      <c r="Y29" s="293"/>
+      <c r="Z29" s="293"/>
+      <c r="AA29" s="293"/>
+      <c r="AB29" s="293"/>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="107"/>
@@ -9691,15 +9755,15 @@
       </c>
       <c r="AA30" s="29"/>
       <c r="AB30" s="29"/>
-      <c r="AJ30" s="294" t="s">
+      <c r="AJ30" s="293" t="s">
         <v>831</v>
       </c>
-      <c r="AK30" s="294"/>
-      <c r="AL30" s="294"/>
-      <c r="AM30" s="294"/>
-      <c r="AN30" s="294"/>
-      <c r="AO30" s="294"/>
-      <c r="AP30" s="294"/>
+      <c r="AK30" s="293"/>
+      <c r="AL30" s="293"/>
+      <c r="AM30" s="293"/>
+      <c r="AN30" s="293"/>
+      <c r="AO30" s="293"/>
+      <c r="AP30" s="293"/>
     </row>
     <row r="31" spans="1:42">
       <c r="B31" s="24"/>
@@ -9786,15 +9850,15 @@
       <c r="AJ34" s="23"/>
     </row>
     <row r="37" spans="22:36">
-      <c r="V37" s="294" t="s">
+      <c r="V37" s="293" t="s">
         <v>9</v>
       </c>
-      <c r="W37" s="294"/>
-      <c r="X37" s="294"/>
-      <c r="Y37" s="294"/>
-      <c r="Z37" s="294"/>
-      <c r="AA37" s="294"/>
-      <c r="AB37" s="294"/>
+      <c r="W37" s="293"/>
+      <c r="X37" s="293"/>
+      <c r="Y37" s="293"/>
+      <c r="Z37" s="293"/>
+      <c r="AA37" s="293"/>
+      <c r="AB37" s="293"/>
     </row>
     <row r="38" spans="22:36">
       <c r="V38" s="29" t="s">
@@ -9814,11 +9878,11 @@
       </c>
       <c r="AA38" s="29"/>
       <c r="AB38" s="29"/>
-      <c r="AD38" s="295" t="s">
+      <c r="AD38" s="298" t="s">
         <v>260</v>
       </c>
-      <c r="AE38" s="296"/>
-      <c r="AF38" s="297"/>
+      <c r="AE38" s="299"/>
+      <c r="AF38" s="300"/>
     </row>
     <row r="39" spans="22:36">
       <c r="V39" s="3" t="s">
@@ -9855,15 +9919,15 @@
       <c r="AF41" s="3"/>
     </row>
     <row r="42" spans="22:36">
-      <c r="V42" s="294" t="s">
+      <c r="V42" s="293" t="s">
         <v>244</v>
       </c>
-      <c r="W42" s="294"/>
-      <c r="X42" s="294"/>
-      <c r="Y42" s="294"/>
-      <c r="Z42" s="294"/>
-      <c r="AA42" s="294"/>
-      <c r="AB42" s="294"/>
+      <c r="W42" s="293"/>
+      <c r="X42" s="293"/>
+      <c r="Y42" s="293"/>
+      <c r="Z42" s="293"/>
+      <c r="AA42" s="293"/>
+      <c r="AB42" s="293"/>
       <c r="AD42" s="3" t="s">
         <v>254</v>
       </c>
@@ -9933,15 +9997,15 @@
       <c r="AF47" s="3"/>
     </row>
     <row r="48" spans="22:36">
-      <c r="V48" s="298" t="s">
+      <c r="V48" s="294" t="s">
         <v>473</v>
       </c>
-      <c r="W48" s="299"/>
-      <c r="X48" s="299"/>
-      <c r="Y48" s="299"/>
-      <c r="Z48" s="299"/>
-      <c r="AA48" s="299"/>
-      <c r="AB48" s="300"/>
+      <c r="W48" s="295"/>
+      <c r="X48" s="295"/>
+      <c r="Y48" s="295"/>
+      <c r="Z48" s="295"/>
+      <c r="AA48" s="295"/>
+      <c r="AB48" s="296"/>
       <c r="AD48" s="3" t="s">
         <v>261</v>
       </c>
@@ -10551,11 +10615,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V42:AB42"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V48:AB48"/>
-    <mergeCell ref="V37:AB37"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -10564,6 +10623,11 @@
     <mergeCell ref="V29:AB29"/>
     <mergeCell ref="AD25:AH25"/>
     <mergeCell ref="AJ30:AP30"/>
+    <mergeCell ref="V42:AB42"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V48:AB48"/>
+    <mergeCell ref="V37:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11523,40 +11587,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="403" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="G1" s="420"/>
-      <c r="H1" s="420"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="421"/>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
+      <c r="A2" s="404"/>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1">
-      <c r="A3" s="422" t="s">
+      <c r="A3" s="405" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="423"/>
-      <c r="C3" s="424"/>
-      <c r="D3" s="425"/>
-      <c r="E3" s="422" t="s">
+      <c r="B3" s="406"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="408"/>
+      <c r="E3" s="405" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="423"/>
-      <c r="G3" s="424"/>
-      <c r="H3" s="425"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="408"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="31">
@@ -11849,18 +11913,18 @@
       <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="24" thickBot="1">
-      <c r="A25" s="422" t="s">
+      <c r="A25" s="405" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="423"/>
-      <c r="C25" s="424"/>
-      <c r="D25" s="425"/>
-      <c r="E25" s="422" t="s">
+      <c r="B25" s="406"/>
+      <c r="C25" s="407"/>
+      <c r="D25" s="408"/>
+      <c r="E25" s="405" t="s">
         <v>290</v>
       </c>
-      <c r="F25" s="423"/>
-      <c r="G25" s="424"/>
-      <c r="H25" s="425"/>
+      <c r="F25" s="406"/>
+      <c r="G25" s="407"/>
+      <c r="H25" s="408"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1">
       <c r="A26" s="35" t="s">
@@ -11872,23 +11936,23 @@
       <c r="E26" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="417"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
+      <c r="F26" s="412"/>
+      <c r="G26" s="413"/>
+      <c r="H26" s="414"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1">
       <c r="A27" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B27" s="412"/>
-      <c r="C27" s="413"/>
-      <c r="D27" s="415"/>
+      <c r="B27" s="415"/>
+      <c r="C27" s="416"/>
+      <c r="D27" s="417"/>
       <c r="E27" s="35" t="s">
         <v>294</v>
       </c>
       <c r="F27" s="409"/>
       <c r="G27" s="410"/>
-      <c r="H27" s="416"/>
+      <c r="H27" s="418"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1">
       <c r="A28" s="35" t="s">
@@ -11900,23 +11964,23 @@
       <c r="E28" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="412"/>
-      <c r="G28" s="413"/>
-      <c r="H28" s="414"/>
+      <c r="F28" s="415"/>
+      <c r="G28" s="416"/>
+      <c r="H28" s="419"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1">
       <c r="A29" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B29" s="412"/>
-      <c r="C29" s="413"/>
-      <c r="D29" s="415"/>
+      <c r="B29" s="415"/>
+      <c r="C29" s="416"/>
+      <c r="D29" s="417"/>
       <c r="E29" s="35" t="s">
         <v>298</v>
       </c>
       <c r="F29" s="409"/>
       <c r="G29" s="410"/>
-      <c r="H29" s="416"/>
+      <c r="H29" s="418"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1">
       <c r="A30" s="35" t="s">
@@ -11928,23 +11992,23 @@
       <c r="E30" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="F30" s="412"/>
-      <c r="G30" s="413"/>
-      <c r="H30" s="414"/>
+      <c r="F30" s="415"/>
+      <c r="G30" s="416"/>
+      <c r="H30" s="419"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1">
       <c r="A31" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="412"/>
-      <c r="C31" s="413"/>
-      <c r="D31" s="415"/>
+      <c r="B31" s="415"/>
+      <c r="C31" s="416"/>
+      <c r="D31" s="417"/>
       <c r="E31" s="35" t="s">
         <v>302</v>
       </c>
       <c r="F31" s="409"/>
       <c r="G31" s="410"/>
-      <c r="H31" s="416"/>
+      <c r="H31" s="418"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1">
       <c r="A32" s="35" t="s">
@@ -11954,9 +12018,9 @@
       <c r="C32" s="410"/>
       <c r="D32" s="411"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="412"/>
-      <c r="G32" s="413"/>
-      <c r="H32" s="414" t="s">
+      <c r="F32" s="415"/>
+      <c r="G32" s="416"/>
+      <c r="H32" s="419" t="s">
         <v>242</v>
       </c>
     </row>
@@ -11964,13 +12028,13 @@
       <c r="A33" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="412"/>
-      <c r="C33" s="413"/>
-      <c r="D33" s="415"/>
+      <c r="B33" s="415"/>
+      <c r="C33" s="416"/>
+      <c r="D33" s="417"/>
       <c r="E33" s="35"/>
       <c r="F33" s="409"/>
       <c r="G33" s="410"/>
-      <c r="H33" s="416" t="s">
+      <c r="H33" s="418" t="s">
         <v>284</v>
       </c>
     </row>
@@ -11982,9 +12046,9 @@
       <c r="C34" s="410"/>
       <c r="D34" s="411"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="412"/>
-      <c r="G34" s="413"/>
-      <c r="H34" s="414" t="s">
+      <c r="F34" s="415"/>
+      <c r="G34" s="416"/>
+      <c r="H34" s="419" t="s">
         <v>285</v>
       </c>
     </row>
@@ -11992,13 +12056,13 @@
       <c r="A35" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="412"/>
-      <c r="C35" s="413"/>
-      <c r="D35" s="415"/>
+      <c r="B35" s="415"/>
+      <c r="C35" s="416"/>
+      <c r="D35" s="417"/>
       <c r="E35" s="35"/>
       <c r="F35" s="409"/>
       <c r="G35" s="410"/>
-      <c r="H35" s="416" t="s">
+      <c r="H35" s="418" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12010,9 +12074,9 @@
       <c r="C36" s="410"/>
       <c r="D36" s="411"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="412"/>
-      <c r="G36" s="413"/>
-      <c r="H36" s="414" t="s">
+      <c r="F36" s="415"/>
+      <c r="G36" s="416"/>
+      <c r="H36" s="419" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12020,13 +12084,13 @@
       <c r="A37" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="412"/>
-      <c r="C37" s="413"/>
-      <c r="D37" s="415"/>
+      <c r="B37" s="415"/>
+      <c r="C37" s="416"/>
+      <c r="D37" s="417"/>
       <c r="E37" s="35"/>
       <c r="F37" s="409"/>
       <c r="G37" s="410"/>
-      <c r="H37" s="416" t="s">
+      <c r="H37" s="418" t="s">
         <v>288</v>
       </c>
     </row>
@@ -12038,9 +12102,9 @@
       <c r="C38" s="410"/>
       <c r="D38" s="411"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="412"/>
-      <c r="G38" s="413"/>
-      <c r="H38" s="414" t="s">
+      <c r="F38" s="415"/>
+      <c r="G38" s="416"/>
+      <c r="H38" s="419" t="s">
         <v>241</v>
       </c>
     </row>
@@ -12048,13 +12112,13 @@
       <c r="A39" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="412"/>
-      <c r="C39" s="413"/>
-      <c r="D39" s="415"/>
+      <c r="B39" s="415"/>
+      <c r="C39" s="416"/>
+      <c r="D39" s="417"/>
       <c r="E39" s="35"/>
       <c r="F39" s="409"/>
       <c r="G39" s="410"/>
-      <c r="H39" s="416" t="s">
+      <c r="H39" s="418" t="s">
         <v>242</v>
       </c>
     </row>
@@ -12066,53 +12130,24 @@
       <c r="C40" s="410"/>
       <c r="D40" s="411"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="412"/>
-      <c r="G40" s="413"/>
-      <c r="H40" s="414"/>
+      <c r="F40" s="415"/>
+      <c r="G40" s="416"/>
+      <c r="H40" s="419"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" thickBot="1">
       <c r="A41" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="403"/>
-      <c r="C41" s="404"/>
-      <c r="D41" s="405"/>
+      <c r="B41" s="420"/>
+      <c r="C41" s="421"/>
+      <c r="D41" s="422"/>
       <c r="E41" s="60"/>
-      <c r="F41" s="406"/>
-      <c r="G41" s="407"/>
-      <c r="H41" s="408"/>
+      <c r="F41" s="423"/>
+      <c r="G41" s="424"/>
+      <c r="H41" s="425"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:H37"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B38:D38"/>
@@ -12121,6 +12156,35 @@
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12131,8 +12195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12:AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -12149,6 +12213,7 @@
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" customWidth="1"/>
     <col min="19" max="19" width="1.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
     <col min="25" max="25" width="1.5703125" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="1.42578125" customWidth="1"/>
@@ -12175,55 +12240,55 @@
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="293" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="H2" s="294" t="s">
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="H2" s="293" t="s">
         <v>1055</v>
       </c>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="N2" s="294" t="s">
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="N2" s="293" t="s">
         <v>1054</v>
       </c>
-      <c r="O2" s="294"/>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="T2" s="294" t="s">
+      <c r="O2" s="293"/>
+      <c r="P2" s="293"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="293"/>
+      <c r="T2" s="293" t="s">
         <v>236</v>
       </c>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Z2" s="294" t="s">
+      <c r="U2" s="293"/>
+      <c r="V2" s="293"/>
+      <c r="W2" s="293"/>
+      <c r="X2" s="293"/>
+      <c r="Z2" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="294"/>
-      <c r="AB2" s="294"/>
-      <c r="AC2" s="294"/>
-      <c r="AD2" s="294"/>
-      <c r="AF2" s="294" t="s">
+      <c r="AA2" s="293"/>
+      <c r="AB2" s="293"/>
+      <c r="AC2" s="293"/>
+      <c r="AD2" s="293"/>
+      <c r="AF2" s="293" t="s">
         <v>317</v>
       </c>
-      <c r="AG2" s="294"/>
-      <c r="AH2" s="294"/>
-      <c r="AI2" s="294"/>
-      <c r="AJ2" s="294"/>
-      <c r="AL2" s="294" t="s">
+      <c r="AG2" s="293"/>
+      <c r="AH2" s="293"/>
+      <c r="AI2" s="293"/>
+      <c r="AJ2" s="293"/>
+      <c r="AL2" s="293" t="s">
         <v>491</v>
       </c>
-      <c r="AM2" s="294"/>
-      <c r="AN2" s="294"/>
-      <c r="AO2" s="294"/>
-      <c r="AP2" s="294"/>
+      <c r="AM2" s="293"/>
+      <c r="AN2" s="293"/>
+      <c r="AO2" s="293"/>
+      <c r="AP2" s="293"/>
     </row>
     <row r="3" spans="2:42">
       <c r="B3" s="101" t="s">
@@ -12396,18 +12461,19 @@
       <c r="Z4" t="s">
         <v>492</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="3">
         <v>511</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="3">
         <v>511</v>
       </c>
+      <c r="AJ4" s="3"/>
       <c r="AL4" s="3" t="s">
         <v>822</v>
       </c>
@@ -12465,6 +12531,11 @@
       <c r="X5" s="104" t="s">
         <v>1195</v>
       </c>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3">
@@ -12516,6 +12587,11 @@
       <c r="X6" s="104" t="s">
         <v>1196</v>
       </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
@@ -12565,6 +12641,11 @@
       <c r="X7" s="104" t="s">
         <v>1197</v>
       </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
@@ -12590,18 +12671,19 @@
       <c r="V8" s="246"/>
       <c r="W8" s="246"/>
       <c r="X8" s="246"/>
-      <c r="AF8" t="s">
+      <c r="AF8" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="3">
         <v>521</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="3">
         <v>521</v>
       </c>
+      <c r="AJ8" s="3"/>
       <c r="AL8" s="3" t="s">
         <v>823</v>
       </c>
@@ -12673,6 +12755,11 @@
       <c r="X9" s="104" t="s">
         <v>1199</v>
       </c>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3">
@@ -12726,6 +12813,11 @@
       <c r="X10" s="104" t="s">
         <v>1200</v>
       </c>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
@@ -12775,6 +12867,11 @@
       <c r="X11" s="104" t="s">
         <v>1201</v>
       </c>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
@@ -12824,27 +12921,22 @@
       <c r="X12" s="104" t="s">
         <v>1202</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="3">
         <v>531</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="3">
         <v>531</v>
       </c>
-      <c r="AL12" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="AM12" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>631</v>
-      </c>
+      <c r="AJ12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
     </row>
     <row r="13" spans="2:42">
       <c r="B13" s="245"/>
@@ -12867,10 +12959,19 @@
       <c r="V13" s="246"/>
       <c r="W13" s="246"/>
       <c r="X13" s="246"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AL13" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="AN13" s="3">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="2:42">
@@ -12934,10 +13035,15 @@
       <c r="X14" s="104" t="s">
         <v>1215</v>
       </c>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="2:42">
@@ -12987,10 +13093,15 @@
       <c r="X15" s="104" t="s">
         <v>1216</v>
       </c>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="2:42">
@@ -13038,8 +13149,26 @@
       <c r="X16" s="104" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AF16" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>541</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>541</v>
+      </c>
+      <c r="AJ16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="104" t="s">
@@ -13084,8 +13213,22 @@
       <c r="X17" s="104" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AL17" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AN17" s="270">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" s="247"/>
       <c r="B18" s="245"/>
       <c r="C18" s="245"/>
@@ -13107,8 +13250,18 @@
       <c r="V18" s="246"/>
       <c r="W18" s="246"/>
       <c r="X18" s="246"/>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="270">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="B19" s="3" t="s">
         <v>666</v>
       </c>
@@ -13172,8 +13325,18 @@
       <c r="Z19" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="270">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="B20" s="3" t="s">
         <v>673</v>
       </c>
@@ -13223,8 +13386,18 @@
       <c r="Z20" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="270">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="104" t="s">
@@ -13258,9 +13431,13 @@
       <c r="R21" s="104" t="s">
         <v>1131</v>
       </c>
-      <c r="X21" s="59"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="T21" s="246"/>
+      <c r="U21" s="246"/>
+      <c r="V21" s="246"/>
+      <c r="W21" s="246"/>
+      <c r="X21" s="246"/>
+    </row>
+    <row r="22" spans="1:40">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="104" t="s">
@@ -13294,9 +13471,23 @@
       <c r="R22" s="104" t="s">
         <v>1130</v>
       </c>
-      <c r="X22" s="59"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="T22" s="426" t="s">
+        <v>1316</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="V22" s="270">
+        <v>151</v>
+      </c>
+      <c r="W22" s="270" t="s">
+        <v>1317</v>
+      </c>
+      <c r="X22" s="104" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="D23" s="59"/>
       <c r="F23" s="59"/>
       <c r="H23" s="245"/>
@@ -13309,9 +13500,19 @@
       <c r="P23" s="246"/>
       <c r="Q23" s="245"/>
       <c r="R23" s="246"/>
-      <c r="X23" s="59"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="270">
+        <v>152</v>
+      </c>
+      <c r="W23" s="270" t="s">
+        <v>1318</v>
+      </c>
+      <c r="X23" s="104" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="D24" s="59"/>
       <c r="F24" s="59"/>
       <c r="H24" s="3" t="s">
@@ -13344,9 +13545,19 @@
       <c r="R24" s="104" t="s">
         <v>1129</v>
       </c>
-      <c r="X24" s="59"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="270">
+        <v>153</v>
+      </c>
+      <c r="W24" s="270" t="s">
+        <v>1319</v>
+      </c>
+      <c r="X24" s="104" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="104" t="s">
@@ -13369,9 +13580,19 @@
       <c r="R25" s="104" t="s">
         <v>1128</v>
       </c>
-      <c r="X25" s="59"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="270">
+        <v>154</v>
+      </c>
+      <c r="W25" s="270" t="s">
+        <v>1320</v>
+      </c>
+      <c r="X25" s="104" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="104" t="s">
@@ -13394,9 +13615,13 @@
       <c r="R26" s="104" t="s">
         <v>1127</v>
       </c>
-      <c r="X26" s="59"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="T26" s="246"/>
+      <c r="U26" s="246"/>
+      <c r="V26" s="246"/>
+      <c r="W26" s="246"/>
+      <c r="X26" s="246"/>
+    </row>
+    <row r="27" spans="1:40">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="104" t="s">
@@ -13419,9 +13644,23 @@
       <c r="R27" s="104" t="s">
         <v>1126</v>
       </c>
-      <c r="X27" s="59"/>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="T27" s="426" t="s">
+        <v>1325</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="V27" s="270">
+        <v>161</v>
+      </c>
+      <c r="W27" s="270" t="s">
+        <v>1326</v>
+      </c>
+      <c r="X27" s="104" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="H28" s="245"/>
       <c r="I28" s="245"/>
       <c r="J28" s="246"/>
@@ -13432,9 +13671,19 @@
       <c r="P28" s="246"/>
       <c r="Q28" s="245"/>
       <c r="R28" s="246"/>
-      <c r="X28" s="59"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="270">
+        <v>162</v>
+      </c>
+      <c r="W28" s="270" t="s">
+        <v>1327</v>
+      </c>
+      <c r="X28" s="104" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="H29" s="3" t="s">
         <v>749</v>
       </c>
@@ -13465,9 +13714,19 @@
       <c r="R29" s="104" t="s">
         <v>1125</v>
       </c>
-      <c r="X29" s="59"/>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="270">
+        <v>163</v>
+      </c>
+      <c r="W29" s="270" t="s">
+        <v>1328</v>
+      </c>
+      <c r="X29" s="104" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="104" t="s">
@@ -13490,9 +13749,19 @@
       <c r="R30" s="104" t="s">
         <v>1124</v>
       </c>
-      <c r="X30" s="59"/>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="270">
+        <v>164</v>
+      </c>
+      <c r="W30" s="270" t="s">
+        <v>1329</v>
+      </c>
+      <c r="X30" s="104" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="104" t="s">
@@ -13517,7 +13786,7 @@
       </c>
       <c r="X31" s="59"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:40">
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="104" t="s">
@@ -13653,20 +13922,20 @@
       <c r="X39" s="59"/>
     </row>
     <row r="41" spans="2:24">
-      <c r="B41" s="294" t="s">
+      <c r="B41" s="293" t="s">
         <v>697</v>
       </c>
-      <c r="C41" s="294"/>
-      <c r="D41" s="294"/>
-      <c r="E41" s="294"/>
-      <c r="F41" s="294"/>
-      <c r="H41" s="294" t="s">
+      <c r="C41" s="293"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="293"/>
+      <c r="H41" s="293" t="s">
         <v>750</v>
       </c>
-      <c r="I41" s="294"/>
-      <c r="J41" s="294"/>
-      <c r="K41" s="294"/>
-      <c r="L41" s="294"/>
+      <c r="I41" s="293"/>
+      <c r="J41" s="293"/>
+      <c r="K41" s="293"/>
+      <c r="L41" s="293"/>
     </row>
     <row r="42" spans="2:24">
       <c r="B42" s="101" t="s">
@@ -14203,39 +14472,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="313" t="s">
         <v>1146</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="312"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
+      <c r="J1" s="314"/>
+      <c r="K1" s="314"/>
+      <c r="L1" s="315"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="310" t="s">
         <v>1147</v>
       </c>
-      <c r="B2" s="308"/>
-      <c r="C2" s="309"/>
+      <c r="B2" s="311"/>
+      <c r="C2" s="312"/>
       <c r="D2" s="259"/>
-      <c r="E2" s="307" t="s">
+      <c r="E2" s="310" t="s">
         <v>1055</v>
       </c>
-      <c r="F2" s="308"/>
-      <c r="G2" s="309"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="312"/>
       <c r="H2" s="259"/>
-      <c r="I2" s="307" t="s">
+      <c r="I2" s="310" t="s">
         <v>1054</v>
       </c>
-      <c r="J2" s="308"/>
-      <c r="K2" s="309"/>
+      <c r="J2" s="311"/>
+      <c r="K2" s="312"/>
       <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickBot="1">
@@ -14271,7 +14540,7 @@
       <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="316" t="s">
         <v>325</v>
       </c>
       <c r="B4" s="132" t="s">
@@ -14281,7 +14550,7 @@
         <v>705</v>
       </c>
       <c r="D4" s="253"/>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="307" t="s">
         <v>975</v>
       </c>
       <c r="F4" s="132" t="s">
@@ -14291,7 +14560,7 @@
         <v>1028</v>
       </c>
       <c r="H4" s="125"/>
-      <c r="I4" s="304" t="s">
+      <c r="I4" s="307" t="s">
         <v>1057</v>
       </c>
       <c r="J4" s="132" t="s">
@@ -14303,7 +14572,7 @@
       <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="18.75">
-      <c r="A5" s="302"/>
+      <c r="A5" s="317"/>
       <c r="B5" s="131" t="s">
         <v>322</v>
       </c>
@@ -14311,7 +14580,7 @@
         <v>706</v>
       </c>
       <c r="D5" s="253"/>
-      <c r="E5" s="305"/>
+      <c r="E5" s="308"/>
       <c r="F5" s="131" t="s">
         <v>1002</v>
       </c>
@@ -14319,7 +14588,7 @@
         <v>1029</v>
       </c>
       <c r="H5" s="125"/>
-      <c r="I5" s="305"/>
+      <c r="I5" s="308"/>
       <c r="J5" s="131" t="s">
         <v>1092</v>
       </c>
@@ -14329,7 +14598,7 @@
       <c r="L5" s="122"/>
     </row>
     <row r="6" spans="1:12" ht="18.75">
-      <c r="A6" s="302"/>
+      <c r="A6" s="317"/>
       <c r="B6" s="131" t="s">
         <v>323</v>
       </c>
@@ -14337,7 +14606,7 @@
         <v>707</v>
       </c>
       <c r="D6" s="253"/>
-      <c r="E6" s="305"/>
+      <c r="E6" s="308"/>
       <c r="F6" s="131" t="s">
         <v>1003</v>
       </c>
@@ -14345,7 +14614,7 @@
         <v>1030</v>
       </c>
       <c r="H6" s="125"/>
-      <c r="I6" s="305"/>
+      <c r="I6" s="308"/>
       <c r="J6" s="131" t="s">
         <v>1093</v>
       </c>
@@ -14355,7 +14624,7 @@
       <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A7" s="303"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="135" t="s">
         <v>324</v>
       </c>
@@ -14363,7 +14632,7 @@
         <v>708</v>
       </c>
       <c r="D7" s="253"/>
-      <c r="E7" s="306"/>
+      <c r="E7" s="309"/>
       <c r="F7" s="135" t="s">
         <v>1004</v>
       </c>
@@ -14371,7 +14640,7 @@
         <v>1031</v>
       </c>
       <c r="H7" s="125"/>
-      <c r="I7" s="306"/>
+      <c r="I7" s="309"/>
       <c r="J7" s="135" t="s">
         <v>1094</v>
       </c>
@@ -14381,7 +14650,7 @@
       <c r="L7" s="122"/>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="316" t="s">
         <v>667</v>
       </c>
       <c r="B8" s="132" t="s">
@@ -14391,7 +14660,7 @@
         <v>709</v>
       </c>
       <c r="D8" s="253"/>
-      <c r="E8" s="304" t="s">
+      <c r="E8" s="307" t="s">
         <v>974</v>
       </c>
       <c r="F8" s="132" t="s">
@@ -14401,7 +14670,7 @@
         <v>1032</v>
       </c>
       <c r="H8" s="125"/>
-      <c r="I8" s="304" t="s">
+      <c r="I8" s="307" t="s">
         <v>1058</v>
       </c>
       <c r="J8" s="132" t="s">
@@ -14413,7 +14682,7 @@
       <c r="L8" s="122"/>
     </row>
     <row r="9" spans="1:12" ht="18.75">
-      <c r="A9" s="302"/>
+      <c r="A9" s="317"/>
       <c r="B9" s="131" t="s">
         <v>658</v>
       </c>
@@ -14421,7 +14690,7 @@
         <v>710</v>
       </c>
       <c r="D9" s="253"/>
-      <c r="E9" s="305"/>
+      <c r="E9" s="308"/>
       <c r="F9" s="131" t="s">
         <v>1006</v>
       </c>
@@ -14429,7 +14698,7 @@
         <v>1033</v>
       </c>
       <c r="H9" s="125"/>
-      <c r="I9" s="305"/>
+      <c r="I9" s="308"/>
       <c r="J9" s="131" t="s">
         <v>1095</v>
       </c>
@@ -14439,7 +14708,7 @@
       <c r="L9" s="122"/>
     </row>
     <row r="10" spans="1:12" ht="18.75">
-      <c r="A10" s="302"/>
+      <c r="A10" s="317"/>
       <c r="B10" s="131" t="s">
         <v>659</v>
       </c>
@@ -14447,7 +14716,7 @@
         <v>711</v>
       </c>
       <c r="D10" s="253"/>
-      <c r="E10" s="305"/>
+      <c r="E10" s="308"/>
       <c r="F10" s="131" t="s">
         <v>1008</v>
       </c>
@@ -14455,7 +14724,7 @@
         <v>1034</v>
       </c>
       <c r="H10" s="125"/>
-      <c r="I10" s="305"/>
+      <c r="I10" s="308"/>
       <c r="J10" s="131" t="s">
         <v>1096</v>
       </c>
@@ -14465,7 +14734,7 @@
       <c r="L10" s="122"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A11" s="303"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="135" t="s">
         <v>660</v>
       </c>
@@ -14473,7 +14742,7 @@
         <v>712</v>
       </c>
       <c r="D11" s="253"/>
-      <c r="E11" s="306"/>
+      <c r="E11" s="309"/>
       <c r="F11" s="135" t="s">
         <v>1009</v>
       </c>
@@ -14481,7 +14750,7 @@
         <v>1035</v>
       </c>
       <c r="H11" s="125"/>
-      <c r="I11" s="306"/>
+      <c r="I11" s="309"/>
       <c r="J11" s="135" t="s">
         <v>1097</v>
       </c>
@@ -14491,7 +14760,7 @@
       <c r="L11" s="122"/>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="301" t="s">
+      <c r="A12" s="316" t="s">
         <v>665</v>
       </c>
       <c r="B12" s="132" t="s">
@@ -14501,7 +14770,7 @@
         <v>713</v>
       </c>
       <c r="D12" s="253"/>
-      <c r="E12" s="304" t="s">
+      <c r="E12" s="307" t="s">
         <v>973</v>
       </c>
       <c r="F12" s="132" t="s">
@@ -14511,7 +14780,7 @@
         <v>1036</v>
       </c>
       <c r="H12" s="125"/>
-      <c r="I12" s="304" t="s">
+      <c r="I12" s="307" t="s">
         <v>1059</v>
       </c>
       <c r="J12" s="132" t="s">
@@ -14523,7 +14792,7 @@
       <c r="L12" s="122"/>
     </row>
     <row r="13" spans="1:12" ht="18.75">
-      <c r="A13" s="302"/>
+      <c r="A13" s="317"/>
       <c r="B13" s="131" t="s">
         <v>662</v>
       </c>
@@ -14531,7 +14800,7 @@
         <v>714</v>
       </c>
       <c r="D13" s="253"/>
-      <c r="E13" s="305"/>
+      <c r="E13" s="308"/>
       <c r="F13" s="131" t="s">
         <v>1011</v>
       </c>
@@ -14539,7 +14808,7 @@
         <v>1037</v>
       </c>
       <c r="H13" s="125"/>
-      <c r="I13" s="305"/>
+      <c r="I13" s="308"/>
       <c r="J13" s="131" t="s">
         <v>1099</v>
       </c>
@@ -14549,7 +14818,7 @@
       <c r="L13" s="122"/>
     </row>
     <row r="14" spans="1:12" ht="18.75">
-      <c r="A14" s="302"/>
+      <c r="A14" s="317"/>
       <c r="B14" s="131" t="s">
         <v>663</v>
       </c>
@@ -14557,7 +14826,7 @@
         <v>715</v>
       </c>
       <c r="D14" s="253"/>
-      <c r="E14" s="305"/>
+      <c r="E14" s="308"/>
       <c r="F14" s="131" t="s">
         <v>1012</v>
       </c>
@@ -14565,7 +14834,7 @@
         <v>1038</v>
       </c>
       <c r="H14" s="125"/>
-      <c r="I14" s="305"/>
+      <c r="I14" s="308"/>
       <c r="J14" s="131" t="s">
         <v>1100</v>
       </c>
@@ -14575,7 +14844,7 @@
       <c r="L14" s="122"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="303"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="135" t="s">
         <v>664</v>
       </c>
@@ -14583,7 +14852,7 @@
         <v>716</v>
       </c>
       <c r="D15" s="253"/>
-      <c r="E15" s="306"/>
+      <c r="E15" s="309"/>
       <c r="F15" s="135" t="s">
         <v>1013</v>
       </c>
@@ -14591,7 +14860,7 @@
         <v>1039</v>
       </c>
       <c r="H15" s="125"/>
-      <c r="I15" s="306"/>
+      <c r="I15" s="309"/>
       <c r="J15" s="135" t="s">
         <v>1101</v>
       </c>
@@ -14601,7 +14870,7 @@
       <c r="L15" s="122"/>
     </row>
     <row r="16" spans="1:12" ht="18.75">
-      <c r="A16" s="301" t="s">
+      <c r="A16" s="316" t="s">
         <v>666</v>
       </c>
       <c r="B16" s="132" t="s">
@@ -14611,7 +14880,7 @@
         <v>717</v>
       </c>
       <c r="D16" s="253"/>
-      <c r="E16" s="304" t="s">
+      <c r="E16" s="307" t="s">
         <v>972</v>
       </c>
       <c r="F16" s="132" t="s">
@@ -14621,7 +14890,7 @@
         <v>1040</v>
       </c>
       <c r="H16" s="125"/>
-      <c r="I16" s="304" t="s">
+      <c r="I16" s="307" t="s">
         <v>1060</v>
       </c>
       <c r="J16" s="132" t="s">
@@ -14633,7 +14902,7 @@
       <c r="L16" s="122"/>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="302"/>
+      <c r="A17" s="317"/>
       <c r="B17" s="131" t="s">
         <v>669</v>
       </c>
@@ -14641,7 +14910,7 @@
         <v>718</v>
       </c>
       <c r="D17" s="253"/>
-      <c r="E17" s="305"/>
+      <c r="E17" s="308"/>
       <c r="F17" s="131" t="s">
         <v>1015</v>
       </c>
@@ -14649,7 +14918,7 @@
         <v>1041</v>
       </c>
       <c r="H17" s="125"/>
-      <c r="I17" s="305"/>
+      <c r="I17" s="308"/>
       <c r="J17" s="131" t="s">
         <v>1103</v>
       </c>
@@ -14659,7 +14928,7 @@
       <c r="L17" s="122"/>
     </row>
     <row r="18" spans="1:12" ht="18.75">
-      <c r="A18" s="302"/>
+      <c r="A18" s="317"/>
       <c r="B18" s="131" t="s">
         <v>670</v>
       </c>
@@ -14667,7 +14936,7 @@
         <v>719</v>
       </c>
       <c r="D18" s="253"/>
-      <c r="E18" s="305"/>
+      <c r="E18" s="308"/>
       <c r="F18" s="131" t="s">
         <v>1016</v>
       </c>
@@ -14675,7 +14944,7 @@
         <v>1042</v>
       </c>
       <c r="H18" s="125"/>
-      <c r="I18" s="305"/>
+      <c r="I18" s="308"/>
       <c r="J18" s="131" t="s">
         <v>1104</v>
       </c>
@@ -14685,7 +14954,7 @@
       <c r="L18" s="122"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A19" s="303"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="135" t="s">
         <v>671</v>
       </c>
@@ -14693,7 +14962,7 @@
         <v>720</v>
       </c>
       <c r="D19" s="253"/>
-      <c r="E19" s="306"/>
+      <c r="E19" s="309"/>
       <c r="F19" s="135" t="s">
         <v>1017</v>
       </c>
@@ -14701,7 +14970,7 @@
         <v>1043</v>
       </c>
       <c r="H19" s="125"/>
-      <c r="I19" s="306"/>
+      <c r="I19" s="309"/>
       <c r="J19" s="135" t="s">
         <v>1105</v>
       </c>
@@ -14715,7 +14984,7 @@
       <c r="B20" s="125"/>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
-      <c r="E20" s="304" t="s">
+      <c r="E20" s="307" t="s">
         <v>560</v>
       </c>
       <c r="F20" s="132" t="s">
@@ -14725,7 +14994,7 @@
         <v>1044</v>
       </c>
       <c r="H20" s="125"/>
-      <c r="I20" s="304" t="s">
+      <c r="I20" s="307" t="s">
         <v>1061</v>
       </c>
       <c r="J20" s="132" t="s">
@@ -14741,7 +15010,7 @@
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
-      <c r="E21" s="305"/>
+      <c r="E21" s="308"/>
       <c r="F21" s="131" t="s">
         <v>1019</v>
       </c>
@@ -14749,7 +15018,7 @@
         <v>1045</v>
       </c>
       <c r="H21" s="125"/>
-      <c r="I21" s="305"/>
+      <c r="I21" s="308"/>
       <c r="J21" s="131" t="s">
         <v>1107</v>
       </c>
@@ -14763,7 +15032,7 @@
       <c r="B22" s="125"/>
       <c r="C22" s="125"/>
       <c r="D22" s="125"/>
-      <c r="E22" s="305"/>
+      <c r="E22" s="308"/>
       <c r="F22" s="131" t="s">
         <v>1020</v>
       </c>
@@ -14771,7 +15040,7 @@
         <v>1046</v>
       </c>
       <c r="H22" s="125"/>
-      <c r="I22" s="305"/>
+      <c r="I22" s="308"/>
       <c r="J22" s="131" t="s">
         <v>1108</v>
       </c>
@@ -14787,7 +15056,7 @@
       <c r="B23" s="256"/>
       <c r="C23" s="257"/>
       <c r="D23" s="125"/>
-      <c r="E23" s="306"/>
+      <c r="E23" s="309"/>
       <c r="F23" s="135" t="s">
         <v>1021</v>
       </c>
@@ -14795,7 +15064,7 @@
         <v>1047</v>
       </c>
       <c r="H23" s="125"/>
-      <c r="I23" s="306"/>
+      <c r="I23" s="309"/>
       <c r="J23" s="135" t="s">
         <v>1109</v>
       </c>
@@ -14815,7 +15084,7 @@
         <v>321</v>
       </c>
       <c r="D24" s="125"/>
-      <c r="E24" s="304" t="s">
+      <c r="E24" s="307" t="s">
         <v>749</v>
       </c>
       <c r="F24" s="132" t="s">
@@ -14825,7 +15094,7 @@
         <v>1048</v>
       </c>
       <c r="H24" s="125"/>
-      <c r="I24" s="304" t="s">
+      <c r="I24" s="307" t="s">
         <v>1062</v>
       </c>
       <c r="J24" s="132" t="s">
@@ -14837,7 +15106,7 @@
       <c r="L24" s="122"/>
     </row>
     <row r="25" spans="1:12" ht="18.75">
-      <c r="A25" s="316" t="s">
+      <c r="A25" s="301" t="s">
         <v>493</v>
       </c>
       <c r="B25" s="132" t="s">
@@ -14847,7 +15116,7 @@
         <v>721</v>
       </c>
       <c r="D25" s="125"/>
-      <c r="E25" s="305"/>
+      <c r="E25" s="308"/>
       <c r="F25" s="131" t="s">
         <v>1023</v>
       </c>
@@ -14855,7 +15124,7 @@
         <v>1049</v>
       </c>
       <c r="H25" s="125"/>
-      <c r="I25" s="305"/>
+      <c r="I25" s="308"/>
       <c r="J25" s="131" t="s">
         <v>1111</v>
       </c>
@@ -14865,7 +15134,7 @@
       <c r="L25" s="122"/>
     </row>
     <row r="26" spans="1:12" ht="18.75">
-      <c r="A26" s="317"/>
+      <c r="A26" s="302"/>
       <c r="B26" s="131" t="s">
         <v>679</v>
       </c>
@@ -14873,7 +15142,7 @@
         <v>722</v>
       </c>
       <c r="D26" s="125"/>
-      <c r="E26" s="305"/>
+      <c r="E26" s="308"/>
       <c r="F26" s="131" t="s">
         <v>1024</v>
       </c>
@@ -14881,7 +15150,7 @@
         <v>1050</v>
       </c>
       <c r="H26" s="125"/>
-      <c r="I26" s="305"/>
+      <c r="I26" s="308"/>
       <c r="J26" s="131" t="s">
         <v>1112</v>
       </c>
@@ -14891,7 +15160,7 @@
       <c r="L26" s="122"/>
     </row>
     <row r="27" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A27" s="317"/>
+      <c r="A27" s="302"/>
       <c r="B27" s="131" t="s">
         <v>680</v>
       </c>
@@ -14899,7 +15168,7 @@
         <v>723</v>
       </c>
       <c r="D27" s="125"/>
-      <c r="E27" s="306"/>
+      <c r="E27" s="309"/>
       <c r="F27" s="135" t="s">
         <v>1025</v>
       </c>
@@ -14907,7 +15176,7 @@
         <v>1051</v>
       </c>
       <c r="H27" s="125"/>
-      <c r="I27" s="306"/>
+      <c r="I27" s="309"/>
       <c r="J27" s="135" t="s">
         <v>1113</v>
       </c>
@@ -14917,7 +15186,7 @@
       <c r="L27" s="122"/>
     </row>
     <row r="28" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A28" s="318"/>
+      <c r="A28" s="303"/>
       <c r="B28" s="135" t="s">
         <v>681</v>
       </c>
@@ -14925,7 +15194,7 @@
         <v>724</v>
       </c>
       <c r="D28" s="125"/>
-      <c r="E28" s="304" t="s">
+      <c r="E28" s="307" t="s">
         <v>562</v>
       </c>
       <c r="F28" s="132" t="s">
@@ -14935,7 +15204,7 @@
         <v>1052</v>
       </c>
       <c r="H28" s="125"/>
-      <c r="I28" s="304" t="s">
+      <c r="I28" s="307" t="s">
         <v>1063</v>
       </c>
       <c r="J28" s="132" t="s">
@@ -14947,7 +15216,7 @@
       <c r="L28" s="122"/>
     </row>
     <row r="29" spans="1:12" ht="18.75">
-      <c r="A29" s="316" t="s">
+      <c r="A29" s="301" t="s">
         <v>687</v>
       </c>
       <c r="B29" s="132" t="s">
@@ -14957,7 +15226,7 @@
         <v>725</v>
       </c>
       <c r="D29" s="253"/>
-      <c r="E29" s="305"/>
+      <c r="E29" s="308"/>
       <c r="F29" s="131" t="s">
         <v>1027</v>
       </c>
@@ -14965,7 +15234,7 @@
         <v>1053</v>
       </c>
       <c r="H29" s="125"/>
-      <c r="I29" s="305"/>
+      <c r="I29" s="308"/>
       <c r="J29" s="131" t="s">
         <v>1115</v>
       </c>
@@ -14975,7 +15244,7 @@
       <c r="L29" s="122"/>
     </row>
     <row r="30" spans="1:12" ht="18.75">
-      <c r="A30" s="317"/>
+      <c r="A30" s="302"/>
       <c r="B30" s="131" t="s">
         <v>684</v>
       </c>
@@ -14983,11 +15252,11 @@
         <v>726</v>
       </c>
       <c r="D30" s="253"/>
-      <c r="E30" s="305"/>
+      <c r="E30" s="308"/>
       <c r="F30" s="131"/>
       <c r="G30" s="250"/>
       <c r="H30" s="125"/>
-      <c r="I30" s="305"/>
+      <c r="I30" s="308"/>
       <c r="J30" s="131" t="s">
         <v>1116</v>
       </c>
@@ -14997,7 +15266,7 @@
       <c r="L30" s="122"/>
     </row>
     <row r="31" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A31" s="317"/>
+      <c r="A31" s="302"/>
       <c r="B31" s="131" t="s">
         <v>685</v>
       </c>
@@ -15005,11 +15274,11 @@
         <v>727</v>
       </c>
       <c r="D31" s="253"/>
-      <c r="E31" s="306"/>
+      <c r="E31" s="309"/>
       <c r="F31" s="135"/>
       <c r="G31" s="251"/>
       <c r="H31" s="125"/>
-      <c r="I31" s="306"/>
+      <c r="I31" s="309"/>
       <c r="J31" s="135" t="s">
         <v>1117</v>
       </c>
@@ -15019,7 +15288,7 @@
       <c r="L31" s="122"/>
     </row>
     <row r="32" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A32" s="318"/>
+      <c r="A32" s="303"/>
       <c r="B32" s="135" t="s">
         <v>686</v>
       </c>
@@ -15037,7 +15306,7 @@
       <c r="L32" s="122"/>
     </row>
     <row r="33" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A33" s="316" t="s">
+      <c r="A33" s="301" t="s">
         <v>691</v>
       </c>
       <c r="B33" s="132" t="s">
@@ -15047,21 +15316,21 @@
         <v>729</v>
       </c>
       <c r="D33" s="253"/>
-      <c r="E33" s="313" t="s">
+      <c r="E33" s="304" t="s">
         <v>1149</v>
       </c>
-      <c r="F33" s="314"/>
-      <c r="G33" s="315"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="306"/>
       <c r="H33" s="124"/>
-      <c r="I33" s="313" t="s">
+      <c r="I33" s="304" t="s">
         <v>1148</v>
       </c>
-      <c r="J33" s="314"/>
-      <c r="K33" s="315"/>
+      <c r="J33" s="305"/>
+      <c r="K33" s="306"/>
       <c r="L33" s="122"/>
     </row>
     <row r="34" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A34" s="317"/>
+      <c r="A34" s="302"/>
       <c r="B34" s="131" t="s">
         <v>693</v>
       </c>
@@ -15091,7 +15360,7 @@
       <c r="L34" s="122"/>
     </row>
     <row r="35" spans="1:12" ht="18.75">
-      <c r="A35" s="317"/>
+      <c r="A35" s="302"/>
       <c r="B35" s="131" t="s">
         <v>694</v>
       </c>
@@ -15099,7 +15368,7 @@
         <v>731</v>
       </c>
       <c r="D35" s="253"/>
-      <c r="E35" s="316" t="s">
+      <c r="E35" s="301" t="s">
         <v>494</v>
       </c>
       <c r="F35" s="132" t="s">
@@ -15109,7 +15378,7 @@
         <v>11311</v>
       </c>
       <c r="H35" s="124"/>
-      <c r="I35" s="316" t="s">
+      <c r="I35" s="301" t="s">
         <v>955</v>
       </c>
       <c r="J35" s="132" t="s">
@@ -15121,7 +15390,7 @@
       <c r="L35" s="122"/>
     </row>
     <row r="36" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A36" s="318"/>
+      <c r="A36" s="303"/>
       <c r="B36" s="135" t="s">
         <v>695</v>
       </c>
@@ -15129,7 +15398,7 @@
         <v>732</v>
       </c>
       <c r="D36" s="253"/>
-      <c r="E36" s="317"/>
+      <c r="E36" s="302"/>
       <c r="F36" s="131" t="s">
         <v>958</v>
       </c>
@@ -15137,7 +15406,7 @@
         <v>11312</v>
       </c>
       <c r="H36" s="124"/>
-      <c r="I36" s="317"/>
+      <c r="I36" s="302"/>
       <c r="J36" s="131" t="s">
         <v>965</v>
       </c>
@@ -15147,7 +15416,7 @@
       <c r="L36" s="122"/>
     </row>
     <row r="37" spans="1:12" ht="18.75">
-      <c r="A37" s="316" t="s">
+      <c r="A37" s="301" t="s">
         <v>698</v>
       </c>
       <c r="B37" s="132" t="s">
@@ -15157,7 +15426,7 @@
         <v>11441</v>
       </c>
       <c r="D37" s="253"/>
-      <c r="E37" s="317"/>
+      <c r="E37" s="302"/>
       <c r="F37" s="131" t="s">
         <v>959</v>
       </c>
@@ -15165,7 +15434,7 @@
         <v>11313</v>
       </c>
       <c r="H37" s="124"/>
-      <c r="I37" s="317"/>
+      <c r="I37" s="302"/>
       <c r="J37" s="131" t="s">
         <v>966</v>
       </c>
@@ -15175,7 +15444,7 @@
       <c r="L37" s="122"/>
     </row>
     <row r="38" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A38" s="317"/>
+      <c r="A38" s="302"/>
       <c r="B38" s="131" t="s">
         <v>700</v>
       </c>
@@ -15183,7 +15452,7 @@
         <v>11442</v>
       </c>
       <c r="D38" s="253"/>
-      <c r="E38" s="318"/>
+      <c r="E38" s="303"/>
       <c r="F38" s="135" t="s">
         <v>959</v>
       </c>
@@ -15191,7 +15460,7 @@
         <v>11314</v>
       </c>
       <c r="H38" s="124"/>
-      <c r="I38" s="318"/>
+      <c r="I38" s="303"/>
       <c r="J38" s="135" t="s">
         <v>967</v>
       </c>
@@ -15201,7 +15470,7 @@
       <c r="L38" s="122"/>
     </row>
     <row r="39" spans="1:12" ht="18.75">
-      <c r="A39" s="317"/>
+      <c r="A39" s="302"/>
       <c r="B39" s="131" t="s">
         <v>701</v>
       </c>
@@ -15209,7 +15478,7 @@
         <v>11443</v>
       </c>
       <c r="D39" s="253"/>
-      <c r="E39" s="316" t="s">
+      <c r="E39" s="301" t="s">
         <v>954</v>
       </c>
       <c r="F39" s="132" t="s">
@@ -15219,7 +15488,7 @@
         <v>11321</v>
       </c>
       <c r="H39" s="124"/>
-      <c r="I39" s="316" t="s">
+      <c r="I39" s="301" t="s">
         <v>956</v>
       </c>
       <c r="J39" s="132" t="s">
@@ -15231,7 +15500,7 @@
       <c r="L39" s="122"/>
     </row>
     <row r="40" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A40" s="318"/>
+      <c r="A40" s="303"/>
       <c r="B40" s="135" t="s">
         <v>702</v>
       </c>
@@ -15239,7 +15508,7 @@
         <v>11444</v>
       </c>
       <c r="D40" s="253"/>
-      <c r="E40" s="317"/>
+      <c r="E40" s="302"/>
       <c r="F40" s="131" t="s">
         <v>961</v>
       </c>
@@ -15247,7 +15516,7 @@
         <v>11322</v>
       </c>
       <c r="H40" s="124"/>
-      <c r="I40" s="317"/>
+      <c r="I40" s="302"/>
       <c r="J40" s="131" t="s">
         <v>969</v>
       </c>
@@ -15261,7 +15530,7 @@
       <c r="B41" s="125"/>
       <c r="C41" s="253"/>
       <c r="D41" s="253"/>
-      <c r="E41" s="317"/>
+      <c r="E41" s="302"/>
       <c r="F41" s="131" t="s">
         <v>962</v>
       </c>
@@ -15269,7 +15538,7 @@
         <v>11323</v>
       </c>
       <c r="H41" s="124"/>
-      <c r="I41" s="317"/>
+      <c r="I41" s="302"/>
       <c r="J41" s="131" t="s">
         <v>970</v>
       </c>
@@ -15283,7 +15552,7 @@
       <c r="B42" s="125"/>
       <c r="C42" s="253"/>
       <c r="D42" s="253"/>
-      <c r="E42" s="318"/>
+      <c r="E42" s="303"/>
       <c r="F42" s="135" t="s">
         <v>963</v>
       </c>
@@ -15291,7 +15560,7 @@
         <v>11324</v>
       </c>
       <c r="H42" s="124"/>
-      <c r="I42" s="318"/>
+      <c r="I42" s="303"/>
       <c r="J42" s="135" t="s">
         <v>971</v>
       </c>
@@ -15344,16 +15613,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="I8:I11"/>
@@ -15364,18 +15635,16 @@
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15406,40 +15675,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="319" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="325"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="321"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="326"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="328"/>
+      <c r="A2" s="322"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="324"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="325" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330" t="s">
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="331"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="327"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="12">
@@ -15973,11 +16242,11 @@
       <c r="C27" s="118" t="s">
         <v>594</v>
       </c>
-      <c r="D27" s="322" t="s">
+      <c r="D27" s="328" t="s">
         <v>570</v>
       </c>
-      <c r="E27" s="322"/>
-      <c r="F27" s="322"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
     </row>
@@ -15989,11 +16258,11 @@
       <c r="C28" s="118" t="s">
         <v>598</v>
       </c>
-      <c r="D28" s="322" t="s">
+      <c r="D28" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="322"/>
-      <c r="F28" s="322"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="328"/>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
     </row>
@@ -16005,11 +16274,11 @@
       <c r="C29" s="118" t="s">
         <v>599</v>
       </c>
-      <c r="D29" s="322" t="s">
+      <c r="D29" s="328" t="s">
         <v>571</v>
       </c>
-      <c r="E29" s="322"/>
-      <c r="F29" s="322"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
     </row>
@@ -16021,11 +16290,11 @@
       <c r="C30" s="118" t="s">
         <v>600</v>
       </c>
-      <c r="D30" s="322" t="s">
+      <c r="D30" s="328" t="s">
         <v>572</v>
       </c>
-      <c r="E30" s="322"/>
-      <c r="F30" s="322"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
     </row>
@@ -16037,11 +16306,11 @@
       <c r="C31" s="118" t="s">
         <v>601</v>
       </c>
-      <c r="D31" s="322" t="s">
+      <c r="D31" s="328" t="s">
         <v>573</v>
       </c>
-      <c r="E31" s="322"/>
-      <c r="F31" s="322"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
     </row>
@@ -16053,11 +16322,11 @@
       <c r="C32" s="118" t="s">
         <v>602</v>
       </c>
-      <c r="D32" s="322" t="s">
+      <c r="D32" s="328" t="s">
         <v>574</v>
       </c>
-      <c r="E32" s="322"/>
-      <c r="F32" s="322"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="328"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
     </row>
@@ -16069,11 +16338,11 @@
       <c r="C33" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="D33" s="322" t="s">
+      <c r="D33" s="328" t="s">
         <v>482</v>
       </c>
-      <c r="E33" s="322"/>
-      <c r="F33" s="322"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="328"/>
       <c r="G33" s="17"/>
       <c r="H33" s="18"/>
     </row>
@@ -16085,11 +16354,11 @@
       <c r="C34" s="118" t="s">
         <v>615</v>
       </c>
-      <c r="D34" s="322" t="s">
+      <c r="D34" s="328" t="s">
         <v>575</v>
       </c>
-      <c r="E34" s="322"/>
-      <c r="F34" s="322"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
     </row>
@@ -16101,11 +16370,11 @@
       <c r="C35" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="D35" s="322" t="s">
+      <c r="D35" s="328" t="s">
         <v>576</v>
       </c>
-      <c r="E35" s="322"/>
-      <c r="F35" s="322"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
       <c r="G35" s="17"/>
       <c r="H35" s="18"/>
     </row>
@@ -16115,11 +16384,11 @@
       <c r="C36" s="118" t="s">
         <v>651</v>
       </c>
-      <c r="D36" s="319" t="s">
+      <c r="D36" s="329" t="s">
         <v>591</v>
       </c>
-      <c r="E36" s="320"/>
-      <c r="F36" s="321"/>
+      <c r="E36" s="330"/>
+      <c r="F36" s="331"/>
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
     </row>
@@ -16129,11 +16398,11 @@
       <c r="C37" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="D37" s="319" t="s">
+      <c r="D37" s="329" t="s">
         <v>652</v>
       </c>
-      <c r="E37" s="320"/>
-      <c r="F37" s="321"/>
+      <c r="E37" s="330"/>
+      <c r="F37" s="331"/>
       <c r="G37" s="17"/>
       <c r="H37" s="18"/>
     </row>
@@ -16143,11 +16412,11 @@
       <c r="C38" s="118" t="s">
         <v>653</v>
       </c>
-      <c r="D38" s="319" t="s">
+      <c r="D38" s="329" t="s">
         <v>655</v>
       </c>
-      <c r="E38" s="320"/>
-      <c r="F38" s="321"/>
+      <c r="E38" s="330"/>
+      <c r="F38" s="331"/>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
     </row>
@@ -16155,9 +16424,9 @@
       <c r="A39" s="16"/>
       <c r="B39" s="120"/>
       <c r="C39" s="118"/>
-      <c r="D39" s="319"/>
-      <c r="E39" s="320"/>
-      <c r="F39" s="321"/>
+      <c r="D39" s="329"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="331"/>
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
     </row>
@@ -16255,6 +16524,13 @@
     <row r="52" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
@@ -16264,13 +16540,6 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18033,28 +18302,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="361" t="s">
+      <c r="A1" s="373" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="363"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="375"/>
       <c r="G1" s="175"/>
       <c r="H1" s="175"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="376" t="s">
         <v>840</v>
       </c>
-      <c r="B2" s="365"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="364" t="s">
+      <c r="B2" s="377"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="376" t="s">
         <v>841</v>
       </c>
-      <c r="E2" s="365"/>
-      <c r="F2" s="366"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="378"/>
       <c r="G2" s="175"/>
       <c r="H2" s="175"/>
     </row>
@@ -18078,7 +18347,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="175"/>
-      <c r="H3" s="367" t="s">
+      <c r="H3" s="370" t="s">
         <v>844</v>
       </c>
     </row>
@@ -18102,7 +18371,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="175"/>
-      <c r="H4" s="368"/>
+      <c r="H4" s="371"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="176">
@@ -18124,7 +18393,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="175"/>
-      <c r="H5" s="368"/>
+      <c r="H5" s="371"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="179">
@@ -18146,7 +18415,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="175"/>
-      <c r="H6" s="368"/>
+      <c r="H6" s="371"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="179">
@@ -18168,7 +18437,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="175"/>
-      <c r="H7" s="368"/>
+      <c r="H7" s="371"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="182">
@@ -18190,7 +18459,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="175"/>
-      <c r="H8" s="368"/>
+      <c r="H8" s="371"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="182">
@@ -18212,7 +18481,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="175"/>
-      <c r="H9" s="368"/>
+      <c r="H9" s="371"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="185">
@@ -18234,7 +18503,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="175"/>
-      <c r="H10" s="369"/>
+      <c r="H10" s="372"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="188">
@@ -18256,7 +18525,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="175"/>
-      <c r="H11" s="370" t="s">
+      <c r="H11" s="361" t="s">
         <v>856</v>
       </c>
     </row>
@@ -18280,7 +18549,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="175"/>
-      <c r="H12" s="371"/>
+      <c r="H12" s="362"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="191">
@@ -18302,7 +18571,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="175"/>
-      <c r="H13" s="371"/>
+      <c r="H13" s="362"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="191">
@@ -18324,7 +18593,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="175"/>
-      <c r="H14" s="371"/>
+      <c r="H14" s="362"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="195">
@@ -18346,7 +18615,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="175"/>
-      <c r="H15" s="371"/>
+      <c r="H15" s="362"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="195">
@@ -18368,7 +18637,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="175"/>
-      <c r="H16" s="371"/>
+      <c r="H16" s="362"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="195">
@@ -18390,7 +18659,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="175"/>
-      <c r="H17" s="371"/>
+      <c r="H17" s="362"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="195">
@@ -18412,7 +18681,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="175"/>
-      <c r="H18" s="371"/>
+      <c r="H18" s="362"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="195">
@@ -18434,7 +18703,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="175"/>
-      <c r="H19" s="371"/>
+      <c r="H19" s="362"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="198">
@@ -18456,7 +18725,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="175"/>
-      <c r="H20" s="371"/>
+      <c r="H20" s="362"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="198">
@@ -18478,7 +18747,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="175"/>
-      <c r="H21" s="371"/>
+      <c r="H21" s="362"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="201">
@@ -18500,7 +18769,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="175"/>
-      <c r="H22" s="372"/>
+      <c r="H22" s="363"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1"/>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1"/>
@@ -18518,28 +18787,28 @@
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1"/>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="373" t="s">
+      <c r="A38" s="364" t="s">
         <v>953</v>
       </c>
-      <c r="B38" s="374"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="374"/>
-      <c r="E38" s="374"/>
-      <c r="F38" s="375"/>
+      <c r="B38" s="365"/>
+      <c r="C38" s="365"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="365"/>
+      <c r="F38" s="366"/>
       <c r="G38" s="175"/>
       <c r="H38" s="175"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="376" t="s">
+      <c r="A39" s="367" t="s">
         <v>840</v>
       </c>
-      <c r="B39" s="377"/>
-      <c r="C39" s="378"/>
-      <c r="D39" s="376" t="s">
+      <c r="B39" s="368"/>
+      <c r="C39" s="369"/>
+      <c r="D39" s="367" t="s">
         <v>841</v>
       </c>
-      <c r="E39" s="377"/>
-      <c r="F39" s="378"/>
+      <c r="E39" s="368"/>
+      <c r="F39" s="369"/>
       <c r="G39" s="175"/>
       <c r="H39" s="175"/>
     </row>
@@ -18563,7 +18832,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="175"/>
-      <c r="H40" s="367" t="s">
+      <c r="H40" s="370" t="s">
         <v>844</v>
       </c>
     </row>
@@ -18587,7 +18856,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="175"/>
-      <c r="H41" s="368"/>
+      <c r="H41" s="371"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="204">
@@ -18609,7 +18878,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="175"/>
-      <c r="H42" s="368"/>
+      <c r="H42" s="371"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="206">
@@ -18631,7 +18900,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="175"/>
-      <c r="H43" s="368"/>
+      <c r="H43" s="371"/>
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="206">
@@ -18653,7 +18922,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="175"/>
-      <c r="H44" s="368"/>
+      <c r="H44" s="371"/>
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="208">
@@ -18675,7 +18944,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="175"/>
-      <c r="H45" s="368"/>
+      <c r="H45" s="371"/>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="208">
@@ -18697,7 +18966,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="175"/>
-      <c r="H46" s="368"/>
+      <c r="H46" s="371"/>
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="210">
@@ -18719,7 +18988,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="175"/>
-      <c r="H47" s="369"/>
+      <c r="H47" s="372"/>
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="213">
@@ -18741,7 +19010,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="175"/>
-      <c r="H48" s="370" t="s">
+      <c r="H48" s="361" t="s">
         <v>856</v>
       </c>
     </row>
@@ -18765,7 +19034,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="175"/>
-      <c r="H49" s="371"/>
+      <c r="H49" s="362"/>
     </row>
     <row r="50" spans="1:8" ht="16.5" thickBot="1">
       <c r="A50" s="215">
@@ -18787,7 +19056,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="175"/>
-      <c r="H50" s="371"/>
+      <c r="H50" s="362"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" thickBot="1">
       <c r="A51" s="218">
@@ -18809,7 +19078,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="175"/>
-      <c r="H51" s="371"/>
+      <c r="H51" s="362"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickBot="1">
       <c r="A52" s="218">
@@ -18831,7 +19100,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="175"/>
-      <c r="H52" s="371"/>
+      <c r="H52" s="362"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" thickBot="1">
       <c r="A53" s="218">
@@ -18853,7 +19122,7 @@
         <v>14</v>
       </c>
       <c r="G53" s="175"/>
-      <c r="H53" s="371"/>
+      <c r="H53" s="362"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" thickBot="1">
       <c r="A54" s="218">
@@ -18875,7 +19144,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="175"/>
-      <c r="H54" s="371"/>
+      <c r="H54" s="362"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" thickBot="1">
       <c r="A55" s="218">
@@ -18897,7 +19166,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="175"/>
-      <c r="H55" s="371"/>
+      <c r="H55" s="362"/>
     </row>
     <row r="56" spans="1:8" ht="16.5" thickBot="1">
       <c r="A56" s="218">
@@ -18919,7 +19188,7 @@
         <v>17</v>
       </c>
       <c r="G56" s="175"/>
-      <c r="H56" s="371"/>
+      <c r="H56" s="362"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" thickBot="1">
       <c r="A57" s="220">
@@ -18941,7 +19210,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="175"/>
-      <c r="H57" s="371"/>
+      <c r="H57" s="362"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" thickBot="1">
       <c r="A58" s="220">
@@ -18963,7 +19232,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="175"/>
-      <c r="H58" s="371"/>
+      <c r="H58" s="362"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" thickBot="1">
       <c r="A59" s="222">
@@ -18985,21 +19254,21 @@
         <v>20</v>
       </c>
       <c r="G59" s="175"/>
-      <c r="H59" s="372"/>
+      <c r="H59" s="363"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H3:H10"/>
+    <mergeCell ref="H11:H22"/>
     <mergeCell ref="H48:H59"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="H40:H47"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="H11:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19566,40 +19835,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="319" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="325"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="321"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="326"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="328"/>
+      <c r="A2" s="322"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="324"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="325" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330" t="s">
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="331"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="327"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1">
       <c r="A4" s="12">

--- a/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
+++ b/COMMUNICATIONS/TRMA Frequency and callsign master list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -3794,9 +3794,6 @@
     <t>#IFF:5613FR</t>
   </si>
   <si>
-    <t>128.22</t>
-  </si>
-  <si>
     <t>AN/ARC-159 PILOT</t>
   </si>
   <si>
@@ -4035,6 +4032,9 @@
   </si>
   <si>
     <t>JOKKMOKK</t>
+  </si>
+  <si>
+    <t>128.4</t>
   </si>
 </sst>
 </file>
@@ -6687,9 +6687,22 @@
     <xf numFmtId="49" fontId="47" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6699,16 +6712,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6720,50 +6766,17 @@
     <xf numFmtId="0" fontId="24" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <align